--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>LDAP</t>
   </si>
@@ -174,7 +174,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -189,17 +189,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -496,19 +499,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="88.42578125" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,6 +529,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="LDAP!A1" display="LDAP"/>
+    <hyperlink ref="C1" location="Topics!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -527,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -551,10 +565,10 @@
       <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
@@ -562,16 +576,16 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="LDAP" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="JSON" sheetId="3" r:id="rId3"/>
+    <sheet name="Swagger" sheetId="4" r:id="rId4"/>
+    <sheet name="Apiary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
   <si>
     <t>LDAP</t>
   </si>
@@ -43,13 +45,629 @@
   </si>
   <si>
     <t>Definitions</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>JSON - Javascript Object Notation - Topics</t>
+  </si>
+  <si>
+    <t>JSON Basics</t>
+  </si>
+  <si>
+    <t>JSON with Java</t>
+  </si>
+  <si>
+    <t>JSON with javascript</t>
+  </si>
+  <si>
+    <t>JSON with Ajax</t>
+  </si>
+  <si>
+    <t>JSON with Jquery + Ajax</t>
+  </si>
+  <si>
+    <t>JSON - Jenkov</t>
+  </si>
+  <si>
+    <t>http://tutorials.jenkov.com/java-json/index.html</t>
+  </si>
+  <si>
+    <t>Information about JSON</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. JSON stands for Javascript Object Notation
+2. The format was specified by Douglas Crockford.
+3. It was designed for human-readable data interchange.
+4. It has been extended from the JavaScript scripting language.
+5. The filename extension is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+6. JSON Internet Media type: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>application/json.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7. The Uniform Type Identifier is public.json.</t>
+    </r>
+  </si>
+  <si>
+    <t>Uses of JSON</t>
+  </si>
+  <si>
+    <t>1. It is used while writing JavaScript based applications that includes browser extensions and websites.
+2. JSON format is used for serializing and transmitting structured data over network connection.
+3. It is primarily used to transmit data between a server and web applications.
+4. Web services and APIs use JSON format to provide public data.
+5. It can be used with modern programming languages.</t>
+  </si>
+  <si>
+    <t>Characteristics of JSON</t>
+  </si>
+  <si>
+    <t>1. JSON is easy to read and write.
+2. It is a lightweight text-based interchange format.
+3. JSON is language independent</t>
+  </si>
+  <si>
+    <t>Reading JSON object in html</t>
+  </si>
+  <si>
+    <t>&lt;script language="javascript" &gt;
+   var object1 = { "language" : "Java", "author" : "herbert schildt" };
+   document.write("&lt;h3&gt;Language = " + object1.language+"&lt;/h3&gt;");
+   document.write("&lt;h3&gt;Author = " + object1.author+"&lt;/h3&gt;");
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>JSON syntax rules</t>
+  </si>
+  <si>
+    <t>1. Data is represented in name/value pairs.
+2. Curly braces hold objects and each name is followed by ':'(colon), the name/value pairs are separated by , (comma).
+3. Square brackets hold arrays and values are separated by ,(comma).</t>
+  </si>
+  <si>
+    <t>Sample JSON file</t>
+  </si>
+  <si>
+    <t>{
+       "book": [
+                         {"id":"01","language": "Java","edition": "third","author": "Herbert Schildt"},
+                         {"id":"07","language": "C++","edition": "second""author": "E.Balagurusamy"}
+                       ]
+}</t>
+  </si>
+  <si>
+    <t>JSON supports the following two data structures</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collection of name/value pairs:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This Data Structure is supported by different programming languages
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ordered list of values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It includes array, list, vector or sequence etc</t>
+    </r>
+  </si>
+  <si>
+    <t>Data types</t>
+  </si>
+  <si>
+    <t>Number:double- precision floating-point format in JavaScript
+String: double-quoted Unicode with backslash escaping
+Boolean: true or false
+Array: an ordered sequence of values
+Value: it can be a string, a number, true or false, null etc
+Object: an unordered collection of key:value pairs
+Whitespace: can be used between any pair of tokens
+null: empty</t>
+  </si>
+  <si>
+    <t>JSON number data type syntax</t>
+  </si>
+  <si>
+    <t>var json-object-name = { string : number_value, .......}</t>
+  </si>
+  <si>
+    <t>Number data type example</t>
+  </si>
+  <si>
+    <t>var obj = {marks: 97}</t>
+  </si>
+  <si>
+    <t>string data type syntax</t>
+  </si>
+  <si>
+    <t>var json-object-name = { string : "string value", .......}</t>
+  </si>
+  <si>
+    <t>Ex: var obj = {"name": "Amit"}</t>
+  </si>
+  <si>
+    <t>boolean syntax</t>
+  </si>
+  <si>
+    <t>var json-object-name = { string : true/false, .......}</t>
+  </si>
+  <si>
+    <t>Ex: var obj = {name: 'Amit', marks: 97, distinction: true}</t>
+  </si>
+  <si>
+    <t>Json Array</t>
+  </si>
+  <si>
+    <t>It is an ordered collection of values.
+These are enclosed in square brackets which means that array begins with .[. and ends with .]..
+The values are separated by , (comma).
+Array indexing can be started at 0 or 1.
+Arrays should be used when the key names are sequential integers</t>
+  </si>
+  <si>
+    <t>json array syntax</t>
+  </si>
+  <si>
+    <t>[ value, .......]</t>
+  </si>
+  <si>
+    <t>json array example</t>
+  </si>
+  <si>
+    <t>{
+"books": [
+                    { "language":"Java" , "edition":"second" },
+                    { "language":"C++" , "lastName":"fifth" },
+                    { "language":"C" , "lastName":"third" }
+                   ]
+}</t>
+  </si>
+  <si>
+    <t>json object</t>
+  </si>
+  <si>
+    <t>It is an unordered set of name/value pairs.
+Objects are enclosed in curly braces that is, it starts with '{' and ends with '}'.
+Each name is followed by ':'(colon) and the name/value pairs are separated by , (comma).
+The keys must be strings and should be different from each other.
+Objects should be used when the key names are arbitrary strings</t>
+  </si>
+  <si>
+    <t>json object example</t>
+  </si>
+  <si>
+    <t>{
+"id": "011A",
+"language": "JAVA",
+"price": 500,
+}</t>
+  </si>
+  <si>
+    <t>Reading array of json objects in javascript</t>
+  </si>
+  <si>
+    <t>var books = { "java" : [
+   {"name" : "Head First java", "price" : 100},
+   {"name" : "Head First Servlets and JSP", "price" : 200} 
+  ],
+  "javascript" : [
+   {"name" : "head First javascript", "price" : 300},
+   {"name" : "javascript in action", "price" : 400}
+  ]
+  };</t>
+  </si>
+  <si>
+    <t>for (var i = books.java.length-1; i &gt;= 0; i--) {
+   document.write("&lt;h3&gt;Name: "+books.java[i].name+", Price: "+books.java[i].price);
+   document.write("&lt;br/&gt;") 
+  }
+  document.write("&lt;hr/&gt;")
+  for (var i = books.javascript.length-1; i &gt;= 0; i--) {
+   document.write("&lt;h3&gt;Name: "+books.javascript[i].name+", Price: "+books.javascript[i].price); 
+  };</t>
+  </si>
+  <si>
+    <t>JSON vs XML</t>
+  </si>
+  <si>
+    <t>1. JSON and XML are human readable formats and are language independent. They both have support for creation, reading and decoding in real world situations
+2. Verbose: XML is more verbose than JSON, so it is faster to write JSON for programmers
+3. Arrays: XML is used to describe the structured data, which doesn't include arrays whereas JSON include arrays
+4. Parsing: JavaScript's eval method parses JSON. When applied to JSON, eval returns the described object</t>
+  </si>
+  <si>
+    <t>JSON example</t>
+  </si>
+  <si>
+    <t>{
+"company": Volkswagen,
+"name": "Vento",
+"price": 800000
+}</t>
+  </si>
+  <si>
+    <t>XML Example</t>
+  </si>
+  <si>
+    <t>&lt;car&gt;
+&lt;company&gt;Volkswagen&lt;/company&gt;
+&lt;name&gt;Vento&lt;/name&gt;
+&lt;price&gt;800000&lt;/price&gt;
+&lt;/car&gt;</t>
+  </si>
+  <si>
+    <t>what is JSON.simple</t>
+  </si>
+  <si>
+    <t>JSON.simple is a simple Java toolkit for JSON. You can use JSON.simple to encode or decode JSON text</t>
+  </si>
+  <si>
+    <t>Getting starter JSON.simple</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You need to put the latest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>json-simple-1.1.1.jar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in your CLASSPATH before compiling and running the example codes</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON.simple </t>
+  </si>
+  <si>
+    <t>https://code.google.com/p/json-simple/</t>
+  </si>
+  <si>
+    <t>Want to generate some sample json data for testing</t>
+  </si>
+  <si>
+    <t>http://www.json-generator.com/</t>
+  </si>
+  <si>
+    <t>Different APIs to play with JSON</t>
+  </si>
+  <si>
+    <t>1. GSON
+2. Simple JSON
+3. Jackson</t>
+  </si>
+  <si>
+    <t>Jackson 1.x</t>
+  </si>
+  <si>
+    <t>org.codehaus.jackson.map</t>
+  </si>
+  <si>
+    <t>Jackson 2.x</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.databind</t>
+  </si>
+  <si>
+    <t>Jackson 2 Dependency</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+ &lt;groupId&gt;com.fasterxml.jackson.core&lt;/groupId&gt;
+ &lt;artifactId&gt;jackson-databind&lt;/artifactId&gt;
+ &lt;version&gt;2.6.3&lt;/version&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>For Jackson 2.x, declares jackson-databind, it will download its dependencies – jackson-core and jackson-annotations</t>
+  </si>
+  <si>
+    <t>Convert Java object to JSON, writeValue(...)</t>
+  </si>
+  <si>
+    <t>ObjectMapper mapper = new ObjectMapper();
+Staff obj = new Staff();
+//Object to JSON in file
+mapper.writeValue(new File("c:\\file.json"), obj);
+//Object to JSON in String
+String jsonInString = mapper.writeValueAsString(obj);</t>
+  </si>
+  <si>
+    <t>Convert JSON to Java object, readValue(...)</t>
+  </si>
+  <si>
+    <t>ObjectMapper mapper = new ObjectMapper();
+String jsonInString = "{'name' : 'mkyong'}";
+//JSON from file to Object
+Staff obj = mapper.readValue(new File("c:\\file.json"), Staff.class);
+//JSON from URL to Object
+Staff obj = mapper.readValue(new URL("http://mkyong.com/api/staff.json"), Staff.class);
+//JSON from String to Object
+Staff obj = mapper.readValue(jsonInString, Staff.class);</t>
+  </si>
+  <si>
+    <t>Some important classes in Jackson</t>
+  </si>
+  <si>
+    <t>Staff.java</t>
+  </si>
+  <si>
+    <t>import java.math.BigDecimal;
+import java.util.List;
+public class Staff {
+ private String name;
+ private int age;
+ private String position;
+ private BigDecimal salary;
+ private List&lt;String&gt; skills;
+ //getters and setters</t>
+  </si>
+  <si>
+    <t>// create staff object using above class
+// Convert object to JSON string and save into a file directly
+   mapper.writeValue(new File("D:\\staff.json"), staff);</t>
+  </si>
+  <si>
+    <t>// Convert object to JSON string
+   String jsonInString = mapper.writeValueAsString(staff);
+   System.out.println(jsonInString);</t>
+  </si>
+  <si>
+    <t>// Convert object to JSON string and pretty print
+   String jsonInString = mapper.writerWithDefaultPrettyPrinter().writeValueAsString(staff);
+   System.out.println(jsonInString);</t>
+  </si>
+  <si>
+    <t>Convert a Staff object into a JSON formatted string -&gt;
+ObjectMapper mapper = new ObjectMapper();</t>
+  </si>
+  <si>
+    <t>Read JSON string and convert it back to a Java object -&gt;
+ObjectMapper mapper = new ObjectMapper();</t>
+  </si>
+  <si>
+    <t>// Convert JSON string from file to Object
+   Staff staff = mapper.readValue(new File("D:\\staff.json"), Staff.class);
+   System.out.println(staff);</t>
+  </si>
+  <si>
+    <t>// Convert JSON string to Object
+   String jsonInString = "{\"name\":\"donthu\",\"salary\":7500,\"skills\":[\"java\",\"python\"]}";
+   Staff staff1 = mapper.readValue(jsonInString, Staff.class);
+   System.out.println(staff1);</t>
+  </si>
+  <si>
+    <t>//Pretty print
+   String prettyStaff1 = mapper.writerWithDefaultPrettyPrinter().writeValueAsString(staff1);
+   System.out.println(prettyStaff1);</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core.JsonGenerationException;
+com.fasterxml.jackson.databind.JsonMappingException;
+com.fasterxml.jackson.databind.ObjectMapper;
+com.fasterxml.jackson.annotation.JsonView;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonView</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonView, useful feature, it lets you control what fields to display.
+A simple class, do nothing, just define two views (static classes as members)</t>
+  </si>
+  <si>
+    <t>Views.java</t>
+  </si>
+  <si>
+    <t>For “Normal view”, salary will be hidden, for “Manager view”, display everything -&gt; Staff.java</t>
+  </si>
+  <si>
+    <t>To enable the @JsonView features, use the following methods :
+1. mapper.writerWithView(“view class”).writeValue()
+2. mapper.readerWithView(“view class”).readValue()</t>
+  </si>
+  <si>
+    <t>// Salary will be hidden
+   System.out.println("Normal View");
+   String normalView = mapper.writerWithView(Views.Normal.class).writeValueAsString(staff);
+   System.out.println(normalView);</t>
+  </si>
+  <si>
+    <t>String jsonInString = "{\"name\":\"mkyong\",\"age\":33,\"position\":\"Developer\",\"salary\":7500,\"skills\":[\"java\",\"python\"]}";
+   Staff normalStaff = mapper.readerWithView(Views.Normal.class).forType(Staff.class).readValue(jsonInString);
+   System.out.println(normalStaff);</t>
+  </si>
+  <si>
+    <t>// Display everything
+   System.out.println("\nManager View");
+   String managerView = mapper.writerWithView(Views.Manager.class).writeValueAsString(staff);
+   System.out.println(managerView);</t>
+  </si>
+  <si>
+    <t>Staff managerStaff = mapper.readerWithView(Views.Manager.class).forType(Staff.class).readValue(jsonInString);
+   System.out.println(managerStaff);</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Normal View
+{"name":"mkyong","age":33,"position":"Developer","skills":["java","python"]}
+Staff [name=mkyong, age=33, position=Developer, salary=null, skills=[java, python]]
+Manager View
+{"name":"mkyong","age":33,"position":"Developer","salary":7500,"skills":["java","python"]}
+Staff [name=mkyong, age=33, position=Developer, salary=7500, skills=[java, python]]</t>
+  </si>
+  <si>
+    <t>Convert a JSON Array format to a Java List object</t>
+  </si>
+  <si>
+    <t>String json = "[{\"name\":\"mkyong\"}, {\"name\":\"laplap\"}]";
+List&lt;Staff&gt; list = mapper.readValue(json, new TypeReference&lt;List&lt;Staff&gt;&gt;(){});</t>
+  </si>
+  <si>
+    <t>Convert a JSON to a Map</t>
+  </si>
+  <si>
+    <t>String json = "{\"name\":\"mkyong\", \"age\":33}";
+Map&lt;String, Object&gt; map = mapper.readValue(json, new TypeReference&lt;Map&lt;String,Object&gt;&gt;(){});</t>
+  </si>
+  <si>
+    <t>How to create or update a JsonNode?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>images\x_JSON\1_Jackson_JSON_TreeModel.docx</t>
+    </r>
+  </si>
+  <si>
+    <t>import java.math.BigDecimal;
+import java.util.List;
+import com.fasterxml.jackson.annotation.JsonView;
+public class Staff {
+ @JsonView(Views.Normal.class)  private String name;
+ @JsonView(Views.Normal.class) private int age;
+ @JsonView(Views.Normal.class) private String position;
+ @JsonView(Views.Manager.class) private BigDecimal salary;
+ @JsonView(Views.Normal.class) private List&lt;String&gt; skills;</t>
+  </si>
+  <si>
+    <t>public class Views {
+ public static class Normal{};
+ public static class Manager extends Normal{};
+}</t>
+  </si>
+  <si>
+    <t>List&lt;MyClass&gt; myObjects = mapper.readValue(jsonInput, mapper.getTypeFactory().constructCollectionType(List.class, MyClass.class));</t>
+  </si>
+  <si>
+    <t>Swagger</t>
+  </si>
+  <si>
+    <t>Apiary</t>
+  </si>
+  <si>
+    <t>What is Apiary</t>
+  </si>
+  <si>
+    <t>Web based tool to capture the blueprint of REST API and share it with delivery teams</t>
+  </si>
+  <si>
+    <t>Apiary URL</t>
+  </si>
+  <si>
+    <t>https://apiary.io/</t>
+  </si>
+  <si>
+    <t>1. REST API documentation tool
+2. Swagger user JSON to describe the API</t>
+  </si>
+  <si>
+    <t>Quick start</t>
+  </si>
+  <si>
+    <t>https://help.apiary.io/api_101/understanding-apiary/?utm_source=intercom&amp;utm_medium=in-app%20message&amp;utm_content=version%20A&amp;utm_campaign=Drip%20Campaign</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +695,29 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,7 +815,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -182,6 +823,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,8 +861,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,11 +1171,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,7 +1186,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -524,12 +1196,30 @@
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="LDAP!A1" display="LDAP"/>
     <hyperlink ref="C1" location="Topics!A2" display="Up"/>
+    <hyperlink ref="A3" location="JSON!A1" display="JSON"/>
+    <hyperlink ref="A4" location="Swagger!A1" display="Swagger"/>
+    <hyperlink ref="A5" location="Apiary!A1" display="Apiary"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -539,9 +1229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -559,16 +1249,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
@@ -576,22 +1266,22 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -615,12 +1305,639 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="64.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="123.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="105">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="75">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75">
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="90">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="120">
+      <c r="A19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="75">
+      <c r="A26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="105">
+      <c r="A28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="75">
+      <c r="A29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="75">
+      <c r="A30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="135">
+      <c r="A31" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="120">
+      <c r="A32" s="19"/>
+      <c r="B32" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="75">
+      <c r="A33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="75">
+      <c r="A34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="75">
+      <c r="A35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="75">
+      <c r="A42" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="120">
+      <c r="A44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="165">
+      <c r="A45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="60">
+      <c r="A46" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="165">
+      <c r="A47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="17"/>
+      <c r="B49" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="17"/>
+      <c r="B50" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="60">
+      <c r="A52" s="17"/>
+      <c r="B52" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="17"/>
+      <c r="B53" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="60">
+      <c r="A55" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="135">
+      <c r="A56" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="60">
+      <c r="A57" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="18"/>
+      <c r="B58" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="60">
+      <c r="A59" s="18"/>
+      <c r="B59" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="18"/>
+      <c r="B60" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="105">
+      <c r="A61" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30">
+      <c r="A64" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A42:A43"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="JSON!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B38" r:id="rId2"/>
+    <hyperlink ref="B39" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="121.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Swagger!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="72.140625" customWidth="1"/>
+    <col min="2" max="2" width="114.28515625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Apiary!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -843,6 +843,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -872,9 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1175,7 +1175,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1249,16 +1249,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
@@ -1266,22 +1266,22 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1307,9 +1307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1327,10 +1327,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1366,10 +1366,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -1460,7 +1460,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1468,13 +1468,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1482,7 +1482,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="6" t="s">
         <v>43</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1536,7 +1536,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="6" t="s">
         <v>56</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="17"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="6" t="s">
         <v>79</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -1668,19 +1668,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="17"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="17"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -1688,13 +1688,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="17"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="17"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="6" t="s">
         <v>94</v>
       </c>
@@ -1724,7 +1724,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -1732,19 +1732,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="18"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="18"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="18"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="6" t="s">
         <v>104</v>
       </c>
@@ -1758,7 +1758,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="19" t="s">
         <v>107</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -1766,7 +1766,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="18"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="6" t="s">
         <v>115</v>
       </c>
@@ -1816,9 +1816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1836,16 +1836,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" t="s">
@@ -1892,24 +1892,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -1923,7 +1923,7 @@
       <c r="A10" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="11" t="s">
         <v>121</v>
       </c>
     </row>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="JSON" sheetId="3" r:id="rId3"/>
     <sheet name="Swagger" sheetId="4" r:id="rId4"/>
     <sheet name="Apiary" sheetId="5" r:id="rId5"/>
+    <sheet name="Jenkins" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="182">
   <si>
     <t>LDAP</t>
   </si>
@@ -661,6 +662,319 @@
   </si>
   <si>
     <t>https://help.apiary.io/api_101/understanding-apiary/?utm_source=intercom&amp;utm_medium=in-app%20message&amp;utm_content=version%20A&amp;utm_campaign=Drip%20Campaign</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Jenkins introduction</t>
+  </si>
+  <si>
+    <t>1. Build tool to automate builds running like 
+1.1. CI - Continuous integration - compiling the source files
+1.2. QA - generating jar, war, ear
+1.3. executing test cases
+1.4. Triggering mails based on our configurations (once builds completed, build failures)</t>
+  </si>
+  <si>
+    <t>https://wiki.jenkins-ci.org/display/JENKINS/Meet+Jenkins</t>
+  </si>
+  <si>
+    <t>Advantages of using Jenkins</t>
+  </si>
+  <si>
+    <t>1. We can automate calling these ant target from Jenkins
+2. Jenkins can poll version control tool (SVN/CVS/Github/BitBucket) for configured time periods and trigger builds automatically if any code changes are found. 
+3. We can Schedule the builds</t>
+  </si>
+  <si>
+    <t>SCM in Jenkins means</t>
+  </si>
+  <si>
+    <t>Source Code Management</t>
+  </si>
+  <si>
+    <t>Ex: None, SVN, CVS, Github</t>
+  </si>
+  <si>
+    <t>Build tools</t>
+  </si>
+  <si>
+    <t>Ant, Maven</t>
+  </si>
+  <si>
+    <t>Other tools we can use to run using Jenkins</t>
+  </si>
+  <si>
+    <t>1. windows batch file 
+2. shell script</t>
+  </si>
+  <si>
+    <t>Before Jenkins it's name is "Hudson". What Hudson means?</t>
+  </si>
+  <si>
+    <t>The name Hudson is an American baby name. In American the meaning of the name Hudson is: Son of the hooded man. People with this name have a deep inner desire to serve humanity and to give to others by sharing money, knowledge and experience, or creative and artistic ability</t>
+  </si>
+  <si>
+    <t>How to start jenkins</t>
+  </si>
+  <si>
+    <t>1. Using jenkins.war file
+2. using jenkins.jnlp file</t>
+  </si>
+  <si>
+    <t>Using jenkins.war</t>
+  </si>
+  <si>
+    <t>The easiest way to execute Jenkins is through the built in Jetty-winstone servlet container. You can execute Jenkins like this:
+1. Download jenkins.war
+2. run "java -jar jenkins.war" from command prompt
+3. open "http://localhost:8080"</t>
+  </si>
+  <si>
+    <t>Deploy jenkins.war in Tomcat and run from tomcat</t>
+  </si>
+  <si>
+    <t>some command line parameters while starting jenkins</t>
+  </si>
+  <si>
+    <t>java -jar jenkins.war --httpPort=10000 --prefix=/jenkins</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if jenkins is started above, we have to access as: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://localhost:10000/jenkins/</t>
+    </r>
+  </si>
+  <si>
+    <t>For more command line options refer link at line 110</t>
+  </si>
+  <si>
+    <t>using jenkins.jnlp</t>
+  </si>
+  <si>
+    <t>How to run jenkins.jnlp using java webstart - javaws
+1. Download "jenkins.jnlp" file
+2. run "javaws jenkins.jnlp"
+3. open "http://localhost:8080"</t>
+  </si>
+  <si>
+    <t>What is JNLP file</t>
+  </si>
+  <si>
+    <t>The Java Network Launch Protocol (JNLP) enables an application to be launched on a client desktop by using resources that are hosted on a remote web server. Java Plug-in software and Java Web Start software are considered JNLP clients because they can launch remotely hosted applets and applications on a client desktop</t>
+  </si>
+  <si>
+    <t>Jenkins wiki page</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jenkins_(software)</t>
+  </si>
+  <si>
+    <t>How to start Jenkins</t>
+  </si>
+  <si>
+    <t>https://wiki.jenkins-ci.org/display/JENKINS/Starting+and+Accessing+Jenkins</t>
+  </si>
+  <si>
+    <t>Building software project in jenkins</t>
+  </si>
+  <si>
+    <t>https://wiki.jenkins-ci.org/display/JENKINS/Building+a+software+project</t>
+  </si>
+  <si>
+    <t>using Jenkins</t>
+  </si>
+  <si>
+    <t>https://wiki.jenkins-ci.org/display/JENKINS/Use+Jenkins</t>
+  </si>
+  <si>
+    <t>Jenkins home page</t>
+  </si>
+  <si>
+    <t>https://jenkins-ci.org/</t>
+  </si>
+  <si>
+    <t>Different configurations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#Jenkins - #SCM - #build tool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jenkins - None - Ant
+Jenkins - None - Maven
+Jenkins - Github - Ant
+Jenkins - Github - Maven
+Jenkins - SVN - Ant
+Jenkins - SVN - Maven
+Jenkins - None - Batch - Ant
+Jenkins - None - Batch - Maven
+Jenkins - SVN - Batch - Ant
+Jekins - SVN - Batch - Maven
+Jenkins - Github - Batch - Ant
+Jenkins - Github - Batch - Maven</t>
+    </r>
+  </si>
+  <si>
+    <t>Jenkins - Github - Maven(pom.xml) steps</t>
+  </si>
+  <si>
+    <t>1. Git binaries installation
+2. Jenkins Installation
+3. Jenkins Github plugin installation
+4. Jenkins, Maven and Git configuration
+5. Testing the configuration with Github maven project</t>
+  </si>
+  <si>
+    <t>Jenkins Github plugin installation</t>
+  </si>
+  <si>
+    <t>open jenkins(http://localhost:8080/jenkins) -&gt; Manage Jenkins -&gt; Manage Plugins -&gt; Available -&gt; enter github in Filter field -&gt;
+ Select "GitHub plugin" -&gt; click "Download now and install after restart" -&gt; wait until add plugins are downloaded -&gt; restart the server</t>
+  </si>
+  <si>
+    <t>Jenkins,Ant, Maven, Git configuration</t>
+  </si>
+  <si>
+    <t>open jenkins (http://localhost:8080/jenkins) -&gt; Manage Jenkins -&gt; Cofigure System -&gt; in JDK section click "Add JDK" button -&gt; uncheck "Install automatically -&gt;
+ Enter JDK name (Ex: localJDK) -&gt; enter "JAVA_HOME" value -&gt; In the Git section click "Git Installations" button -&gt; Enter Name (Ex: localGIT) -&gt;
+ Enter "Path to Git executable" as git.exe (we can give git.exe because git/bin added to path environment variable) -&gt; 
+ In the Ant section click "Add Ant" button -&gt; uncheck "Install automatically" option -&gt; Enter "Ant Name" (Ex: localAnt) -&gt; 
+ Enter "ANT_HOME" to the ant installation -&gt; In the Maven section click "add MAven" button -&gt; uncheck "Install automatically" option -&gt;
+ Enter Maven Name (Ex: localMaven) -&gt; Enter MAVEN_HOME -&gt; click "Apply" -&gt; click "Save"</t>
+  </si>
+  <si>
+    <t>Testing the configuration with Github maven project</t>
+  </si>
+  <si>
+    <t>login to Github -&gt; open maven project you want to build -&gt; copy HTTPS url -&gt; Go to Jenkins -&gt; click "New Job" link -&gt; 
+ Enter "Item Name" (Ex: Jenkins-Git-Maven) -&gt; select "Freestyle project" -&gt; click Ok -&gt; Enter "Description" if you want -&gt;
+ In the source code management section select "Git" -&gt; Enter "Repository URL" copied above -&gt; Enter "Credentials" if you want -&gt;
+ In the Build section -&gt; select "Invoke top-level Maven targets" -&gt; Enter the goal (Ex: package) -&gt; click "Advanced" -&gt; 
+ enter "POM" (directory where pom.xml is located) (Ex: ProjectName\pom.xml) -&gt; click "Apply" -&gt; click "Save" -&gt;
+ Go to jenkins home page -&gt; Schedule a build -&gt; Build should be successful</t>
+  </si>
+  <si>
+    <t>Executing ant builds with Github using build.xml</t>
+  </si>
+  <si>
+    <t>Add new Job and set as above</t>
+  </si>
+  <si>
+    <t>URL Options</t>
+  </si>
+  <si>
+    <t>http://[jenkins-server]/[command]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">where [command] can be:
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : shutdown jenkins
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>restart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : restart jenkins
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reload</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : to reload the configuration</t>
+    </r>
+  </si>
+  <si>
+    <t>Executing post build tasks</t>
+  </si>
+  <si>
+    <t>https://wiki.jenkins-ci.org/display/JENKINS/Post+build+task</t>
+  </si>
+  <si>
+    <t>Email configuration in Jenkins</t>
+  </si>
+  <si>
+    <t>http://roadtoautomation.blogspot.in/2013/06/road-to-email-configuration-in-jenkins.html</t>
   </si>
 </sst>
 </file>
@@ -749,7 +1063,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -807,6 +1121,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -815,7 +1138,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -846,6 +1169,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,6 +1206,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1171,11 +1512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1213,6 +1554,11 @@
         <v>117</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="LDAP!A1" display="LDAP"/>
@@ -1220,6 +1566,7 @@
     <hyperlink ref="A3" location="JSON!A1" display="JSON"/>
     <hyperlink ref="A4" location="Swagger!A1" display="Swagger"/>
     <hyperlink ref="A5" location="Apiary!A1" display="Apiary"/>
+    <hyperlink ref="A6" location="Jenkins!A1" display="Jenkins"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1249,16 +1596,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
@@ -1266,22 +1613,22 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1307,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
@@ -1327,10 +1674,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1366,10 +1713,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -1460,7 +1807,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1468,13 +1815,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1482,7 +1829,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="6" t="s">
         <v>43</v>
       </c>
@@ -1528,7 +1875,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1536,7 +1883,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="20"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="6" t="s">
         <v>56</v>
       </c>
@@ -1614,7 +1961,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1622,7 +1969,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="18"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="6" t="s">
         <v>79</v>
       </c>
@@ -1660,7 +2007,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -1668,19 +2015,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="18"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="18"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="21" t="s">
         <v>91</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -1688,13 +2035,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="18"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="18"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="6" t="s">
         <v>94</v>
       </c>
@@ -1724,7 +2071,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="22" t="s">
         <v>100</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -1732,19 +2079,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="19"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="19"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="19"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="6" t="s">
         <v>104</v>
       </c>
@@ -1758,7 +2105,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="22" t="s">
         <v>107</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -1766,7 +2113,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="19"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="6" t="s">
         <v>115</v>
       </c>
@@ -1836,16 +2183,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" t="s">
@@ -1874,7 +2221,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1892,10 +2239,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -1906,10 +2253,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -1940,4 +2287,303 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="127.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:2" ht="75">
+      <c r="A10" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60">
+      <c r="A12" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="26"/>
+    </row>
+    <row r="24" spans="1:2" ht="60">
+      <c r="A24" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="195">
+      <c r="A31" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="75">
+      <c r="A32" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="120">
+      <c r="A34" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="90">
+      <c r="A35" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="25"/>
+      <c r="B38" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B26" r:id="rId1"/>
+    <hyperlink ref="B27" r:id="rId2"/>
+    <hyperlink ref="B28" r:id="rId3"/>
+    <hyperlink ref="B29" r:id="rId4"/>
+    <hyperlink ref="B30" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B37" r:id="rId7"/>
+    <hyperlink ref="B39" r:id="rId8"/>
+    <hyperlink ref="B40" r:id="rId9"/>
+    <hyperlink ref="B1" location="Jenkins!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Swagger" sheetId="4" r:id="rId4"/>
     <sheet name="Apiary" sheetId="5" r:id="rId5"/>
     <sheet name="Jenkins" sheetId="6" r:id="rId6"/>
+    <sheet name="SAML" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="190">
   <si>
     <t>LDAP</t>
   </si>
@@ -975,6 +976,74 @@
   </si>
   <si>
     <t>http://roadtoautomation.blogspot.in/2013/06/road-to-email-configuration-in-jenkins.html</t>
+  </si>
+  <si>
+    <t>SAML</t>
+  </si>
+  <si>
+    <t>SAML 2.0</t>
+  </si>
+  <si>
+    <t>Security Assertion Markup Language 2.0 (SAML 2.0) is a version of the SAML standard for exchanging authentication and authorization data between security domains. SAML 2.0 is an XML-based protocol that uses security tokens containing assertions to pass information about a principal (usually an end user) between a SAML authority, that is, an identity provider, and a SAML consumer, that is, a service provider. SAML 2.0 enables web-based authentication and authorization scenarios including cross-domain single sign-on (SSO), which helps reduce the administrative overhead of distributing multiple authentication tokens to the user</t>
+  </si>
+  <si>
+    <t>OASIS</t>
+  </si>
+  <si>
+    <t>Organization for the Advancement of Structured Information Standards</t>
+  </si>
+  <si>
+    <t>Note on SAML 2.0</t>
+  </si>
+  <si>
+    <t>Some 30 individuals from more than two dozen companies and organizations were involved in the creation of SAML 2.0. In particular, and of special note, Liberty Alliance donated its Identity Federation Framework (ID-FF) specification to OASIS, which became the basis of the SAML 2.0 specification. Thus SAML 2.0 represents the convergence of SAML 1.1, Liberty ID-FF 1.2, and Shibboleth 1.3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SAML 2.0 was ratified as an OASIS Standard in March 2005, replacing SAML 1.1. The critical aspects of SAML 2.0 are covered in detail in the official documents </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SAMLConform, SAMLCore, SAMLBind </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAMLProf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1138,7 +1207,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1178,6 +1247,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1216,6 +1291,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1512,11 +1590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1559,6 +1637,11 @@
         <v>125</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="LDAP!A1" display="LDAP"/>
@@ -1567,6 +1650,7 @@
     <hyperlink ref="A4" location="Swagger!A1" display="Swagger"/>
     <hyperlink ref="A5" location="Apiary!A1" display="Apiary"/>
     <hyperlink ref="A6" location="Jenkins!A1" display="Jenkins"/>
+    <hyperlink ref="A7" location="SAML!A1" display="SAML"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1596,16 +1680,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
@@ -1613,22 +1697,22 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="22"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="22"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1655,8 +1739,8 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1674,10 +1758,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1713,10 +1797,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -1807,7 +1891,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1815,13 +1899,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="26" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1829,7 +1913,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="6" t="s">
         <v>43</v>
       </c>
@@ -1875,7 +1959,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="25" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1883,7 +1967,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="6" t="s">
         <v>56</v>
       </c>
@@ -1961,7 +2045,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="23" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1969,13 +2053,13 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="21"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -2007,7 +2091,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -2015,19 +2099,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="21"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="21"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="23" t="s">
         <v>91</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -2035,13 +2119,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="21"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="21"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="6" t="s">
         <v>94</v>
       </c>
@@ -2071,7 +2155,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="24" t="s">
         <v>100</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2079,19 +2163,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="22"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="22"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="22"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="6" t="s">
         <v>104</v>
       </c>
@@ -2105,7 +2189,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2113,7 +2197,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="22"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="6" t="s">
         <v>115</v>
       </c>
@@ -2183,16 +2267,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" t="s">
@@ -2239,10 +2323,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -2253,10 +2337,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -2295,7 +2379,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2313,19 +2397,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -2333,7 +2417,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="7" t="s">
         <v>128</v>
       </c>
@@ -2347,7 +2431,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>131</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -2355,7 +2439,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="12" t="s">
         <v>133</v>
       </c>
@@ -2393,7 +2477,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="27" t="s">
         <v>142</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2401,13 +2485,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="25"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="27" t="s">
         <v>145</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2415,16 +2499,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -2531,7 +2615,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="27" t="s">
         <v>175</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2539,7 +2623,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="25"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="12" t="s">
         <v>177</v>
       </c>
@@ -2586,4 +2670,77 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="73.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="113" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:2" ht="90">
+      <c r="A5" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="24"/>
+      <c r="B6" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="SAML!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,23 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="LDAP" sheetId="2" r:id="rId2"/>
-    <sheet name="JSON" sheetId="3" r:id="rId3"/>
-    <sheet name="Swagger" sheetId="4" r:id="rId4"/>
-    <sheet name="Apiary" sheetId="5" r:id="rId5"/>
-    <sheet name="Jenkins" sheetId="6" r:id="rId6"/>
-    <sheet name="SAML" sheetId="7" r:id="rId7"/>
+    <sheet name="JSON" sheetId="3" r:id="rId2"/>
+    <sheet name="Swagger" sheetId="4" r:id="rId3"/>
+    <sheet name="Apiary" sheetId="5" r:id="rId4"/>
+    <sheet name="Jenkins" sheetId="6" r:id="rId5"/>
+    <sheet name="YAML" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="180">
   <si>
     <t>LDAP</t>
   </si>
@@ -32,18 +31,6 @@
   </si>
   <si>
     <t>Material Links</t>
-  </si>
-  <si>
-    <t>http://www.computerperformance.co.uk/Logon/LDAP_attributes_active_directory.htm</t>
-  </si>
-  <si>
-    <t>http://www.kouti.com/tables/userattributes.htm</t>
-  </si>
-  <si>
-    <t>https://www.manageengine.com/products/ad-manager/help/csv-import-management/active-directory-ldap-attributes.html</t>
-  </si>
-  <si>
-    <t>https://msdn.microsoft.com/en-us/library/ms675090(v=vs.85).aspx</t>
   </si>
   <si>
     <t>Definitions</t>
@@ -978,72 +965,10 @@
     <t>http://roadtoautomation.blogspot.in/2013/06/road-to-email-configuration-in-jenkins.html</t>
   </si>
   <si>
-    <t>SAML</t>
-  </si>
-  <si>
-    <t>SAML 2.0</t>
-  </si>
-  <si>
-    <t>Security Assertion Markup Language 2.0 (SAML 2.0) is a version of the SAML standard for exchanging authentication and authorization data between security domains. SAML 2.0 is an XML-based protocol that uses security tokens containing assertions to pass information about a principal (usually an end user) between a SAML authority, that is, an identity provider, and a SAML consumer, that is, a service provider. SAML 2.0 enables web-based authentication and authorization scenarios including cross-domain single sign-on (SSO), which helps reduce the administrative overhead of distributing multiple authentication tokens to the user</t>
-  </si>
-  <si>
-    <t>OASIS</t>
-  </si>
-  <si>
-    <t>Organization for the Advancement of Structured Information Standards</t>
-  </si>
-  <si>
-    <t>Note on SAML 2.0</t>
-  </si>
-  <si>
-    <t>Some 30 individuals from more than two dozen companies and organizations were involved in the creation of SAML 2.0. In particular, and of special note, Liberty Alliance donated its Identity Federation Framework (ID-FF) specification to OASIS, which became the basis of the SAML 2.0 specification. Thus SAML 2.0 represents the convergence of SAML 1.1, Liberty ID-FF 1.2, and Shibboleth 1.3</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SAML 2.0 was ratified as an OASIS Standard in March 2005, replacing SAML 1.1. The critical aspects of SAML 2.0 are covered in detail in the official documents </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SAMLConform, SAMLCore, SAMLBind </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SAMLProf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>YAML</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/using-yaml-java-application</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1132,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1250,6 +1175,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1258,24 +1186,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1291,9 +1201,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1592,7 +1499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -1619,27 +1526,30 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>182</v>
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1650,91 +1560,13 @@
     <hyperlink ref="A4" location="Swagger!A1" display="Swagger"/>
     <hyperlink ref="A5" location="Apiary!A1" display="Apiary"/>
     <hyperlink ref="A6" location="Jenkins!A1" display="Jenkins"/>
-    <hyperlink ref="A7" location="SAML!A1" display="SAML"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="108.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="18"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="20"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="22"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="22"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
-    <hyperlink ref="B1" location="LDAP!A2" display="Up"/>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B65"/>
   <sheetViews>
@@ -1758,464 +1590,464 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="18"/>
+      <c r="A2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="18"/>
+      <c r="A10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="105">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
       <c r="A15" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90">
       <c r="A17" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="120">
       <c r="A19" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="24" t="s">
+      <c r="B24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="6" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
       <c r="A26" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="105">
       <c r="A28" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75">
       <c r="A29" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75">
       <c r="A30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="135">
+      <c r="A31" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="120">
+      <c r="A32" s="20"/>
+      <c r="B32" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="25"/>
-      <c r="B32" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="75">
       <c r="A34" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
       <c r="A35" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="75">
+      <c r="A42" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120">
       <c r="A44" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="165">
       <c r="A45" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60">
       <c r="A46" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="165">
       <c r="A47" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="16"/>
+      <c r="B49" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="16"/>
+      <c r="B50" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="23" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="60">
+      <c r="A52" s="16"/>
+      <c r="B52" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="16"/>
+      <c r="B53" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="23"/>
-      <c r="B49" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="23"/>
-      <c r="B50" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="23"/>
-      <c r="B52" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="23"/>
-      <c r="B53" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="60">
       <c r="A55" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135">
       <c r="A56" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="60">
+      <c r="A57" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="17"/>
+      <c r="B58" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="60">
+      <c r="A59" s="17"/>
+      <c r="B59" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="24" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="17"/>
+      <c r="B60" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="24"/>
-      <c r="B58" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="24"/>
-      <c r="B59" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="24"/>
-      <c r="B60" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="105">
       <c r="A61" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="24" t="s">
-        <v>107</v>
+      <c r="A62" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="24"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2267,23 +2099,23 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="18"/>
+      <c r="A10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +2131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -2323,39 +2155,39 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="18"/>
+      <c r="A8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2373,7 +2205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -2397,251 +2229,251 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18"/>
+      <c r="A9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="29" t="s">
-        <v>126</v>
+      <c r="A10" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="22"/>
+      <c r="B14" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="12" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="22" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="27" t="s">
+      <c r="B21" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="12" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="22"/>
+      <c r="B22" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="12" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="23" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="23"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="195">
       <c r="A31" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75">
       <c r="A32" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120">
       <c r="A34" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
       <c r="A35" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="22"/>
+      <c r="B38" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="27"/>
-      <c r="B38" s="12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2672,75 +2504,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="73.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="113" style="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="18"/>
-    </row>
-    <row r="5" spans="1:2" ht="90">
-      <c r="A5" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30">
-      <c r="A6" s="24"/>
-      <c r="B6" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60">
-      <c r="A8" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:A6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="SAML!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
-  </hyperlinks>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="Apiary" sheetId="5" r:id="rId4"/>
     <sheet name="Jenkins" sheetId="6" r:id="rId5"/>
     <sheet name="YAML" sheetId="8" r:id="rId6"/>
+    <sheet name="EclEmma" sheetId="9" r:id="rId7"/>
+    <sheet name="Jmeter" sheetId="10" r:id="rId8"/>
+    <sheet name="Vagrant" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="217">
   <si>
     <t>LDAP</t>
   </si>
@@ -969,6 +972,123 @@
   </si>
   <si>
     <t>https://dzone.com/articles/using-yaml-java-application</t>
+  </si>
+  <si>
+    <t>EclEmma</t>
+  </si>
+  <si>
+    <t>Jmeter</t>
+  </si>
+  <si>
+    <t>Material lins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output of test are stored in listeners. </t>
+  </si>
+  <si>
+    <t>Listeners</t>
+  </si>
+  <si>
+    <t>An request or action to perform test are called samplers</t>
+  </si>
+  <si>
+    <t>Samplers</t>
+  </si>
+  <si>
+    <t>Virtual users are called threads in jmeter</t>
+  </si>
+  <si>
+    <t>Threads in Jmeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Extract downloaded zip
+2. go to that folder/bin
+3. run jmeter.bat from command prompt
+4. Jmeter will open </t>
+  </si>
+  <si>
+    <t>1. Go to Google -&gt; search for apache jmeter
+2. click on Download Releases
+3. Binaries -&gt; apache-jmeter-x.y.zip</t>
+  </si>
+  <si>
+    <t>Java should be installed before installing Jmeter</t>
+  </si>
+  <si>
+    <t>How to install Jmeter</t>
+  </si>
+  <si>
+    <t>Load and performance testing</t>
+  </si>
+  <si>
+    <t>Open source testing tool</t>
+  </si>
+  <si>
+    <t>What is Jmeter</t>
+  </si>
+  <si>
+    <t>videos in Jmeter/videos</t>
+  </si>
+  <si>
+    <t>Test plan</t>
+  </si>
+  <si>
+    <t>contains the steps for performance flow</t>
+  </si>
+  <si>
+    <t>thread group</t>
+  </si>
+  <si>
+    <t>this will simulate no.of users</t>
+  </si>
+  <si>
+    <t>Ramp-up period (In seconds)</t>
+  </si>
+  <si>
+    <t>Amount of time Jmeter can take to create specified no.of threads</t>
+  </si>
+  <si>
+    <t>Loop count</t>
+  </si>
+  <si>
+    <t>no.of requests we want to send per user (that is per thread). 
+So we set threads == 5, Loop count == 1000 -&gt; total no.of requests == 5000</t>
+  </si>
+  <si>
+    <t>User defined variable</t>
+  </si>
+  <si>
+    <t>right click on Thread group -&gt; Add -&gt; Config Element -&gt; User Defined Variables</t>
+  </si>
+  <si>
+    <t>HTTP Cookie Manager, Http Cache Manager</t>
+  </si>
+  <si>
+    <t>To simulate that request is coming from original browser</t>
+  </si>
+  <si>
+    <t>Http Cookie Manager</t>
+  </si>
+  <si>
+    <t>right click on Thread group -&gt; Add -&gt; Config Element -&gt; HTTP Cookie Manager</t>
+  </si>
+  <si>
+    <t>right click on Thread group -&gt; Add -&gt; Config Element -&gt; HTTP Cache Manager</t>
+  </si>
+  <si>
+    <t>Http Cache Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throughput </t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/jmeter-throughput-example-1</t>
+  </si>
+  <si>
+    <t>Vagrant</t>
+  </si>
+  <si>
+    <t>https://www.vagrantup.com/docs/why-vagrant/</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1124,6 +1244,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1132,7 +1276,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1175,6 +1319,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1201,6 +1350,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1497,17 +1657,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" customWidth="1"/>
+    <col min="1" max="1" width="51.375" customWidth="1"/>
+    <col min="2" max="2" width="65.625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1545,11 +1705,26 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1561,6 +1736,10 @@
     <hyperlink ref="A5" location="Apiary!A1" display="Apiary"/>
     <hyperlink ref="A6" location="Jenkins!A1" display="Jenkins"/>
     <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="A9" location="Jmeter!A1" display="Jmeter"/>
+    <hyperlink ref="A10" location="Vagrant!A1" display="Vagrant"/>
+    <hyperlink ref="A7" location="YAML!A1" display="YAML"/>
+    <hyperlink ref="A8" location="EclEmma!A1" display="EclEmma"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1577,8 +1756,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="123.140625" customWidth="1"/>
+    <col min="1" max="1" width="64.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="123.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1590,10 +1769,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1629,10 +1808,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="22"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -1723,7 +1902,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1731,13 +1910,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1745,7 +1924,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
@@ -1791,7 +1970,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1799,7 +1978,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="20"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="6" t="s">
         <v>52</v>
       </c>
@@ -1877,7 +2056,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -1885,7 +2064,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="16"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="6" t="s">
         <v>75</v>
       </c>
@@ -1923,7 +2102,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -1931,19 +2110,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="16"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="16"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -1951,13 +2130,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="16"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="16"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="6" t="s">
         <v>90</v>
       </c>
@@ -1987,7 +2166,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="20" t="s">
         <v>96</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -1995,19 +2174,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="17"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="17"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="17"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="6" t="s">
         <v>100</v>
       </c>
@@ -2021,7 +2200,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="20" t="s">
         <v>103</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2029,7 +2208,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="17"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="6" t="s">
         <v>111</v>
       </c>
@@ -2081,13 +2260,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" customWidth="1"/>
-    <col min="2" max="2" width="121.28515625" customWidth="1"/>
+    <col min="1" max="1" width="63.625" customWidth="1"/>
+    <col min="2" max="2" width="121.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2099,16 +2278,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="22"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" t="s">
@@ -2142,8 +2321,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="72.140625" customWidth="1"/>
-    <col min="2" max="2" width="114.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="72.125" customWidth="1"/>
+    <col min="2" max="2" width="114.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2155,10 +2334,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -2169,10 +2348,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -2211,13 +2390,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:B9"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" customWidth="1"/>
-    <col min="2" max="2" width="127.5703125" customWidth="1"/>
+    <col min="1" max="1" width="59.25" customWidth="1"/>
+    <col min="2" max="2" width="127.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2229,19 +2408,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="27" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -2249,12 +2428,12 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
+    <row r="12" spans="1:2" ht="45">
       <c r="A12" s="13" t="s">
         <v>125</v>
       </c>
@@ -2263,7 +2442,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -2271,7 +2450,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="12" t="s">
         <v>129</v>
       </c>
@@ -2292,7 +2471,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45">
+    <row r="17" spans="1:2" ht="30">
       <c r="A17" s="12" t="s">
         <v>134</v>
       </c>
@@ -2309,7 +2488,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="25" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2317,13 +2496,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="22"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2331,16 +2510,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="22"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -2350,7 +2529,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="45">
+    <row r="25" spans="1:2" ht="30">
       <c r="A25" s="13" t="s">
         <v>147</v>
       </c>
@@ -2422,7 +2601,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="120">
+    <row r="34" spans="1:2" ht="90">
       <c r="A34" s="12" t="s">
         <v>165</v>
       </c>
@@ -2447,7 +2626,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="25" t="s">
         <v>171</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2455,7 +2634,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="22"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="12" t="s">
         <v>173</v>
       </c>
@@ -2511,7 +2690,287 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="65.125" customWidth="1"/>
+    <col min="2" max="2" width="121.375" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="55.75" customWidth="1"/>
+    <col min="2" max="2" width="108" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" location="EclEmma!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A8" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="49.375" customWidth="1"/>
+    <col min="2" max="2" width="114.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="31"/>
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="32"/>
+      <c r="B13" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60">
+      <c r="A14" s="32"/>
+      <c r="B14" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Jmeter!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A9" display="Topics"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="2" max="2" width="107.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="22"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Vagrant!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="EclEmma" sheetId="9" r:id="rId7"/>
     <sheet name="Jmeter" sheetId="10" r:id="rId8"/>
     <sheet name="Vagrant" sheetId="11" r:id="rId9"/>
+    <sheet name="Docker" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="222">
   <si>
     <t>LDAP</t>
   </si>
@@ -1089,6 +1090,21 @@
   </si>
   <si>
     <t>https://www.vagrantup.com/docs/why-vagrant/</t>
+  </si>
+  <si>
+    <t>Plural sight</t>
+  </si>
+  <si>
+    <t>search "Vagrant"</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>Getting started with Docker</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1292,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1322,6 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1657,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1727,6 +1744,11 @@
         <v>215</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="LDAP!A1" display="LDAP"/>
@@ -1740,6 +1762,61 @@
     <hyperlink ref="A10" location="Vagrant!A1" display="Vagrant"/>
     <hyperlink ref="A7" location="YAML!A1" display="YAML"/>
     <hyperlink ref="A8" location="EclEmma!A1" display="EclEmma"/>
+    <hyperlink ref="A11" location="Docker!A1" display="Docker"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53.625" customWidth="1"/>
+    <col min="2" max="2" width="109.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Docker!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A11" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1769,10 +1846,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1808,10 +1885,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -1902,7 +1979,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1910,13 +1987,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1924,7 +2001,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="24"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
@@ -1970,7 +2047,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1978,7 +2055,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="6" t="s">
         <v>52</v>
       </c>
@@ -2056,7 +2133,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>73</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -2064,7 +2141,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="6" t="s">
         <v>75</v>
       </c>
@@ -2102,7 +2179,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -2110,19 +2187,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -2130,13 +2207,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="19"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="6" t="s">
         <v>90</v>
       </c>
@@ -2166,7 +2243,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2174,19 +2251,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="20"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="20"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="20"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="6" t="s">
         <v>100</v>
       </c>
@@ -2200,7 +2277,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2208,7 +2285,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="20"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="6" t="s">
         <v>111</v>
       </c>
@@ -2278,16 +2355,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" t="s">
@@ -2334,10 +2411,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -2348,10 +2425,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -2408,19 +2485,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -2428,7 +2505,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="7" t="s">
         <v>124</v>
       </c>
@@ -2442,7 +2519,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -2450,7 +2527,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="12" t="s">
         <v>129</v>
       </c>
@@ -2488,7 +2565,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2496,13 +2573,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>141</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2510,16 +2587,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -2626,7 +2703,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="26" t="s">
         <v>171</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2634,7 +2711,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="25"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="12" t="s">
         <v>173</v>
       </c>
@@ -2755,10 +2832,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2775,13 +2852,13 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="30"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>195</v>
       </c>
       <c r="B10" t="s">
@@ -2789,13 +2866,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>192</v>
       </c>
       <c r="B12" t="s">
@@ -2803,13 +2880,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="16" t="s">
         <v>189</v>
       </c>
@@ -2920,11 +2997,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2942,34 +3019,42 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:2" s="19" customFormat="1">
+      <c r="A3" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="21" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Vagrant!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="222">
-  <si>
-    <t>LDAP</t>
-  </si>
   <si>
     <t>Topics</t>
   </si>
@@ -1105,6 +1102,9 @@
   </si>
   <si>
     <t>Getting started with Docker</t>
+  </si>
+  <si>
+    <t>Bamboo</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1292,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1338,6 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1674,11 +1675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1690,68 +1691,70 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="20"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="20" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="LDAP!A1" display="LDAP"/>
     <hyperlink ref="C1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A3" location="JSON!A1" display="JSON"/>
     <hyperlink ref="A4" location="Swagger!A1" display="Swagger"/>
@@ -1772,9 +1775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1785,29 +1788,29 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1839,471 +1842,471 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="23"/>
+      <c r="A10" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="105">
       <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
       <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
       <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90">
       <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="120">
       <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="21" t="s">
+      <c r="B22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="22"/>
+      <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="6" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="25" t="s">
+      <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="6" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
       <c r="A26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="105">
       <c r="A28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75">
       <c r="A29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75">
       <c r="A30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="6" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="135">
+      <c r="A31" s="25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="24" t="s">
+      <c r="B31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="6" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="120">
+      <c r="A32" s="25"/>
+      <c r="B32" s="6" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="24"/>
-      <c r="B32" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="75">
       <c r="A34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
       <c r="A35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="9" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="75">
+      <c r="A42" s="21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="20" t="s">
+      <c r="B42" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="6" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120">
       <c r="A44" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="165">
       <c r="A45" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60">
       <c r="A46" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="165">
       <c r="A47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="6" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="20" t="s">
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="21"/>
+      <c r="B49" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="21"/>
+      <c r="B50" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="20"/>
-      <c r="B49" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="20"/>
-      <c r="B50" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="20" t="s">
+      <c r="B51" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="6" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="60">
+      <c r="A52" s="21"/>
+      <c r="B52" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="20"/>
-      <c r="B52" s="6" t="s">
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="21"/>
+      <c r="B53" s="6" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="20"/>
-      <c r="B53" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="60">
       <c r="A55" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135">
       <c r="A56" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="60">
+      <c r="A57" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="21" t="s">
+      <c r="B57" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="6" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="22"/>
+      <c r="B58" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="21"/>
-      <c r="B58" s="6" t="s">
+    <row r="59" spans="1:2" ht="60">
+      <c r="A59" s="22"/>
+      <c r="B59" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="21"/>
-      <c r="B59" s="6" t="s">
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="22"/>
+      <c r="B60" s="6" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="21"/>
-      <c r="B60" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="105">
       <c r="A61" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="6" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="21" t="s">
+      <c r="B62" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="21"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2348,30 +2351,30 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="24"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2404,46 +2407,46 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="23"/>
+      <c r="A8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2478,258 +2481,258 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="24"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="12" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="7" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="13" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="27" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="26" t="s">
+      <c r="B13" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="12" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="12" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="12" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="27" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="26" t="s">
+      <c r="B19" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="12" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="26" t="s">
+      <c r="B21" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="12" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="12" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="28" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="195">
       <c r="A31" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75">
       <c r="A32" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
       <c r="A34" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
       <c r="A35" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="12" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="27" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="26" t="s">
+      <c r="B37" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B37" s="7" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="27"/>
+      <c r="B38" s="12" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="26"/>
-      <c r="B38" s="12" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2793,10 +2796,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2812,9 +2815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2825,158 +2828,158 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="30"/>
+      <c r="A2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="30"/>
+      <c r="A9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="31"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="31" t="s">
-        <v>195</v>
+      <c r="A10" s="32" t="s">
+        <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="33" t="s">
-        <v>192</v>
+      <c r="A12" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
         <v>197</v>
-      </c>
-      <c r="B18" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
         <v>199</v>
-      </c>
-      <c r="B19" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s">
         <v>201</v>
-      </c>
-      <c r="B20" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" t="s">
         <v>205</v>
-      </c>
-      <c r="B22" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
         <v>207</v>
-      </c>
-      <c r="B23" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" t="s">
         <v>209</v>
-      </c>
-      <c r="B24" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3012,39 +3015,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="23"/>
+      <c r="A11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="224">
   <si>
     <t>Topics</t>
   </si>
@@ -1105,6 +1105,12 @@
   </si>
   <si>
     <t>Bamboo</t>
+  </si>
+  <si>
+    <t>Docker and Containers: The Big Picture</t>
+  </si>
+  <si>
+    <t>Docker Deep Dive</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1298,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1338,6 +1344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1679,7 +1686,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1773,11 +1780,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1795,22 +1802,33 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>220</v>
+      <c r="B3" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
         <v>219</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1849,10 +1867,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1888,10 +1906,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -1982,7 +2000,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1990,13 +2008,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="27" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2004,7 +2022,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="26"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="6" t="s">
         <v>38</v>
       </c>
@@ -2050,7 +2068,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -2058,7 +2076,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="25"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="6" t="s">
         <v>51</v>
       </c>
@@ -2136,7 +2154,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -2144,7 +2162,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="21"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="6" t="s">
         <v>74</v>
       </c>
@@ -2182,7 +2200,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="22" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -2190,19 +2208,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="21"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="21"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -2210,13 +2228,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="21"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="21"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="6" t="s">
         <v>89</v>
       </c>
@@ -2246,7 +2264,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="23" t="s">
         <v>95</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2254,19 +2272,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="22"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="6" t="s">
         <v>99</v>
       </c>
@@ -2280,7 +2298,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="23" t="s">
         <v>102</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2288,7 +2306,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="22"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="6" t="s">
         <v>110</v>
       </c>
@@ -2358,16 +2376,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" t="s">
@@ -2414,10 +2432,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" t="s">
@@ -2428,10 +2446,10 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
@@ -2469,8 +2487,8 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2488,19 +2506,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -2508,7 +2526,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -2522,7 +2540,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>126</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -2530,7 +2548,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="12" t="s">
         <v>128</v>
       </c>
@@ -2568,7 +2586,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>137</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2576,13 +2594,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2590,16 +2608,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="29"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -2706,7 +2724,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="28" t="s">
         <v>170</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2714,7 +2732,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="27"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="12" t="s">
         <v>172</v>
       </c>
@@ -2815,9 +2833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2835,10 +2853,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2855,13 +2873,13 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="32"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>194</v>
       </c>
       <c r="B10" t="s">
@@ -2869,13 +2887,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>191</v>
       </c>
       <c r="B12" t="s">
@@ -2883,13 +2901,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="16" t="s">
         <v>188</v>
       </c>
@@ -3022,10 +3040,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
@@ -3044,10 +3062,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="Jmeter" sheetId="10" r:id="rId8"/>
     <sheet name="Vagrant" sheetId="11" r:id="rId9"/>
     <sheet name="Docker" sheetId="12" r:id="rId10"/>
+    <sheet name="Bamboo" sheetId="13" r:id="rId11"/>
+    <sheet name="Splunk" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="228">
   <si>
     <t>Topics</t>
   </si>
@@ -1111,6 +1113,18 @@
   </si>
   <si>
     <t>Docker Deep Dive</t>
+  </si>
+  <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t>Pluralsight video name</t>
+  </si>
+  <si>
+    <t>Five Essential Tools for Building REST APIs</t>
+  </si>
+  <si>
+    <t>Dzone</t>
   </si>
 </sst>
 </file>
@@ -1684,9 +1698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1705,7 +1719,9 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20"/>
+      <c r="A2" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -1731,9 +1747,6 @@
       <c r="A7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
@@ -1756,7 +1769,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -1767,12 +1780,13 @@
     <hyperlink ref="A4" location="Swagger!A1" display="Swagger"/>
     <hyperlink ref="A5" location="Apiary!A1" display="Apiary"/>
     <hyperlink ref="A6" location="Jenkins!A1" display="Jenkins"/>
-    <hyperlink ref="B7" r:id="rId1"/>
     <hyperlink ref="A9" location="Jmeter!A1" display="Jmeter"/>
     <hyperlink ref="A10" location="Vagrant!A1" display="Vagrant"/>
     <hyperlink ref="A7" location="YAML!A1" display="YAML"/>
     <hyperlink ref="A8" location="EclEmma!A1" display="EclEmma"/>
     <hyperlink ref="A11" location="Docker!A1" display="Docker"/>
+    <hyperlink ref="A2" location="Splunk!A1" display="Splunk"/>
+    <hyperlink ref="A12" location="Bamboo!A1" display="Bamboo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1782,7 +1796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -1811,7 +1825,7 @@
       <c r="A3" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>222</v>
       </c>
     </row>
@@ -1824,10 +1838,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1843,13 +1857,41 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="51.75" customWidth="1"/>
+    <col min="2" max="2" width="112" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2363,8 +2405,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="63.625" customWidth="1"/>
-    <col min="2" max="2" width="121.25" customWidth="1"/>
+    <col min="1" max="1" width="57.25" customWidth="1"/>
+    <col min="2" max="2" width="106.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2380,6 +2422,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
@@ -2410,17 +2460,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="72.125" customWidth="1"/>
-    <col min="2" max="2" width="114.25" style="10" customWidth="1"/>
+    <col min="1" max="1" width="57.125" customWidth="1"/>
+    <col min="2" max="2" width="106.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2437,46 +2487,54 @@
       </c>
       <c r="B2" s="25"/>
     </row>
-    <row r="3" spans="1:2" ht="30">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" s="21" customFormat="1">
+      <c r="A3" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="24" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="B9" s="25"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Apiary!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2783,16 +2841,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.125" customWidth="1"/>
-    <col min="2" max="2" width="121.375" customWidth="1"/>
+    <col min="1" max="1" width="56.125" customWidth="1"/>
+    <col min="2" max="2" width="107.875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="YAML!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="230">
   <si>
     <t>Topics</t>
   </si>
@@ -1125,6 +1125,21 @@
   </si>
   <si>
     <t>Dzone</t>
+  </si>
+  <si>
+    <t>Create array of values from json</t>
+  </si>
+  <si>
+    <t>try {
+   String json = "{\"name\":\"xyz\",\"contentType\":\"xlsx\",\"creationDate\":\"17-oct\",\"size\":\"2MB\"}\"";
+   JSONObject jsonObject = new JSONObject(json);
+   org.codehaus.jettison.json.JSONArray valuesArrays = jsonObject.toJSONArray(jsonObject.names());
+   for(int i=0;i&lt;valuesArrays.length();i++){
+    System.out.println("value: "+valuesArrays.getString(i));
+   }
+  } catch (JSONException e) {
+   e.printStackTrace();
+  }</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1327,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1363,6 +1378,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1698,9 +1716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1816,10 +1834,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
@@ -1887,17 +1905,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="123.125" customWidth="1"/>
+    <col min="1" max="1" width="51.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="111.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1909,10 +1927,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
@@ -1948,10 +1966,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -2042,7 +2060,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -2050,13 +2068,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2064,7 +2082,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="6" t="s">
         <v>38</v>
       </c>
@@ -2110,7 +2128,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -2118,7 +2136,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="6" t="s">
         <v>51</v>
       </c>
@@ -2196,7 +2214,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="23" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -2204,7 +2222,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="22"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="6" t="s">
         <v>74</v>
       </c>
@@ -2242,7 +2260,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -2250,19 +2268,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="23" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -2270,13 +2288,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="22"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="22"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="6" t="s">
         <v>89</v>
       </c>
@@ -2306,7 +2324,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="24" t="s">
         <v>95</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2314,19 +2332,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="23"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="23"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="23"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="6" t="s">
         <v>99</v>
       </c>
@@ -2340,7 +2358,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -2348,7 +2366,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="23"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="6" t="s">
         <v>110</v>
       </c>
@@ -2367,6 +2385,14 @@
       </c>
       <c r="B65" s="6" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="150">
+      <c r="A66" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2444,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -2432,10 +2458,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:2" ht="30">
       <c r="A11" t="s">
@@ -2482,10 +2508,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1">
       <c r="A3" s="21" t="s">
@@ -2504,10 +2530,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -2564,19 +2590,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -2584,7 +2610,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -2598,7 +2624,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -2606,7 +2632,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="12" t="s">
         <v>128</v>
       </c>
@@ -2644,7 +2670,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>137</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -2652,13 +2678,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>140</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2666,16 +2692,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="30"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -2782,7 +2808,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="29" t="s">
         <v>170</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2790,7 +2816,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="28"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="12" t="s">
         <v>172</v>
       </c>
@@ -2863,10 +2889,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -2945,10 +2971,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -2965,13 +2991,13 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="33"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>194</v>
       </c>
       <c r="B10" t="s">
@@ -2979,13 +3005,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>191</v>
       </c>
       <c r="B12" t="s">
@@ -2993,13 +3019,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="16" t="s">
         <v>188</v>
       </c>
@@ -3132,10 +3158,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
@@ -3154,10 +3180,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,28 +4,34 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="JSON" sheetId="3" r:id="rId2"/>
-    <sheet name="Swagger" sheetId="4" r:id="rId3"/>
-    <sheet name="Apiary" sheetId="5" r:id="rId4"/>
-    <sheet name="Jenkins" sheetId="6" r:id="rId5"/>
-    <sheet name="YAML" sheetId="8" r:id="rId6"/>
-    <sheet name="EclEmma" sheetId="9" r:id="rId7"/>
-    <sheet name="Jmeter" sheetId="10" r:id="rId8"/>
-    <sheet name="Vagrant" sheetId="11" r:id="rId9"/>
-    <sheet name="Docker" sheetId="12" r:id="rId10"/>
-    <sheet name="Bamboo" sheetId="13" r:id="rId11"/>
-    <sheet name="Splunk" sheetId="14" r:id="rId12"/>
+    <sheet name="Materials" sheetId="15" r:id="rId2"/>
+    <sheet name="JSON" sheetId="3" r:id="rId3"/>
+    <sheet name="Swagger" sheetId="4" r:id="rId4"/>
+    <sheet name="Apiary" sheetId="5" r:id="rId5"/>
+    <sheet name="Jenkins" sheetId="6" r:id="rId6"/>
+    <sheet name="YAML" sheetId="8" r:id="rId7"/>
+    <sheet name="EclEmma" sheetId="9" r:id="rId8"/>
+    <sheet name="Jmeter" sheetId="10" r:id="rId9"/>
+    <sheet name="Vagrant" sheetId="11" r:id="rId10"/>
+    <sheet name="Docker" sheetId="12" r:id="rId11"/>
+    <sheet name="Bamboo" sheetId="13" r:id="rId12"/>
+    <sheet name="Splunk" sheetId="14" r:id="rId13"/>
+    <sheet name="GSON" sheetId="16" r:id="rId14"/>
+    <sheet name="Boon" sheetId="17" r:id="rId15"/>
+    <sheet name="JSON.org" sheetId="18" r:id="rId16"/>
+    <sheet name="SimpleJSON" sheetId="19" r:id="rId17"/>
+    <sheet name="JSONP" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="313">
   <si>
     <t>Topics</t>
   </si>
@@ -37,27 +43,6 @@
   </si>
   <si>
     <t>Definitions</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>JSON - Javascript Object Notation - Topics</t>
-  </si>
-  <si>
-    <t>JSON Basics</t>
-  </si>
-  <si>
-    <t>JSON with Java</t>
-  </si>
-  <si>
-    <t>JSON with javascript</t>
-  </si>
-  <si>
-    <t>JSON with Ajax</t>
-  </si>
-  <si>
-    <t>JSON with Jquery + Ajax</t>
   </si>
   <si>
     <t>JSON - Jenkov</t>
@@ -1141,12 +1126,366 @@
    e.printStackTrace();
   }</t>
   </si>
+  <si>
+    <t>Own Parsers</t>
+  </si>
+  <si>
+    <t>Simple JSON</t>
+  </si>
+  <si>
+    <t>JSONP - JSR 353 specification give Sun/Oracle</t>
+  </si>
+  <si>
+    <t>JSON.org</t>
+  </si>
+  <si>
+    <t>Boon</t>
+  </si>
+  <si>
+    <t>GSON</t>
+  </si>
+  <si>
+    <t>Jackson JSON</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Simple Json</t>
+  </si>
+  <si>
+    <t>JSON Quick start</t>
+  </si>
+  <si>
+    <t>String carJson =
+        "{ \"brand\" : \"Mercedes\", \"doors\" : 5 }";
+JsonFactory factory = new JsonFactory();
+JsonParser  parser  = factory.createParser(carJson);</t>
+  </si>
+  <si>
+    <t>example of creating a JsonParser that parses JSON from a string</t>
+  </si>
+  <si>
+    <t>In order to create a Jackson JsonParser you first need to create a JsonFactory. The JsonFactory is used to create JsonParser instances. The JsonFactory class contains several createParser() methods, each taking a different JSON source as parameter.</t>
+  </si>
+  <si>
+    <t>Creating a JsonParser</t>
+  </si>
+  <si>
+    <t>The Jackson JsonParser class is a low level JSON parser. It is similar to the Java StAX parser for XML, except the JsonParser parses JSON and not XML.
+The Jackson JsonParser works at a lower level than the Jackson ObjectMapper. This makes the JsonParser faster than the ObjectMapper, but also more cumbersome to work with</t>
+  </si>
+  <si>
+    <t>JsonParser</t>
+  </si>
+  <si>
+    <t>The simplest way to parse JSON with Jackson is via the Jackson databind ObjectMapper (com.fasterxml.jackson.databind.ObjectMapper). Jackson's ObjectMapper can parse a JSON from a string, stream or file, and create an object graph representing the parsed JSON.
+The classes used in the object graph can either be classed developed by you, or the built-in JSON tree model explained later in this tutorial.</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.databind.ObjectMapper</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+  &lt;groupId&gt;com.fasterxml.jackson.core&lt;/groupId&gt;
+  &lt;artifactId&gt;jackson-core&lt;/artifactId&gt;
+  &lt;version&gt;2.5.3&lt;/version&gt;
+&lt;/dependency&gt;
+&lt;dependency&gt;
+  &lt;groupId&gt;com.fasterxml.jackson.core&lt;/groupId&gt;
+  &lt;artifactId&gt;jackson-annotations&lt;/artifactId&gt;
+  &lt;version&gt;2.5.3&lt;/version&gt;
+&lt;/dependency&gt;
+&lt;dependency&gt;
+  &lt;groupId&gt;com.fasterxml.jackson.core&lt;/groupId&gt;
+  &lt;artifactId&gt;jackson-databind&lt;/artifactId&gt;
+  &lt;version&gt;2.5.3&lt;/version&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>Jackson maven dependencies - Add this in pom.xml. Remember these dependencies have transitive dependencies</t>
+  </si>
+  <si>
+    <t>https://mvnrepository.com/artifact/com.fasterxml.jackson.core</t>
+  </si>
+  <si>
+    <t>Jackson Core jar download</t>
+  </si>
+  <si>
+    <t>1. Jackson Core
+2. Jackson Annotation
+3. Jackson Databind</t>
+  </si>
+  <si>
+    <t>We need to add 3 jars</t>
+  </si>
+  <si>
+    <t>which can generate JSON one token at a time</t>
+  </si>
+  <si>
+    <t>Jackson JsonGenerator</t>
+  </si>
+  <si>
+    <t>which can generate JSON from custom Java objects, or from a Jackson specific tree structure (tree model)</t>
+  </si>
+  <si>
+    <t>Jackson ObjectMapper</t>
+  </si>
+  <si>
+    <t>Jackson Json generators</t>
+  </si>
+  <si>
+    <t>which is Jackson's JSON pull parser, parsing JSON one token at a time</t>
+  </si>
+  <si>
+    <t>Jackson JsonParser</t>
+  </si>
+  <si>
+    <t>which parses JSON into custom Java objects, or into a Jackson specific tree structure (tree model)</t>
+  </si>
+  <si>
+    <t>jackson has 2 parsers</t>
+  </si>
+  <si>
+    <t>https://github.com/FasterXML/jackson</t>
+  </si>
+  <si>
+    <t>we can find Jackson JSON here</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>JSON Tools</t>
+  </si>
+  <si>
+    <t>which can generate JSON from custom Java classes</t>
+  </si>
+  <si>
+    <t>Gson (JSON generator)</t>
+  </si>
+  <si>
+    <t>Gson</t>
+  </si>
+  <si>
+    <t>GSON also contains a JSON generator</t>
+  </si>
+  <si>
+    <t>which can parse JSON into a tree structure of GSON specific Java objects</t>
+  </si>
+  <si>
+    <t>GSON JsonParser</t>
+  </si>
+  <si>
+    <t>which is GSON's pull JSON parser - parsing JSON one token at a time.</t>
+  </si>
+  <si>
+    <t>GSON JsonReader</t>
+  </si>
+  <si>
+    <t>which can parse JSON into custom Java objects</t>
+  </si>
+  <si>
+    <t>GSON contains 3 Java JSON parsers</t>
+  </si>
+  <si>
+    <t>https://github.com/google/gson</t>
+  </si>
+  <si>
+    <t>You can find GSON here</t>
+  </si>
+  <si>
+    <t>GSON is a Java JSON API from Google. That is where the G in GSON comes from. GSON is reasonably flexible, but the last time I saw a benchmark, Jackson was faster than GSON. Which you choose to use is up to you</t>
+  </si>
+  <si>
+    <t>What is GSON</t>
+  </si>
+  <si>
+    <t>Boon ObjectMapper</t>
+  </si>
+  <si>
+    <t>Boon JSON Parser and Generator</t>
+  </si>
+  <si>
+    <t>https://github.com/boonproject/boon</t>
+  </si>
+  <si>
+    <t>You can find Boon here</t>
+  </si>
+  <si>
+    <t>Boon's API is very similar to Jackson's (so it is easy to switch).But - Boon is more than just a Java JSON API. Boon is a general purpose toolkit for working with data easily. This is handy e.g. inside REST services, file processing apps etc.</t>
+  </si>
+  <si>
+    <t>Boon is a less known Java JSON API, but it is supposedly the fastest of them all (according to the last benchmark I saw). Boon is being used as the standard JSON API in Groovy</t>
+  </si>
+  <si>
+    <t>https://github.com/douglascrockford/JSON-java</t>
+  </si>
+  <si>
+    <t>You can find JSON.org here</t>
+  </si>
+  <si>
+    <t>JSON.org also has an open source Java JSON API. This was one of the first Java JSON APIs available out there. It is reasonably easy to use, but not as flexible or fast as the other JSON APIs mentioned above</t>
+  </si>
+  <si>
+    <t>What is JSON.org</t>
+  </si>
+  <si>
+    <t>https://jsonp.java.net/</t>
+  </si>
+  <si>
+    <t>You can find JSONP here</t>
+  </si>
+  <si>
+    <t>JSONP is a JSR 353 compliant JSON API for Java. Being JSR 353 compliant means, that if you use the standard APIs it should be possible to exchange the JSONP implementation with another API in the future, without breaking your code</t>
+  </si>
+  <si>
+    <t>what is JSONP</t>
+  </si>
+  <si>
+    <t>Github project link</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/JSONPractice.git</t>
+  </si>
+  <si>
+    <t>JsonGenerator</t>
+  </si>
+  <si>
+    <t>The Jackson JsonGenerator is used to generate JSON from Java objects</t>
+  </si>
+  <si>
+    <t>JsonParser Example</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jackson.practice.JSONParserPractice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class in JSONPractice project</t>
+    </r>
+  </si>
+  <si>
+    <t>Creating a JsonGenerator</t>
+  </si>
+  <si>
+    <t>JsonFactory factory = new JsonFactory();
+JsonGenerator generator = factory.createGenerator(new File("data/output.json"), JsonEncoding.UTF8);</t>
+  </si>
+  <si>
+    <t>The first parameter of the createGenerator() method is the destination of the generated JSON. In the example above the parameter is a File object. This means that the generated JSON will be written to the given file. The createGenerator() method is overloaded, so there are other versions of the createGenerator() method which takes e.g an OutputStream etc., giving you different options about where to write the generated JSON to.
+The second parameter of the createGenerator() method is the character encoding to use when generating the JSON. The example above uses UTF-8</t>
+  </si>
+  <si>
+    <t>JSONGenerator example</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jackson.practice.JSONGeneratorPractice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class</t>
+    </r>
+  </si>
+  <si>
+    <t>Jackson JSON Annotations</t>
+  </si>
+  <si>
+    <t>Read + Write Annotation</t>
+  </si>
+  <si>
+    <t>Read Annotations</t>
+  </si>
+  <si>
+    <t>Write Annotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonIgnore
+@JsonIgnoreProperties
+@JsonIgnoreType
+@JsonAutoDetect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonSetter
+@JsonAnySetter
+@JsonCreator
+@JacksonInject
+@JsonDeserialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonInclude
+@JsonGetter
+@JsonAnyGetter
+@JsonPropertyOrder
+@JsonRawValue
+@JsonValue
+@JsonSerialize</t>
+  </si>
+  <si>
+    <t>1. Read + Write Annotation: Jackson contains a set of annotations that affect both the reading of Java objects from JSON, as well as the writing of Java objects into JSON. I refer to these annotations as "read + write annotations"
+2. Read Annotations
+3. Write Annotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonIgnore</t>
+  </si>
+  <si>
+    <t>refer jackson.practice.ReadWriteAnnotationsPractice.jsonIgnoreAnnotation()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonIgnoreProperties</t>
+  </si>
+  <si>
+    <t>refer jackson.practice.ReadWriteAnnotationsPractice.jsonIgnorePropertiesDemo()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @com.fasterxml.jackson.annotation.JsonIgnoreType</t>
+  </si>
+  <si>
+    <t>refer jackson.practice.ReadWriteAnnotationsPractice.jsonIgnoreTypeDemo()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,6 +1536,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1327,7 +1674,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1387,19 +1734,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1714,11 +2075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1738,63 +2099,107 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="30"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Topics!A2" display="Up"/>
-    <hyperlink ref="A3" location="JSON!A1" display="JSON"/>
     <hyperlink ref="A4" location="Swagger!A1" display="Swagger"/>
     <hyperlink ref="A5" location="Apiary!A1" display="Apiary"/>
     <hyperlink ref="A6" location="Jenkins!A1" display="Jenkins"/>
@@ -1805,6 +2210,13 @@
     <hyperlink ref="A11" location="Docker!A1" display="Docker"/>
     <hyperlink ref="A2" location="Splunk!A1" display="Splunk"/>
     <hyperlink ref="A12" location="Bamboo!A1" display="Bamboo"/>
+    <hyperlink ref="B2" location="Materials!A1" display="Materials"/>
+    <hyperlink ref="A20" location="JSON!A1" display="Jackson JSON"/>
+    <hyperlink ref="A14" location="GSON!A1" display="GSON"/>
+    <hyperlink ref="A15" location="Boon!A1" display="Boon"/>
+    <hyperlink ref="A16" location="JSON.org!A1" display="JSON.org"/>
+    <hyperlink ref="A17" location="JSONP!A1" display="JSONP - JSR 353 specification give Sun/Oracle"/>
+    <hyperlink ref="A18" location="SimpleJSON!A1" display="Simple JSON"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1812,11 +2224,76 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="56" customWidth="1"/>
+    <col min="2" max="2" width="107.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="3" spans="1:2" s="19" customFormat="1">
+      <c r="A3" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Vagrant!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1834,33 +2311,33 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +2352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1887,7 +2364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1903,13 +2380,492 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.375" customWidth="1"/>
+    <col min="2" max="2" width="109.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30"/>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="GSON!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A14" display="Topics"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53.875" customWidth="1"/>
+    <col min="2" max="2" width="109.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30"/>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="31"/>
+      <c r="B8" s="24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Boon!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="55.875" customWidth="1"/>
+    <col min="2" max="2" width="106" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30"/>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="JSON.org!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A16" display="Topics"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="108.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="SimpleJSON!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A18" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="2" max="2" width="105" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30"/>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="JSONP!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A17" display="Topics"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="55.75" customWidth="1"/>
+    <col min="2" max="2" width="107.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="30"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="30"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Materials!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!B2" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1927,506 +2883,704 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="26"/>
+      <c r="A2" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
+      <c r="A3" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="30"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="105">
       <c r="A12" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
       <c r="A15" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90">
       <c r="A17" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="120">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75">
       <c r="A26" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="105">
       <c r="A28" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75">
       <c r="A29" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75">
       <c r="A30" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="27" t="s">
-        <v>49</v>
+      <c r="A31" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="27"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="75">
       <c r="A34" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
       <c r="A35" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="23" t="s">
-        <v>72</v>
+      <c r="A42" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="23"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120">
       <c r="A44" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="165">
       <c r="A45" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60">
       <c r="A46" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="165">
       <c r="A47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="32"/>
+      <c r="B49" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="32"/>
+      <c r="B50" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="6" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="60">
+      <c r="A52" s="32"/>
+      <c r="B52" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="6" t="s">
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="32"/>
+      <c r="B53" s="6" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="23"/>
-      <c r="B49" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="23"/>
-      <c r="B50" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="23"/>
-      <c r="B52" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="23"/>
-      <c r="B53" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="60">
       <c r="A55" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135">
       <c r="A56" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="24" t="s">
-        <v>95</v>
+      <c r="A57" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="24"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="24"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="24"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="105">
       <c r="A61" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="24" t="s">
-        <v>102</v>
+      <c r="A62" s="33" t="s">
+        <v>95</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="33"/>
+      <c r="B63" s="6" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="24"/>
-      <c r="B63" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="150">
       <c r="A66" s="22" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>229</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="31"/>
+      <c r="B69" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="31"/>
+      <c r="B73" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="45">
+      <c r="A76" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="255">
+      <c r="A78" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="60">
+      <c r="A79" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="75">
+      <c r="A80" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30">
+      <c r="A81" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="75">
+      <c r="A82" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="28" customFormat="1">
+      <c r="A83" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30">
+      <c r="A85" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="90">
+      <c r="A86" s="33"/>
+      <c r="B86" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="60">
+      <c r="A88" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="60">
+      <c r="A89" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B89" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="75">
+      <c r="A90" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="105">
+      <c r="A91" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
+  <mergeCells count="13">
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B38" r:id="rId2"/>
-    <hyperlink ref="B39" r:id="rId3"/>
+    <hyperlink ref="A1" location="Topics!A20" display="Topics"/>
+    <hyperlink ref="B38" r:id="rId1"/>
+    <hyperlink ref="B39" r:id="rId2"/>
+    <hyperlink ref="B67" r:id="rId3"/>
+    <hyperlink ref="B77" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2444,37 +3598,29 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="26"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="25" t="s">
+      <c r="A2" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="30"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="26"/>
-    </row>
-    <row r="11" spans="1:2" ht="30">
-      <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>117</v>
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Swagger!A2" display="Up"/>
@@ -2484,7 +3630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2508,47 +3654,47 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1">
       <c r="A3" s="21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="30"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2566,7 +3712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -2590,251 +3736,251 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="30"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="31" t="s">
-        <v>121</v>
+      <c r="A10" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29" t="s">
-        <v>126</v>
+      <c r="A13" s="31" t="s">
+        <v>119</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="12" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="36" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="36"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="195">
       <c r="A31" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75">
       <c r="A32" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="90">
       <c r="A34" s="12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
       <c r="A35" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="29" t="s">
-        <v>170</v>
+      <c r="A37" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="29"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2865,7 +4011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2889,17 +4035,17 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2915,7 +4061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2947,7 +4093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -2971,151 +4117,151 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="33"/>
+      <c r="A2" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="39"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="34" t="s">
-        <v>194</v>
+      <c r="A10" s="40" t="s">
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="35"/>
+      <c r="A11" s="41"/>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="36" t="s">
-        <v>191</v>
+      <c r="A12" s="42" t="s">
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="36"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="16" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="36"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="16" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3132,69 +4278,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="107.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="26"/>
-    </row>
-    <row r="3" spans="1:2" s="19" customFormat="1">
-      <c r="A3" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="26"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:B11"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="Vagrant!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
-    <hyperlink ref="B4" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="330">
   <si>
     <t>Topics</t>
   </si>
@@ -1358,6 +1358,80 @@
     <t>JsonParser Example</t>
   </si>
   <si>
+    <t>Creating a JsonGenerator</t>
+  </si>
+  <si>
+    <t>JsonFactory factory = new JsonFactory();
+JsonGenerator generator = factory.createGenerator(new File("data/output.json"), JsonEncoding.UTF8);</t>
+  </si>
+  <si>
+    <t>The first parameter of the createGenerator() method is the destination of the generated JSON. In the example above the parameter is a File object. This means that the generated JSON will be written to the given file. The createGenerator() method is overloaded, so there are other versions of the createGenerator() method which takes e.g an OutputStream etc., giving you different options about where to write the generated JSON to.
+The second parameter of the createGenerator() method is the character encoding to use when generating the JSON. The example above uses UTF-8</t>
+  </si>
+  <si>
+    <t>JSONGenerator example</t>
+  </si>
+  <si>
+    <t>Jackson JSON Annotations</t>
+  </si>
+  <si>
+    <t>Read + Write Annotation</t>
+  </si>
+  <si>
+    <t>Read Annotations</t>
+  </si>
+  <si>
+    <t>Write Annotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonIgnore
+@JsonIgnoreProperties
+@JsonIgnoreType
+@JsonAutoDetect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonSetter
+@JsonAnySetter
+@JsonCreator
+@JacksonInject
+@JsonDeserialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonInclude
+@JsonGetter
+@JsonAnyGetter
+@JsonPropertyOrder
+@JsonRawValue
+@JsonValue
+@JsonSerialize</t>
+  </si>
+  <si>
+    <t>1. Read + Write Annotation: Jackson contains a set of annotations that affect both the reading of Java objects from JSON, as well as the writing of Java objects into JSON. I refer to these annotations as "read + write annotations"
+2. Read Annotations
+3. Write Annotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonIgnore</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonIgnoreProperties</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @com.fasterxml.jackson.annotation.JsonIgnoreType</t>
+  </si>
+  <si>
+    <t>Create JSON String from object and print JSON with proper format</t>
+  </si>
+  <si>
+    <t>ObjectMapper mapper = new ObjectMapper();
+   Car car = new Car("Mercedes", "4");
+   String json = mapper.writerWithDefaultPrettyPrinter().writeValueAsString(car);
+   System.out.println("car json: " + json);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonAutoDetect</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Refer </t>
     </r>
@@ -1370,7 +1444,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>jackson.practice.JSONParserPractice</t>
+      <t>jackson.practice.JSONParser</t>
     </r>
     <r>
       <rPr>
@@ -1382,20 +1456,6 @@
       </rPr>
       <t xml:space="preserve"> class in JSONPractice project</t>
     </r>
-  </si>
-  <si>
-    <t>Creating a JsonGenerator</t>
-  </si>
-  <si>
-    <t>JsonFactory factory = new JsonFactory();
-JsonGenerator generator = factory.createGenerator(new File("data/output.json"), JsonEncoding.UTF8);</t>
-  </si>
-  <si>
-    <t>The first parameter of the createGenerator() method is the destination of the generated JSON. In the example above the parameter is a File object. This means that the generated JSON will be written to the given file. The createGenerator() method is overloaded, so there are other versions of the createGenerator() method which takes e.g an OutputStream etc., giving you different options about where to write the generated JSON to.
-The second parameter of the createGenerator() method is the character encoding to use when generating the JSON. The example above uses UTF-8</t>
-  </si>
-  <si>
-    <t>JSONGenerator example</t>
   </si>
   <si>
     <r>
@@ -1410,7 +1470,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>jackson.practice.JSONGeneratorPractice</t>
+      <t>jackson.practice.JSONGenerator</t>
     </r>
     <r>
       <rPr>
@@ -1424,61 +1484,57 @@
     </r>
   </si>
   <si>
-    <t>Jackson JSON Annotations</t>
-  </si>
-  <si>
-    <t>Read + Write Annotation</t>
-  </si>
-  <si>
-    <t>Read Annotations</t>
-  </si>
-  <si>
-    <t>Write Annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @JsonIgnore
-@JsonIgnoreProperties
-@JsonIgnoreType
-@JsonAutoDetect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @JsonSetter
-@JsonAnySetter
-@JsonCreator
-@JacksonInject
-@JsonDeserialize</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @JsonInclude
-@JsonGetter
-@JsonAnyGetter
-@JsonPropertyOrder
-@JsonRawValue
-@JsonValue
-@JsonSerialize</t>
-  </si>
-  <si>
-    <t>1. Read + Write Annotation: Jackson contains a set of annotations that affect both the reading of Java objects from JSON, as well as the writing of Java objects into JSON. I refer to these annotations as "read + write annotations"
-2. Read Annotations
-3. Write Annotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @JsonIgnore</t>
-  </si>
-  <si>
-    <t>refer jackson.practice.ReadWriteAnnotationsPractice.jsonIgnoreAnnotation()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @JsonIgnoreProperties</t>
-  </si>
-  <si>
-    <t>refer jackson.practice.ReadWriteAnnotationsPractice.jsonIgnorePropertiesDemo()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @com.fasterxml.jackson.annotation.JsonIgnoreType</t>
-  </si>
-  <si>
-    <t>refer jackson.practice.ReadWriteAnnotationsPractice.jsonIgnoreTypeDemo()</t>
+    <t>The Jackson annotation @JsonAutoDetect is used to tell Jackson to include properties which are not public, both when reading and writing objects</t>
+  </si>
+  <si>
+    <t>refer jackson.practice.JSONAnnotations.jsonAutodetectDemo()</t>
+  </si>
+  <si>
+    <t>refer jackson.practice.JSONAnnotations.jsonIgnoreTypeDemo()</t>
+  </si>
+  <si>
+    <t>refer jackson.practice.JSONAnnotations.jsonIgnorePropertiesDemo()</t>
+  </si>
+  <si>
+    <t>refer jackson.practice.JSONAnnotations.jsonIgnoreAnnotation()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonSetter</t>
+  </si>
+  <si>
+    <t>The Jackson annotation @JsonSetter is used to tell Jackson that is should match the name of this setter method to a property name in the JSON data, when reading JSON into objects. This is useful if the property names used internally in your Java class is not the same as the property name used in the JSON file.</t>
+  </si>
+  <si>
+    <t>refer jackson.practice.JSONAnnotations.jsonSetterDemo()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonAnySetter</t>
+  </si>
+  <si>
+    <t>The Jackson annotation @JsonAnySetter instructs Jackson to call the same setter method for all unrecognized fields in the JSON object. By "unrecognized" I mean all fields that are not already mapped to a property or setter method in the Java object</t>
+  </si>
+  <si>
+    <t>refer jackson.practice.JSONAnnotations.jsonAnySetterDemo()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @JsonCreator</t>
+  </si>
+  <si>
+    <t>The Jackson annotation @JsonCreator is used to tell Jackson that the Java object has a constructor (a "creator") which can match the fields of a JSON object to the fields of the Java object.
+The @JsonCreator annotation is useful in situations where the @JsonSetter annotation cannot be used. For instance, immutable objects do not have any setter methods, so they need their initial values injected into the constructor.</t>
+  </si>
+  <si>
+    <t>refer jackson.practice.JSONAnnotations.jsonCreateDemo()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JacksonInject</t>
+  </si>
+  <si>
+    <t>The Jackson annotation @JacksonInject is used to inject values into the parsed objects, instead of reading those values from the JSON. For instance, imagine you are downloading person JSON objects from various different sources, and would like to know what source a given person object came from. The sources may not themselves contain that information, but you can have Jackson inject that into the Java objects created from the JSON objects.
+To mark a field in a Java class as a field that needs to have its value injected by Jackson, add the @JacksonInject annotation above the field</t>
+  </si>
+  <si>
+    <t>refer jackson.practice.JSONAnnotations.jacksonInjectDemo()</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1730,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1742,6 +1798,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1749,18 +1811,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2079,13 +2141,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.375" customWidth="1"/>
-    <col min="2" max="2" width="65.625" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2154,10 +2216,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="32"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -2234,7 +2296,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="107.125" customWidth="1"/>
+    <col min="2" max="2" width="107.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2246,10 +2308,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
@@ -2268,10 +2330,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2298,8 +2360,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.625" customWidth="1"/>
-    <col min="2" max="2" width="109.75" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1"/>
+    <col min="2" max="2" width="109.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2311,10 +2373,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
@@ -2372,7 +2434,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.75" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="2" width="112" customWidth="1"/>
   </cols>
   <sheetData/>
@@ -2391,8 +2453,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.375" customWidth="1"/>
-    <col min="2" max="2" width="109.125" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="109.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2404,16 +2466,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -2432,7 +2494,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="37" t="s">
         <v>269</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -2440,13 +2502,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="24" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="24" t="s">
         <v>265</v>
       </c>
@@ -2517,8 +2579,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.875" customWidth="1"/>
-    <col min="2" max="2" width="109.25" customWidth="1"/>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
+    <col min="2" max="2" width="109.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2530,19 +2592,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="37" t="s">
         <v>227</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -2550,7 +2612,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="31"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="24" t="s">
         <v>278</v>
       </c>
@@ -2596,7 +2658,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.875" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
     <col min="2" max="2" width="106" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2609,16 +2671,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -2662,7 +2724,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="108.625" customWidth="1"/>
+    <col min="2" max="2" width="108.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2674,16 +2736,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2722,18 +2784,18 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
-    </row>
-    <row r="7" spans="1:2" ht="30">
+      <c r="B6" s="32"/>
+    </row>
+    <row r="7" spans="1:2" ht="45">
       <c r="A7" s="24" t="s">
         <v>287</v>
       </c>
@@ -2769,13 +2831,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.75" customWidth="1"/>
-    <col min="2" max="2" width="107.125" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+    <col min="2" max="2" width="107.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2787,10 +2849,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -2809,10 +2871,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="32"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -2829,10 +2891,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="21" t="s">
@@ -2861,17 +2923,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104:A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="111.75" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="134.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2883,10 +2945,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
@@ -2897,10 +2959,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="32"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -3005,7 +3067,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3013,7 +3075,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -3059,7 +3121,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3067,7 +3129,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="34"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="6" t="s">
         <v>44</v>
       </c>
@@ -3145,7 +3207,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="34" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -3153,7 +3215,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="32"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="6" t="s">
         <v>67</v>
       </c>
@@ -3191,7 +3253,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="34" t="s">
         <v>78</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3199,19 +3261,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="32"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="32"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="34" t="s">
         <v>79</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -3219,13 +3281,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="32"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="32"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="6" t="s">
         <v>82</v>
       </c>
@@ -3262,7 +3324,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45">
+    <row r="58" spans="1:2" ht="60">
       <c r="A58" s="33"/>
       <c r="B58" s="6" t="s">
         <v>90</v>
@@ -3296,7 +3358,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" ht="30">
       <c r="A63" s="33"/>
       <c r="B63" s="6" t="s">
         <v>103</v>
@@ -3335,7 +3397,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -3343,7 +3405,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="31"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="24" t="s">
         <v>253</v>
       </c>
@@ -3365,7 +3427,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="37" t="s">
         <v>251</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -3373,7 +3435,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="31"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="24" t="s">
         <v>248</v>
       </c>
@@ -3418,7 +3480,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="60">
+    <row r="79" spans="1:2" ht="90">
       <c r="A79" s="24" t="s">
         <v>240</v>
       </c>
@@ -3434,7 +3496,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="30">
+    <row r="81" spans="1:2" ht="45">
       <c r="A81" s="24" t="s">
         <v>236</v>
       </c>
@@ -3454,8 +3516,8 @@
       <c r="A83" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="B83" s="27" t="s">
-        <v>293</v>
+      <c r="B83" s="30" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3468,84 +3530,167 @@
     </row>
     <row r="85" spans="1:2" ht="30">
       <c r="A85" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B85" s="27" t="s">
         <v>294</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
       <c r="A86" s="33"/>
       <c r="B86" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="60">
       <c r="A88" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="60">
       <c r="A89" s="27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="75">
       <c r="A90" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="105">
       <c r="A91" s="27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>308</v>
+        <v>305</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>310</v>
+        <v>306</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>312</v>
+        <v>307</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="60">
+      <c r="A95" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="37"/>
+      <c r="B97" s="30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="45">
+      <c r="A98" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="37"/>
+      <c r="B99" s="30" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="33"/>
+      <c r="B101" s="30" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="60">
+      <c r="A102" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="37"/>
+      <c r="B103" s="30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="90">
+      <c r="A104" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="37"/>
+      <c r="B105" s="30" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A2:B2"/>
@@ -3585,8 +3730,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.25" customWidth="1"/>
-    <col min="2" max="2" width="106.875" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" customWidth="1"/>
+    <col min="2" max="2" width="106.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3598,16 +3743,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" t="s">
@@ -3641,8 +3786,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.125" customWidth="1"/>
-    <col min="2" max="2" width="106.25" style="10" customWidth="1"/>
+    <col min="1" max="1" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="106.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3654,10 +3799,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1">
       <c r="A3" s="21" t="s">
@@ -3676,10 +3821,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="32"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -3723,8 +3868,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.25" customWidth="1"/>
-    <col min="2" max="2" width="127.625" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="127.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3736,19 +3881,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="32"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="39" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -3756,12 +3901,12 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45">
+    <row r="12" spans="1:2" ht="60">
       <c r="A12" s="13" t="s">
         <v>117</v>
       </c>
@@ -3770,7 +3915,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="37" t="s">
         <v>119</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -3778,7 +3923,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="12" t="s">
         <v>121</v>
       </c>
@@ -3799,7 +3944,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30">
+    <row r="17" spans="1:2" ht="45">
       <c r="A17" s="12" t="s">
         <v>126</v>
       </c>
@@ -3816,7 +3961,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="37" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -3824,13 +3969,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="31"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="37" t="s">
         <v>133</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -3838,16 +3983,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="38"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -3857,7 +4002,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
+    <row r="25" spans="1:2" ht="45">
       <c r="A25" s="13" t="s">
         <v>139</v>
       </c>
@@ -3929,7 +4074,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="90">
+    <row r="34" spans="1:2" ht="120">
       <c r="A34" s="12" t="s">
         <v>157</v>
       </c>
@@ -3954,7 +4099,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="37" t="s">
         <v>163</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -3962,7 +4107,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="31"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="12" t="s">
         <v>165</v>
       </c>
@@ -4022,8 +4167,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.125" customWidth="1"/>
-    <col min="2" max="2" width="107.875" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" customWidth="1"/>
+    <col min="2" max="2" width="107.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4035,10 +4180,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -4072,7 +4217,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.75" customWidth="1"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
     <col min="2" max="2" width="108" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4104,8 +4249,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.375" customWidth="1"/>
-    <col min="2" max="2" width="114.875" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="114.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -4117,10 +4262,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4137,13 +4282,13 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="42" t="s">
         <v>187</v>
       </c>
       <c r="B10" t="s">
@@ -4151,13 +4296,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="41"/>
+      <c r="A11" s="43"/>
       <c r="B11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="44" t="s">
         <v>184</v>
       </c>
       <c r="B12" t="s">
@@ -4165,13 +4310,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="42"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="42"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="16" t="s">
         <v>181</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,15 @@
     <sheet name="JSON.org" sheetId="18" r:id="rId16"/>
     <sheet name="SimpleJSON" sheetId="19" r:id="rId17"/>
     <sheet name="JSONP" sheetId="20" r:id="rId18"/>
+    <sheet name="util.logging" sheetId="21" r:id="rId19"/>
+    <sheet name="Log4J" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="442">
   <si>
     <t>Topics</t>
   </si>
@@ -1536,12 +1538,796 @@
   <si>
     <t>refer jackson.practice.JSONAnnotations.jacksonInjectDemo()</t>
   </si>
+  <si>
+    <t xml:space="preserve"> @JsonDeserialize</t>
+  </si>
+  <si>
+    <t>The Jackson annotation @JsonDeserialize is used to specify a custom de-serializer class for a given field in a Java object. For instance, imagine you wanted to optimize the on-the-wire formatting of the boolean values false and true to 0 and 1</t>
+  </si>
+  <si>
+    <t>refer jackson.practice.JSONAnnotations.jsonDeserializeDemo()</t>
+  </si>
+  <si>
+    <t>http://tutorials.jenkov.com/java-itext/index.html</t>
+  </si>
+  <si>
+    <t>PDF generation tools</t>
+  </si>
+  <si>
+    <t>iText</t>
+  </si>
+  <si>
+    <t>Logging Tools</t>
+  </si>
+  <si>
+    <t>Log4J</t>
+  </si>
+  <si>
+    <t>java.util.Logging</t>
+  </si>
+  <si>
+    <t>Some other logging APIs</t>
+  </si>
+  <si>
+    <t>1. Log4J
+2. SLF4J
+3. Apache Commons Logging
+4. LogBack</t>
+  </si>
+  <si>
+    <t>Core Components of Logging API</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Logger
+2. Filter
+3. Handler
+4. Formatter
+5. External System (Disk, Console etc)
+refer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1_components_of_logging_api.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\images\d_logging_java_util_logging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Logging overview contains</t>
+  </si>
+  <si>
+    <t>1. Log Level
+2. Logger Hierarchy
+3. LogManager</t>
+  </si>
+  <si>
+    <t>Logging process overview</t>
+  </si>
+  <si>
+    <t>All logging is done via a Logger instance. Loggers gather the data to be logged into a LogRecord. The LogRecord is then forwarded to a Handler. The Handler determines what to do with the LogRecord. For instance, the LogRecord can be written to disk, or sent over the network to a surveillance system.
+Both Logger's and Handler's can pass the LogRecord through a Filter which determines whether the LogRecord should be forwarded or not.
+A Handler can also use a Formatter to format the LogRecord as a string before it is sent to the external disk or system.</t>
+  </si>
+  <si>
+    <t>Log Level</t>
+  </si>
+  <si>
+    <t>Whenever a message is logged, this message is logged with a certain log level. The level is an integer which determines how important the message is. The higher the number (level) is, the more important the message is.
+A Logger can have a minimum log level set on it, which determines if the message is forwarded to a Handler or not. This is not a Filter, even though it has the same effect. For instance, all messages below a certain level can be suppressed.</t>
+  </si>
+  <si>
+    <t>Logger Hierarchy</t>
+  </si>
+  <si>
+    <t>The Logger instances are organized into a hierarchy. A Logger further down in the hierarchy will forward messages logged to it, to its ancestors in the hierarchy. Thus, log levels and messages can be filtered or switched on and off for entire branches of the Logger hierarchy at a time</t>
+  </si>
+  <si>
+    <t>LogManager</t>
+  </si>
+  <si>
+    <t>The LogManager is a component that is not displayed in the diagram at the top of this text. The LogManager holds the Logger hierarchy, and also a global logging configuration, which can be read from a file</t>
+  </si>
+  <si>
+    <t>Basic Usage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The most common way of using the Java Logging API is to create a Logger in each class that needs to log. This instance is typically made static and final, meaning all instances of that class use the same Logger instance. Here is an example:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public class LoggingExamples {
+    private static final Logger logger = Logger.getLogger(LoggingExamples.class.getName());
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>As you can see from this example, it is common practice to use the class name including package name as name for the Logger. The name of the Logger to create is passed as string parameter to the Logger.getLogger() method. Once instantiated, you can call the various logging methods on the Logger.</t>
+    </r>
+  </si>
+  <si>
+    <t>Basic Usage 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are several different places in your code that you may log from. It all depends on what you want to log. For instance, ordinary debug trace logging calls to entering() and exiting() would be called at the beginning and end of a method call. If, on the other hand, you want to log an exception that occurred, you might want to log from inside a catch clause. Here are a few examples of logging:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public class LoggingExamples {
+    private static final Logger logger = Logger.getLogger(LoggingExamples.class.getName());
+    public void doIt() {
+        logger.entering(getClass().getName(), "doIt");
+        try{ //... something that can throw an exception} catch (Exception e) { logger.log(Level.SEVERE, "Error doing XYZ", e); }
+       logger.exiting(getClass().getName(), "doIt");
+    } }</t>
+    </r>
+  </si>
+  <si>
+    <t>java.util.logging.Logger</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The java.util.Logger class is the main access point to the Java logging API. Here is how you create a logger:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>private static final Logger logger = Logger.getLogger("myLogger");</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //generally will pass class name as parameter</t>
+    </r>
+  </si>
+  <si>
+    <t>parameter to getLogger() method</t>
+  </si>
+  <si>
+    <t>The string passed as parameter to the getLogger() factory method is the name of the Logger to create. You can choose the name freely, but the name implies where the Logger is located in the Logger hierarchy. Every . (dot) in the name is interpreted as a branch in the hierarchy. Look at these names:
+myApp
+myApp.user
+myApp.admin
+myApp.admin.import.user
+These names are all valid. They also imply a hierarchy. The name "myApp" is at the top of the hierarchy. The two names "myApp.user" and "myApp.admin" are children of the "myApp" name. The name "myApp.admin.import.user" is a branch of the name "myApp.admin.import", which is again a branch of the "myApp.admin" name.</t>
+  </si>
+  <si>
+    <t>Types of method available in java.util.logging.Logger class for log messages</t>
+  </si>
+  <si>
+    <t>1. log
+2. logp
+3. logrb
+4. entering
+5. exiting
+6. fine, finer, finest
+7. config, info, warning, severe</t>
+  </si>
+  <si>
+    <t>for detailed explanation about above methods</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2_Logging Messages - Methods.doc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\images\d_logging_java_util_logging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>How to add Handler to logger instance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can add Handler's to the Logger using the addHandler() method. Here is an example:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logger logger = Logger.getLogger("myLogger");
+logger.addHandler(new ConsoleHandler());
+logger.logrb(Level.SEVERE, "logging.LoggingExamples", "main","resources.myresources", "key1");</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A Logger can have multiple Handler's. When logging, messages are forwarded to all Handler's.</t>
+    </r>
+  </si>
+  <si>
+    <t>Getting handlers of a logger</t>
+  </si>
+  <si>
+    <t>Handler[] handlers = logger.getHandlers();</t>
+  </si>
+  <si>
+    <t>Removing Handler</t>
+  </si>
+  <si>
+    <t>Logger logger = Logger.getLogger("myLogger");
+Handler handler = new ConsoleHandler();
+logger.addHandler(handler);
+logger.remove(handler)</t>
+  </si>
+  <si>
+    <t>Setting Filter to logger</t>
+  </si>
+  <si>
+    <t>Filter filter = new MyFilterImpl();
+logger.setFilter(filter);</t>
+  </si>
+  <si>
+    <t>Getting the filter in use</t>
+  </si>
+  <si>
+    <t>Filter filter = logger.getFilter();</t>
+  </si>
+  <si>
+    <t>Setting log level to Logger</t>
+  </si>
+  <si>
+    <t>Logger logger = Logger.getLogger("myLogger");
+logger.setLevel(Level.INFO);</t>
+  </si>
+  <si>
+    <t>Getting the log level</t>
+  </si>
+  <si>
+    <t>logger.getLevel();</t>
+  </si>
+  <si>
+    <t>To know whether logging message would be logger or not?</t>
+  </si>
+  <si>
+    <t>boolean isInfoLoggable = logger.isLoggable(Level.INFO);</t>
+  </si>
+  <si>
+    <t>http://tutorials.jenkov.com/java-logging/logger-hierarchy.html</t>
+  </si>
+  <si>
+    <t>Log Leves</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Each log level will have constant value:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. OFF == Integer.MAX_VALUE == (2^31 - 1)
+2. SEVERE == 1000
+3. WARNING == 900
+4. INFO == 800
+5. CONFIG == 700
+6. FINE == 500
+7. FINER == 400
+8. FINEST == 300
+9. ALL = Integer.MIN_VALUE (-2^31)</t>
+    </r>
+  </si>
+  <si>
+    <t>Formatters</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Handler's in the Java Logging API use a java.util.logging.Formatter to format the LogRecord's before writing it to an external system.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Java comes with two built-in Formatter's (subclasses of Formatter): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java.util.logging.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SimpleFormatter, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java.util.logging.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XMLFormatter</t>
+    </r>
+  </si>
+  <si>
+    <t>Custom Formatter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can create your own Formatter by subclassing the java.util.logging.Formatter class. Here is a simple example:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public class MyFormatter extends Formatter {
+    @Override
+    public String format(LogRecord record) {  return record.getLevel() + ":" + record.getMessage();   }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Java Logging: Filters</t>
+  </si>
+  <si>
+    <t>You can set a Filter on a Logger. A Filter can filter out log messages, meaning decide if the message gets logged or not. Filters are represented by the Java interface java.util.logging.Filter</t>
+  </si>
+  <si>
+    <t>Custom Filter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Filter interface is defined like this:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public interface Filter { public boolean isLoggable(LogRecord record); }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+To create a Filter you must implement that interface. Here is a very simple example implementation:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public class MyFilter implements Filter {
+    public boolean isLoggable(LogRecord record) { return false; }
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+This filter rejects all messages. Of course this is not a very useful filter. You would probably inspect the LogRecord and make a decision based on that. You can learn more about the LogRecord in the text on the LogRecord, and in the JavaDoc too</t>
+    </r>
+  </si>
+  <si>
+    <t>Setting Handlers and Formatter</t>
+  </si>
+  <si>
+    <t>ConsoleHandler handler = new ConsoleHandler();
+handler.setFormatter(new SimpleFormatter());
+Formatter formatter = handler.getFormatter();
+logger.setHandler(handler);</t>
+  </si>
+  <si>
+    <t>Built in handlers in Java API</t>
+  </si>
+  <si>
+    <t>1. ConsoleHandler
+2. FileHandler
+3. StreamHandler
+4. SocketHandler
+5. MemoryHandler</t>
+  </si>
+  <si>
+    <t>For detailed explanation about above handlers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">refer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3_Handlers_and_Formatters.doc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaPrep\images\d_logging_java_util_logging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Java logging can be configured in 2 ways</t>
+  </si>
+  <si>
+    <t>1. via configuration class
+2. via configuration file
+The initialization of the configuration is taken care of by the java.util.logging.LogManager class.</t>
+  </si>
+  <si>
+    <t>Configuration Class</t>
+  </si>
+  <si>
+    <t>You can use a Java class to configure the Java Logging API. 
+You do so by specifying the name of the class in the JVM parameter java.util.logging.config.class. 
+It is the constructor of that class that should load the configuration and apply it to the Logger's in the hierarchy.</t>
+  </si>
+  <si>
+    <t>For detailed explanation on Java logging configuration</t>
+  </si>
+  <si>
+    <t>refer 4_java_logging_configuration.doc in (JavaPrep\images\d_logging_java_util_logging)</t>
+  </si>
+  <si>
+    <t>refer 5_LogManager.doc in (JavaPrep\images\d_logging_java_util_logging)</t>
+  </si>
+  <si>
+    <t>Log4j is highly configurable through external configuration files at runtime. It views the logging process in terms of levels of priorities and offers mechanisms to direct logging information to a great variety of destinations, such as a database, file, console, UNIX Syslog, etc.</t>
+  </si>
+  <si>
+    <t>Log4J has 3 main components</t>
+  </si>
+  <si>
+    <t>1. loggers
+2. appenders
+3. layouts</t>
+  </si>
+  <si>
+    <t>loggers</t>
+  </si>
+  <si>
+    <t>Responsible for capturing logging information</t>
+  </si>
+  <si>
+    <t>appenders</t>
+  </si>
+  <si>
+    <t>Responsible for publishing logging information to various destinations</t>
+  </si>
+  <si>
+    <t>layouts</t>
+  </si>
+  <si>
+    <t>formatting logging information in different styles</t>
+  </si>
+  <si>
+    <t>Log4J features</t>
+  </si>
+  <si>
+    <t>1. It is thread-safe.
+2. It is optimized for speed.
+3. It is based on a named logger hierarchy.
+4. It supports multiple output appenders per logger.
+5. It supports internationalization.
+6. It is not restricted to a predefined set of facilities</t>
+  </si>
+  <si>
+    <t>7. Logging behavior can be set at runtime using a configuration file
+8. It is designed to handle Java Exceptions from the start
+9. It uses multiple levels, namely ALL, TRACE, DEBUG, INFO, WARN, ERROR, and FATAL.
+10 The format of the log output can be easily changed by extending the Layout class.
+11. The target of the log output as well as the writing strategy can be altered by implementations of the Appender interface.
+12 It is fail-stop. However, although it certainly strives to ensure delivery, log4j does not guarantee that each log statement will be delivered to its destination</t>
+  </si>
+  <si>
+    <t>2 types of objects in Log4J</t>
+  </si>
+  <si>
+    <t>1. core objects
+2. support objects</t>
+  </si>
+  <si>
+    <t>core objects</t>
+  </si>
+  <si>
+    <t>mandatory objects of the framework. These objects are required to use the framework</t>
+  </si>
+  <si>
+    <t>support object</t>
+  </si>
+  <si>
+    <t>optional objects of the framework. They support core objects to perform additional but important tasks</t>
+  </si>
+  <si>
+    <t>Core objects types</t>
+  </si>
+  <si>
+    <t>1. Logger object
+2. Layout object
+3. Appender object</t>
+  </si>
+  <si>
+    <t>Logger object</t>
+  </si>
+  <si>
+    <t>The top-level layer is the Logger which provides the Logger object. The Logger object is responsible for capturing logging information and they are stored in a namespace hierarchy.</t>
+  </si>
+  <si>
+    <t>Layout object</t>
+  </si>
+  <si>
+    <t>The Layout layer provides objects which are used to format logging information in different styles. It provides support to appender objects before publishing logging information.
+Layout objects play an important role in publishing logging information in a way that is human-readable and reusable</t>
+  </si>
+  <si>
+    <t>Appender object</t>
+  </si>
+  <si>
+    <t>This is a lower-level layer which provides Appender objects. The Appender object is responsible for publishing logging information to various preferred destinations such as a database, file, console, UNIX Syslog, etc</t>
+  </si>
+  <si>
+    <t>Support object types</t>
+  </si>
+  <si>
+    <t>1. Level object
+2. Filter Object
+3. Object Render
+4. LogManager</t>
+  </si>
+  <si>
+    <t>Level object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Level object defines the granularity and priority of any logging information. 
+There are seven levels of logging defined within the API: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OFF, DEBUG, INFO, ERROR, WARN, FATAL, and ALL</t>
+    </r>
+  </si>
+  <si>
+    <t>Filter object</t>
+  </si>
+  <si>
+    <t>The Filter object is used to analyze logging information and make further decisions on whether that information should be logged or not. An Appender objects can have several Filter objects associated with them. If logging information is passed to a particular Appender object, all the Filter objects associated with that Appender need to approve the logging information before it can be published to the attached destination</t>
+  </si>
+  <si>
+    <t>Object Renderer</t>
+  </si>
+  <si>
+    <t>The ObjectRenderer object is specialized in providing a String representation of different objects passed to the logging framework. This object is used by Layout objects to prepare the final logging information</t>
+  </si>
+  <si>
+    <t>The LogManager object manages the logging framework. It is responsible for reading the initial configuration parameters from a system-wide configuration file or a configuration class</t>
+  </si>
+  <si>
+    <t>http://tutorials.jenkov.com/java-logging/index.html</t>
+  </si>
+  <si>
+    <t>java.util.logging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,6 +2389,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1730,7 +2537,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1804,6 +2611,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1813,6 +2627,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1820,9 +2637,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1841,6 +2655,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2137,11 +2960,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2155,6 +2978,9 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="50" t="s">
+        <v>230</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2163,12 +2989,11 @@
       <c r="A2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="33" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
@@ -2216,10 +3041,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -2236,29 +3061,46 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>229</v>
       </c>
     </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" s="35"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Topics!A2" display="Up"/>
@@ -2272,15 +3114,18 @@
     <hyperlink ref="A11" location="Docker!A1" display="Docker"/>
     <hyperlink ref="A2" location="Splunk!A1" display="Splunk"/>
     <hyperlink ref="A12" location="Bamboo!A1" display="Bamboo"/>
-    <hyperlink ref="B2" location="Materials!A1" display="Materials"/>
+    <hyperlink ref="B1" location="Materials!A1" display="Materials"/>
     <hyperlink ref="A20" location="JSON!A1" display="Jackson JSON"/>
     <hyperlink ref="A14" location="GSON!A1" display="GSON"/>
     <hyperlink ref="A15" location="Boon!A1" display="Boon"/>
     <hyperlink ref="A16" location="JSON.org!A1" display="JSON.org"/>
     <hyperlink ref="A17" location="JSONP!A1" display="JSONP - JSR 353 specification give Sun/Oracle"/>
     <hyperlink ref="A18" location="SimpleJSON!A1" display="Simple JSON"/>
+    <hyperlink ref="A25" location="util.logging!A1" display="java.util.Logging"/>
+    <hyperlink ref="A24" location="Log4J!A1" display="Log4J"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2308,10 +3153,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
@@ -2330,10 +3175,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2373,10 +3218,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
@@ -2466,16 +3311,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -2592,16 +3437,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="37" t="s">
@@ -2671,16 +3516,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -2736,16 +3581,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2766,7 +3611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2784,16 +3629,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="24" t="s">
@@ -2825,9 +3670,323 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64.42578125" customWidth="1"/>
+    <col min="2" max="2" width="122.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="1:2" ht="60">
+      <c r="A3" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90">
+      <c r="A4" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45">
+      <c r="A5" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="90">
+      <c r="A6" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="120">
+      <c r="A10" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="150">
+      <c r="A11" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="165">
+      <c r="A13" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="105">
+      <c r="A14" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="75">
+      <c r="A16" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="150">
+      <c r="A25" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="75">
+      <c r="A27" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="120">
+      <c r="A29" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="60">
+      <c r="A30" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="75">
+      <c r="A31" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="util.logging!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A25" display="Topics"/>
+    <hyperlink ref="B24" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2849,10 +4008,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -2871,10 +4030,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="35"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -2891,10 +4050,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="21" t="s">
@@ -2904,18 +4063,243 @@
         <v>219</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="35"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="B18" s="35"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
-    <hyperlink ref="A1" location="Topics!B2" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!B1" display="Topics"/>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="A16" r:id="rId4" display="http://tutorials.jenkov.com/java-itext/index.html"/>
+    <hyperlink ref="B16" r:id="rId5"/>
+    <hyperlink ref="B19" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="60.140625" customWidth="1"/>
+    <col min="2" max="2" width="114.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45">
+      <c r="A4" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="94.5">
+      <c r="A8" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="126">
+      <c r="A9" s="36"/>
+      <c r="B9" s="49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>439</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Log4J!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A24" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2923,11 +4307,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104:A105"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2945,10 +4329,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
@@ -2959,10 +4343,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -3053,7 +4437,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -3061,13 +4445,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="33"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -3075,7 +4459,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="36"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -3121,7 +4505,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -3129,7 +4513,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="35"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="6" t="s">
         <v>44</v>
       </c>
@@ -3207,7 +4591,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -3215,7 +4599,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="34"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="6" t="s">
         <v>67</v>
       </c>
@@ -3253,7 +4637,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3261,19 +4645,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="34"/>
+      <c r="A49" s="38"/>
       <c r="B49" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="34"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="38" t="s">
         <v>79</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -3281,13 +4665,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="34"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="34"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="6" t="s">
         <v>82</v>
       </c>
@@ -3317,27 +4701,27 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="60">
-      <c r="A58" s="33"/>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="36"/>
       <c r="B58" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="33"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="33"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="6" t="s">
         <v>92</v>
       </c>
@@ -3351,15 +4735,15 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="36" t="s">
         <v>95</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="33"/>
+    <row r="63" spans="1:2">
+      <c r="A63" s="36"/>
       <c r="B63" s="6" t="s">
         <v>103</v>
       </c>
@@ -3480,7 +4864,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="90">
+    <row r="79" spans="1:2" ht="60">
       <c r="A79" s="24" t="s">
         <v>240</v>
       </c>
@@ -3496,7 +4880,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="45">
+    <row r="81" spans="1:2" ht="30">
       <c r="A81" s="24" t="s">
         <v>236</v>
       </c>
@@ -3529,7 +4913,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="36" t="s">
         <v>293</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -3537,7 +4921,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="33"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="27" t="s">
         <v>295</v>
       </c>
@@ -3643,7 +5027,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="33" t="s">
+      <c r="A100" s="36" t="s">
         <v>321</v>
       </c>
       <c r="B100" s="30" t="s">
@@ -3651,7 +5035,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="33"/>
+      <c r="A101" s="36"/>
       <c r="B101" s="30" t="s">
         <v>323</v>
       </c>
@@ -3684,26 +5068,41 @@
         <v>329</v>
       </c>
     </row>
+    <row r="106" spans="1:2" ht="30">
+      <c r="A106" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="37"/>
+      <c r="B107" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A85:A86"/>
+  <mergeCells count="19">
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -3743,16 +5142,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" t="s">
@@ -3799,10 +5198,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1">
       <c r="A3" s="21" t="s">
@@ -3821,10 +5220,10 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="35"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -3881,19 +5280,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="35"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -3989,10 +5388,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="41"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -4180,10 +5579,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -4262,10 +5661,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -4282,13 +5681,13 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="44"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="45" t="s">
         <v>187</v>
       </c>
       <c r="B10" t="s">
@@ -4296,13 +5695,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="47" t="s">
         <v>184</v>
       </c>
       <c r="B12" t="s">
@@ -4310,13 +5709,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="44"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="44"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="16" t="s">
         <v>181</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="446">
   <si>
     <t>Topics</t>
   </si>
@@ -630,10 +630,6 @@
   </si>
   <si>
     <t>https://apiary.io/</t>
-  </si>
-  <si>
-    <t>1. REST API documentation tool
-2. Swagger user JSON to describe the API</t>
   </si>
   <si>
     <t>Quick start</t>
@@ -2321,6 +2317,33 @@
   </si>
   <si>
     <t>java.util.logging</t>
+  </si>
+  <si>
+    <t>1. REST API documentation tool
+2. Swagger uses JSON to describe the API
+3. Swagger has build in support for JAX-RS</t>
+  </si>
+  <si>
+    <t>Swagger dependency</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+ &lt;groupId&gt;com.wordnik&lt;/groupId&gt;
+ &lt;artifactId&gt;swagger-jaxrs_2.10&lt;/artifactId&gt;
+ &lt;version&gt;1.3.0&lt;/version&gt;
+ &lt;exclusions&gt; 
+   &lt;exclusion&gt;
+     &lt;groupId&gt;javax.ws.rs&lt;/groupId&gt;
+    &lt;artifactId&gt;jsr311-api&lt;/artifactId&gt;
+   &lt;/exclusion&gt;
+ &lt;/exclusions&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>JSONLint</t>
+  </si>
+  <si>
+    <t>Online website to validate JSON</t>
   </si>
 </sst>
 </file>
@@ -2537,7 +2560,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2618,6 +2641,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2655,15 +2692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2964,7 +2992,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2978,8 +3006,8 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>230</v>
+      <c r="B1" s="38" t="s">
+        <v>229</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2987,12 +3015,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3007,94 +3035,102 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="35"/>
+      <c r="A13" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="41"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="B23" s="35"/>
+      <c r="A23" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" s="41"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3153,32 +3189,32 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1">
       <c r="A3" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3218,33 +3254,33 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3311,91 +3347,91 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="35"/>
+      <c r="A2" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="41"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="37" t="s">
-        <v>269</v>
+      <c r="A9" s="43" t="s">
+        <v>268</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3437,45 +3473,45 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="35"/>
+      <c r="A2" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="41"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="37" t="s">
-        <v>227</v>
+      <c r="A7" s="43" t="s">
+        <v>226</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="37"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3516,31 +3552,31 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="35"/>
+      <c r="A2" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="41"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3581,16 +3617,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="35"/>
+      <c r="A2" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="41"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3629,31 +3665,31 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="35"/>
+      <c r="A2" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="41"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3694,281 +3730,281 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>339</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>343</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="90">
       <c r="A6" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>345</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>347</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>349</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>351</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
       <c r="A10" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>353</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
       <c r="A11" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>355</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>357</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="165">
       <c r="A13" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>359</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105">
       <c r="A14" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>361</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>363</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
       <c r="A16" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>365</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>367</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>369</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>371</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>373</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>375</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>377</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>379</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
       <c r="A25" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>382</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>384</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>386</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>388</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="120">
       <c r="A29" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>390</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
       <c r="A30" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>392</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75">
       <c r="A31" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>394</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>396</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
       <c r="A33" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>398</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="B34" s="32" t="s">
         <v>400</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>402</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4008,10 +4044,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" s="35"/>
+      <c r="A2" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -4030,10 +4066,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="35"/>
+      <c r="A7" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="41"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -4050,45 +4086,45 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" s="35"/>
+      <c r="A15" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="34" t="s">
-        <v>441</v>
-      </c>
-      <c r="B18" s="35"/>
+      <c r="A18" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4137,159 +4173,159 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>406</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>408</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>410</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="32" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="94.5">
+      <c r="A8" s="42" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="B8" s="49" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="126">
+      <c r="A9" s="42"/>
+      <c r="B9" s="37" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="36"/>
-      <c r="B9" s="49" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>417</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>419</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>421</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>423</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>425</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>427</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>429</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>431</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>433</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>435</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>437</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -4329,24 +4365,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="35"/>
+      <c r="A2" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="41"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -4437,7 +4473,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="42" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -4445,13 +4481,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="36"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="46" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4459,7 +4495,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="40"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -4505,7 +4541,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="45" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -4513,7 +4549,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="39"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="6" t="s">
         <v>44</v>
       </c>
@@ -4591,7 +4627,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="44" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -4599,7 +4635,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="38"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="6" t="s">
         <v>67</v>
       </c>
@@ -4637,7 +4673,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="44" t="s">
         <v>78</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4645,19 +4681,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="38"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="38"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="44" t="s">
         <v>79</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -4665,13 +4701,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="38"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="38"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="6" t="s">
         <v>82</v>
       </c>
@@ -4701,7 +4737,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="42" t="s">
         <v>88</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -4709,19 +4745,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="36"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="36"/>
+      <c r="A59" s="42"/>
       <c r="B59" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="36"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="6" t="s">
         <v>92</v>
       </c>
@@ -4735,7 +4771,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="42" t="s">
         <v>95</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -4743,7 +4779,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="36"/>
+      <c r="A63" s="42"/>
       <c r="B63" s="6" t="s">
         <v>103</v>
       </c>
@@ -4766,320 +4802,320 @@
     </row>
     <row r="66" spans="1:2" ht="150">
       <c r="A66" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="37" t="s">
-        <v>255</v>
+      <c r="A68" s="43" t="s">
+        <v>254</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="37"/>
+      <c r="A69" s="43"/>
       <c r="B69" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="37" t="s">
-        <v>251</v>
+      <c r="A72" s="43" t="s">
+        <v>250</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="37"/>
+      <c r="A73" s="43"/>
       <c r="B73" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
       <c r="A76" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="255">
       <c r="A78" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
       <c r="A79" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
       <c r="A80" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
       <c r="A81" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="75">
       <c r="A82" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="28" customFormat="1">
       <c r="A83" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B84" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="B84" s="27" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B85" s="27" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="90">
+      <c r="A86" s="42"/>
+      <c r="B86" s="27" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="36"/>
-      <c r="B86" s="27" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="60">
       <c r="A88" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="60">
       <c r="A89" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="75">
       <c r="A90" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="105">
       <c r="A91" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="60">
       <c r="A95" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B95" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="B95" s="29" t="s">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="43" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="37" t="s">
-        <v>310</v>
-      </c>
       <c r="B96" s="30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="43"/>
+      <c r="B97" s="30" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="37"/>
-      <c r="B97" s="30" t="s">
-        <v>314</v>
-      </c>
-    </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="37" t="s">
+      <c r="A98" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="B98" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="B98" s="30" t="s">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="43"/>
+      <c r="B99" s="30" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="37"/>
-      <c r="B99" s="30" t="s">
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="42" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="36" t="s">
+      <c r="B100" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="B100" s="30" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="42"/>
+      <c r="B101" s="30" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="36"/>
-      <c r="B101" s="30" t="s">
+    <row r="102" spans="1:2" ht="60">
+      <c r="A102" s="43" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="37" t="s">
+      <c r="B102" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="B102" s="30" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="43"/>
+      <c r="B103" s="30" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="37"/>
-      <c r="B103" s="30" t="s">
+    <row r="104" spans="1:2" ht="90">
+      <c r="A104" s="43" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="37" t="s">
+      <c r="B104" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B104" s="30" t="s">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="43"/>
+      <c r="B105" s="30" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="37"/>
-      <c r="B105" s="30" t="s">
+    <row r="106" spans="1:2" ht="30">
+      <c r="A106" s="43" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="37" t="s">
+      <c r="B106" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="B106" s="31" t="s">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="43"/>
+      <c r="B107" s="31" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="37"/>
-      <c r="B107" s="31" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5120,11 +5156,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5142,23 +5178,31 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="35"/>
+      <c r="A2" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="41"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
-    </row>
-    <row r="6" spans="1:2" ht="30">
+      <c r="B5" s="41"/>
+    </row>
+    <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>110</v>
+      <c r="B6" s="34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="165">
+      <c r="A7" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -5198,32 +5242,32 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1">
       <c r="A3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30">
       <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5280,251 +5324,251 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="12" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="7" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="13" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="43" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="37" t="s">
+      <c r="B13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="12" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="43"/>
+      <c r="B14" s="12" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="12" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="43" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="37" t="s">
+      <c r="B19" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="43"/>
+      <c r="B20" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="12" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="43" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="37" t="s">
+      <c r="B21" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="12" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="43"/>
+      <c r="B22" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="12" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="47" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="47"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="195">
       <c r="A31" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75">
       <c r="A32" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120">
       <c r="A34" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
       <c r="A35" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="12" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="43" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="37" t="s">
+      <c r="B37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="7" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="43"/>
+      <c r="B38" s="12" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="37"/>
-      <c r="B38" s="12" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5579,17 +5623,17 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5661,151 +5705,151 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="44"/>
+      <c r="A2" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="50"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="45" t="s">
-        <v>187</v>
+      <c r="A10" s="51" t="s">
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="52"/>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47" t="s">
-        <v>184</v>
+      <c r="A12" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="47"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="47"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s">
         <v>189</v>
-      </c>
-      <c r="B18" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" t="s">
         <v>191</v>
-      </c>
-      <c r="B19" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s">
         <v>193</v>
-      </c>
-      <c r="B20" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" t="s">
         <v>197</v>
-      </c>
-      <c r="B22" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" t="s">
         <v>199</v>
-      </c>
-      <c r="B23" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
         <v>201</v>
-      </c>
-      <c r="B24" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="456">
   <si>
     <t>Topics</t>
   </si>
@@ -294,17 +294,6 @@
   </si>
   <si>
     <t>Reading array of json objects in javascript</t>
-  </si>
-  <si>
-    <t>var books = { "java" : [
-   {"name" : "Head First java", "price" : 100},
-   {"name" : "Head First Servlets and JSP", "price" : 200} 
-  ],
-  "javascript" : [
-   {"name" : "head First javascript", "price" : 300},
-   {"name" : "javascript in action", "price" : 400}
-  ]
-  };</t>
   </si>
   <si>
     <t>for (var i = books.java.length-1; i &gt;= 0; i--) {
@@ -1155,12 +1144,6 @@
     <t>JSON Quick start</t>
   </si>
   <si>
-    <t>String carJson =
-        "{ \"brand\" : \"Mercedes\", \"doors\" : 5 }";
-JsonFactory factory = new JsonFactory();
-JsonParser  parser  = factory.createParser(carJson);</t>
-  </si>
-  <si>
     <t>example of creating a JsonParser that parses JSON from a string</t>
   </si>
   <si>
@@ -2344,6 +2327,46 @@
   </si>
   <si>
     <t>Online website to validate JSON</t>
+  </si>
+  <si>
+    <t>var books = { "java" : [   {"name" : "Head First java", "price" : 100},   {"name" : "Head First Servlets and JSP", "price" : 200}   ],
+                           "javascript" : [   {"name" : "head First javascript", "price" : 300},   {"name" : "javascript in action", "price" : 400}  ]
+  };</t>
+  </si>
+  <si>
+    <t>String carJson =        "{ \"brand\" : \"Mercedes\", \"doors\" : 5 }";
+JsonFactory factory = new JsonFactory();
+JsonParser  parser  = factory.createParser(carJson);</t>
+  </si>
+  <si>
+    <t>Swagger UI github link</t>
+  </si>
+  <si>
+    <t>https://github.com/swagger-api/swagger-ui</t>
+  </si>
+  <si>
+    <t>Swagger with Apache CXF Rest</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/swagger-make-developers-love</t>
+  </si>
+  <si>
+    <t>Swagger2 with Spring REST</t>
+  </si>
+  <si>
+    <t>http://www.baeldung.com/swagger-2-documentation-for-spring-rest-api</t>
+  </si>
+  <si>
+    <t>Spring Boot + Swagger UI</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/spring-boot-swagger-ui</t>
+  </si>
+  <si>
+    <t>SpringFox</t>
+  </si>
+  <si>
+    <t>https://github.com/springfox/springfox</t>
   </si>
 </sst>
 </file>
@@ -2560,7 +2583,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2655,6 +2678,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2662,12 +2689,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2990,9 +3017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3007,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3015,122 +3042,122 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="B13" s="41"/>
+      <c r="A13" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="39" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="B23" s="41"/>
+      <c r="A23" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="43"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3198,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3188,43 +3215,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="41"/>
-    </row>
-    <row r="3" spans="1:2" s="19" customFormat="1">
-      <c r="A3" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
+    <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="1">
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Vagrant!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A10" display="Topics"/>
-    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3232,11 +3236,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3254,34 +3258,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="41"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="A2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3347,91 +3327,91 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="41"/>
+      <c r="A2" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="43"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="43" t="s">
-        <v>268</v>
+      <c r="A9" s="44" t="s">
+        <v>266</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3473,45 +3453,45 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="41"/>
+      <c r="A2" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="43"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="43" t="s">
-        <v>226</v>
+      <c r="A7" s="44" t="s">
+        <v>225</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3552,31 +3532,31 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="41"/>
+      <c r="A2" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="43"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3617,16 +3597,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="41"/>
+      <c r="A2" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="43"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3665,31 +3645,31 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="41"/>
+      <c r="A2" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="43"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3712,7 +3692,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3730,281 +3710,281 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="90">
       <c r="A6" s="32" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
       <c r="A10" s="32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
       <c r="A11" s="32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="165">
       <c r="A13" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105">
       <c r="A14" s="32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
       <c r="A16" s="32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="32" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="32" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
       <c r="A25" s="32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="32" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="32" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="120">
       <c r="A29" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
       <c r="A30" s="32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75">
       <c r="A31" s="32" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
       <c r="A33" s="32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -4022,11 +4002,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4044,32 +4024,32 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="41"/>
+      <c r="A2" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="41"/>
+      <c r="A7" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -4086,54 +4066,198 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="41"/>
+      <c r="A11" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="43"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="21" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="41" customFormat="1">
+      <c r="A15" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="41" customFormat="1">
+      <c r="A16" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="43"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B20" s="43"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" s="43"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="43"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="43"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="43"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="21" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="B15" s="41"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="40" t="s">
-        <v>440</v>
-      </c>
-      <c r="B18" s="41"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>439</v>
+      <c r="B37" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="43"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A18:B18"/>
+  <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -4141,9 +4265,17 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="A16" r:id="rId4" display="http://tutorials.jenkov.com/java-itext/index.html"/>
-    <hyperlink ref="B16" r:id="rId5"/>
-    <hyperlink ref="B19" r:id="rId6"/>
+    <hyperlink ref="A18" r:id="rId4" display="http://tutorials.jenkov.com/java-itext/index.html"/>
+    <hyperlink ref="B18" r:id="rId5"/>
+    <hyperlink ref="B21" r:id="rId6"/>
+    <hyperlink ref="B30" r:id="rId7"/>
+    <hyperlink ref="B34" r:id="rId8"/>
+    <hyperlink ref="B37" r:id="rId9"/>
+    <hyperlink ref="B41" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4173,159 +4305,159 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="94.5">
+      <c r="A8" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B8" s="37" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="42" t="s">
+    <row r="9" spans="1:2" ht="126">
+      <c r="A9" s="46"/>
+      <c r="B9" s="37" t="s">
         <v>413</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="42"/>
-      <c r="B9" s="37" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="32" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="32" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="32" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="32" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" s="32" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -4346,7 +4478,7 @@
   <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4365,31 +4497,31 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="41"/>
+      <c r="A2" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="43"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="105">
@@ -4473,7 +4605,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -4481,13 +4613,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="42"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4495,7 +4627,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="46"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -4540,598 +4672,586 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="135">
-      <c r="A31" s="45" t="s">
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="40" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="120">
+      <c r="A32" s="47"/>
+      <c r="B32" s="6" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="45"/>
-      <c r="B32" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75">
       <c r="A33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="75">
       <c r="A34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75">
       <c r="A35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="9" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="75">
+      <c r="A42" s="45" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="44" t="s">
+      <c r="B42" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="45"/>
+      <c r="B43" s="6" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="44"/>
-      <c r="B43" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120">
       <c r="A44" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="165">
       <c r="A45" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="60">
       <c r="A46" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="165">
       <c r="A47" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="6" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="44" t="s">
+    <row r="49" spans="1:2" ht="45">
+      <c r="A49" s="45"/>
+      <c r="B49" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="45"/>
+      <c r="B50" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="44"/>
-      <c r="B49" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="44"/>
-      <c r="B50" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="44" t="s">
+      <c r="B51" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="6" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="60">
+      <c r="A52" s="45"/>
+      <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="44"/>
-      <c r="B52" s="6" t="s">
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="45"/>
+      <c r="B53" s="6" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="44"/>
-      <c r="B53" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="60">
       <c r="A55" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135">
       <c r="A56" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="60">
+      <c r="A57" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="42" t="s">
+      <c r="B57" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B57" s="6" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="46"/>
+      <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="42"/>
-      <c r="B58" s="6" t="s">
+    <row r="59" spans="1:2" ht="60">
+      <c r="A59" s="46"/>
+      <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="42"/>
-      <c r="B59" s="6" t="s">
+    <row r="60" spans="1:2" ht="30">
+      <c r="A60" s="46"/>
+      <c r="B60" s="6" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="42"/>
-      <c r="B60" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="105">
       <c r="A61" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="6" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="30">
+      <c r="A62" s="46" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="42" t="s">
+      <c r="B62" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="42"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30">
       <c r="A64" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="150">
       <c r="A66" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="43" t="s">
-        <v>254</v>
+      <c r="A68" s="44" t="s">
+        <v>252</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="43"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="43" t="s">
-        <v>250</v>
+      <c r="A72" s="44" t="s">
+        <v>248</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="43"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
       <c r="A76" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="255">
       <c r="A78" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
       <c r="A79" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
       <c r="A80" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
       <c r="A81" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="75">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45">
       <c r="A82" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="28" customFormat="1">
       <c r="A83" s="27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B84" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30">
+      <c r="A85" s="46" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="42" t="s">
+      <c r="B85" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="90">
+      <c r="A86" s="46"/>
+      <c r="B86" s="27" t="s">
         <v>292</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="42"/>
-      <c r="B86" s="27" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="60">
       <c r="A88" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="60">
       <c r="A89" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="75">
       <c r="A90" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="105">
       <c r="A91" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="60">
       <c r="A95" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="B95" s="29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="43" t="s">
-        <v>309</v>
-      </c>
       <c r="B96" s="30" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="43"/>
+      <c r="A97" s="44"/>
       <c r="B97" s="30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="43" t="s">
+      <c r="A98" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="44"/>
+      <c r="B99" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="B98" s="30" t="s">
+    </row>
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="46" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="43"/>
-      <c r="B99" s="30" t="s">
+      <c r="B100" s="30" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="42" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="46"/>
+      <c r="B101" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="B100" s="30" t="s">
+    </row>
+    <row r="102" spans="1:2" ht="60">
+      <c r="A102" s="44" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="42"/>
-      <c r="B101" s="30" t="s">
+      <c r="B102" s="30" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="43" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="44"/>
+      <c r="B103" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="B102" s="30" t="s">
+    </row>
+    <row r="104" spans="1:2" ht="90">
+      <c r="A104" s="44" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="43"/>
-      <c r="B103" s="30" t="s">
+      <c r="B104" s="30" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="43" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="44"/>
+      <c r="B105" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="B104" s="30" t="s">
+    </row>
+    <row r="106" spans="1:2" ht="30">
+      <c r="A106" s="44" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="43"/>
-      <c r="B105" s="30" t="s">
+      <c r="B106" s="31" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="43" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="44"/>
+      <c r="B107" s="31" t="s">
         <v>329</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="43"/>
-      <c r="B107" s="31" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -5139,6 +5259,18 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -5156,11 +5288,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5178,31 +5310,39 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="41"/>
+      <c r="A2" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="43"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="43"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="165">
       <c r="A7" s="35" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>443</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -5213,6 +5353,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="Swagger!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+    <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5224,7 +5365,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5241,60 +5382,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="41"/>
-    </row>
-    <row r="3" spans="1:2" s="21" customFormat="1">
-      <c r="A3" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
+    <row r="3" spans="1:2" s="21" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="43"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>109</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="1">
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Apiary!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
     <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5305,8 +5423,8 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5324,251 +5442,251 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="43"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="12" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="44"/>
+      <c r="B11" s="7" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
       <c r="A12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="13" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="44" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="43" t="s">
+      <c r="B13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="12" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="12" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="12" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="44" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="43" t="s">
+      <c r="B19" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="43"/>
-      <c r="B20" s="12" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="44" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="43" t="s">
+      <c r="B21" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="12" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="44"/>
+      <c r="B22" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="12" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="49" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="49"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="195">
       <c r="A31" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75">
       <c r="A32" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120">
       <c r="A34" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
       <c r="A35" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="12" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="44" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="43" t="s">
+      <c r="B37" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="7" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="44"/>
+      <c r="B38" s="12" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="43"/>
-      <c r="B38" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5601,11 +5719,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5623,18 +5741,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="B2" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5643,7 +5753,6 @@
   <hyperlinks>
     <hyperlink ref="B1" location="YAML!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5686,8 +5795,8 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5705,151 +5814,138 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="50"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="A2" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="52"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="51" t="s">
-        <v>186</v>
+      <c r="A10" s="53" t="s">
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="54"/>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="53" t="s">
-        <v>183</v>
+      <c r="A12" s="55" t="s">
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="53"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="53"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
         <v>188</v>
-      </c>
-      <c r="B18" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" t="s">
         <v>190</v>
-      </c>
-      <c r="B19" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" t="s">
         <v>192</v>
-      </c>
-      <c r="B20" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" t="s">
         <v>196</v>
-      </c>
-      <c r="B22" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" t="s">
         <v>198</v>
-      </c>
-      <c r="B23" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" t="s">
         <v>200</v>
-      </c>
-      <c r="B24" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5862,7 +5958,6 @@
   <hyperlinks>
     <hyperlink ref="B1" location="Jmeter!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A9" display="Topics"/>
-    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="489">
   <si>
     <t>Topics</t>
   </si>
@@ -2367,6 +2367,145 @@
   </si>
   <si>
     <t>https://github.com/springfox/springfox</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonInclude</t>
+  </si>
+  <si>
+    <t>import com.fasterxml.jackson.annotation.JsonInclude;
+@JsonInclude(JsonInclude.Include.NON_EMPTY)
+public class PersonInclude {
+    public long  personId = 0;    public String name     = null;
+}</t>
+  </si>
+  <si>
+    <t>The Jackson annotation @JsonInclude tells Jackson only to include properties under certain circumstances. For instance, that properties should only be included if they are non-null, non-empty, or have non-default values. This example will only include the name property if the value set for it is non-empty, meaning is not null and is not an empty string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonGetter</t>
+  </si>
+  <si>
+    <t>The @JsonGetter Jackson annotation is used to tell Jackson that a certain field value should be obtained from calling a getter method instead of via direct field access. The @JsonGetter annotation is useful if your Java class uses jQuery style for getter and setter names. For instance, instead of getPersonId() and setPersonId() you might have the methods personId() and personId(long id)</t>
+  </si>
+  <si>
+    <t>public class PersonGetter {
+    private long  personId = 0;
+    @JsonGetter("id")    public long personId() { return this.personId; }
+    @JsonSetter("id")    public void personId(long personId) { this.personId = personId; }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonAnyGetter</t>
+  </si>
+  <si>
+    <t>The @JsonAnyGetter Jackson annotation enables you to use a Map as container for properties that you want to serialize to JSON</t>
+  </si>
+  <si>
+    <t>public class PersonAnyGetter {
+    private Map&lt;String, Object&gt; properties = new HashMap&lt;&gt;();
+    @JsonAnyGetter    public Map&lt;String, Object&gt; properties() {        return properties;    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonPropertyOrder</t>
+  </si>
+  <si>
+    <t>The @JsonPropertyOrder Jackson annotation can be used to specify in what order the fields of your Java object should be serialized into JSON.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonPropertyOrder({"name", "personId"})
+public class PersonPropertyOrder {
+    public long  personId  = 0;
+    public String name     = null;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonRawValue</t>
+  </si>
+  <si>
+    <t>The @JsonRawValue Jackson annotation tells Jackson that this property value should written directly as it is to the JSON output. If the property is a String Jackson would normally have enclosed the value in quotation marks, but if annotated with the @JsonRawValue property Jackson won't do that. Well, if the address property contained a JSON string then that JSON string would be serialized into the final JSON object as part of the JSON object structure, and not just into a string in the address field in the JSON object</t>
+  </si>
+  <si>
+    <t>public class PersonRawValue {
+    public long   personId = 0;
+    @JsonRawValue    public String address  =  "{ \"street\" : \"Wall Street\", \"no\":1}";
+}</t>
+  </si>
+  <si>
+    <t>With JsonRawValue annotation</t>
+  </si>
+  <si>
+    <t>{"personId":0,"address":{ "street" : "Wall Street", "no":1}}</t>
+  </si>
+  <si>
+    <t>Without JsonRawValue annotation</t>
+  </si>
+  <si>
+    <t>{"personId":0,"address":"{ \"street\" : \"Wall Street\", \"no\":1}"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonValue</t>
+  </si>
+  <si>
+    <t>The Jackson annotation @JsonValue tells Jackson that Jackson should not attempt to serialize the object itself, but rather call a method on the object which serializes the object to a JSON string. Note that Jackson will escape any quotation marks inside the String returned by the custom serialization, so you cannot return e.g. a full JSON object. For that you should use @JsonRawValue instead.
+The @JsonValue annotation is added to the method that Jackson is to call to serialize the object into a JSON string.</t>
+  </si>
+  <si>
+    <t>public class PersonValue {
+    public long   personId = 0;    public String name = null;
+    @JsonValue    public String toJson(){        return this.personId + "," + this.name;    }
+}</t>
+  </si>
+  <si>
+    <t>output: "0,null"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @JsonSerialize</t>
+  </si>
+  <si>
+    <t>The @JsonSerialize Jackson annotation is used to specify a custom serializer for a field in a Java object. 
+public class PersonSerializer {
+    public long   personId = 0;    public String name     = "John";
+    @JsonSerialize(using = OptimizedBooleanSerializer.class)    public boolean enabled = false;
+}</t>
+  </si>
+  <si>
+    <t>The OptimizedBooleanSerializer will serialize a true value to 1 and a false value 0. Here is the code:
+public class OptimizedBooleanSerializer extends JsonSerializer&lt;Boolean&gt; {
+    @Override
+    public void serialize(Boolean aBoolean, JsonGenerator jsonGenerator, SerializerProvider serializerProvider) throws IOException, JsonProcessingException {
+        if(aBoolean){            jsonGenerator.writeNumber(1);        } 
+        else {            jsonGenerator.writeNumber(0);        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>Add Boon maven dependency</t>
+  </si>
+  <si>
+    <t>Creating an ObjectMapper</t>
+  </si>
+  <si>
+    <t>org.boon.json.ObjectMapper mapper = org.boon.json.JsonFactory.create();</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;io.fastjson&lt;/groupId&gt;
+   &lt;artifactId&gt;boon&lt;/artifactId&gt;
+   &lt;version&gt;0.32&lt;/version&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>Parsing JSON Into Objects</t>
+  </si>
+  <si>
+    <t>String carStr = "{\"brand\" : \"Audi\", \"doors\" : 4 }";
+ObjectMapper mapper = JsonFactory.create();
+Car car = mapper.readValue(carStr, Car.class);</t>
+  </si>
+  <si>
+    <t>ObjectMapper mapper = JsonFactory.create();
+Car fleet = mapper.fromJson(carStr, Car.class);</t>
   </si>
 </sst>
 </file>
@@ -2583,7 +2722,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2682,6 +2821,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2689,12 +2832,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2719,6 +2862,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3019,7 +3165,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3096,10 +3242,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="45"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -3145,10 +3291,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="45"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -3217,10 +3363,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3258,10 +3404,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3327,16 +3473,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -3355,7 +3501,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="47" t="s">
         <v>266</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -3363,13 +3509,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="24" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="24" t="s">
         <v>262</v>
       </c>
@@ -3431,17 +3577,17 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" customWidth="1"/>
-    <col min="2" max="2" width="109.28515625" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+    <col min="2" max="2" width="128.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3453,19 +3599,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>225</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -3473,7 +3619,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="44"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="24" t="s">
         <v>275</v>
       </c>
@@ -3494,11 +3640,42 @@
         <v>271</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="75">
+      <c r="A11" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="58" t="s">
+        <v>486</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="58"/>
+      <c r="B14" s="42" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Boon!A2" display="Up"/>
@@ -3532,16 +3709,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -3597,16 +3774,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3645,16 +3822,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="24" t="s">
@@ -3710,10 +3887,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="32" t="s">
@@ -4004,9 +4181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:B17"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4024,10 +4201,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -4046,10 +4223,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="45"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -4066,10 +4243,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="45"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="21" t="s">
@@ -4112,10 +4289,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="45"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="33" t="s">
@@ -4126,10 +4303,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="45"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="33" t="s">
@@ -4140,10 +4317,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="45"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="19" t="s">
@@ -4170,10 +4347,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="43"/>
+      <c r="B28" s="45"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="19" t="s">
@@ -4192,10 +4369,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="45"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="21" t="s">
@@ -4214,10 +4391,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="45"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="21" t="s">
@@ -4228,10 +4405,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="43"/>
+      <c r="B39" s="45"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -4248,16 +4425,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -4305,10 +4482,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="32" t="s">
@@ -4475,10 +4652,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4497,10 +4674,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
@@ -4511,10 +4688,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="45"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -4619,7 +4796,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="50" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4627,7 +4804,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="48"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -4673,7 +4850,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="49" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="40" t="s">
@@ -4681,7 +4858,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="47"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="6" t="s">
         <v>43</v>
       </c>
@@ -4759,7 +4936,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="48" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -4767,7 +4944,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -4805,7 +4982,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="48" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4813,19 +4990,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="45"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="45"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="48" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -4833,13 +5010,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="45"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="45"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -4949,7 +5126,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="47" t="s">
         <v>252</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -4957,7 +5134,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="44"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="24" t="s">
         <v>250</v>
       </c>
@@ -4979,7 +5156,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="47" t="s">
         <v>248</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -4987,7 +5164,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="44"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="24" t="s">
         <v>245</v>
       </c>
@@ -5167,7 +5344,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="44" t="s">
+      <c r="A96" s="47" t="s">
         <v>307</v>
       </c>
       <c r="B96" s="30" t="s">
@@ -5175,13 +5352,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="44"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="30" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="44" t="s">
+      <c r="A98" s="47" t="s">
         <v>315</v>
       </c>
       <c r="B98" s="30" t="s">
@@ -5189,7 +5366,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="44"/>
+      <c r="A99" s="47"/>
       <c r="B99" s="30" t="s">
         <v>317</v>
       </c>
@@ -5209,7 +5386,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="44" t="s">
+      <c r="A102" s="47" t="s">
         <v>321</v>
       </c>
       <c r="B102" s="30" t="s">
@@ -5217,13 +5394,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="44"/>
+      <c r="A103" s="47"/>
       <c r="B103" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="47" t="s">
         <v>324</v>
       </c>
       <c r="B104" s="30" t="s">
@@ -5231,13 +5408,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="44"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="30" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="44" t="s">
+      <c r="A106" s="47" t="s">
         <v>327</v>
       </c>
       <c r="B106" s="31" t="s">
@@ -5245,13 +5422,152 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="44"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="31" t="s">
         <v>329</v>
       </c>
     </row>
+    <row r="108" spans="1:2" ht="45">
+      <c r="A108" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="75">
+      <c r="A109" s="47"/>
+      <c r="B109" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="45">
+      <c r="A110" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="75">
+      <c r="A111" s="47"/>
+      <c r="B111" s="42" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="B112" s="42" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="60">
+      <c r="A113" s="47"/>
+      <c r="B113" s="42" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="47" t="s">
+        <v>465</v>
+      </c>
+      <c r="B114" s="42" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="75">
+      <c r="A115" s="47"/>
+      <c r="B115" s="42" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="60">
+      <c r="A116" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="B116" s="42" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="60">
+      <c r="A117" s="47"/>
+      <c r="B117" s="42" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="B118" s="42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="B119" s="42" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="60">
+      <c r="A120" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="B120" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="60">
+      <c r="A121" s="47"/>
+      <c r="B121" s="42" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="47"/>
+      <c r="B122" s="42" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="75">
+      <c r="A123" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="B123" s="42" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="135">
+      <c r="A124" s="47"/>
+      <c r="B124" s="42" t="s">
+        <v>481</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="26">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -5259,18 +5575,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -5310,16 +5614,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="45"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -5384,10 +5688,10 @@
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="45"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5442,19 +5746,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="45"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -5462,7 +5766,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="7" t="s">
         <v>114</v>
       </c>
@@ -5476,7 +5780,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="47" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -5484,7 +5788,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="44"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
@@ -5522,7 +5826,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="47" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -5530,13 +5834,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="47" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -5544,16 +5848,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="44"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="51"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -5660,7 +5964,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="47" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5668,7 +5972,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="44"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="12" t="s">
         <v>163</v>
       </c>
@@ -5741,10 +6045,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5814,20 +6118,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="52"/>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -5835,13 +6139,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="56"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -5849,13 +6153,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="55"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="55"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="16" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="508">
   <si>
     <t>Topics</t>
   </si>
@@ -2506,6 +2506,104 @@
   <si>
     <t>ObjectMapper mapper = JsonFactory.create();
 Car fleet = mapper.fromJson(carStr, Car.class);</t>
+  </si>
+  <si>
+    <t>What is YAML?</t>
+  </si>
+  <si>
+    <t>Data serialization standard made for configuration files</t>
+  </si>
+  <si>
+    <t>YAML vs properties</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YAML:
+1. spec: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">http://yaml.org/spec/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Human Readable
+3. supports - key/value pairs, List, scalar types
+4. used in many languages like python, MongoDB, ElasticSearch etc
+5. hierarchical
+6. Does not work with Spring's @PropertySource annotation</t>
+    </r>
+  </si>
+  <si>
+    <t>properties:
+1. java.util.Properties
+2. Human readable
+3. supports - key/value pairs, Strings
+4. used in Java
+5. non-hierarchical
+6. works with Spring's @PropertySource annotation</t>
+  </si>
+  <si>
+    <t>YAML file extenstion</t>
+  </si>
+  <si>
+    <t>.yml</t>
+  </si>
+  <si>
+    <t>simple .yml file</t>
+  </si>
+  <si>
+    <t>name: Ramesh</t>
+  </si>
+  <si>
+    <t>map in .yml file</t>
+  </si>
+  <si>
+    <t>somemap:
+   key: value
+   number: 9</t>
+  </si>
+  <si>
+    <t>inline map in .yml file</t>
+  </si>
+  <si>
+    <t>map2: {bool: true, date-2016-11-13}</t>
+  </si>
+  <si>
+    <t>list in .yml</t>
+  </si>
+  <si>
+    <t>numbers:
+  - one
+  - two</t>
+  </si>
+  <si>
+    <t>inline list in .yml</t>
+  </si>
+  <si>
+    <t>numbers: [one,two]</t>
+  </si>
+  <si>
+    <t>YAML in Eclipse</t>
+  </si>
+  <si>
+    <t>Install "Yedit" from Eclipse Market place
+1. Help -&gt; Eclipse Market place
+2. search for YAML
+3. install Yedit</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2820,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2825,6 +2923,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2832,12 +2934,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3165,7 +3267,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3242,10 +3344,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -3291,10 +3393,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="47"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -3363,10 +3465,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3404,10 +3506,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3473,16 +3575,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -3501,7 +3603,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="48" t="s">
         <v>266</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -3509,13 +3611,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="24" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="24" t="s">
         <v>262</v>
       </c>
@@ -3579,9 +3681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:A14"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3599,19 +3701,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>225</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -3619,7 +3721,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="24" t="s">
         <v>275</v>
       </c>
@@ -3657,7 +3759,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="60" t="s">
         <v>486</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -3665,7 +3767,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="58"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="42" t="s">
         <v>488</v>
       </c>
@@ -3709,16 +3811,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -3774,16 +3876,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3822,16 +3924,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="24" t="s">
@@ -3887,10 +3989,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="32" t="s">
@@ -4201,10 +4303,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -4223,10 +4325,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="47"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -4243,10 +4345,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="47"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="21" t="s">
@@ -4289,10 +4391,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="47"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="33" t="s">
@@ -4303,10 +4405,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="46" t="s">
         <v>438</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="47"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="33" t="s">
@@ -4317,10 +4419,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="47"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="19" t="s">
@@ -4347,10 +4449,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="47"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="19" t="s">
@@ -4369,10 +4471,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="47"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="21" t="s">
@@ -4391,10 +4493,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="47"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="21" t="s">
@@ -4405,10 +4507,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="45"/>
+      <c r="B39" s="47"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -4425,16 +4527,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -4482,10 +4584,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="32" t="s">
@@ -4528,7 +4630,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="50" t="s">
         <v>411</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -4536,7 +4638,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="46"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="37" t="s">
         <v>413</v>
       </c>
@@ -4674,10 +4776,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
@@ -4688,10 +4790,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="47"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -4782,7 +4884,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -4790,13 +4892,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="46"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4804,7 +4906,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="50"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -4850,7 +4952,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="51" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="40" t="s">
@@ -4858,7 +4960,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="49"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="6" t="s">
         <v>43</v>
       </c>
@@ -4936,7 +5038,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="49" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -4944,7 +5046,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="48"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -4982,7 +5084,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="49" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -4990,19 +5092,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="48"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="48"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5010,13 +5112,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="48"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="48"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -5046,7 +5148,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="50" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -5054,19 +5156,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="46"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="46"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="46"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -5080,7 +5182,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="50" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -5088,7 +5190,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="46"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -5126,7 +5228,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="48" t="s">
         <v>252</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -5134,7 +5236,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="47"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="24" t="s">
         <v>250</v>
       </c>
@@ -5156,7 +5258,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="48" t="s">
         <v>248</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -5164,7 +5266,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="47"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="24" t="s">
         <v>245</v>
       </c>
@@ -5258,7 +5360,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="46" t="s">
+      <c r="A85" s="50" t="s">
         <v>290</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -5266,7 +5368,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="46"/>
+      <c r="A86" s="50"/>
       <c r="B86" s="27" t="s">
         <v>292</v>
       </c>
@@ -5344,7 +5446,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="48" t="s">
         <v>307</v>
       </c>
       <c r="B96" s="30" t="s">
@@ -5352,13 +5454,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="47"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="30" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="47" t="s">
+      <c r="A98" s="48" t="s">
         <v>315</v>
       </c>
       <c r="B98" s="30" t="s">
@@ -5366,13 +5468,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="47"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="30" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="50" t="s">
         <v>318</v>
       </c>
       <c r="B100" s="30" t="s">
@@ -5380,13 +5482,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="46"/>
+      <c r="A101" s="50"/>
       <c r="B101" s="30" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="48" t="s">
         <v>321</v>
       </c>
       <c r="B102" s="30" t="s">
@@ -5394,13 +5496,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="47"/>
+      <c r="A103" s="48"/>
       <c r="B103" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="47" t="s">
+      <c r="A104" s="48" t="s">
         <v>324</v>
       </c>
       <c r="B104" s="30" t="s">
@@ -5408,13 +5510,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="47"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="30" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="48" t="s">
         <v>327</v>
       </c>
       <c r="B106" s="31" t="s">
@@ -5422,13 +5524,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="47"/>
+      <c r="A107" s="48"/>
       <c r="B107" s="31" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="47" t="s">
+      <c r="A108" s="48" t="s">
         <v>456</v>
       </c>
       <c r="B108" s="42" t="s">
@@ -5436,13 +5538,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="47"/>
+      <c r="A109" s="48"/>
       <c r="B109" s="42" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="47" t="s">
+      <c r="A110" s="48" t="s">
         <v>459</v>
       </c>
       <c r="B110" s="42" t="s">
@@ -5450,13 +5552,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="47"/>
+      <c r="A111" s="48"/>
       <c r="B111" s="42" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="47" t="s">
+      <c r="A112" s="48" t="s">
         <v>462</v>
       </c>
       <c r="B112" s="42" t="s">
@@ -5464,13 +5566,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="47"/>
+      <c r="A113" s="48"/>
       <c r="B113" s="42" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="47" t="s">
+      <c r="A114" s="48" t="s">
         <v>465</v>
       </c>
       <c r="B114" s="42" t="s">
@@ -5478,13 +5580,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="47"/>
+      <c r="A115" s="48"/>
       <c r="B115" s="42" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="47" t="s">
+      <c r="A116" s="48" t="s">
         <v>468</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -5492,7 +5594,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="47"/>
+      <c r="A117" s="48"/>
       <c r="B117" s="42" t="s">
         <v>470</v>
       </c>
@@ -5514,7 +5616,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="47" t="s">
+      <c r="A120" s="48" t="s">
         <v>475</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -5522,19 +5624,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="47"/>
+      <c r="A121" s="48"/>
       <c r="B121" s="42" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="47"/>
+      <c r="A122" s="48"/>
       <c r="B122" s="42" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="47" t="s">
+      <c r="A123" s="48" t="s">
         <v>479</v>
       </c>
       <c r="B123" s="42" t="s">
@@ -5542,13 +5644,32 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="47"/>
+      <c r="A124" s="48"/>
       <c r="B124" s="42" t="s">
         <v>481</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -5556,25 +5677,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -5614,16 +5716,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="47"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -5688,10 +5790,10 @@
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="47"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5746,19 +5848,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="47"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="54" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -5766,7 +5868,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="7" t="s">
         <v>114</v>
       </c>
@@ -5780,7 +5882,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -5788,7 +5890,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
@@ -5826,7 +5928,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="48" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -5834,13 +5936,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -5848,16 +5950,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="53"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -5964,7 +6066,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="48" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5972,7 +6074,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="12" t="s">
         <v>163</v>
       </c>
@@ -6023,11 +6125,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6045,20 +6147,107 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="45"/>
+      <c r="A2" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="47"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="47"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="105">
+      <c r="A8" s="60" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="105">
+      <c r="A9" s="60"/>
+      <c r="B9" s="44" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>507</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="YAML!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6118,20 +6307,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="56"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="57" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -6139,13 +6328,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="58"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -6153,13 +6342,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="57"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="57"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="16" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="512">
   <si>
     <t>Topics</t>
   </si>
@@ -1102,18 +1102,6 @@
     <t>Create array of values from json</t>
   </si>
   <si>
-    <t>try {
-   String json = "{\"name\":\"xyz\",\"contentType\":\"xlsx\",\"creationDate\":\"17-oct\",\"size\":\"2MB\"}\"";
-   JSONObject jsonObject = new JSONObject(json);
-   org.codehaus.jettison.json.JSONArray valuesArrays = jsonObject.toJSONArray(jsonObject.names());
-   for(int i=0;i&lt;valuesArrays.length();i++){
-    System.out.println("value: "+valuesArrays.getString(i));
-   }
-  } catch (JSONException e) {
-   e.printStackTrace();
-  }</t>
-  </si>
-  <si>
     <t>Own Parsers</t>
   </si>
   <si>
@@ -2496,16 +2484,9 @@
   &lt;/dependency&gt;</t>
   </si>
   <si>
-    <t>Parsing JSON Into Objects</t>
-  </si>
-  <si>
     <t>String carStr = "{\"brand\" : \"Audi\", \"doors\" : 4 }";
 ObjectMapper mapper = JsonFactory.create();
 Car car = mapper.readValue(carStr, Car.class);</t>
-  </si>
-  <si>
-    <t>ObjectMapper mapper = JsonFactory.create();
-Car fleet = mapper.fromJson(carStr, Car.class);</t>
   </si>
   <si>
     <t>What is YAML?</t>
@@ -2604,6 +2585,39 @@
 1. Help -&gt; Eclipse Market place
 2. search for YAML
 3. install Yedit</t>
+  </si>
+  <si>
+    <t>try {
+   String json = "{\"name\":\"xyz\",\"contentType\":\"xlsx\",\"creationDate\":\"17-oct\",\"size\":\"2MB\"}\"";
+   org.json.JSONObject jsonObject = new org.json.JSONObject(json);
+   org.codehaus.jettison.json.JSONArray valuesArrays = jsonObject.toJSONArray(jsonObject.names());
+   for(int i=0;i&lt;valuesArrays.length();i++){
+    System.out.println("value: "+valuesArrays.getString(i));
+   }
+  } catch (JSONException e) {
+   e.printStackTrace();
+  }</t>
+  </si>
+  <si>
+    <t>ObjectMapper mapper = JsonFactory.create();
+ String json = "{\"brand\":\"BMW\", \"doors\":4}";
+ Car car = mapper.fromJson(json, Car.class);</t>
+  </si>
+  <si>
+    <t>Parsing JSON Into Objects: 
+refer JSONPractice -&gt; boon.practice.ReadJSON -&gt; createObjectFromJson(), createObjectFromJson2() methods</t>
+  </si>
+  <si>
+    <t>Parsing JSON into Maps</t>
+  </si>
+  <si>
+    <t>refer JsonPractice -&gt; boon.practice.ReadJSON -&gt; createMapFromJson() method</t>
+  </si>
+  <si>
+    <t>Read Json from file</t>
+  </si>
+  <si>
+    <t>refer JsonPractice -&gt; boon.practice.ReadJSON -&gt; readJsonFromFile() method</t>
   </si>
 </sst>
 </file>
@@ -2820,7 +2834,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2927,6 +2941,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2934,12 +2952,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2954,6 +2972,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2964,9 +2985,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3267,7 +3285,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3282,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3295,7 +3313,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3344,68 +3362,68 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="B13" s="47"/>
+      <c r="A13" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="49"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>443</v>
-      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="B23" s="47"/>
+      <c r="A23" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="49"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3465,10 +3483,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3506,10 +3524,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3575,91 +3593,91 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="A2" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="49"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="48" t="s">
-        <v>266</v>
+      <c r="A9" s="51" t="s">
+        <v>265</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="48"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3679,11 +3697,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3701,75 +3719,91 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="A2" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="49"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="48" t="s">
-        <v>225</v>
+      <c r="A7" s="51" t="s">
+        <v>224</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="48"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
       <c r="A11" s="43" t="s">
-        <v>482</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>485</v>
+        <v>481</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>484</v>
-      </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="60" t="s">
-        <v>486</v>
+      <c r="A13" s="51" t="s">
+        <v>507</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="60"/>
-      <c r="B14" s="42" t="s">
-        <v>488</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="57"/>
+      <c r="B14" s="46" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -3793,7 +3827,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3811,31 +3845,31 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="A2" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="49"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3876,16 +3910,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="A2" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="49"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3924,31 +3958,31 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="A2" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="49"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3989,281 +4023,281 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>336</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>338</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>340</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="90">
       <c r="A6" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>342</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>344</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>346</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>348</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
       <c r="A10" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>350</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
       <c r="A11" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>352</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>354</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="165">
       <c r="A13" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>356</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105">
       <c r="A14" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>358</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>360</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
       <c r="A16" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>362</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>364</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>366</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>368</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>370</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>372</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>374</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>376</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
       <c r="A25" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>379</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>381</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>383</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>385</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="120">
       <c r="A29" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>387</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
       <c r="A30" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>389</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75">
       <c r="A31" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>391</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>393</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
       <c r="A33" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>395</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B34" s="32" t="s">
         <v>397</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>399</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -4285,7 +4319,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4303,10 +4337,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="A2" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -4325,10 +4359,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="47"/>
+      <c r="A7" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="49"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -4345,10 +4379,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="49"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="21" t="s">
@@ -4360,69 +4394,69 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="41" customFormat="1">
       <c r="A15" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="41" customFormat="1">
       <c r="A16" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>455</v>
-      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="B17" s="47"/>
+      <c r="A17" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="49"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="46" t="s">
-        <v>438</v>
-      </c>
-      <c r="B20" s="47"/>
+      <c r="A20" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="B20" s="49"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="49"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="19" t="s">
@@ -4449,10 +4483,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="49"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="19" t="s">
@@ -4471,10 +4505,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="47"/>
+      <c r="B32" s="49"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="21" t="s">
@@ -4493,10 +4527,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="49"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="21" t="s">
@@ -4507,10 +4541,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="47"/>
+      <c r="B39" s="49"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -4527,16 +4561,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -4584,159 +4618,159 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>403</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>405</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>407</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>409</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
       <c r="A8" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>411</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
       <c r="A9" s="50"/>
       <c r="B9" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>414</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>416</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>418</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>420</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>422</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>424</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>426</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>428</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>430</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>432</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>434</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -4757,7 +4791,7 @@
   <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4776,24 +4810,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="A2" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>286</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="49"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -4898,7 +4932,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="54" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4906,7 +4940,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -4952,15 +4986,15 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="53" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="51"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="6" t="s">
         <v>43</v>
       </c>
@@ -5038,7 +5072,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="52" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -5046,7 +5080,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="49"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -5084,7 +5118,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="52" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -5092,19 +5126,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="49"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="49"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="52" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5112,13 +5146,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="49"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="49"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -5215,442 +5249,461 @@
       <c r="A66" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="B66" s="22" t="s">
-        <v>220</v>
+      <c r="B66" s="46" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="48" t="s">
-        <v>252</v>
+      <c r="A68" s="51" t="s">
+        <v>251</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="48"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="48" t="s">
-        <v>248</v>
+      <c r="A72" s="51" t="s">
+        <v>247</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="48"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
       <c r="A76" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="255">
       <c r="A78" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
       <c r="A79" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
       <c r="A80" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
       <c r="A81" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45">
       <c r="A82" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="28" customFormat="1">
       <c r="A83" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="B84" s="27" t="s">
         <v>287</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
       <c r="A85" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="B85" s="27" t="s">
         <v>290</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
       <c r="A86" s="50"/>
       <c r="B86" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="60">
       <c r="A88" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="60">
       <c r="A89" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="75">
       <c r="A90" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="105">
       <c r="A91" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="60">
       <c r="A95" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B95" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="B95" s="29" t="s">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="51" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="48" t="s">
-        <v>307</v>
-      </c>
       <c r="B96" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="51"/>
+      <c r="B97" s="30" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="48"/>
-      <c r="B97" s="30" t="s">
-        <v>311</v>
-      </c>
-    </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="B98" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="B98" s="30" t="s">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="51"/>
+      <c r="B99" s="30" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="48"/>
-      <c r="B99" s="30" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
       <c r="A100" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" s="30" t="s">
         <v>318</v>
-      </c>
-      <c r="B100" s="30" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="50"/>
       <c r="B101" s="30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="60">
+      <c r="A102" s="51" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="48" t="s">
+      <c r="B102" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="B102" s="30" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="51"/>
+      <c r="B103" s="30" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="48"/>
-      <c r="B103" s="30" t="s">
+    <row r="104" spans="1:2" ht="90">
+      <c r="A104" s="51" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="48" t="s">
+      <c r="B104" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="B104" s="30" t="s">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="51"/>
+      <c r="B105" s="30" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="48"/>
-      <c r="B105" s="30" t="s">
+    <row r="106" spans="1:2" ht="30">
+      <c r="A106" s="51" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="48" t="s">
+      <c r="B106" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="B106" s="31" t="s">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="51"/>
+      <c r="B107" s="31" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="48"/>
-      <c r="B107" s="31" t="s">
-        <v>329</v>
-      </c>
-    </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="48" t="s">
+      <c r="A108" s="51" t="s">
+        <v>455</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="75">
+      <c r="A109" s="51"/>
+      <c r="B109" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="B108" s="42" t="s">
+    </row>
+    <row r="110" spans="1:2" ht="45">
+      <c r="A110" s="51" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="48"/>
-      <c r="B109" s="42" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="48" t="s">
+      <c r="B110" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="B110" s="42" t="s">
+    </row>
+    <row r="111" spans="1:2" ht="75">
+      <c r="A111" s="51"/>
+      <c r="B111" s="42" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="48"/>
-      <c r="B111" s="42" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="51" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="48" t="s">
+      <c r="B112" s="42" t="s">
         <v>462</v>
       </c>
-      <c r="B112" s="42" t="s">
+    </row>
+    <row r="113" spans="1:2" ht="60">
+      <c r="A113" s="51"/>
+      <c r="B113" s="42" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="48"/>
-      <c r="B113" s="42" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="51" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="48" t="s">
+      <c r="B114" s="42" t="s">
         <v>465</v>
       </c>
-      <c r="B114" s="42" t="s">
+    </row>
+    <row r="115" spans="1:2" ht="75">
+      <c r="A115" s="51"/>
+      <c r="B115" s="42" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="48"/>
-      <c r="B115" s="42" t="s">
+    <row r="116" spans="1:2" ht="60">
+      <c r="A116" s="51" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="48" t="s">
+      <c r="B116" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="B116" s="42" t="s">
+    </row>
+    <row r="117" spans="1:2" ht="60">
+      <c r="A117" s="51"/>
+      <c r="B117" s="42" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="48"/>
-      <c r="B117" s="42" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="B118" s="42" t="s">
         <v>471</v>
-      </c>
-      <c r="B118" s="42" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="B119" s="42" t="s">
         <v>473</v>
       </c>
-      <c r="B119" s="42" t="s">
+    </row>
+    <row r="120" spans="1:2" ht="60">
+      <c r="A120" s="51" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="48" t="s">
+      <c r="B120" s="42" t="s">
         <v>475</v>
       </c>
-      <c r="B120" s="42" t="s">
+    </row>
+    <row r="121" spans="1:2" ht="60">
+      <c r="A121" s="51"/>
+      <c r="B121" s="42" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="48"/>
-      <c r="B121" s="42" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="51"/>
+      <c r="B122" s="42" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="48"/>
-      <c r="B122" s="42" t="s">
+    <row r="123" spans="1:2" ht="75">
+      <c r="A123" s="51" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="48" t="s">
+      <c r="B123" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="B123" s="42" t="s">
+    </row>
+    <row r="124" spans="1:2" ht="135">
+      <c r="A124" s="51"/>
+      <c r="B124" s="42" t="s">
         <v>480</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="48"/>
-      <c r="B124" s="42" t="s">
-        <v>481</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -5658,25 +5711,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -5716,39 +5750,39 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="A2" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="49"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="49"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="165">
       <c r="A7" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>440</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -5790,10 +5824,10 @@
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="49"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5848,19 +5882,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="49"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="49"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="56" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -5868,7 +5902,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="48"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="7" t="s">
         <v>114</v>
       </c>
@@ -5882,7 +5916,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="51" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -5890,7 +5924,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="48"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
@@ -5928,7 +5962,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="51" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -5936,13 +5970,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="51" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -5950,16 +5984,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="48"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="55"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -6066,7 +6100,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="51" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -6074,7 +6108,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="48"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="12" t="s">
         <v>163</v>
       </c>
@@ -6127,9 +6161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6147,93 +6181,93 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="47"/>
+      <c r="A2" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="49"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="49"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="105">
+      <c r="A8" s="57" t="s">
+        <v>488</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B7" s="45" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="105">
+      <c r="A9" s="57"/>
+      <c r="B9" s="44" t="s">
         <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="60" t="s">
-        <v>491</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="60"/>
-      <c r="B9" s="44" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="45" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="45" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="45" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="45" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="45" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="45" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="45" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -6307,20 +6341,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="59"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="59"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="60" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -6328,13 +6362,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="61"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="62" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -6342,13 +6376,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="59"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="59"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="16" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -2952,12 +2952,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3621,7 +3621,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -3629,13 +3629,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="51"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="24" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="24" t="s">
         <v>261</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="B6" s="49"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -3739,7 +3739,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="51"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="24" t="s">
         <v>274</v>
       </c>
@@ -3777,7 +3777,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>507</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -4561,16 +4561,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -4664,7 +4664,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>410</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -4672,7 +4672,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="37" t="s">
         <v>412</v>
       </c>
@@ -4918,7 +4918,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -4926,7 +4926,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="50"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -5072,7 +5072,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="51" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -5080,7 +5080,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="52"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -5118,7 +5118,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="51" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -5126,19 +5126,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="52"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="52"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="51" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5146,13 +5146,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="52"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="52"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -5182,7 +5182,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -5190,19 +5190,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="50"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="50"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="50"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -5216,7 +5216,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="52" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -5224,7 +5224,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="50"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -5262,7 +5262,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="50" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -5270,7 +5270,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="51"/>
+      <c r="A69" s="50"/>
       <c r="B69" s="24" t="s">
         <v>249</v>
       </c>
@@ -5292,7 +5292,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="50" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -5300,7 +5300,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="51"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="24" t="s">
         <v>244</v>
       </c>
@@ -5394,7 +5394,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="52" t="s">
         <v>289</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -5402,7 +5402,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="50"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="27" t="s">
         <v>291</v>
       </c>
@@ -5480,7 +5480,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="51" t="s">
+      <c r="A96" s="50" t="s">
         <v>306</v>
       </c>
       <c r="B96" s="30" t="s">
@@ -5488,13 +5488,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="51"/>
+      <c r="A97" s="50"/>
       <c r="B97" s="30" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="51" t="s">
+      <c r="A98" s="50" t="s">
         <v>314</v>
       </c>
       <c r="B98" s="30" t="s">
@@ -5502,13 +5502,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="51"/>
+      <c r="A99" s="50"/>
       <c r="B99" s="30" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="50" t="s">
+      <c r="A100" s="52" t="s">
         <v>317</v>
       </c>
       <c r="B100" s="30" t="s">
@@ -5516,13 +5516,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="50"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="30" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="51" t="s">
+      <c r="A102" s="50" t="s">
         <v>320</v>
       </c>
       <c r="B102" s="30" t="s">
@@ -5530,13 +5530,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="51"/>
+      <c r="A103" s="50"/>
       <c r="B103" s="30" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="51" t="s">
+      <c r="A104" s="50" t="s">
         <v>323</v>
       </c>
       <c r="B104" s="30" t="s">
@@ -5544,13 +5544,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="51"/>
+      <c r="A105" s="50"/>
       <c r="B105" s="30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="51" t="s">
+      <c r="A106" s="50" t="s">
         <v>326</v>
       </c>
       <c r="B106" s="31" t="s">
@@ -5558,13 +5558,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="51"/>
+      <c r="A107" s="50"/>
       <c r="B107" s="31" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="51" t="s">
+      <c r="A108" s="50" t="s">
         <v>455</v>
       </c>
       <c r="B108" s="42" t="s">
@@ -5572,13 +5572,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="51"/>
+      <c r="A109" s="50"/>
       <c r="B109" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="51" t="s">
+      <c r="A110" s="50" t="s">
         <v>458</v>
       </c>
       <c r="B110" s="42" t="s">
@@ -5586,13 +5586,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="51"/>
+      <c r="A111" s="50"/>
       <c r="B111" s="42" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="51" t="s">
+      <c r="A112" s="50" t="s">
         <v>461</v>
       </c>
       <c r="B112" s="42" t="s">
@@ -5600,13 +5600,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="51"/>
+      <c r="A113" s="50"/>
       <c r="B113" s="42" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="51" t="s">
+      <c r="A114" s="50" t="s">
         <v>464</v>
       </c>
       <c r="B114" s="42" t="s">
@@ -5614,13 +5614,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="51"/>
+      <c r="A115" s="50"/>
       <c r="B115" s="42" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="51" t="s">
+      <c r="A116" s="50" t="s">
         <v>467</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -5628,7 +5628,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="51"/>
+      <c r="A117" s="50"/>
       <c r="B117" s="42" t="s">
         <v>469</v>
       </c>
@@ -5650,7 +5650,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="51" t="s">
+      <c r="A120" s="50" t="s">
         <v>474</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -5658,19 +5658,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="51"/>
+      <c r="A121" s="50"/>
       <c r="B121" s="42" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="51"/>
+      <c r="A122" s="50"/>
       <c r="B122" s="42" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="51" t="s">
+      <c r="A123" s="50" t="s">
         <v>478</v>
       </c>
       <c r="B123" s="42" t="s">
@@ -5678,13 +5678,32 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="51"/>
+      <c r="A124" s="50"/>
       <c r="B124" s="42" t="s">
         <v>480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -5692,25 +5711,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -5902,7 +5902,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="51"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="7" t="s">
         <v>114</v>
       </c>
@@ -5916,7 +5916,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -5924,7 +5924,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
@@ -5962,7 +5962,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="50" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -5970,13 +5970,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -5984,7 +5984,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="12" t="s">
         <v>133</v>
       </c>
@@ -6100,7 +6100,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="50" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -6108,7 +6108,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="51"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="12" t="s">
         <v>163</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="518">
   <si>
     <t>Topics</t>
   </si>
@@ -2618,6 +2618,24 @@
   </si>
   <si>
     <t>refer JsonPractice -&gt; boon.practice.ReadJSON -&gt; readJsonFromFile() method</t>
+  </si>
+  <si>
+    <t>Convert object to json String</t>
+  </si>
+  <si>
+    <t>refer JsonPractice -&gt; boon.practice.WriteJSON -&gt; convertObjectToJson() method</t>
+  </si>
+  <si>
+    <t>Create json file object</t>
+  </si>
+  <si>
+    <t>refer JsonPractice -&gt; boon.practice.WriteJSON -&gt; createJsonFileFromObject() method</t>
+  </si>
+  <si>
+    <t>Create json from Map</t>
+  </si>
+  <si>
+    <t>refer JsonPractice -&gt; boon.practice.WriteJSON -&gt; generateJsonFromMap() method</t>
   </si>
 </sst>
 </file>
@@ -2834,7 +2852,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2945,6 +2963,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2952,12 +2974,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3362,10 +3384,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="51"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -3411,10 +3433,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="51"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -3483,10 +3505,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3524,10 +3546,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3593,16 +3615,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -3621,7 +3643,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="53" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -3629,13 +3651,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="24" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="24" t="s">
         <v>261</v>
       </c>
@@ -3697,11 +3719,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3719,19 +3741,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="53" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -3739,7 +3761,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="50"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="24" t="s">
         <v>274</v>
       </c>
@@ -3777,7 +3799,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="53" t="s">
         <v>507</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -3785,7 +3807,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="57"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="46" t="s">
         <v>506</v>
       </c>
@@ -3804,6 +3826,30 @@
       </c>
       <c r="B16" s="46" t="s">
         <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -3845,16 +3891,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -3910,16 +3956,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3958,16 +4004,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="24" t="s">
@@ -4023,10 +4069,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="32" t="s">
@@ -4337,10 +4383,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -4359,10 +4405,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="51"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -4379,10 +4425,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="51"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="21" t="s">
@@ -4425,10 +4471,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="51"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="33" t="s">
@@ -4439,10 +4485,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="51"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="33" t="s">
@@ -4453,10 +4499,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="51"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="19" t="s">
@@ -4483,10 +4529,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="51"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="19" t="s">
@@ -4505,10 +4551,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="49"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="21" t="s">
@@ -4527,10 +4573,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="49"/>
+      <c r="B36" s="51"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="21" t="s">
@@ -4541,10 +4587,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="49"/>
+      <c r="B39" s="51"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -4561,16 +4607,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -4618,10 +4664,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="32" t="s">
@@ -4790,9 +4836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A108" sqref="A108:A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4810,10 +4856,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
@@ -4824,10 +4870,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -4932,7 +4978,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="56" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4940,7 +4986,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="54"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -4986,7 +5032,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="55" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="40" t="s">
@@ -4994,7 +5040,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="53"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="6" t="s">
         <v>43</v>
       </c>
@@ -5072,7 +5118,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="54" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -5080,7 +5126,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="51"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -5118,7 +5164,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="54" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -5126,19 +5172,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="51"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="51"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="54" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5146,13 +5192,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="51"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="51"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -5262,7 +5308,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="53" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -5270,7 +5316,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="50"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="24" t="s">
         <v>249</v>
       </c>
@@ -5292,7 +5338,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="53" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -5300,7 +5346,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="50"/>
+      <c r="A73" s="53"/>
       <c r="B73" s="24" t="s">
         <v>244</v>
       </c>
@@ -5480,7 +5526,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="50" t="s">
+      <c r="A96" s="53" t="s">
         <v>306</v>
       </c>
       <c r="B96" s="30" t="s">
@@ -5488,13 +5534,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="50"/>
+      <c r="A97" s="53"/>
       <c r="B97" s="30" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="50" t="s">
+      <c r="A98" s="53" t="s">
         <v>314</v>
       </c>
       <c r="B98" s="30" t="s">
@@ -5502,7 +5548,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="50"/>
+      <c r="A99" s="53"/>
       <c r="B99" s="30" t="s">
         <v>316</v>
       </c>
@@ -5522,7 +5568,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="50" t="s">
+      <c r="A102" s="53" t="s">
         <v>320</v>
       </c>
       <c r="B102" s="30" t="s">
@@ -5530,13 +5576,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="50"/>
+      <c r="A103" s="53"/>
       <c r="B103" s="30" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="50" t="s">
+      <c r="A104" s="53" t="s">
         <v>323</v>
       </c>
       <c r="B104" s="30" t="s">
@@ -5544,13 +5590,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="50"/>
+      <c r="A105" s="53"/>
       <c r="B105" s="30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="50" t="s">
+      <c r="A106" s="53" t="s">
         <v>326</v>
       </c>
       <c r="B106" s="31" t="s">
@@ -5558,13 +5604,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="50"/>
+      <c r="A107" s="53"/>
       <c r="B107" s="31" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="50" t="s">
+      <c r="A108" s="53" t="s">
         <v>455</v>
       </c>
       <c r="B108" s="42" t="s">
@@ -5572,13 +5618,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="50"/>
+      <c r="A109" s="53"/>
       <c r="B109" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="50" t="s">
+      <c r="A110" s="53" t="s">
         <v>458</v>
       </c>
       <c r="B110" s="42" t="s">
@@ -5586,13 +5632,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="50"/>
+      <c r="A111" s="53"/>
       <c r="B111" s="42" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="50" t="s">
+      <c r="A112" s="53" t="s">
         <v>461</v>
       </c>
       <c r="B112" s="42" t="s">
@@ -5600,13 +5646,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="50"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="42" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="50" t="s">
+      <c r="A114" s="53" t="s">
         <v>464</v>
       </c>
       <c r="B114" s="42" t="s">
@@ -5614,13 +5660,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="50"/>
+      <c r="A115" s="53"/>
       <c r="B115" s="42" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="53" t="s">
         <v>467</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -5628,7 +5674,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="50"/>
+      <c r="A117" s="53"/>
       <c r="B117" s="42" t="s">
         <v>469</v>
       </c>
@@ -5650,7 +5696,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="50" t="s">
+      <c r="A120" s="53" t="s">
         <v>474</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -5658,19 +5704,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="50"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="42" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="50"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="42" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="50" t="s">
+      <c r="A123" s="53" t="s">
         <v>478</v>
       </c>
       <c r="B123" s="42" t="s">
@@ -5678,13 +5724,32 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="50"/>
+      <c r="A124" s="53"/>
       <c r="B124" s="42" t="s">
         <v>480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -5692,25 +5757,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -5750,16 +5796,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -5824,10 +5870,10 @@
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="51"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5882,19 +5928,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="51"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="58" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -5902,7 +5948,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="7" t="s">
         <v>114</v>
       </c>
@@ -5916,7 +5962,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="53" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -5924,7 +5970,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
@@ -5962,7 +6008,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="53" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -5970,13 +6016,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="50"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="53" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -5984,16 +6030,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="50"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -6100,7 +6146,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="53" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -6108,7 +6154,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="50"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="12" t="s">
         <v>163</v>
       </c>
@@ -6181,16 +6227,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="51"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="45" t="s">
@@ -6201,7 +6247,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="59" t="s">
         <v>488</v>
       </c>
       <c r="B8" s="44" t="s">
@@ -6209,7 +6255,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="57"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="44" t="s">
         <v>490</v>
       </c>
@@ -6341,20 +6387,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="61"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="62" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -6362,13 +6408,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="61"/>
+      <c r="A11" s="63"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="64" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -6376,13 +6422,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="62"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="62"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="16" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="574">
   <si>
     <t>Topics</t>
   </si>
@@ -2636,6 +2636,346 @@
   </si>
   <si>
     <t>refer JsonPractice -&gt; boon.practice.WriteJSON -&gt; generateJsonFromMap() method</t>
+  </si>
+  <si>
+    <t>parsing date to Json String</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Employee employee = new Employee("Ramesh", new Date());
+ObjectMapper mapper = JsonFactory.create();
+ String json = mapper.writeValueAsString(employee);
+ System.out.println("json: " + json);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> json: {"name":"Ramesh","joiningDate":1479622038963}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Employee employee = new Employee("Ramesh", new Date());
+ ObjectMapper mapper = JsonFactory.createUseJSONDates();
+ String json = mapper.writeValueAsString(employee);
+ System.out.println("json: " + json);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> json: {"name":"Ramesh","joiningDate":"2016-11-20T06:07:38.474Z"}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The @JsonIgnore annotation can be placed above a field in a class. When Boon detects the @JsonIgnore it will ignore that field. Here is an example class that uses the @JsonIgnore annotation </t>
+  </si>
+  <si>
+    <t>import org.boon.json.annotations.JsonIgnore;
+public class Car {
+    public String brand = null;    public int    doors = 0;
+    @JsonIgnore    public String comment = "blablabla";
+    public Car() {}
+    public Car(String brand, int doors) {        this.brand = brand;        this.doors = doors;    }
+}</t>
+  </si>
+  <si>
+    <t>By default Boon excludes fields from serialization that are empty (null), empty lists, or fields which have default values (e.g. 0 for int and false for boolean etc.). If you want Boon to include such fields in the generated JSON, you can add a @JsonInclude annotation to the field. Here is an example class that uses the @JsonInclude annotation</t>
+  </si>
+  <si>
+    <t>import org.boon.json.annotations.JsonIgnore;
+public class Car {
+    public String brand = null;    public int    doors = 0;
+    @JsonInclude    public String comment = "blablabla";
+    public Car() {}
+    public Car(String brand, int doors) {        this.brand = brand;        this.doors = doors;    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parsing Primitives</t>
+  </si>
+  <si>
+    <t>Boon can also parse fragments of JSON into Java primitives. For instance, parsing a string into an int or a JSON array into an array of Java primitives. This can be handy from time to time.
+To use these primitive parsing features you need to access the JsonParserAndMapper returned from the ObjectMapper's parser method. On the JsonParserAndMapper instance you can call the primitive parsing methods.</t>
+  </si>
+  <si>
+    <t>ObjectMapper objectMapper = JsonFactory.create();
+int intVal = objectMapper.parser().parseInt("123");</t>
+  </si>
+  <si>
+    <t>The JsonParserAndMapper can also parse a JSON string representing an array of strings or numbers into an array of primitive Java types. Here is an example showing how to parse a JSON array into an array of int</t>
+  </si>
+  <si>
+    <t>int[] ints = objectMapper.parser().parseIntArray("[123, 456, 789]");</t>
+  </si>
+  <si>
+    <t>Similarly the JsonParserAndMapper can parse a JSON string representing an object into a Java Map, like this:</t>
+  </si>
+  <si>
+    <t>String jsonMap = "{ \"key1\" : \"val1\", \"key2\" : \"val2\" }";
+Map&lt;String, Object&gt; map =    objectMapper.parser().parseMap(jsonMap);</t>
+  </si>
+  <si>
+    <t>Json String to Map</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+    &lt;groupId&gt;com.google.code.gson&lt;/groupId&gt;
+    &lt;artifactId&gt;gson&lt;/artifactId&gt;
+    &lt;version&gt;2.8.0&lt;/version&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>Add Gson dependency to pom.xml</t>
+  </si>
+  <si>
+    <t>Create Gson object</t>
+  </si>
+  <si>
+    <t>refer JSONPractice -&gt; gson.practice -&gt; ReadJSON -&gt; createGsonObject() method</t>
+  </si>
+  <si>
+    <t>converJsonToObject</t>
+  </si>
+  <si>
+    <t>refer JSONPractice -&gt; gson.practice -&gt; ReadJSON -&gt; converJsonToObject() method</t>
+  </si>
+  <si>
+    <t>convertObjectToJson</t>
+  </si>
+  <si>
+    <t>refer JSONPractice -&gt; gson.practice -&gt; WriteJSON -&gt; convertObjectToJson() method</t>
+  </si>
+  <si>
+    <t>Pretty printing json</t>
+  </si>
+  <si>
+    <t>refer JSONPractice -&gt; gson.practice -&gt; ReadJSON -&gt; printJsonWithPrettyPrinting() method</t>
+  </si>
+  <si>
+    <t>Transient Fields</t>
+  </si>
+  <si>
+    <t>If you make a field in a Java class transient then GSON will ignore it in both serialization and deserialization. Here is how the Car class from earlier looks with the brand field marked as transient:</t>
+  </si>
+  <si>
+    <t>public class Car {
+    public transient String brand = null;
+    public int    doors = 0;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Expose Annotation</t>
+  </si>
+  <si>
+    <t>The GSON @Expose annotation (com.google.gson.annotations.Expose) can be used to mark a field to be exposed or not (included or not) when an object is serialized or deserialized. The @Expose annotation can take two parameters. Each parameter is a boolean which can take either the value true or false. Here are some GSON @Expose annotation examples to show what I mean:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Expose(serialize = true);
+@Expose(serialize = false);
+@Expose(deserialize = true);
+@Expose(deserialize = false);
+@Expose(serialize = true , deserialize = false);
+@Expose(serialize = false, deserialize = true);</t>
+  </si>
+  <si>
+    <t>The @Expose annotation's serialize parameter specifies if the field annotated with the @Expose annotation should be included when the owning object is serialized. The deserialize parameter specifies whether that field should be read when the owning object is deserialized.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Expose Annotation example</t>
+  </si>
+  <si>
+    <t>public class Car {
+    @Expose(serialize = false, deserialize = false)    public String brand = null;
+    @Expose(serialize = true, deserialize = true)    public int    doors = 0;
+}</t>
+  </si>
+  <si>
+    <t>GsonBuilder builder = new GsonBuilder();
+builder.excludeFieldsWithoutExposeAnnotation();
+Gson gson = builder.create();</t>
+  </si>
+  <si>
+    <t>In order to get GSON to react to the @Expose annotations you must create a Gson instance using the GsonBuilder class. Here is how that looks. Note, that this configuration makes GSON ignore all fields that do not have an @Expose annotation. To have a field included in serialization or deserialization it must have an @Expose annotation above it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GsonBuilder.setExclusionStrategies()</t>
+  </si>
+  <si>
+    <t>ExclusionStrategy exclusionStrategy = new ExclusionStrategy() {
+    public boolean shouldSkipField(FieldAttributes fieldAttributes) {
+        if("brand".equals(fieldAttributes.getName())){
+            return true;
+        }
+        return false;
+    }
+    public boolean shouldSkipClass(Class aClass) {
+        return false;
+    }
+};</t>
+  </si>
+  <si>
+    <t>Another way to exclude a field of a class from serialization or deserialization in GSON is to set an ExclusionStrategy on a GsonBuilder, and use that GsonBuilder to build the Gson object with.
+ExclusionStrategy is an interface, so you will have to create a class that implements the ExclusionStrategy interface. Here is an example that implements the ExclusionStrategy interface with an anonymous class</t>
+  </si>
+  <si>
+    <t>Notice that inside the shouldSkipField() method of the ExclusionStrategy implementation the example checks if the given field name is brand. If it is, that field is excluded from serialization and deserialization.
+To use the ExclusionStrategy implementation create a GsonBuilder and set the ExclusionStrategy on it using the setExclusionStrategies() method, like this</t>
+  </si>
+  <si>
+    <t>GsonBuilder builder = new GsonBuilder();
+builder.setExclusionStrategies(exclusionStrategy);
+Gson gson = builder.create();</t>
+  </si>
+  <si>
+    <t>Serializing Null Fields</t>
+  </si>
+  <si>
+    <t>By default the Gson object does not serialize fields with null values to JSON. If a field in a Java object is null, Gson excludes it.
+You can force Gson to serialize null values via the GsonBuilder. Here is an example showing how to force serialization of null values with GSON:</t>
+  </si>
+  <si>
+    <t>GsonBuilder builder = new GsonBuilder();
+builder.serializeNulls();
+Gson gson = builder.create();
+Car car = new Car();
+car.brand = null;
+String json = gson.toJson(car);
+System.out.println(json);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {"brand":null,"doors":0}</t>
+    </r>
+  </si>
+  <si>
+    <t>Custom Instance Creators in GSON</t>
+  </si>
+  <si>
+    <t>By default GSON will try to create an instance of a given class by calling the no-arg constructor of that class. However, if a given class does not have a default constructor, or you want to do some default configuration of the instance, or if you want to create an instance of a subclass instead, you need to create and register your own instance creator.
+A GSON instance creator is simply an object factory. An instance creator has to implement the InstanceCreator interface (com.google.gson.InstanceCreator). Here is an example InstanceCreator implementation:</t>
+  </si>
+  <si>
+    <t>import com.google.gson.InstanceCreator;
+public class CarCreator implements InstanceCreator&lt;Car&gt; {
+    public Car createInstance(Type type) {
+        Car car = new Car();
+        car.brand = "Toyota";
+        return car;
+    }
+}</t>
+  </si>
+  <si>
+    <t>GsonBuilder gsonBuilder = new GsonBuilder();
+gsonBuilder.registerTypeAdapter(Car.class, new CarCreator());
+Gson gson  = gsonBuilder.create();</t>
+  </si>
+  <si>
+    <t>String carJson = "{ \"doors\" : 4 }";
+Car car = gson.fromJson(carJson, Car.class);
+System.out.println(car.brand);</t>
+  </si>
+  <si>
+    <t>Version Support in GSON</t>
+  </si>
+  <si>
+    <t>GSON contains simple version support for the Java objects it reads and writes. GSON version support means that you can mark fields in your Java classes with a version number, and then have GSON include or exclude fields from your Java classes based on their version number.
+To use GSON version support you must first annotate your Java classes with the GSON @Since annotation. Here is an example Person class with its fields annotated with the @Since annotation</t>
+  </si>
+  <si>
+    <t>import com.google.gson.annotations.Since;
+public class Person {
+    @Since(1.0)    public String firstName = null;
+    @Since(1.0)    public String lastName = null;
+    @Since(2.0)    public String middleName = null;
+    @Since(3.0)    public String email = null;
+}</t>
+  </si>
+  <si>
+    <t>The Gson instance created from the above GsonBuilder will now just include fields that are annotated with @Since(2.0) or a lower version number than 2.0 . In the Person example class above that means the fields firstName, lastName and middleName. The email field is annotated with version 3.0 which is later than 2.0, so GSON will exclude the email field.</t>
+  </si>
+  <si>
+    <t>Person person     = new Person();
+person.firstName  = "John";    person.lastName   = "Doe";   person.middleName = "Blocks";  person.email      = "john@doe.com";
+GsonBuilder builder = new GsonBuilder();
+builder.setVersion(2.0);
+Gson gson = builder.create();
+String personJson = gson.toJson(person);
+System.out.println(personJson);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {"firstName":"John","lastName":"Doe","middleName":"Blocks"}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2852,7 +3192,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2967,6 +3307,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2974,12 +3318,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3007,6 +3351,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3307,7 +3660,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3384,10 +3737,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="53"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -3433,10 +3786,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="52" t="s">
         <v>332</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="53"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -3505,10 +3858,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3546,10 +3899,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3593,17 +3946,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:A11"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54.42578125" customWidth="1"/>
-    <col min="2" max="2" width="109.140625" customWidth="1"/>
+    <col min="2" max="2" width="130.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3615,16 +3968,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -3643,7 +3996,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="54" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -3651,13 +4004,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="24" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="24" t="s">
         <v>261</v>
       </c>
@@ -3702,11 +4055,216 @@
         <v>256</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="75">
+      <c r="A17" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="50" t="s">
+        <v>535</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="51" t="s">
+        <v>539</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="50" t="s">
+        <v>541</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="54" t="s">
+        <v>543</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60">
+      <c r="A23" s="54"/>
+      <c r="B23" s="50" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="58" t="s">
+        <v>546</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="90">
+      <c r="A25" s="58"/>
+      <c r="B25" s="50" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="58"/>
+      <c r="B26" s="50" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="60">
+      <c r="A27" s="61" t="s">
+        <v>550</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="61"/>
+      <c r="B28" s="50" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="61"/>
+      <c r="B29" s="50" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="60">
+      <c r="A30" s="68" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="180">
+      <c r="A31" s="68"/>
+      <c r="B31" s="50" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60">
+      <c r="A32" s="68"/>
+      <c r="B32" s="50" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="68"/>
+      <c r="B33" s="50" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="68" t="s">
+        <v>559</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="105">
+      <c r="A35" s="68"/>
+      <c r="B35" s="50" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="68"/>
+      <c r="B36" s="50" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="75">
+      <c r="A37" s="69" t="s">
+        <v>563</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="120">
+      <c r="A38" s="69"/>
+      <c r="B38" s="50" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45">
+      <c r="A39" s="69"/>
+      <c r="B39" s="50" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="69"/>
+      <c r="B40" s="50" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="68" t="s">
+        <v>568</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="105">
+      <c r="A42" s="68"/>
+      <c r="B42" s="50" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="68"/>
+      <c r="B43" s="50" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="135">
+      <c r="A44" s="68"/>
+      <c r="B44" s="50" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="68"/>
+      <c r="B45" s="50" t="s">
+        <v>573</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A40"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="GSON!A2" display="Up"/>
@@ -3719,11 +4277,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3741,19 +4299,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -3761,7 +4319,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="53"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="24" t="s">
         <v>274</v>
       </c>
@@ -3799,7 +4357,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="54" t="s">
         <v>507</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -3807,7 +4365,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="59"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="46" t="s">
         <v>506</v>
       </c>
@@ -3852,12 +4410,99 @@
         <v>517</v>
       </c>
     </row>
+    <row r="20" spans="1:2" ht="75">
+      <c r="A20" s="61" t="s">
+        <v>518</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="61"/>
+      <c r="B21" s="50" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="150">
+      <c r="A23" s="67"/>
+      <c r="B23" s="50" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="150">
+      <c r="A25" s="67"/>
+      <c r="B25" s="50" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="60">
+      <c r="A26" s="61" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="61"/>
+      <c r="B27" s="50" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="61"/>
+      <c r="B28" s="50" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="61"/>
+      <c r="B29" s="50" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="61" t="s">
+        <v>532</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="61"/>
+      <c r="B31" s="50" t="s">
+        <v>531</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Boon!A2" display="Up"/>
@@ -3865,6 +4510,7 @@
     <hyperlink ref="B9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3891,16 +4537,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -3956,16 +4602,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4004,16 +4650,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="24" t="s">
@@ -4069,10 +4715,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="32" t="s">
@@ -4383,10 +5029,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -4405,10 +5051,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="53"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -4425,10 +5071,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="53"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="21" t="s">
@@ -4471,10 +5117,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="B17" s="51"/>
+      <c r="B17" s="53"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="33" t="s">
@@ -4485,10 +5131,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="53"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="33" t="s">
@@ -4499,10 +5145,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="53"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="19" t="s">
@@ -4529,10 +5175,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="53"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="19" t="s">
@@ -4551,10 +5197,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="53"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="21" t="s">
@@ -4573,10 +5219,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="53"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="21" t="s">
@@ -4587,10 +5233,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="51"/>
+      <c r="B39" s="53"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -4607,16 +5253,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -4664,10 +5310,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="32" t="s">
@@ -4710,7 +5356,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="56" t="s">
         <v>410</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -4718,7 +5364,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="52"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="37" t="s">
         <v>412</v>
       </c>
@@ -4836,9 +5482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108:A109"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4856,10 +5502,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
@@ -4870,10 +5516,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="53"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -4964,7 +5610,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -4972,13 +5618,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -4986,7 +5632,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="56"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -5032,7 +5678,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="57" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="40" t="s">
@@ -5040,7 +5686,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="55"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="6" t="s">
         <v>43</v>
       </c>
@@ -5118,7 +5764,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="55" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -5126,7 +5772,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -5164,7 +5810,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="55" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -5172,19 +5818,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="54"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="54"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="55" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5192,13 +5838,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="54"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="54"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -5228,7 +5874,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="56" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -5236,19 +5882,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="52"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="52"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="52"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -5262,7 +5908,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="56" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -5270,7 +5916,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="52"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -5308,7 +5954,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="54" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -5316,7 +5962,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="53"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="24" t="s">
         <v>249</v>
       </c>
@@ -5338,7 +5984,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="54" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -5346,7 +5992,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="53"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="24" t="s">
         <v>244</v>
       </c>
@@ -5440,7 +6086,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="52" t="s">
+      <c r="A85" s="56" t="s">
         <v>289</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -5448,7 +6094,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="52"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="27" t="s">
         <v>291</v>
       </c>
@@ -5526,7 +6172,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="53" t="s">
+      <c r="A96" s="54" t="s">
         <v>306</v>
       </c>
       <c r="B96" s="30" t="s">
@@ -5534,13 +6180,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="53"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="30" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="53" t="s">
+      <c r="A98" s="54" t="s">
         <v>314</v>
       </c>
       <c r="B98" s="30" t="s">
@@ -5548,13 +6194,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="53"/>
+      <c r="A99" s="54"/>
       <c r="B99" s="30" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="52" t="s">
+      <c r="A100" s="56" t="s">
         <v>317</v>
       </c>
       <c r="B100" s="30" t="s">
@@ -5562,13 +6208,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="52"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="30" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="54" t="s">
         <v>320</v>
       </c>
       <c r="B102" s="30" t="s">
@@ -5576,13 +6222,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="53"/>
+      <c r="A103" s="54"/>
       <c r="B103" s="30" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="53" t="s">
+      <c r="A104" s="54" t="s">
         <v>323</v>
       </c>
       <c r="B104" s="30" t="s">
@@ -5590,13 +6236,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="53"/>
+      <c r="A105" s="54"/>
       <c r="B105" s="30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="53" t="s">
+      <c r="A106" s="54" t="s">
         <v>326</v>
       </c>
       <c r="B106" s="31" t="s">
@@ -5604,13 +6250,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="53"/>
+      <c r="A107" s="54"/>
       <c r="B107" s="31" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="53" t="s">
+      <c r="A108" s="54" t="s">
         <v>455</v>
       </c>
       <c r="B108" s="42" t="s">
@@ -5618,13 +6264,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="53"/>
+      <c r="A109" s="54"/>
       <c r="B109" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="53" t="s">
+      <c r="A110" s="54" t="s">
         <v>458</v>
       </c>
       <c r="B110" s="42" t="s">
@@ -5632,13 +6278,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="53"/>
+      <c r="A111" s="54"/>
       <c r="B111" s="42" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="53" t="s">
+      <c r="A112" s="54" t="s">
         <v>461</v>
       </c>
       <c r="B112" s="42" t="s">
@@ -5646,13 +6292,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="53"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="42" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="53" t="s">
+      <c r="A114" s="54" t="s">
         <v>464</v>
       </c>
       <c r="B114" s="42" t="s">
@@ -5660,13 +6306,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="53"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="42" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="53" t="s">
+      <c r="A116" s="54" t="s">
         <v>467</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -5674,7 +6320,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="53"/>
+      <c r="A117" s="54"/>
       <c r="B117" s="42" t="s">
         <v>469</v>
       </c>
@@ -5696,7 +6342,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="53" t="s">
+      <c r="A120" s="54" t="s">
         <v>474</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -5704,19 +6350,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="53"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="42" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="53"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="42" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="53" t="s">
+      <c r="A123" s="54" t="s">
         <v>478</v>
       </c>
       <c r="B123" s="42" t="s">
@@ -5724,13 +6370,32 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="53"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="42" t="s">
         <v>480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -5738,25 +6403,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -5796,16 +6442,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="53"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -5870,10 +6516,10 @@
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="53"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -5928,19 +6574,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="53"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="60" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -5948,7 +6594,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="7" t="s">
         <v>114</v>
       </c>
@@ -5962,7 +6608,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="54" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -5970,7 +6616,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="53"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
@@ -6008,7 +6654,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="54" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -6016,13 +6662,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="54" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -6030,16 +6676,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="53"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="57"/>
+      <c r="B23" s="59"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -6146,7 +6792,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="54" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -6154,7 +6800,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="53"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="12" t="s">
         <v>163</v>
       </c>
@@ -6227,16 +6873,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="53"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="45" t="s">
@@ -6247,7 +6893,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="61" t="s">
         <v>488</v>
       </c>
       <c r="B8" s="44" t="s">
@@ -6255,7 +6901,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="59"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="44" t="s">
         <v>490</v>
       </c>
@@ -6387,20 +7033,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="61"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="63"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="64" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -6408,13 +7054,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="63"/>
+      <c r="A11" s="65"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="66" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -6422,13 +7068,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="610">
   <si>
     <t>Topics</t>
   </si>
@@ -2976,6 +2976,195 @@
       </rPr>
       <t xml:space="preserve"> {"firstName":"John","lastName":"Doe","middleName":"Blocks"}</t>
     </r>
+  </si>
+  <si>
+    <t>Custom Serializer</t>
+  </si>
+  <si>
+    <t>A custom serializer in GSON has to implement the JsonSerializer interface. The JsonSerializer interface looks like this
+public interface JsonSerializer&lt;T&gt; {
+    public JsonElement serialize(T value, Type type,
+        JsonSerializationContext jsonSerializationContext) {
+    }
+}</t>
+  </si>
+  <si>
+    <t>Implementing a custom serializer that can serializer boolean values looks like this:</t>
+  </si>
+  <si>
+    <t>Registering this custom serializer is done like this</t>
+  </si>
+  <si>
+    <t>It is the call to registerTypeAdapter() which registers the customer serializer with GSON</t>
+  </si>
+  <si>
+    <t>Custom Serializer example</t>
+  </si>
+  <si>
+    <t>public class PojoWithBoolean {
+    public String username = null;    public Boolean isSuperUser = false;
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {"username":"abc","isSuperUser":0}</t>
+    </r>
+  </si>
+  <si>
+    <t>PojoWithBoolean pojo = new PojoWithBoolean();
+pojo.username = "abc";     pojo.isSuperUser = false;
+GsonBuilder builder = new GsonBuilder();
+builder.registerTypeAdapter(Boolean.class, new BooleanSerializer()) ;
+Gson gson = builder.create();
+String pojoJson = gson.toJson(pojo);
+System.out.println(pojoJson);</t>
+  </si>
+  <si>
+    <t>public class BooleanSerializer implements com.google.gson.JsonSerializer&lt;Boolean&gt; {
+  public JsonElement serialize(Boolean aBoolean, Type type,
+    JsonSerializationContext jsonSerializationContext) {
+    if(aBoolean){       return new JsonPrimitive(1);    }
+      return new JsonPrimitive(0);
+  }
+}</t>
+  </si>
+  <si>
+    <t>com.google.gson.GsonBuilder builder = new GsonBuilder();
+builder.registerTypeAdapter(Boolean.class, new BooleanSerializer()) ;
+com.google.gson.Gson gson = builder.create();</t>
+  </si>
+  <si>
+    <t>Custom Deserializer</t>
+  </si>
+  <si>
+    <t>GSON also provides support for custom deserializers. A custom deserializer must implement the JsonDeserializer interface. The JsonDeserializer interface looks like this:</t>
+  </si>
+  <si>
+    <t>Implementing a custom deserializer for the Boolean type would look like this</t>
+  </si>
+  <si>
+    <t>public interface com.google.gson.JsonDeserializer&lt;T&gt; { 
+       public Boolean deserialize(JsonElement jsonElement, Type type, JsonDeserializationContext jsonDeserializationContext) throws 
+               JsonParseException;
+}</t>
+  </si>
+  <si>
+    <t>public class BooleanDeserializer implements JsonDeserializer&lt;Boolean&gt; {
+    public Boolean deserialize(JsonElement jsonElement, Type type, JsonDeserializationContext jsonDeserializationContext)
+    throws JsonParseException {
+        return jsonElement.getAsInt() == 0 ? false : true;
+    }
+}</t>
+  </si>
+  <si>
+    <t>Registering the custom deserializer with GSON</t>
+  </si>
+  <si>
+    <t>here is how parsing a JSON string with the created Gson instance looks:</t>
+  </si>
+  <si>
+    <t>String jsonSource = "{\"username\":\"abc\",\"isSuperUser\":1}";
+PojoWithBoolean pojo = gson.fromJson(jsonSource, PojoWithBoolean.class);
+System.out.println(pojo.isSuperUser);</t>
+  </si>
+  <si>
+    <t>output: true</t>
+  </si>
+  <si>
+    <t>com.google.gson.GsonBuilder builder = new GsonBuilder();
+builder.registerTypeAdapter(Boolean.class, new BooleanDeserializer());
+com.google.gson.Gson gson = builder.create();</t>
+  </si>
+  <si>
+    <t>GSON - JsonReader</t>
+  </si>
+  <si>
+    <t>com.google.gson.stream.JsonReader</t>
+  </si>
+  <si>
+    <t>What is JsonReader</t>
+  </si>
+  <si>
+    <t>1. The GSON JsonReader is the GSON streaming JSON parser. The GSON JsonReader enables you to read a JSON string or file as a stream of JSON tokens.
+2. Iterating JSON token for token is also referred to as streaming through the JSON tokens. That is why the GSON JsonReader is also sometimes referred to as a streaming JSON parser.
+3.Streaming parsers typically come in two versions: Pull parsers and push parsers. A pull parser is a parser where the code using it pulls the tokens out of the parser when the code is ready to handle the next token. A push parser parses through the JSON tokens and pushes them into an event handler. The GSON JsonReader is a pull parser</t>
+  </si>
+  <si>
+    <t>String json = "{\"brand\" : \"Toyota\", \"doors\" : 5}";
+JsonReader jsonReader = new JsonReader(new StringReader(json));
+try {
+    while(jsonReader.hasNext()){
+        JsonToken nextToken = jsonReader.peek();
+        System.out.println(nextToken);
+        if(JsonToken.BEGIN_OBJECT.equals(nextToken)){            jsonReader.beginObject();        } 
+        else if(JsonToken.NAME.equals(nextToken)){         String name  =  jsonReader.nextName();         System.out.println(name);  } 
+        else if(JsonToken.STRING.equals(nextToken)){   String value =  jsonReader.nextString();    System.out.println(value);     } 
+        else if(JsonToken.NUMBER.equals(nextToken)){  long value =  jsonReader.nextLong();   System.out.println(value);      }
+    }
+} catch (IOException e) {
+    e.printStackTrace();
+}</t>
+  </si>
+  <si>
+    <t>JsonReader peek()</t>
+  </si>
+  <si>
+    <t>The JsonReader peek() method returns the next JSON token, but without moving over it. Multiple calls to peek() subsequently will return the same JSON token.
+The JsonToken returned by peek() can be compared to constants in the JsonToken class to find out what type of token it is. You can see that done in the loop above.</t>
+  </si>
+  <si>
+    <t>Using 
+com.google.gson.stream.JsonReader
+com.google.gson.stream.JsonToken (enum)</t>
+  </si>
+  <si>
+    <t>The GSON JsonParser class can parse a JSON string or stream into a tree structure of Java objects. GSON also has two other parsers. The Gson JSON parser which can parse JSON into Java objects, and the JsonReader which can parse a JSON string or stream into tokens (a pull parser). This tutorial focuses on the JsonParser though - GSON's tree parser.</t>
+  </si>
+  <si>
+    <t>GSON - com.google.gson.JsonParser</t>
+  </si>
+  <si>
+    <t>com.google.gson.JsonParser jsonParser = new JsonParser();</t>
+  </si>
+  <si>
+    <t>Parsing JSON Into a Tree Structure</t>
+  </si>
+  <si>
+    <t>JsonParser parser = new JsonParser();
+String json = "{ \"f1\":\"Hello\",\"f2\":{\"f3:\":\"World\"}}";
+com.google.gson.JsonElement jsonTree = parser.parse(json);</t>
+  </si>
+  <si>
+    <t>Example to use com.google.gson.JsonParser</t>
+  </si>
+  <si>
+    <t>com.google.gson.JsonParser parser = new JsonParser();
+String json = "{ \"f1\":\"Hello\",\"f2\":{\"f3:\":\"World\"}}";
+com.google.gson.JsonElement jsonTree = parser.parse(json);
+if(jsonTree.isJsonObject()){
+    com.google.gson.JsonObject jsonObject = jsonTree.getAsJsonObject();
+    JsonElement f1 = jsonObject.get("f1");
+    JsonElement f2 = jsonObject.get("f1");
+    if(f2.isJsonObject()){        JsonObject f2Obj = f2.getAsJsonObject();        JsonElement f3 = f2Obj.get("f3");    }
+}</t>
   </si>
 </sst>
 </file>
@@ -3192,7 +3381,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3310,7 +3499,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3318,12 +3509,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3352,14 +3543,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3946,16 +4134,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41:A45"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" style="51" customWidth="1"/>
     <col min="2" max="2" width="130.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3980,7 +4168,7 @@
       <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="51" t="s">
         <v>269</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -3988,7 +4176,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="51" t="s">
         <v>267</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3996,7 +4184,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="55" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -4004,19 +4192,19 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="24" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="24" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="51" t="s">
         <v>258</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -4024,7 +4212,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="51" t="s">
         <v>263</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -4032,7 +4220,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="51" t="s">
         <v>261</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -4040,7 +4228,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="51" t="s">
         <v>259</v>
       </c>
       <c r="B15" s="24" t="s">
@@ -4048,7 +4236,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="51" t="s">
         <v>257</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -4056,7 +4244,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="51" t="s">
         <v>534</v>
       </c>
       <c r="B17" s="50" t="s">
@@ -4064,7 +4252,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="51" t="s">
         <v>535</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -4072,7 +4260,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="51" t="s">
         <v>537</v>
       </c>
       <c r="B19" s="50" t="s">
@@ -4088,7 +4276,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="51" t="s">
         <v>541</v>
       </c>
       <c r="B21" s="50" t="s">
@@ -4096,7 +4284,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>543</v>
       </c>
       <c r="B22" s="50" t="s">
@@ -4104,7 +4292,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="50" t="s">
         <v>545</v>
       </c>
@@ -4130,7 +4318,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="55" t="s">
         <v>550</v>
       </c>
       <c r="B27" s="50" t="s">
@@ -4138,19 +4326,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="61"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="50" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="61"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="50" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="67" t="s">
         <v>554</v>
       </c>
       <c r="B30" s="50" t="s">
@@ -4158,25 +4346,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="68"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="50" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="68"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="50" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="68"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="50" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="67" t="s">
         <v>559</v>
       </c>
       <c r="B34" s="50" t="s">
@@ -4184,19 +4372,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="68"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="50" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="68"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="50" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="67" t="s">
         <v>563</v>
       </c>
       <c r="B37" s="50" t="s">
@@ -4204,25 +4392,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="69"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="50" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="69"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="50" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="69"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="50" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="67" t="s">
         <v>568</v>
       </c>
       <c r="B41" s="50" t="s">
@@ -4230,41 +4418,203 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="68"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="50" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="68"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="50" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="68"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="50" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="68"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="50" t="s">
         <v>573</v>
       </c>
     </row>
+    <row r="46" spans="1:2" ht="90">
+      <c r="A46" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="105">
+      <c r="A47" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="55"/>
+      <c r="B49" s="51" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="55" t="s">
+        <v>579</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="135">
+      <c r="A51" s="55"/>
+      <c r="B51" s="51" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="55"/>
+      <c r="B52" s="51" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30">
+      <c r="A53" s="55" t="s">
+        <v>585</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="60">
+      <c r="A54" s="55"/>
+      <c r="B54" s="51" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="90">
+      <c r="A55" s="51" t="s">
+        <v>587</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="51" t="s">
+        <v>590</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="45">
+      <c r="A57" s="55" t="s">
+        <v>591</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="55"/>
+      <c r="B58" s="51" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="51" t="s">
+        <v>595</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="105">
+      <c r="A60" s="51" t="s">
+        <v>597</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="240">
+      <c r="A61" s="51" t="s">
+        <v>602</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="60">
+      <c r="A62" s="51" t="s">
+        <v>600</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45">
+      <c r="A63" s="51" t="s">
+        <v>604</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="45">
+      <c r="A65" s="51" t="s">
+        <v>606</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="195">
+      <c r="A66" s="51" t="s">
+        <v>608</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>609</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="GSON!A2" display="Up"/>
@@ -4272,6 +4622,7 @@
     <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4311,7 +4662,7 @@
       <c r="B6" s="53"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -4319,7 +4670,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="24" t="s">
         <v>274</v>
       </c>
@@ -4357,7 +4708,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>507</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -4425,7 +4776,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="68" t="s">
         <v>301</v>
       </c>
       <c r="B22" s="50" t="s">
@@ -4433,13 +4784,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="67"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="50" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="68" t="s">
         <v>455</v>
       </c>
       <c r="B24" s="50" t="s">
@@ -4447,7 +4798,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="67"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="50" t="s">
         <v>524</v>
       </c>
@@ -5253,16 +5604,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -5356,7 +5707,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="54" t="s">
         <v>410</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -5364,7 +5715,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="56"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="37" t="s">
         <v>412</v>
       </c>
@@ -5610,7 +5961,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="54" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -5618,7 +5969,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="56"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -5764,7 +6115,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="56" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -5772,7 +6123,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="55"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -5810,7 +6161,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -5818,19 +6169,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="55"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="55"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="56" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -5838,13 +6189,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="55"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="55"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -5874,7 +6225,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="54" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -5882,19 +6233,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="56"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="56"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="56"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -5908,7 +6259,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="54" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -5916,7 +6267,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="56"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -5954,7 +6305,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="55" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -5962,7 +6313,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="54"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="24" t="s">
         <v>249</v>
       </c>
@@ -5984,7 +6335,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="55" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -5992,7 +6343,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="54"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="24" t="s">
         <v>244</v>
       </c>
@@ -6086,7 +6437,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="56" t="s">
+      <c r="A85" s="54" t="s">
         <v>289</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -6094,7 +6445,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="56"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="27" t="s">
         <v>291</v>
       </c>
@@ -6172,7 +6523,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="54" t="s">
+      <c r="A96" s="55" t="s">
         <v>306</v>
       </c>
       <c r="B96" s="30" t="s">
@@ -6180,13 +6531,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="54"/>
+      <c r="A97" s="55"/>
       <c r="B97" s="30" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="54" t="s">
+      <c r="A98" s="55" t="s">
         <v>314</v>
       </c>
       <c r="B98" s="30" t="s">
@@ -6194,13 +6545,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="54"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="30" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="56" t="s">
+      <c r="A100" s="54" t="s">
         <v>317</v>
       </c>
       <c r="B100" s="30" t="s">
@@ -6208,13 +6559,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="56"/>
+      <c r="A101" s="54"/>
       <c r="B101" s="30" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="54" t="s">
+      <c r="A102" s="55" t="s">
         <v>320</v>
       </c>
       <c r="B102" s="30" t="s">
@@ -6222,13 +6573,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="54"/>
+      <c r="A103" s="55"/>
       <c r="B103" s="30" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="54" t="s">
+      <c r="A104" s="55" t="s">
         <v>323</v>
       </c>
       <c r="B104" s="30" t="s">
@@ -6236,13 +6587,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="54"/>
+      <c r="A105" s="55"/>
       <c r="B105" s="30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="54" t="s">
+      <c r="A106" s="55" t="s">
         <v>326</v>
       </c>
       <c r="B106" s="31" t="s">
@@ -6250,13 +6601,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="54"/>
+      <c r="A107" s="55"/>
       <c r="B107" s="31" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="54" t="s">
+      <c r="A108" s="55" t="s">
         <v>455</v>
       </c>
       <c r="B108" s="42" t="s">
@@ -6264,13 +6615,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="54"/>
+      <c r="A109" s="55"/>
       <c r="B109" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="54" t="s">
+      <c r="A110" s="55" t="s">
         <v>458</v>
       </c>
       <c r="B110" s="42" t="s">
@@ -6278,13 +6629,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="54"/>
+      <c r="A111" s="55"/>
       <c r="B111" s="42" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="54" t="s">
+      <c r="A112" s="55" t="s">
         <v>461</v>
       </c>
       <c r="B112" s="42" t="s">
@@ -6292,13 +6643,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="54"/>
+      <c r="A113" s="55"/>
       <c r="B113" s="42" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="54" t="s">
+      <c r="A114" s="55" t="s">
         <v>464</v>
       </c>
       <c r="B114" s="42" t="s">
@@ -6306,13 +6657,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="54"/>
+      <c r="A115" s="55"/>
       <c r="B115" s="42" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="54" t="s">
+      <c r="A116" s="55" t="s">
         <v>467</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -6320,7 +6671,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="54"/>
+      <c r="A117" s="55"/>
       <c r="B117" s="42" t="s">
         <v>469</v>
       </c>
@@ -6342,7 +6693,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="54" t="s">
+      <c r="A120" s="55" t="s">
         <v>474</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -6350,19 +6701,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="54"/>
+      <c r="A121" s="55"/>
       <c r="B121" s="42" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="54"/>
+      <c r="A122" s="55"/>
       <c r="B122" s="42" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="54" t="s">
+      <c r="A123" s="55" t="s">
         <v>478</v>
       </c>
       <c r="B123" s="42" t="s">
@@ -6370,13 +6721,32 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="54"/>
+      <c r="A124" s="55"/>
       <c r="B124" s="42" t="s">
         <v>480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -6384,25 +6754,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -6594,7 +6945,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="7" t="s">
         <v>114</v>
       </c>
@@ -6608,7 +6959,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -6616,7 +6967,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
@@ -6654,7 +7005,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="55" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -6662,13 +7013,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="55" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -6676,7 +7027,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="54"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="12" t="s">
         <v>133</v>
       </c>
@@ -6792,7 +7143,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="55" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -6800,7 +7151,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="54"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="12" t="s">
         <v>163</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="610">
   <si>
     <t>Topics</t>
   </si>
@@ -3381,7 +3381,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3502,6 +3502,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3509,12 +3512,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3848,7 +3851,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3925,10 +3928,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="54"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -3974,10 +3977,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="54"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4046,10 +4049,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4087,10 +4090,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4136,9 +4139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4156,16 +4159,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="51" t="s">
@@ -4298,7 +4309,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="59" t="s">
         <v>546</v>
       </c>
       <c r="B24" s="50" t="s">
@@ -4306,13 +4317,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="58"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="50" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="58"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="50" t="s">
         <v>549</v>
       </c>
@@ -4338,7 +4349,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="68" t="s">
         <v>554</v>
       </c>
       <c r="B30" s="50" t="s">
@@ -4346,25 +4357,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="67"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="50" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="67"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="50" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="67"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="50" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="68" t="s">
         <v>559</v>
       </c>
       <c r="B34" s="50" t="s">
@@ -4372,19 +4383,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="67"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="50" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="67"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="50" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="68" t="s">
         <v>563</v>
       </c>
       <c r="B37" s="50" t="s">
@@ -4392,25 +4403,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="67"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="50" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="67"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="50" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="67"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="50" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="68" t="s">
         <v>568</v>
       </c>
       <c r="B41" s="50" t="s">
@@ -4418,25 +4429,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="67"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="50" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="67"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="50" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="67"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="50" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="67"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="50" t="s">
         <v>573</v>
       </c>
@@ -4620,9 +4631,10 @@
     <hyperlink ref="B1" location="GSON!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A14" display="Topics"/>
     <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4650,16 +4662,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="55" t="s">
@@ -4716,7 +4736,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="61"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="46" t="s">
         <v>506</v>
       </c>
@@ -4762,7 +4782,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="62" t="s">
         <v>518</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -4770,13 +4790,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="61"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="50" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="69" t="s">
         <v>301</v>
       </c>
       <c r="B22" s="50" t="s">
@@ -4784,13 +4804,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="68"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="50" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="69" t="s">
         <v>455</v>
       </c>
       <c r="B24" s="50" t="s">
@@ -4798,13 +4818,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="50" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="62" t="s">
         <v>525</v>
       </c>
       <c r="B26" s="50" t="s">
@@ -4812,25 +4832,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="61"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="50" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="61"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="50" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="61"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="50" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="62" t="s">
         <v>532</v>
       </c>
       <c r="B30" s="50" t="s">
@@ -4838,7 +4858,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="61"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="50" t="s">
         <v>531</v>
       </c>
@@ -4859,9 +4879,10 @@
     <hyperlink ref="B1" location="Boon!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A15" display="Topics"/>
     <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4869,9 +4890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4888,16 +4907,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -4935,7 +4954,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4953,16 +4972,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4983,7 +5002,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5001,16 +5020,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="24" t="s">
@@ -5066,10 +5085,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="32" t="s">
@@ -5380,10 +5399,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5402,10 +5421,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5422,10 +5441,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="21" t="s">
@@ -5468,10 +5487,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="54"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="33" t="s">
@@ -5482,10 +5501,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="54"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="33" t="s">
@@ -5496,10 +5515,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="54"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="19" t="s">
@@ -5526,10 +5545,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="54"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="19" t="s">
@@ -5548,10 +5567,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="54"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="21" t="s">
@@ -5570,10 +5589,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="53"/>
+      <c r="B36" s="54"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="21" t="s">
@@ -5584,10 +5603,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="54"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -5604,16 +5623,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -5661,10 +5680,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="32" t="s">
@@ -5707,7 +5726,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="57" t="s">
         <v>410</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -5715,7 +5734,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="54"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="37" t="s">
         <v>412</v>
       </c>
@@ -5834,7 +5853,7 @@
   <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -5853,10 +5872,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
@@ -5867,10 +5886,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -5961,7 +5980,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="57" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -5969,13 +5988,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="54"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -5983,7 +6002,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="58"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6029,7 +6048,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="58" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="40" t="s">
@@ -6037,7 +6056,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="57"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="6" t="s">
         <v>43</v>
       </c>
@@ -6225,7 +6244,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="57" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6233,19 +6252,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="54"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="54"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="54"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6259,7 +6278,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="57" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6267,7 +6286,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="54"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6437,7 +6456,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="54" t="s">
+      <c r="A85" s="57" t="s">
         <v>289</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -6445,7 +6464,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="54"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="27" t="s">
         <v>291</v>
       </c>
@@ -6551,7 +6570,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="54" t="s">
+      <c r="A100" s="57" t="s">
         <v>317</v>
       </c>
       <c r="B100" s="30" t="s">
@@ -6559,7 +6578,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="54"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="30" t="s">
         <v>319</v>
       </c>
@@ -6728,6 +6747,25 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -6735,25 +6773,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -6793,16 +6812,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="54"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -6867,10 +6886,10 @@
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -6925,19 +6944,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="61" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -7033,10 +7052,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="59"/>
+      <c r="B23" s="60"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -7204,9 +7223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7224,16 +7243,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="53"/>
+      <c r="B2" s="54"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="45" t="s">
@@ -7244,7 +7263,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>488</v>
       </c>
       <c r="B8" s="44" t="s">
@@ -7252,7 +7271,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="61"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="44" t="s">
         <v>490</v>
       </c>
@@ -7384,20 +7403,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="64"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -7405,13 +7424,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="67" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -7419,13 +7438,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="66"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="66"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="16" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3381,7 +3381,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3505,6 +3505,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3512,12 +3515,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3928,10 +3931,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="55"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -3977,10 +3980,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="55"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4049,10 +4052,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4090,10 +4093,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4159,10 +4162,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -4173,10 +4176,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="51" t="s">
@@ -4195,7 +4198,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="57" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -4203,13 +4206,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="24" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="24" t="s">
         <v>261</v>
       </c>
@@ -4295,7 +4298,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="57" t="s">
         <v>543</v>
       </c>
       <c r="B22" s="50" t="s">
@@ -4303,13 +4306,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="55"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="50" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="60" t="s">
         <v>546</v>
       </c>
       <c r="B24" s="50" t="s">
@@ -4317,19 +4320,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="59"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="50" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="59"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="50" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="57" t="s">
         <v>550</v>
       </c>
       <c r="B27" s="50" t="s">
@@ -4337,19 +4340,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="55"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="50" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="55"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="50" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="69" t="s">
         <v>554</v>
       </c>
       <c r="B30" s="50" t="s">
@@ -4357,25 +4360,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="68"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="50" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="68"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="50" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="68"/>
+      <c r="A33" s="69"/>
       <c r="B33" s="50" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="69" t="s">
         <v>559</v>
       </c>
       <c r="B34" s="50" t="s">
@@ -4383,19 +4386,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="68"/>
+      <c r="A35" s="69"/>
       <c r="B35" s="50" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="68"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="50" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="69" t="s">
         <v>563</v>
       </c>
       <c r="B37" s="50" t="s">
@@ -4403,25 +4406,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="68"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="50" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="68"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="50" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="68"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="50" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="69" t="s">
         <v>568</v>
       </c>
       <c r="B41" s="50" t="s">
@@ -4429,25 +4432,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="68"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="50" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="68"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="50" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="68"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="50" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="68"/>
+      <c r="A45" s="69"/>
       <c r="B45" s="50" t="s">
         <v>573</v>
       </c>
@@ -4469,7 +4472,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="57" t="s">
         <v>577</v>
       </c>
       <c r="B48" s="51" t="s">
@@ -4477,13 +4480,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="55"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="51" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="57" t="s">
         <v>579</v>
       </c>
       <c r="B50" s="51" t="s">
@@ -4491,19 +4494,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="55"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="51" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="55"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="51" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="57" t="s">
         <v>585</v>
       </c>
       <c r="B53" s="51" t="s">
@@ -4511,7 +4514,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="55"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="51" t="s">
         <v>588</v>
       </c>
@@ -4533,7 +4536,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="57" t="s">
         <v>591</v>
       </c>
       <c r="B57" s="51" t="s">
@@ -4541,7 +4544,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="55"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="51" t="s">
         <v>593</v>
       </c>
@@ -4662,10 +4665,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -4676,13 +4679,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -4690,7 +4693,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="55"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="24" t="s">
         <v>274</v>
       </c>
@@ -4728,7 +4731,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="57" t="s">
         <v>507</v>
       </c>
       <c r="B13" s="42" t="s">
@@ -4736,7 +4739,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="62"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="46" t="s">
         <v>506</v>
       </c>
@@ -4782,7 +4785,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="63" t="s">
         <v>518</v>
       </c>
       <c r="B20" s="50" t="s">
@@ -4790,13 +4793,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="62"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="50" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="70" t="s">
         <v>301</v>
       </c>
       <c r="B22" s="50" t="s">
@@ -4804,13 +4807,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="69"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="50" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="70" t="s">
         <v>455</v>
       </c>
       <c r="B24" s="50" t="s">
@@ -4818,13 +4821,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="69"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="50" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="63" t="s">
         <v>525</v>
       </c>
       <c r="B26" s="50" t="s">
@@ -4832,25 +4835,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="62"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="50" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="62"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="50" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="62"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="50" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="63" t="s">
         <v>532</v>
       </c>
       <c r="B30" s="50" t="s">
@@ -4858,7 +4861,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="62"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="50" t="s">
         <v>531</v>
       </c>
@@ -4907,16 +4910,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -4972,16 +4975,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5020,16 +5023,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="24" t="s">
@@ -5085,10 +5088,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="32" t="s">
@@ -5399,10 +5402,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5421,10 +5424,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="55"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5441,10 +5444,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="55"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="21" t="s">
@@ -5487,10 +5490,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="54" t="s">
         <v>330</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="55"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="33" t="s">
@@ -5501,10 +5504,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="54" t="s">
         <v>437</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="55"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="33" t="s">
@@ -5515,10 +5518,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="55"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="19" t="s">
@@ -5545,10 +5548,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="54"/>
+      <c r="B28" s="55"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="19" t="s">
@@ -5567,10 +5570,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="54"/>
+      <c r="B32" s="55"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="21" t="s">
@@ -5589,10 +5592,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="55"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="21" t="s">
@@ -5603,10 +5606,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="54"/>
+      <c r="B39" s="55"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -5623,16 +5626,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -5680,10 +5683,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="32" t="s">
@@ -5726,7 +5729,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>410</v>
       </c>
       <c r="B8" s="37" t="s">
@@ -5734,7 +5737,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="57"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="37" t="s">
         <v>412</v>
       </c>
@@ -5852,9 +5855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5872,10 +5875,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
@@ -5886,10 +5889,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="55"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -5980,7 +5983,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -5988,13 +5991,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="57"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6002,7 +6005,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="59"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6048,16 +6051,16 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="53" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="58"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="59"/>
+      <c r="B32" s="53" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6134,7 +6137,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="58" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6142,7 +6145,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="56"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6180,7 +6183,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="58" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6188,19 +6191,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="56"/>
+      <c r="A49" s="58"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="56"/>
+      <c r="A50" s="58"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="58" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6208,13 +6211,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="56"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="56"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6244,7 +6247,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="56" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6252,19 +6255,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="57"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="57"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="57"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6278,7 +6281,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="56" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6286,7 +6289,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="57"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6324,7 +6327,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="57" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -6332,7 +6335,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="55"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="24" t="s">
         <v>249</v>
       </c>
@@ -6354,7 +6357,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="57" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -6362,7 +6365,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="55"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="24" t="s">
         <v>244</v>
       </c>
@@ -6456,7 +6459,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="57" t="s">
+      <c r="A85" s="56" t="s">
         <v>289</v>
       </c>
       <c r="B85" s="27" t="s">
@@ -6464,7 +6467,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="57"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="27" t="s">
         <v>291</v>
       </c>
@@ -6542,7 +6545,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="55" t="s">
+      <c r="A96" s="57" t="s">
         <v>306</v>
       </c>
       <c r="B96" s="30" t="s">
@@ -6550,13 +6553,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="55"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="30" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="55" t="s">
+      <c r="A98" s="57" t="s">
         <v>314</v>
       </c>
       <c r="B98" s="30" t="s">
@@ -6564,13 +6567,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="55"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="30" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="57" t="s">
+      <c r="A100" s="56" t="s">
         <v>317</v>
       </c>
       <c r="B100" s="30" t="s">
@@ -6578,13 +6581,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="57"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="30" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="55" t="s">
+      <c r="A102" s="57" t="s">
         <v>320</v>
       </c>
       <c r="B102" s="30" t="s">
@@ -6592,13 +6595,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="55"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="30" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="55" t="s">
+      <c r="A104" s="57" t="s">
         <v>323</v>
       </c>
       <c r="B104" s="30" t="s">
@@ -6606,13 +6609,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="55"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="55" t="s">
+      <c r="A106" s="57" t="s">
         <v>326</v>
       </c>
       <c r="B106" s="31" t="s">
@@ -6620,13 +6623,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="55"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="31" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="55" t="s">
+      <c r="A108" s="57" t="s">
         <v>455</v>
       </c>
       <c r="B108" s="42" t="s">
@@ -6634,13 +6637,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="55"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="55" t="s">
+      <c r="A110" s="57" t="s">
         <v>458</v>
       </c>
       <c r="B110" s="42" t="s">
@@ -6648,13 +6651,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="55"/>
+      <c r="A111" s="57"/>
       <c r="B111" s="42" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="55" t="s">
+      <c r="A112" s="57" t="s">
         <v>461</v>
       </c>
       <c r="B112" s="42" t="s">
@@ -6662,13 +6665,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="55"/>
+      <c r="A113" s="57"/>
       <c r="B113" s="42" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="55" t="s">
+      <c r="A114" s="57" t="s">
         <v>464</v>
       </c>
       <c r="B114" s="42" t="s">
@@ -6676,13 +6679,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="55"/>
+      <c r="A115" s="57"/>
       <c r="B115" s="42" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="55" t="s">
+      <c r="A116" s="57" t="s">
         <v>467</v>
       </c>
       <c r="B116" s="42" t="s">
@@ -6690,7 +6693,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="55"/>
+      <c r="A117" s="57"/>
       <c r="B117" s="42" t="s">
         <v>469</v>
       </c>
@@ -6712,7 +6715,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="55" t="s">
+      <c r="A120" s="57" t="s">
         <v>474</v>
       </c>
       <c r="B120" s="42" t="s">
@@ -6720,19 +6723,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="55"/>
+      <c r="A121" s="57"/>
       <c r="B121" s="42" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="55"/>
+      <c r="A122" s="57"/>
       <c r="B122" s="42" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="55" t="s">
+      <c r="A123" s="57" t="s">
         <v>478</v>
       </c>
       <c r="B123" s="42" t="s">
@@ -6740,13 +6743,32 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="55"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="42" t="s">
         <v>480</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -6754,25 +6776,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -6812,16 +6815,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
+      <c r="B5" s="55"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -6886,10 +6889,10 @@
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="55"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -6944,19 +6947,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="55"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -6964,7 +6967,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="7" t="s">
         <v>114</v>
       </c>
@@ -6978,7 +6981,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="57" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -6986,7 +6989,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="55"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
@@ -7024,7 +7027,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="57" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -7032,13 +7035,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="57" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -7046,16 +7049,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="55"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="61"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -7162,7 +7165,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="57" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -7170,7 +7173,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="55"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="12" t="s">
         <v>163</v>
       </c>
@@ -7223,9 +7226,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7243,16 +7246,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="45" t="s">
@@ -7263,7 +7266,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>488</v>
       </c>
       <c r="B8" s="44" t="s">
@@ -7271,7 +7274,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="62"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="44" t="s">
         <v>490</v>
       </c>
@@ -7403,20 +7406,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="65"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="66" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -7424,13 +7427,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="66"/>
+      <c r="A11" s="67"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -7438,13 +7441,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="67"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="67"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="16" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="616">
   <si>
     <t>Topics</t>
   </si>
@@ -1315,9 +1315,6 @@
     <t>Github project link</t>
   </si>
   <si>
-    <t>https://github.com/avinashbabudonthu/JSONPractice.git</t>
-  </si>
-  <si>
     <t>JsonGenerator</t>
   </si>
   <si>
@@ -3165,6 +3162,31 @@
     JsonElement f2 = jsonObject.get("f1");
     if(f2.isJsonObject()){        JsonObject f2Obj = f2.getAsJsonObject();        JsonElement f3 = f2Obj.get("f3");    }
 }</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/CoreJavaPractice.git</t>
+  </si>
+  <si>
+    <t>Add this dependency to pom.xml</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+   &lt;groupId&gt;com.googlecode.json-simple&lt;/groupId&gt;
+   &lt;artifactId&gt;json-simple&lt;/artifactId&gt;
+   &lt;version&gt;1.1&lt;/version&gt;
+  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>Write JSON</t>
+  </si>
+  <si>
+    <t>refer CoreJavaPractice -&gt; json.simple.practice.WriteJSON</t>
+  </si>
+  <si>
+    <t>Read JSON</t>
+  </si>
+  <si>
+    <t>refer CoreJavaPractice -&gt; json.simple.practice.ReadJSON</t>
   </si>
 </sst>
 </file>
@@ -3381,7 +3403,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3508,6 +3530,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3854,7 +3880,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3882,7 +3908,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3931,10 +3957,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="57"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -3973,26 +3999,26 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>442</v>
-      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="54" t="s">
-        <v>332</v>
-      </c>
-      <c r="B23" s="55"/>
+      <c r="A23" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4052,10 +4078,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4093,10 +4119,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4162,24 +4188,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="51" t="s">
@@ -4198,7 +4224,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="59" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -4206,13 +4232,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="57"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="24" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="24" t="s">
         <v>261</v>
       </c>
@@ -4259,334 +4285,334 @@
     </row>
     <row r="17" spans="1:2" ht="75">
       <c r="A17" s="51" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="B18" s="50" t="s">
         <v>535</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>537</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="B20" s="50" t="s">
         <v>539</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="51" t="s">
+        <v>540</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>541</v>
       </c>
-      <c r="B21" s="50" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="59" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="57" t="s">
+      <c r="B22" s="50" t="s">
         <v>543</v>
       </c>
-      <c r="B22" s="50" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="60">
+      <c r="A23" s="59"/>
+      <c r="B23" s="50" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="57"/>
-      <c r="B23" s="50" t="s">
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="62" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="60" t="s">
+      <c r="B24" s="50" t="s">
         <v>546</v>
       </c>
-      <c r="B24" s="50" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="90">
+      <c r="A25" s="62"/>
+      <c r="B25" s="50" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="60"/>
-      <c r="B25" s="50" t="s">
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="62"/>
+      <c r="B26" s="50" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="60"/>
-      <c r="B26" s="50" t="s">
+    <row r="27" spans="1:2" ht="60">
+      <c r="A27" s="59" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="57" t="s">
+      <c r="B27" s="50" t="s">
         <v>550</v>
       </c>
-      <c r="B27" s="50" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="59"/>
+      <c r="B28" s="50" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="59"/>
+      <c r="B29" s="50" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="57"/>
-      <c r="B28" s="50" t="s">
+    <row r="30" spans="1:2" ht="60">
+      <c r="A30" s="71" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="57"/>
-      <c r="B29" s="50" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="69" t="s">
+      <c r="B30" s="50" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="180">
+      <c r="A31" s="71"/>
+      <c r="B31" s="50" t="s">
         <v>554</v>
       </c>
-      <c r="B30" s="50" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="60">
+      <c r="A32" s="71"/>
+      <c r="B32" s="50" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="69"/>
-      <c r="B31" s="50" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="69"/>
-      <c r="B32" s="50" t="s">
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="71"/>
+      <c r="B33" s="50" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="69"/>
-      <c r="B33" s="50" t="s">
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="71" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="69" t="s">
+      <c r="B34" s="50" t="s">
         <v>559</v>
       </c>
-      <c r="B34" s="50" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="105">
+      <c r="A35" s="71"/>
+      <c r="B35" s="50" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="69"/>
-      <c r="B35" s="50" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="71"/>
+      <c r="B36" s="50" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="69"/>
-      <c r="B36" s="50" t="s">
+    <row r="37" spans="1:2" ht="75">
+      <c r="A37" s="71" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="69" t="s">
+      <c r="B37" s="50" t="s">
         <v>563</v>
       </c>
-      <c r="B37" s="50" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="120">
+      <c r="A38" s="71"/>
+      <c r="B38" s="50" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="69"/>
-      <c r="B38" s="50" t="s">
+    <row r="39" spans="1:2" ht="45">
+      <c r="A39" s="71"/>
+      <c r="B39" s="50" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="69"/>
-      <c r="B39" s="50" t="s">
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="71"/>
+      <c r="B40" s="50" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="69"/>
-      <c r="B40" s="50" t="s">
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="71" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="69" t="s">
+      <c r="B41" s="50" t="s">
         <v>568</v>
       </c>
-      <c r="B41" s="50" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="105">
+      <c r="A42" s="71"/>
+      <c r="B42" s="50" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="69"/>
-      <c r="B42" s="50" t="s">
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="71"/>
+      <c r="B43" s="50" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="69"/>
-      <c r="B43" s="50" t="s">
+    <row r="44" spans="1:2" ht="135">
+      <c r="A44" s="71"/>
+      <c r="B44" s="50" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="69"/>
-      <c r="B44" s="50" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="71"/>
+      <c r="B45" s="50" t="s">
         <v>572</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="69"/>
-      <c r="B45" s="50" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="90">
       <c r="A46" s="51" t="s">
+        <v>573</v>
+      </c>
+      <c r="B46" s="51" t="s">
         <v>574</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105">
       <c r="A47" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="59" t="s">
         <v>576</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B48" s="51" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="57" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="59"/>
+      <c r="B49" s="51" t="s">
         <v>577</v>
       </c>
-      <c r="B48" s="51" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="59" t="s">
+        <v>578</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="135">
+      <c r="A51" s="59"/>
+      <c r="B51" s="51" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="59"/>
+      <c r="B52" s="51" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30">
+      <c r="A53" s="59" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="57"/>
-      <c r="B49" s="51" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="57" t="s">
-        <v>579</v>
-      </c>
-      <c r="B50" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="57"/>
-      <c r="B51" s="51" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="57"/>
-      <c r="B52" s="51" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="57" t="s">
+      <c r="B53" s="51" t="s">
         <v>585</v>
       </c>
-      <c r="B53" s="51" t="s">
-        <v>586</v>
-      </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="57"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="51" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="90">
       <c r="A55" s="51" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
       <c r="A56" s="51" t="s">
+        <v>589</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="45">
+      <c r="A57" s="59" t="s">
         <v>590</v>
       </c>
-      <c r="B56" s="51" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="57" t="s">
+      <c r="B57" s="51" t="s">
         <v>591</v>
       </c>
-      <c r="B57" s="51" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="59"/>
+      <c r="B58" s="51" t="s">
         <v>592</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="57"/>
-      <c r="B58" s="51" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="B59" s="51" t="s">
         <v>595</v>
-      </c>
-      <c r="B59" s="51" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="105">
       <c r="A60" s="51" t="s">
+        <v>596</v>
+      </c>
+      <c r="B60" s="51" t="s">
         <v>597</v>
-      </c>
-      <c r="B60" s="51" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
       <c r="A61" s="51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="60">
       <c r="A62" s="51" t="s">
+        <v>599</v>
+      </c>
+      <c r="B62" s="51" t="s">
         <v>600</v>
-      </c>
-      <c r="B62" s="51" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
       <c r="A63" s="51" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4594,23 +4620,23 @@
         <v>232</v>
       </c>
       <c r="B64" s="51" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
       <c r="A65" s="51" t="s">
+        <v>605</v>
+      </c>
+      <c r="B65" s="51" t="s">
         <v>606</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="195">
       <c r="A66" s="51" t="s">
+        <v>607</v>
+      </c>
+      <c r="B66" s="51" t="s">
         <v>608</v>
-      </c>
-      <c r="B66" s="51" t="s">
-        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -4665,27 +4691,27 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -4693,7 +4719,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="57"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="24" t="s">
         <v>274</v>
       </c>
@@ -4716,154 +4742,154 @@
     </row>
     <row r="11" spans="1:2" ht="75">
       <c r="A11" s="43" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>483</v>
-      </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="57" t="s">
-        <v>507</v>
+      <c r="A13" s="59" t="s">
+        <v>506</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="63"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>508</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="47" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>510</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>512</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>514</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="49" t="s">
+        <v>515</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="48" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="75">
+      <c r="A20" s="65" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="63" t="s">
+      <c r="B20" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="B20" s="50" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="65"/>
+      <c r="B21" s="50" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="63"/>
-      <c r="B21" s="50" t="s">
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="70" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" s="50" t="s">
+    <row r="23" spans="1:2" ht="150">
+      <c r="A23" s="72"/>
+      <c r="B23" s="50" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="70"/>
-      <c r="B23" s="50" t="s">
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="B24" s="50" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="70" t="s">
-        <v>455</v>
-      </c>
-      <c r="B24" s="50" t="s">
+    <row r="25" spans="1:2" ht="150">
+      <c r="A25" s="72"/>
+      <c r="B25" s="50" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="70"/>
-      <c r="B25" s="50" t="s">
+    <row r="26" spans="1:2" ht="60">
+      <c r="A26" s="65" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="63" t="s">
+      <c r="B26" s="50" t="s">
         <v>525</v>
       </c>
-      <c r="B26" s="50" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="65"/>
+      <c r="B27" s="50" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="63"/>
-      <c r="B27" s="50" t="s">
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="65"/>
+      <c r="B28" s="50" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="63"/>
-      <c r="B28" s="50" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="65"/>
+      <c r="B29" s="50" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="50" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="65" t="s">
+        <v>531</v>
+      </c>
+      <c r="B30" s="50" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="63" t="s">
-        <v>532</v>
-      </c>
-      <c r="B30" s="50" t="s">
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="65"/>
+      <c r="B31" s="50" t="s">
         <v>530</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="63"/>
-      <c r="B31" s="50" t="s">
-        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -4910,16 +4936,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="24" t="s">
@@ -4953,11 +4979,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4975,16 +5001,48 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
+    </row>
+    <row r="7" spans="1:2" ht="75">
+      <c r="A7" s="55" t="s">
+        <v>610</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="55" t="s">
+        <v>614</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>615</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4994,6 +5052,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="SimpleJSON!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A18" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5023,16 +5082,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="24" t="s">
@@ -5088,281 +5147,281 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>335</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90">
       <c r="A4" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>337</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45">
       <c r="A5" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>339</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="90">
       <c r="A6" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
       <c r="A7" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>343</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>345</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>347</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
       <c r="A10" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>349</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
       <c r="A11" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>351</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>353</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="165">
       <c r="A13" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>355</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105">
       <c r="A14" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>357</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>359</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
       <c r="A16" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>361</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>363</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>365</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>367</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>369</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>371</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>373</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>375</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
       <c r="A25" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>378</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
       <c r="A26" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>380</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>382</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>384</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="120">
       <c r="A29" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>386</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
       <c r="A30" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>388</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75">
       <c r="A31" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>390</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>392</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
       <c r="A33" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>394</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B34" s="32" t="s">
         <v>396</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="B35" s="32" t="s">
         <v>398</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5402,10 +5461,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="23" t="s">
@@ -5424,10 +5483,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="57"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5444,10 +5503,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="57"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="21" t="s">
@@ -5459,69 +5518,69 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="41" customFormat="1">
       <c r="A15" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="41" customFormat="1">
       <c r="A16" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>454</v>
-      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="54" t="s">
-        <v>330</v>
-      </c>
-      <c r="B17" s="55"/>
+      <c r="A17" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="B17" s="57"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="54" t="s">
-        <v>437</v>
-      </c>
-      <c r="B20" s="55"/>
+      <c r="A20" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="B20" s="57"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="19" t="s">
@@ -5548,10 +5607,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="19" t="s">
@@ -5570,10 +5629,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="55"/>
+      <c r="B32" s="57"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="21" t="s">
@@ -5592,10 +5651,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="55"/>
+      <c r="B36" s="57"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="21" t="s">
@@ -5606,10 +5665,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="55"/>
+      <c r="B39" s="57"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -5683,159 +5742,159 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>402</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>404</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>406</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="B7" s="32" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="94.5">
+      <c r="A8" s="58" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="56" t="s">
+      <c r="B8" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="B8" s="37" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="126">
+      <c r="A9" s="58"/>
+      <c r="B9" s="37" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="56"/>
-      <c r="B9" s="37" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>413</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>415</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>417</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>419</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>421</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
       <c r="A15" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15" s="32" t="s">
         <v>423</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>425</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>427</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>429</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>431</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>433</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -5855,9 +5914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:A32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5875,24 +5934,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="57"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -5983,7 +6042,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -5991,13 +6050,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="56"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="62" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6005,7 +6064,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="60"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6051,15 +6110,15 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="61" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="59"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="53" t="s">
         <v>43</v>
       </c>
@@ -6137,7 +6196,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="60" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6145,7 +6204,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="58"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6183,7 +6242,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="60" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6191,19 +6250,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="58"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="58"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="60" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6211,13 +6270,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="58"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="58"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6247,7 +6306,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="58" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6255,19 +6314,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="56"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="56"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="56"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6281,7 +6340,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="58" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6289,7 +6348,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="56"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6315,7 +6374,7 @@
         <v>219</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6327,7 +6386,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="59" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="24" t="s">
@@ -6335,7 +6394,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="57"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="24" t="s">
         <v>249</v>
       </c>
@@ -6357,7 +6416,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="57" t="s">
+      <c r="A72" s="59" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="24" t="s">
@@ -6365,7 +6424,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="57"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="24" t="s">
         <v>244</v>
       </c>
@@ -6439,313 +6498,313 @@
         <v>230</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="28" customFormat="1">
       <c r="A83" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B84" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="B84" s="27" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="56" t="s">
+      <c r="A85" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="B85" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="B85" s="27" t="s">
+    </row>
+    <row r="86" spans="1:2" ht="90">
+      <c r="A86" s="58"/>
+      <c r="B86" s="27" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="56"/>
-      <c r="B86" s="27" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="60">
       <c r="A88" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="60">
       <c r="A89" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="75">
       <c r="A90" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="105">
       <c r="A91" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="60">
       <c r="A95" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="B95" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="B95" s="29" t="s">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="59" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="57" t="s">
-        <v>306</v>
-      </c>
       <c r="B96" s="30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="59"/>
+      <c r="B97" s="30" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="57"/>
-      <c r="B97" s="30" t="s">
-        <v>310</v>
-      </c>
-    </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="57" t="s">
+      <c r="A98" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="B98" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="B98" s="30" t="s">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="59"/>
+      <c r="B99" s="30" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="57"/>
-      <c r="B99" s="30" t="s">
+    <row r="100" spans="1:2" ht="30">
+      <c r="A100" s="58" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="56" t="s">
+      <c r="B100" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="B100" s="30" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="58"/>
+      <c r="B101" s="30" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="56"/>
-      <c r="B101" s="30" t="s">
+    <row r="102" spans="1:2" ht="60">
+      <c r="A102" s="59" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="57" t="s">
+      <c r="B102" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="B102" s="30" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="59"/>
+      <c r="B103" s="30" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="57"/>
-      <c r="B103" s="30" t="s">
+    <row r="104" spans="1:2" ht="90">
+      <c r="A104" s="59" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="57" t="s">
+      <c r="B104" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="B104" s="30" t="s">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="59"/>
+      <c r="B105" s="30" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="57"/>
-      <c r="B105" s="30" t="s">
+    <row r="106" spans="1:2" ht="30">
+      <c r="A106" s="59" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="57" t="s">
+      <c r="B106" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="B106" s="31" t="s">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="59"/>
+      <c r="B107" s="31" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="57"/>
-      <c r="B107" s="31" t="s">
-        <v>328</v>
-      </c>
-    </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="57" t="s">
+      <c r="A108" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="75">
+      <c r="A109" s="59"/>
+      <c r="B109" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="B108" s="42" t="s">
+    </row>
+    <row r="110" spans="1:2" ht="45">
+      <c r="A110" s="59" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="57"/>
-      <c r="B109" s="42" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="57" t="s">
+      <c r="B110" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="B110" s="42" t="s">
+    </row>
+    <row r="111" spans="1:2" ht="75">
+      <c r="A111" s="59"/>
+      <c r="B111" s="42" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="57"/>
-      <c r="B111" s="42" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="59" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="57" t="s">
+      <c r="B112" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="B112" s="42" t="s">
+    </row>
+    <row r="113" spans="1:2" ht="60">
+      <c r="A113" s="59"/>
+      <c r="B113" s="42" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="57"/>
-      <c r="B113" s="42" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="59" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="57" t="s">
+      <c r="B114" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="B114" s="42" t="s">
+    </row>
+    <row r="115" spans="1:2" ht="75">
+      <c r="A115" s="59"/>
+      <c r="B115" s="42" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="57"/>
-      <c r="B115" s="42" t="s">
+    <row r="116" spans="1:2" ht="60">
+      <c r="A116" s="59" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="57" t="s">
+      <c r="B116" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B116" s="42" t="s">
+    </row>
+    <row r="117" spans="1:2" ht="60">
+      <c r="A117" s="59"/>
+      <c r="B117" s="42" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="57"/>
-      <c r="B117" s="42" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="B118" s="42" t="s">
         <v>470</v>
-      </c>
-      <c r="B118" s="42" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="B119" s="42" t="s">
         <v>472</v>
       </c>
-      <c r="B119" s="42" t="s">
+    </row>
+    <row r="120" spans="1:2" ht="60">
+      <c r="A120" s="59" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="57" t="s">
+      <c r="B120" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="B120" s="42" t="s">
+    </row>
+    <row r="121" spans="1:2" ht="60">
+      <c r="A121" s="59"/>
+      <c r="B121" s="42" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="57"/>
-      <c r="B121" s="42" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="59"/>
+      <c r="B122" s="42" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="57"/>
-      <c r="B122" s="42" t="s">
+    <row r="123" spans="1:2" ht="75">
+      <c r="A123" s="59" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="57" t="s">
+      <c r="B123" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="B123" s="42" t="s">
+    </row>
+    <row r="124" spans="1:2" ht="135">
+      <c r="A124" s="59"/>
+      <c r="B124" s="42" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="57"/>
-      <c r="B124" s="42" t="s">
-        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -6815,39 +6874,39 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="165">
       <c r="A7" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>439</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -6889,10 +6948,10 @@
     </row>
     <row r="3" spans="1:2" s="21" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="57"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -6947,19 +7006,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="57"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="64" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -6967,7 +7026,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="7" t="s">
         <v>114</v>
       </c>
@@ -6981,7 +7040,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="59" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -6989,7 +7048,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
@@ -7027,7 +7086,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="59" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -7035,13 +7094,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="57"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="59" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -7049,16 +7108,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="57"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="61"/>
+      <c r="B23" s="63"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="13" t="s">
@@ -7165,7 +7224,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="59" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -7173,7 +7232,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="57"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="12" t="s">
         <v>163</v>
       </c>
@@ -7246,93 +7305,93 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="55"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="B7" s="45" t="s">
         <v>486</v>
       </c>
-      <c r="B7" s="45" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="105">
+      <c r="A8" s="65" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="63" t="s">
+      <c r="B8" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="B8" s="44" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="105">
+      <c r="A9" s="65"/>
+      <c r="B9" s="44" t="s">
         <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="63"/>
-      <c r="B9" s="44" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>491</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>493</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
       <c r="A12" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>495</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="B13" s="44" t="s">
         <v>497</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>499</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>501</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
       <c r="A16" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>503</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -7406,20 +7465,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="67"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="68" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -7427,13 +7486,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="67"/>
+      <c r="A11" s="69"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="70" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -7441,13 +7500,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="68"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="68"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="16" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3434,12 +3434,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3534,6 +3528,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3541,12 +3541,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3894,7 +3894,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>227</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -3907,7 +3907,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3998,10 +3998,10 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>441</v>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="19" customFormat="1"/>
+    <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
       <c r="A11" s="56" t="s">
         <v>3</v>
@@ -4175,7 +4175,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" style="51" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" style="49" customWidth="1"/>
     <col min="2" max="2" width="130.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4194,7 +4194,7 @@
       <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="50" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4208,15 +4208,15 @@
       <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="49" t="s">
         <v>267</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -4224,116 +4224,116 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="49" t="s">
         <v>533</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="49" t="s">
         <v>534</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="48" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="49" t="s">
         <v>536</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="48" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="49" t="s">
         <v>538</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="48" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="49" t="s">
         <v>540</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="48" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="58" t="s">
         <v>542</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="48" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="59"/>
-      <c r="B23" s="50" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
     </row>
@@ -4341,39 +4341,39 @@
       <c r="A24" s="62" t="s">
         <v>545</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="48" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
       <c r="A25" s="62"/>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="62"/>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="58" t="s">
         <v>549</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="48" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="59"/>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="59"/>
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
     </row>
@@ -4381,25 +4381,25 @@
       <c r="A30" s="71" t="s">
         <v>553</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="48" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
       <c r="A31" s="71"/>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="71"/>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
       <c r="A33" s="71"/>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
@@ -4407,19 +4407,19 @@
       <c r="A34" s="71" t="s">
         <v>558</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="48" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
       <c r="A35" s="71"/>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="71"/>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
@@ -4427,25 +4427,25 @@
       <c r="A37" s="71" t="s">
         <v>562</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="48" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
       <c r="A38" s="71"/>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
       <c r="A39" s="71"/>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
       <c r="A40" s="71"/>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
@@ -4453,189 +4453,189 @@
       <c r="A41" s="71" t="s">
         <v>567</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="48" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
       <c r="A42" s="71"/>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="71"/>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
       <c r="A44" s="71"/>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="71"/>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="90">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="49" t="s">
         <v>573</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="49" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="49" t="s">
         <v>575</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="49" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="58" t="s">
         <v>576</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="49" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="59"/>
-      <c r="B49" s="51" t="s">
+      <c r="A49" s="58"/>
+      <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="58" t="s">
         <v>578</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="49" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="59"/>
-      <c r="B51" s="51" t="s">
+      <c r="A51" s="58"/>
+      <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="59"/>
-      <c r="B52" s="51" t="s">
+      <c r="A52" s="58"/>
+      <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="58" t="s">
         <v>584</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="49" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="59"/>
-      <c r="B54" s="51" t="s">
+      <c r="A54" s="58"/>
+      <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="90">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="49" t="s">
         <v>586</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="49" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="49" t="s">
         <v>589</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="49" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="58" t="s">
         <v>590</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="49" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="59"/>
-      <c r="B58" s="51" t="s">
+      <c r="A58" s="58"/>
+      <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="49" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="105">
-      <c r="A60" s="51" t="s">
+      <c r="A60" s="49" t="s">
         <v>596</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="49" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="51" t="s">
+      <c r="A61" s="49" t="s">
         <v>601</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="49" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="60">
-      <c r="A62" s="51" t="s">
+      <c r="A62" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="49" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="49" t="s">
         <v>603</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="49" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="49" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="49" t="s">
         <v>605</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="49" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="195">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="49" t="s">
         <v>607</v>
       </c>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="49" t="s">
         <v>608</v>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="50" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4711,21 +4711,21 @@
       <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="59"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>273</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4733,80 +4733,80 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="65"/>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="45" t="s">
         <v>507</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="44" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="44" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="47" t="s">
         <v>511</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="47" t="s">
         <v>513</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="47" t="s">
         <v>515</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>516</v>
       </c>
     </row>
@@ -4814,13 +4814,13 @@
       <c r="A20" s="65" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="48" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
       <c r="A21" s="65"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
@@ -4828,13 +4828,13 @@
       <c r="A22" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="48" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
       <c r="A23" s="72"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
@@ -4842,13 +4842,13 @@
       <c r="A24" s="72" t="s">
         <v>454</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="48" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
       <c r="A25" s="72"/>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
@@ -4856,25 +4856,25 @@
       <c r="A26" s="65" t="s">
         <v>524</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="48" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="65"/>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="65"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="65"/>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
@@ -4882,13 +4882,13 @@
       <c r="A30" s="65" t="s">
         <v>531</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="48" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="65"/>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
     </row>
@@ -4948,15 +4948,15 @@
       <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>277</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -4981,7 +4981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -5007,7 +5007,7 @@
       <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="52" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5021,26 +5021,26 @@
       <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" ht="75">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="53" t="s">
         <v>610</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="53" t="s">
         <v>612</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="53" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="53" t="s">
         <v>614</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="53" t="s">
         <v>615</v>
       </c>
     </row>
@@ -5094,15 +5094,15 @@
       <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2" ht="45">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>281</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -5153,175 +5153,175 @@
       <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2" ht="60">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="90">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="120">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="150">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="165">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="30" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="75">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="30" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="30" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="30" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="30" t="s">
         <v>344</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -5329,98 +5329,98 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="45">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="30" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="30" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="120">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="30" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="30" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="75">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="30" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="30" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="30" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="30" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="30" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="30" t="s">
         <v>399</v>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -5475,7 +5475,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -5509,15 +5509,15 @@
       <c r="B11" s="57"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>446</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5525,23 +5525,23 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>448</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="41" customFormat="1">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:2" s="39" customFormat="1">
+      <c r="A15" s="39" t="s">
         <v>450</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="41" customFormat="1">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:2" s="39" customFormat="1">
+      <c r="A16" s="39" t="s">
         <v>452</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -5555,10 +5555,10 @@
       <c r="B17" s="57"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>328</v>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       <c r="B20" s="57"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="31" t="s">
         <v>436</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -5583,26 +5583,26 @@
       <c r="B23" s="57"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5613,15 +5613,15 @@
       <c r="B28" s="57"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="16" t="s">
         <v>205</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -5635,10 +5635,10 @@
       <c r="B32" s="57"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5657,7 +5657,7 @@
       <c r="B36" s="57"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="19" t="s">
         <v>218</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5676,7 +5676,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="15" t="s">
         <v>203</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -5685,16 +5685,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -5748,152 +5748,152 @@
       <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2" ht="45">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="58"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="30" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="30" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5940,7 +5940,7 @@
       <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6042,7 +6042,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6050,7 +6050,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="58"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -6113,13 +6113,13 @@
       <c r="A31" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="51" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
       <c r="A32" s="61"/>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="59" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6204,13 +6204,13 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="60"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="120">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -6242,7 +6242,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="59" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6250,19 +6250,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="60"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="60"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="59" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6270,13 +6270,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="60"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="60"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6306,7 +6306,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="60" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6314,19 +6314,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="58"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="58"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="58"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6340,7 +6340,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="60" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6348,7 +6348,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="58"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6370,15 +6370,15 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="150">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="44" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="22" t="s">
         <v>253</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -6386,75 +6386,75 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="22" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="59"/>
-      <c r="B69" s="24" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="22" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="22" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="22" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="59"/>
-      <c r="B73" s="24" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="22" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="22" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="45">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="22" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="22" t="s">
         <v>240</v>
       </c>
       <c r="B77" s="11" t="s">
@@ -6462,353 +6462,372 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="255">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="60">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="22" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="75">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="38" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="28" customFormat="1">
-      <c r="A83" s="27" t="s">
+    <row r="83" spans="1:2" s="26" customFormat="1">
+      <c r="A83" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="28" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="25" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="58" t="s">
+      <c r="A85" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="25" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="58"/>
-      <c r="B86" s="27" t="s">
+      <c r="A86" s="60"/>
+      <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="28" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="60">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="B88" s="27" t="s">
+      <c r="B88" s="25" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="60">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="25" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="75">
-      <c r="A90" s="27" t="s">
+      <c r="A90" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="25" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="105">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="25" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="28" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="28" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="28" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="60">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="27" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="59" t="s">
+      <c r="A96" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="28" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="59"/>
-      <c r="B97" s="30" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="59" t="s">
+      <c r="A98" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="28" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="59"/>
-      <c r="B99" s="30" t="s">
+      <c r="A99" s="58"/>
+      <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="58" t="s">
+      <c r="A100" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="28" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="58"/>
-      <c r="B101" s="30" t="s">
+      <c r="A101" s="60"/>
+      <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="59" t="s">
+      <c r="A102" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="28" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="59"/>
-      <c r="B103" s="30" t="s">
+      <c r="A103" s="58"/>
+      <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="59" t="s">
+      <c r="A104" s="58" t="s">
         <v>322</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="59"/>
-      <c r="B105" s="30" t="s">
+      <c r="A105" s="58"/>
+      <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="59" t="s">
+      <c r="A106" s="58" t="s">
         <v>325</v>
       </c>
-      <c r="B106" s="31" t="s">
+      <c r="B106" s="29" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="59"/>
-      <c r="B107" s="31" t="s">
+      <c r="A107" s="58"/>
+      <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="59" t="s">
+      <c r="A108" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="B108" s="42" t="s">
+      <c r="B108" s="40" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="59"/>
-      <c r="B109" s="42" t="s">
+      <c r="A109" s="58"/>
+      <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="59" t="s">
+      <c r="A110" s="58" t="s">
         <v>457</v>
       </c>
-      <c r="B110" s="42" t="s">
+      <c r="B110" s="40" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="59"/>
-      <c r="B111" s="42" t="s">
+      <c r="A111" s="58"/>
+      <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="59" t="s">
+      <c r="A112" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="B112" s="42" t="s">
+      <c r="B112" s="40" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="59"/>
-      <c r="B113" s="42" t="s">
+      <c r="A113" s="58"/>
+      <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="59" t="s">
+      <c r="A114" s="58" t="s">
         <v>463</v>
       </c>
-      <c r="B114" s="42" t="s">
+      <c r="B114" s="40" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="59"/>
-      <c r="B115" s="42" t="s">
+      <c r="A115" s="58"/>
+      <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="59" t="s">
+      <c r="A116" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="B116" s="42" t="s">
+      <c r="B116" s="40" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="59"/>
-      <c r="B117" s="42" t="s">
+      <c r="A117" s="58"/>
+      <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="B118" s="42" t="s">
+      <c r="B118" s="40" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="42" t="s">
+      <c r="A119" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="B119" s="42" t="s">
+      <c r="B119" s="40" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="59" t="s">
+      <c r="A120" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="B120" s="42" t="s">
+      <c r="B120" s="40" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="59"/>
-      <c r="B121" s="42" t="s">
+      <c r="A121" s="58"/>
+      <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="59"/>
-      <c r="B122" s="42" t="s">
+      <c r="A122" s="58"/>
+      <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="59" t="s">
+      <c r="A123" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="B123" s="42" t="s">
+      <c r="B123" s="40" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="59"/>
-      <c r="B124" s="42" t="s">
+      <c r="A124" s="58"/>
+      <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -6816,25 +6835,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -6889,20 +6889,20 @@
       <c r="A6" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="165">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>444</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="21" customFormat="1"/>
+    <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
       <c r="A9" s="56" t="s">
         <v>3</v>
@@ -6986,9 +6986,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7021,95 +7021,95 @@
       <c r="A10" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="54" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="55" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="54" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="59"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="54" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="54" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="54" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="54" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="54" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="54" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7120,136 +7120,136 @@
       <c r="B23" s="63"/>
     </row>
     <row r="24" spans="1:2" ht="60">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="54" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="54" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="195">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="54" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="54" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="54" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="120">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="54" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="54" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="54" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="59"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="58"/>
+      <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="11" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7317,10 +7317,10 @@
       <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>486</v>
       </c>
     </row>
@@ -7328,69 +7328,69 @@
       <c r="A8" s="65" t="s">
         <v>487</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
       <c r="A9" s="65"/>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="43" t="s">
         <v>490</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="42" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="42" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="43" t="s">
         <v>498</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="42" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="43" t="s">
         <v>500</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
         <v>502</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>503</v>
       </c>
     </row>
@@ -7501,13 +7501,13 @@
     </row>
     <row r="13" spans="1:2" ht="45">
       <c r="A13" s="70"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
       <c r="A14" s="70"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7563,7 +7563,7 @@
       <c r="A21" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>194</v>
       </c>
     </row>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="JSONP" sheetId="20" r:id="rId18"/>
     <sheet name="util.logging" sheetId="21" r:id="rId19"/>
     <sheet name="Log4J" sheetId="22" r:id="rId20"/>
+    <sheet name="github" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="619">
   <si>
     <t>Topics</t>
   </si>
@@ -3187,6 +3188,15 @@
   </si>
   <si>
     <t>refer CoreJavaPractice -&gt; json.simple.practice.ReadJSON</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>command to clone a project</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/avinashbabudonthu/Remembral.git</t>
   </si>
 </sst>
 </file>
@@ -3403,7 +3413,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3534,6 +3544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3541,12 +3552,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3876,11 +3887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3957,10 +3968,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="57"/>
+      <c r="B13" s="58"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4006,10 +4017,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="57"/>
+      <c r="B23" s="58"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4021,10 +4032,22 @@
         <v>333</v>
       </c>
     </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="57" t="s">
+        <v>616</v>
+      </c>
+      <c r="B27" s="58"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" location="Topics!A2" display="Up"/>
@@ -4047,6 +4070,7 @@
     <hyperlink ref="A18" location="SimpleJSON!A1" display="Simple JSON"/>
     <hyperlink ref="A25" location="util.logging!A1" display="java.util.Logging"/>
     <hyperlink ref="A24" location="Log4J!A1" display="Log4J"/>
+    <hyperlink ref="A28" location="github!A1" display="Github"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4078,10 +4102,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="57"/>
+      <c r="B11" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4119,10 +4143,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4188,10 +4212,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4202,10 +4226,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4224,7 +4248,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="60" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4232,13 +4256,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="58"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4324,7 +4348,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="60" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4332,13 +4356,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="58"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="63" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4346,19 +4370,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="62"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="62"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="60" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4366,19 +4390,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="58"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="58"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="72" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4386,25 +4410,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="71"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="71"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="71"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="72" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4412,19 +4436,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="71"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="71"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="72" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4432,25 +4456,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="71"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="71"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="71"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="72" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4458,25 +4482,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="71"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="71"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="71"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="71"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4498,7 +4522,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="60" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4506,13 +4530,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="58"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="60" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4520,19 +4544,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="58"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="60" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4540,7 +4564,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="58"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4562,7 +4586,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="60" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4570,7 +4594,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="58"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -4691,10 +4715,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4705,13 +4729,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="60" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4719,7 +4743,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="58"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -4757,7 +4781,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="60" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -4765,7 +4789,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -4811,7 +4835,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="66" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -4819,13 +4843,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="65"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="73" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4833,13 +4857,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="72"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="73" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4847,13 +4871,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="66" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -4861,25 +4885,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="65"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="65"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="66" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4887,7 +4911,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="65"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -4936,16 +4960,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5001,10 +5025,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5015,10 +5039,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5082,16 +5106,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5147,10 +5171,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5461,10 +5485,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5483,10 +5507,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="58"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5503,10 +5527,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="57"/>
+      <c r="B11" s="58"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5549,10 +5573,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="57"/>
+      <c r="B17" s="58"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5563,10 +5587,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="58"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5577,10 +5601,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="57"/>
+      <c r="B23" s="58"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -5607,10 +5631,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="57"/>
+      <c r="B28" s="58"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -5629,10 +5653,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="58"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -5651,10 +5675,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="57"/>
+      <c r="B36" s="58"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -5665,10 +5689,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="57"/>
+      <c r="B39" s="58"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -5685,16 +5709,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -5724,7 +5748,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5742,10 +5766,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -5788,7 +5812,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="59" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -5796,7 +5820,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="60"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -5905,6 +5929,55 @@
   <hyperlinks>
     <hyperlink ref="B1" location="Log4J!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A24" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="2" max="2" width="115.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="58"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="56" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>618</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A28" display="Topics"/>
+    <hyperlink ref="B1" location="github!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5934,10 +6007,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -5948,10 +6021,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="58"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6042,7 +6115,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6050,13 +6123,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="60"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6064,7 +6137,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="62"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6110,7 +6183,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="62" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6118,7 +6191,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6196,7 +6269,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="61" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6204,7 +6277,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="59"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6242,7 +6315,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="61" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6250,19 +6323,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="59"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="59"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="61" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6270,13 +6343,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="59"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="59"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6306,7 +6379,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="59" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6314,19 +6387,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="60"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="60"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="60"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6340,7 +6413,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="60" t="s">
+      <c r="A62" s="59" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6348,7 +6421,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="60"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6386,7 +6459,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="60" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6394,7 +6467,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="58"/>
+      <c r="A69" s="60"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -6416,7 +6489,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="58" t="s">
+      <c r="A72" s="60" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6424,7 +6497,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="58"/>
+      <c r="A73" s="60"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -6518,7 +6591,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="60" t="s">
+      <c r="A85" s="59" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -6526,7 +6599,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="60"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -6604,7 +6677,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="58" t="s">
+      <c r="A96" s="60" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -6612,13 +6685,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="58"/>
+      <c r="A97" s="60"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="58" t="s">
+      <c r="A98" s="60" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -6626,13 +6699,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="58"/>
+      <c r="A99" s="60"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="60" t="s">
+      <c r="A100" s="59" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -6640,13 +6713,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="60"/>
+      <c r="A101" s="59"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="58" t="s">
+      <c r="A102" s="60" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -6654,13 +6727,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="58"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="58" t="s">
+      <c r="A104" s="60" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -6668,13 +6741,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="58"/>
+      <c r="A105" s="60"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="58" t="s">
+      <c r="A106" s="60" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -6682,13 +6755,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="58"/>
+      <c r="A107" s="60"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="58" t="s">
+      <c r="A108" s="60" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -6696,13 +6769,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="58"/>
+      <c r="A109" s="60"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="58" t="s">
+      <c r="A110" s="60" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -6710,13 +6783,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="58"/>
+      <c r="A111" s="60"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="58" t="s">
+      <c r="A112" s="60" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -6724,13 +6797,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="58"/>
+      <c r="A113" s="60"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="58" t="s">
+      <c r="A114" s="60" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -6738,13 +6811,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="58"/>
+      <c r="A115" s="60"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="58" t="s">
+      <c r="A116" s="60" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -6752,7 +6825,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="58"/>
+      <c r="A117" s="60"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -6774,7 +6847,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="58" t="s">
+      <c r="A120" s="60" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -6782,19 +6855,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="58"/>
+      <c r="A121" s="60"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="58"/>
+      <c r="A122" s="60"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="58" t="s">
+      <c r="A123" s="60" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -6802,13 +6875,32 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="58"/>
+      <c r="A124" s="60"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -6816,25 +6908,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -6874,16 +6947,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="58"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -6948,10 +7021,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="58"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -6986,7 +7059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
@@ -7006,19 +7079,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="58"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7026,7 +7099,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7040,7 +7113,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="60" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7048,7 +7121,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7086,7 +7159,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="60" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7094,13 +7167,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="58"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="60" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7108,16 +7181,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="58"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="63"/>
+      <c r="B23" s="64"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7224,7 +7297,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="60" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7232,7 +7305,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="58"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -7305,16 +7378,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="57"/>
+      <c r="B2" s="58"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7325,7 +7398,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="66" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7333,7 +7406,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -7465,20 +7538,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="68"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -7486,13 +7559,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="70"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="71" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -7500,13 +7573,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="70"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="638">
   <si>
     <t>Topics</t>
   </si>
@@ -3197,6 +3197,63 @@
   </si>
   <si>
     <t>git clone https://github.com/avinashbabudonthu/Remembral.git</t>
+  </si>
+  <si>
+    <t>What is container</t>
+  </si>
+  <si>
+    <t>Stripped to basic version of linux operating system. It is run time environment for our images</t>
+  </si>
+  <si>
+    <t>What is an image</t>
+  </si>
+  <si>
+    <t>Software we run with in a container. Image will be build in layers. We will have base image then we will add our software and create a new image.</t>
+  </si>
+  <si>
+    <t>to see all containers docker is running</t>
+  </si>
+  <si>
+    <t>docker ps</t>
+  </si>
+  <si>
+    <t>to see docker images</t>
+  </si>
+  <si>
+    <t>docker images</t>
+  </si>
+  <si>
+    <t>Run the application from docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -it</t>
+  </si>
+  <si>
+    <t>interactive terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -p</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>80:8080</t>
+  </si>
+  <si>
+    <t>on the host machine listen on port 80 and map that to the container which is listening on port 8080</t>
+  </si>
+  <si>
+    <t>docker run -it -p 80:8080 &lt;image-name&gt;</t>
+  </si>
+  <si>
+    <t>command to check ip address of our docker container</t>
+  </si>
+  <si>
+    <t>docker-machine env</t>
+  </si>
+  <si>
+    <t>we will get ip as value of DOCKER_HOST</t>
   </si>
 </sst>
 </file>
@@ -3413,7 +3470,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3543,6 +3600,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3890,8 +3955,8 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3968,10 +4033,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="62"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4017,10 +4082,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="61" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="62"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4033,10 +4098,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="61" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="58"/>
+      <c r="B27" s="62"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4102,10 +4167,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4121,17 +4186,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B5"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.5703125" customWidth="1"/>
-    <col min="2" max="2" width="109.7109375" customWidth="1"/>
+    <col min="2" max="2" width="131.7109375" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4143,14 +4208,93 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="58" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="58" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="60" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="60" t="s">
+        <v>625</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="60" t="s">
+        <v>628</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="60" t="s">
+        <v>630</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="60" t="s">
+        <v>632</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="74" t="s">
+        <v>635</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="74"/>
+      <c r="B12" s="59" t="s">
+        <v>637</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Docker!A2" display="Up"/>
@@ -4212,10 +4356,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4226,10 +4370,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="62"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4248,7 +4392,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="64" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4256,13 +4400,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="60"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4348,7 +4492,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="64" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4356,13 +4500,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="60"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="67" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4370,19 +4514,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="63"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="63"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="64" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4390,19 +4534,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="60"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="60"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="76" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4410,25 +4554,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="72"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="72"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="72"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="76" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4436,19 +4580,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="72"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="72"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="76" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4456,25 +4600,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="72"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="72"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="72"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="76" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4482,25 +4626,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="72"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="72"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="72"/>
+      <c r="A44" s="76"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="72"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4522,7 +4666,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="64" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4530,13 +4674,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="60"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="64" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4544,19 +4688,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="60"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="60"/>
+      <c r="A52" s="64"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="64" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4564,7 +4708,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="60"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4586,7 +4730,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="64" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4594,7 +4738,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="60"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -4715,10 +4859,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4729,13 +4873,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="62"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="64" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4743,7 +4887,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="60"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -4781,7 +4925,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="64" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -4789,7 +4933,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="66"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -4835,7 +4979,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="70" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -4843,13 +4987,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="66"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="77" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4857,13 +5001,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="73"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="77" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4871,13 +5015,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="73"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="70" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -4885,25 +5029,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="66"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="66"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="66"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="70" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4911,7 +5055,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="66"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -4960,16 +5104,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="62"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5025,10 +5169,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5039,10 +5183,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="62"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5106,16 +5250,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="62"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5171,10 +5315,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5485,10 +5629,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5507,10 +5651,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="62"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5527,10 +5671,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="62"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5573,10 +5717,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="58"/>
+      <c r="B17" s="62"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5587,10 +5731,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="61" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="58"/>
+      <c r="B20" s="62"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5601,10 +5745,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="62"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -5631,10 +5775,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="58"/>
+      <c r="B28" s="62"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -5653,10 +5797,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="58"/>
+      <c r="B32" s="62"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -5675,10 +5819,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="58"/>
+      <c r="B36" s="62"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -5689,10 +5833,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="58"/>
+      <c r="B39" s="62"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -5766,10 +5910,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -5812,7 +5956,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="63" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -5820,7 +5964,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="59"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -5938,7 +6082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -5958,10 +6102,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -6007,10 +6151,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6021,10 +6165,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="62"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6115,7 +6259,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="63" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6123,13 +6267,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="59"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6137,7 +6281,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="63"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6183,7 +6327,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="66" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6191,7 +6335,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="62"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6269,7 +6413,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="65" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6277,7 +6421,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="61"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6315,7 +6459,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="65" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6323,19 +6467,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="61"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="61"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="65" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6343,13 +6487,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="61"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="61"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6379,7 +6523,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="63" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6387,19 +6531,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="59"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="59"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="59"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6413,7 +6557,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="59" t="s">
+      <c r="A62" s="63" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6421,7 +6565,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="59"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6459,7 +6603,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="60" t="s">
+      <c r="A68" s="64" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6467,7 +6611,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="60"/>
+      <c r="A69" s="64"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -6489,7 +6633,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="60" t="s">
+      <c r="A72" s="64" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6497,7 +6641,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="60"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -6591,7 +6735,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="63" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -6599,7 +6743,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="59"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -6677,7 +6821,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="60" t="s">
+      <c r="A96" s="64" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -6685,13 +6829,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="60"/>
+      <c r="A97" s="64"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="60" t="s">
+      <c r="A98" s="64" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -6699,13 +6843,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="60"/>
+      <c r="A99" s="64"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="59" t="s">
+      <c r="A100" s="63" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -6713,13 +6857,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="59"/>
+      <c r="A101" s="63"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="60" t="s">
+      <c r="A102" s="64" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -6727,13 +6871,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="60"/>
+      <c r="A103" s="64"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="60" t="s">
+      <c r="A104" s="64" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -6741,13 +6885,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="60"/>
+      <c r="A105" s="64"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="60" t="s">
+      <c r="A106" s="64" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -6755,13 +6899,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="60"/>
+      <c r="A107" s="64"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="60" t="s">
+      <c r="A108" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -6769,13 +6913,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="60"/>
+      <c r="A109" s="64"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="60" t="s">
+      <c r="A110" s="64" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -6783,13 +6927,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="60"/>
+      <c r="A111" s="64"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="60" t="s">
+      <c r="A112" s="64" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -6797,13 +6941,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="60"/>
+      <c r="A113" s="64"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="60" t="s">
+      <c r="A114" s="64" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -6811,13 +6955,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="60"/>
+      <c r="A115" s="64"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="60" t="s">
+      <c r="A116" s="64" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -6825,7 +6969,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="60"/>
+      <c r="A117" s="64"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -6847,7 +6991,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="60" t="s">
+      <c r="A120" s="64" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -6855,19 +6999,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="60"/>
+      <c r="A121" s="64"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="60"/>
+      <c r="A122" s="64"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="60" t="s">
+      <c r="A123" s="64" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -6875,7 +7019,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="60"/>
+      <c r="A124" s="64"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
@@ -6947,16 +7091,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="62"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7021,10 +7165,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="62"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7079,19 +7223,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="62"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="69" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7099,7 +7243,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7113,7 +7257,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="64" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7121,7 +7265,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="60"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7159,7 +7303,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="64" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7167,13 +7311,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="60"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="64" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7181,16 +7325,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="60"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="68"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7297,7 +7441,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="64" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7305,7 +7449,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="60"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -7378,16 +7522,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="62"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7398,7 +7542,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="70" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7406,7 +7550,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="66"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -7538,20 +7682,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="72"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="72"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="73" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -7559,13 +7703,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="74"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="75" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -7573,13 +7717,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="71"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="71"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="653">
   <si>
     <t>Topics</t>
   </si>
@@ -3254,6 +3254,51 @@
   </si>
   <si>
     <t>we will get ip as value of DOCKER_HOST</t>
+  </si>
+  <si>
+    <t>To check the status of git</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>update the code</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>revert all the code changes</t>
+  </si>
+  <si>
+    <t>git reset --hard HEAD</t>
+  </si>
+  <si>
+    <t>making changed files ready to commit (moving them to stage)</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>add all files to stage</t>
+  </si>
+  <si>
+    <t>dot in above command means</t>
+  </si>
+  <si>
+    <t>commit the changes to local repository</t>
+  </si>
+  <si>
+    <t>git commit -m "commit message"</t>
+  </si>
+  <si>
+    <t>push the changes to git repositories</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>this will ask for credentials, enter them</t>
   </si>
 </sst>
 </file>
@@ -3470,7 +3515,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3610,6 +3655,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3617,12 +3663,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3955,8 +4001,8 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4033,10 +4079,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="63"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4082,10 +4128,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="63"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4098,10 +4144,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="62" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="62"/>
+      <c r="B27" s="63"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4167,10 +4213,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4188,7 +4234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:A12"/>
     </sheetView>
@@ -4208,10 +4254,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="58" t="s">
@@ -4278,7 +4324,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="75" t="s">
         <v>635</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -4286,7 +4332,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="74"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="59" t="s">
         <v>637</v>
       </c>
@@ -4356,10 +4402,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4370,10 +4416,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="63"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4506,7 +4552,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="68" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4514,13 +4560,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="67"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="67"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
@@ -4546,7 +4592,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="77" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4554,25 +4600,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="76"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="76"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="76"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="77" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4580,19 +4626,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="76"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="76"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="77" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4600,25 +4646,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="76"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="76"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="76"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="77" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4626,25 +4672,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="76"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="76"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="76"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="76"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4859,10 +4905,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4873,10 +4919,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="63"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="64" t="s">
@@ -4933,7 +4979,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -4979,7 +5025,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="71" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -4987,13 +5033,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="70"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="78" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5001,13 +5047,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="77"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="78" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5015,13 +5061,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="77"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="71" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5029,25 +5075,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="70"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="70"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="70"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="71" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5055,7 +5101,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="70"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5104,16 +5150,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="63"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5169,10 +5215,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5183,10 +5229,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="63"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5250,16 +5296,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="63"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5315,10 +5361,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5629,10 +5675,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5651,10 +5697,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="63"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5671,10 +5717,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="63"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5717,10 +5763,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="62"/>
+      <c r="B17" s="63"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5731,10 +5777,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="62" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="62"/>
+      <c r="B20" s="63"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5745,10 +5791,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="62"/>
+      <c r="B23" s="63"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -5775,10 +5821,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="62"/>
+      <c r="B28" s="63"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -5797,10 +5843,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="62"/>
+      <c r="B32" s="63"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -5819,10 +5865,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="62"/>
+      <c r="B36" s="63"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -5833,10 +5879,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="62"/>
+      <c r="B39" s="63"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -5853,16 +5899,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -5910,10 +5956,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -5956,7 +6002,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="66" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -5964,7 +6010,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="63"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6080,11 +6126,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6102,10 +6148,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -6115,9 +6161,72 @@
         <v>618</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="61" t="s">
+        <v>638</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="61" t="s">
+        <v>640</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="61" t="s">
+        <v>642</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="61" t="s">
+        <v>644</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="61" t="s">
+        <v>647</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="61" t="s">
+        <v>648</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="75" t="s">
+        <v>650</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="75"/>
+      <c r="B11" s="61" t="s">
+        <v>652</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A28" display="Topics"/>
@@ -6151,10 +6260,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6165,10 +6274,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="63"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6259,7 +6368,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6267,13 +6376,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="63"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="68" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6281,7 +6390,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="67"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6327,7 +6436,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="67" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6335,7 +6444,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="66"/>
+      <c r="A32" s="67"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6523,7 +6632,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="63" t="s">
+      <c r="A57" s="66" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6531,19 +6640,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="63"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="63"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="63"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6557,7 +6666,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="63" t="s">
+      <c r="A62" s="66" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6565,7 +6674,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="63"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6735,7 +6844,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="63" t="s">
+      <c r="A85" s="66" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -6743,7 +6852,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="63"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -6849,7 +6958,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="63" t="s">
+      <c r="A100" s="66" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -6857,7 +6966,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="63"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
@@ -7026,6 +7135,25 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -7033,25 +7161,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7091,16 +7200,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="63"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7165,10 +7274,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="63"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7223,19 +7332,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="63"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="70" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7331,10 +7440,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="68"/>
+      <c r="B23" s="69"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7522,16 +7631,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="63"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="63"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7542,7 +7651,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="71" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7550,7 +7659,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -7682,20 +7791,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="72"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="73"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -7703,13 +7812,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="74"/>
+      <c r="A11" s="75"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="76" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -7717,13 +7826,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="75"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="75"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="655">
   <si>
     <t>Topics</t>
   </si>
@@ -3299,6 +3299,12 @@
   </si>
   <si>
     <t>this will ask for credentials, enter them</t>
+  </si>
+  <si>
+    <t>make file1.txt to stage</t>
+  </si>
+  <si>
+    <t>git add /path/file1.txt</t>
   </si>
 </sst>
 </file>
@@ -3515,7 +3521,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3656,6 +3662,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3663,12 +3670,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4079,10 +4086,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="64"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4128,10 +4135,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="63"/>
+      <c r="B23" s="64"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4144,10 +4151,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="63" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="63"/>
+      <c r="B27" s="64"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4213,10 +4220,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4254,10 +4261,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="58" t="s">
@@ -4324,7 +4331,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="76" t="s">
         <v>635</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -4332,7 +4339,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="75"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="59" t="s">
         <v>637</v>
       </c>
@@ -4402,10 +4409,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4416,10 +4423,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="64"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4438,7 +4445,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="66" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4446,13 +4453,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="64"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4538,7 +4545,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="66" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4546,13 +4553,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="64"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="69" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4560,19 +4567,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="68"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="66" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4580,19 +4587,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="64"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="64"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="78" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4600,25 +4607,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="77"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="77"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="77"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="78" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4626,19 +4633,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="77"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="77"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="78" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4646,25 +4653,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="77"/>
+      <c r="A38" s="78"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="77"/>
+      <c r="A39" s="78"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="77"/>
+      <c r="A40" s="78"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="77" t="s">
+      <c r="A41" s="78" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4672,25 +4679,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="77"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="77"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="77"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="77"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4712,7 +4719,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="66" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4720,13 +4727,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="64"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="66" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4734,19 +4741,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="64"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="64"/>
+      <c r="A52" s="66"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="66" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4754,7 +4761,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="64"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4776,7 +4783,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="66" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4784,7 +4791,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="64"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -4905,10 +4912,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4919,13 +4926,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="64"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="66" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4933,7 +4940,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -4971,7 +4978,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="66" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -4979,7 +4986,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="71"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5025,7 +5032,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="72" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5033,13 +5040,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="71"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="79" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5047,13 +5054,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="78"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="79" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5061,13 +5068,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="78"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="72" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5075,25 +5082,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="71"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="71"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="71"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="72" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5101,7 +5108,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="71"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5150,16 +5157,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="64"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5215,10 +5222,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5229,10 +5236,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="64"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5296,16 +5303,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="64"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5361,10 +5368,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5675,10 +5682,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5697,10 +5704,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="64"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5717,10 +5724,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="64"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5763,10 +5770,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="64"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5777,10 +5784,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="63" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="64"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5791,10 +5798,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="63"/>
+      <c r="B23" s="64"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -5821,10 +5828,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="64"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -5843,10 +5850,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="64"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -5865,10 +5872,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="63"/>
+      <c r="B36" s="64"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -5879,10 +5886,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="63"/>
+      <c r="B39" s="64"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -5899,16 +5906,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -5956,10 +5963,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6002,7 +6009,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6010,7 +6017,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="66"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6126,11 +6133,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A11"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6148,10 +6155,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -6193,40 +6200,48 @@
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="61" t="s">
-        <v>647</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>646</v>
+    <row r="8" spans="1:2" s="62" customFormat="1">
+      <c r="A8" s="62" t="s">
+        <v>653</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="61" t="s">
+        <v>647</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B10" s="61" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="75" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="76" t="s">
         <v>650</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B11" s="61" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="75"/>
-      <c r="B11" s="61" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="76"/>
+      <c r="B12" s="61" t="s">
         <v>652</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A28" display="Topics"/>
@@ -6260,10 +6275,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6274,10 +6289,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6368,7 +6383,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="65" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6376,13 +6391,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="66"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="69" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6390,7 +6405,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="68"/>
+      <c r="A25" s="69"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6436,7 +6451,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="68" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6444,7 +6459,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="67"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6522,7 +6537,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="67" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6530,7 +6545,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="65"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6568,7 +6583,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="67" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6576,19 +6591,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="65"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="65"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="67" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6596,13 +6611,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="65"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="65"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6632,7 +6647,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="65" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6640,19 +6655,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="66"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="66"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="66"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6666,7 +6681,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="66" t="s">
+      <c r="A62" s="65" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6674,7 +6689,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="66"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6712,7 +6727,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="64" t="s">
+      <c r="A68" s="66" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6720,7 +6735,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="64"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -6742,7 +6757,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="64" t="s">
+      <c r="A72" s="66" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6750,7 +6765,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="64"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -6844,7 +6859,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="66" t="s">
+      <c r="A85" s="65" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -6852,7 +6867,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="66"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -6930,7 +6945,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="64" t="s">
+      <c r="A96" s="66" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -6938,13 +6953,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="64"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="64" t="s">
+      <c r="A98" s="66" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -6952,13 +6967,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="64"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="66" t="s">
+      <c r="A100" s="65" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -6966,13 +6981,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="66"/>
+      <c r="A101" s="65"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="64" t="s">
+      <c r="A102" s="66" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -6980,13 +6995,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="64"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="64" t="s">
+      <c r="A104" s="66" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -6994,13 +7009,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="64"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="64" t="s">
+      <c r="A106" s="66" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7008,13 +7023,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="64"/>
+      <c r="A107" s="66"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="64" t="s">
+      <c r="A108" s="66" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7022,13 +7037,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="64"/>
+      <c r="A109" s="66"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="64" t="s">
+      <c r="A110" s="66" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7036,13 +7051,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="64"/>
+      <c r="A111" s="66"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="64" t="s">
+      <c r="A112" s="66" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7050,13 +7065,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="64"/>
+      <c r="A113" s="66"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="64" t="s">
+      <c r="A114" s="66" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7064,13 +7079,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="64"/>
+      <c r="A115" s="66"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="64" t="s">
+      <c r="A116" s="66" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7078,7 +7093,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="64"/>
+      <c r="A117" s="66"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7100,7 +7115,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="64" t="s">
+      <c r="A120" s="66" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7108,19 +7123,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="64"/>
+      <c r="A121" s="66"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="64"/>
+      <c r="A122" s="66"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="64" t="s">
+      <c r="A123" s="66" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7128,13 +7143,32 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="64"/>
+      <c r="A124" s="66"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -7142,25 +7176,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7200,16 +7215,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="64"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7274,10 +7289,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="64"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7332,19 +7347,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="64"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="71" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7352,7 +7367,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="64"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7366,7 +7381,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="66" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7374,7 +7389,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7412,7 +7427,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="66" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7420,13 +7435,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="64"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7434,16 +7449,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="64"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="69"/>
+      <c r="B23" s="70"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7550,7 +7565,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="66" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7558,7 +7573,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="64"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -7631,16 +7646,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="64"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="64"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7651,7 +7666,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="72" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7659,7 +7674,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="71"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -7791,20 +7806,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="73"/>
+      <c r="B9" s="74"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="75" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -7812,13 +7827,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="75"/>
+      <c r="A11" s="76"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="77" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -7826,13 +7841,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="76"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="76"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="657">
   <si>
     <t>Topics</t>
   </si>
@@ -3305,6 +3305,12 @@
   </si>
   <si>
     <t>git add /path/file1.txt</t>
+  </si>
+  <si>
+    <t>push the changes to git repository without entering credentials</t>
+  </si>
+  <si>
+    <t>git push origin --all</t>
   </si>
 </sst>
 </file>
@@ -3521,7 +3527,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3663,6 +3669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3670,12 +3677,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3710,6 +3717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4086,10 +4094,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="64"/>
+      <c r="B13" s="65"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4135,10 +4143,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="65"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4151,10 +4159,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="65"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4220,10 +4228,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="64"/>
+      <c r="B11" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4261,10 +4269,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="58" t="s">
@@ -4331,7 +4339,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="77" t="s">
         <v>635</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -4339,7 +4347,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="76"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="59" t="s">
         <v>637</v>
       </c>
@@ -4409,10 +4417,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4423,10 +4431,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="65"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4559,7 +4567,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="70" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4567,13 +4575,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="69"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="69"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
@@ -4599,7 +4607,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="79" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4607,25 +4615,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="78"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="78"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="78"/>
+      <c r="A33" s="79"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="79" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4633,19 +4641,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="78"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="78"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="79" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4653,25 +4661,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="78"/>
+      <c r="A38" s="79"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="78"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="78"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="79" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4679,25 +4687,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="78"/>
+      <c r="A42" s="79"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="78"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="78"/>
+      <c r="A44" s="79"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="78"/>
+      <c r="A45" s="79"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4912,10 +4920,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4926,10 +4934,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="65"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="66" t="s">
@@ -4986,7 +4994,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5032,7 +5040,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="73" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5040,13 +5048,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="72"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="80" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5054,13 +5062,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="79"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="80" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5068,13 +5076,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="73" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5082,25 +5090,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="72"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="72"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="73" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5108,7 +5116,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="72"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5157,16 +5165,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="65"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5222,10 +5230,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5236,10 +5244,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="65"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5303,16 +5311,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="65"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5368,10 +5376,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5682,10 +5690,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5704,10 +5712,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="65"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5724,10 +5732,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="64"/>
+      <c r="B11" s="65"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5770,10 +5778,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="64"/>
+      <c r="B17" s="65"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5784,10 +5792,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="64" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="64"/>
+      <c r="B20" s="65"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5798,10 +5806,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="65"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -5828,10 +5836,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="65"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -5850,10 +5858,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="64"/>
+      <c r="B32" s="65"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -5872,10 +5880,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="64"/>
+      <c r="B36" s="65"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -5886,10 +5894,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="64"/>
+      <c r="B39" s="65"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -5906,16 +5914,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -5963,10 +5971,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6009,7 +6017,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="68" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6017,7 +6025,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="65"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6133,11 +6141,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6155,10 +6163,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -6225,7 +6233,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="77" t="s">
         <v>650</v>
       </c>
       <c r="B11" s="61" t="s">
@@ -6233,9 +6241,17 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="76"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="61" t="s">
         <v>652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="81" t="s">
+        <v>655</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -6275,10 +6291,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6289,10 +6305,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="65"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6383,7 +6399,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="68" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6391,13 +6407,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="65"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="70" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6405,7 +6421,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="69"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6451,7 +6467,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="69" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6459,7 +6475,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="68"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6647,7 +6663,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="68" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6655,19 +6671,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="65"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="65"/>
+      <c r="A59" s="68"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="65"/>
+      <c r="A60" s="68"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6681,7 +6697,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="68" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6689,7 +6705,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="65"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6859,7 +6875,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="65" t="s">
+      <c r="A85" s="68" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -6867,7 +6883,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="65"/>
+      <c r="A86" s="68"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -6973,7 +6989,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="68" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -6981,7 +6997,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="65"/>
+      <c r="A101" s="68"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
@@ -7150,6 +7166,25 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -7157,25 +7192,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7215,16 +7231,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="65"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7289,10 +7305,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="65"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7347,19 +7363,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="65"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="72" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7455,10 +7471,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="71"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7646,16 +7662,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="65"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="65"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7666,7 +7682,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="73" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7674,7 +7690,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -7806,20 +7822,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="75"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="76" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -7827,13 +7843,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="76"/>
+      <c r="A11" s="77"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="78" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -7841,13 +7857,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="77"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="77"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="659">
   <si>
     <t>Topics</t>
   </si>
@@ -3311,6 +3311,12 @@
   </si>
   <si>
     <t>git push origin --all</t>
+  </si>
+  <si>
+    <t>revert local git commits</t>
+  </si>
+  <si>
+    <t>git reset --hard origin/&lt;master/branch name&gt;</t>
   </si>
 </sst>
 </file>
@@ -3527,7 +3533,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3670,6 +3676,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3677,12 +3685,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3717,7 +3725,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4094,10 +4101,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="67"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4143,10 +4150,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="65"/>
+      <c r="B23" s="67"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4159,10 +4166,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="66" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="65"/>
+      <c r="B27" s="67"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4228,10 +4235,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4269,10 +4276,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="58" t="s">
@@ -4339,7 +4346,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="79" t="s">
         <v>635</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -4347,7 +4354,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="77"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="59" t="s">
         <v>637</v>
       </c>
@@ -4417,10 +4424,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4431,10 +4438,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="67"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4453,7 +4460,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="69" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4461,13 +4468,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="66"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="66"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4553,7 +4560,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="69" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4561,13 +4568,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="66"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="72" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4575,19 +4582,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="70"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="70"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="69" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4595,19 +4602,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="66"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="66"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="81" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4615,25 +4622,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="79"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="79"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="79"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="81" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4641,19 +4648,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="79"/>
+      <c r="A35" s="81"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="79"/>
+      <c r="A36" s="81"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="79" t="s">
+      <c r="A37" s="81" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4661,25 +4668,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="79"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="79"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="79"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="81" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4687,25 +4694,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="79"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="79"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="79"/>
+      <c r="A44" s="81"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="79"/>
+      <c r="A45" s="81"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4727,7 +4734,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="69" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4735,13 +4742,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="66"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="69" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4749,19 +4756,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="66"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="66"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="69" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4769,7 +4776,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="66"/>
+      <c r="A54" s="69"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4791,7 +4798,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="69" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4799,7 +4806,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="66"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -4920,10 +4927,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4934,13 +4941,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="67"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="69" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4948,7 +4955,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="66"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -4986,7 +4993,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="69" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -4994,7 +5001,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="73"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5040,7 +5047,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="75" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5048,13 +5055,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="73"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="82" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5062,13 +5069,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="80"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="82" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5076,13 +5083,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="80"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="75" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5090,25 +5097,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="73"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="73"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="73"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="75" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5116,7 +5123,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="73"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5165,16 +5172,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="67"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5230,10 +5237,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5244,10 +5251,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="67"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5311,16 +5318,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="67"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5376,10 +5383,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5690,10 +5697,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5712,10 +5719,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="67"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5732,10 +5739,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="67"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5778,10 +5785,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="65"/>
+      <c r="B17" s="67"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5792,10 +5799,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="66" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="67"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5806,10 +5813,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="65"/>
+      <c r="B23" s="67"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -5836,10 +5843,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="65"/>
+      <c r="B28" s="67"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -5858,10 +5865,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="65"/>
+      <c r="B32" s="67"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -5880,10 +5887,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="65"/>
+      <c r="B36" s="67"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -5894,10 +5901,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="65"/>
+      <c r="B39" s="67"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -5914,16 +5921,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -5971,10 +5978,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6141,11 +6148,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6163,10 +6170,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -6233,7 +6240,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="79" t="s">
         <v>650</v>
       </c>
       <c r="B11" s="61" t="s">
@@ -6241,17 +6248,25 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="77"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="61" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="65" t="s">
         <v>655</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="65" t="s">
+        <v>657</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -6291,10 +6306,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6305,10 +6320,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="67"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6413,7 +6428,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="72" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6421,7 +6436,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="70"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6467,7 +6482,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="71" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6475,7 +6490,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="69"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6553,7 +6568,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="70" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6561,7 +6576,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="67"/>
+      <c r="A43" s="70"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6599,7 +6614,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="70" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6607,19 +6622,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="67"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="67"/>
+      <c r="A50" s="70"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="70" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6627,13 +6642,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="67"/>
+      <c r="A52" s="70"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="67"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6743,7 +6758,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="69" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6751,7 +6766,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="66"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -6773,7 +6788,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="66" t="s">
+      <c r="A72" s="69" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6781,7 +6796,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="66"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -6961,7 +6976,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="66" t="s">
+      <c r="A96" s="69" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -6969,13 +6984,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="66"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="66" t="s">
+      <c r="A98" s="69" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -6983,7 +6998,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="66"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
@@ -7003,7 +7018,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="66" t="s">
+      <c r="A102" s="69" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7011,13 +7026,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="66"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="66" t="s">
+      <c r="A104" s="69" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7025,13 +7040,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="66"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="66" t="s">
+      <c r="A106" s="69" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7039,13 +7054,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="66"/>
+      <c r="A107" s="69"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="66" t="s">
+      <c r="A108" s="69" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7053,13 +7068,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="66"/>
+      <c r="A109" s="69"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="66" t="s">
+      <c r="A110" s="69" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7067,13 +7082,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="66"/>
+      <c r="A111" s="69"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="66" t="s">
+      <c r="A112" s="69" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7081,13 +7096,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="66"/>
+      <c r="A113" s="69"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="66" t="s">
+      <c r="A114" s="69" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7095,13 +7110,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="66"/>
+      <c r="A115" s="69"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="66" t="s">
+      <c r="A116" s="69" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7109,7 +7124,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="66"/>
+      <c r="A117" s="69"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7131,7 +7146,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="66" t="s">
+      <c r="A120" s="69" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7139,19 +7154,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="66"/>
+      <c r="A121" s="69"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="66"/>
+      <c r="A122" s="69"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="66" t="s">
+      <c r="A123" s="69" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7159,13 +7174,32 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="66"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -7173,25 +7207,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7231,16 +7246,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="67"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7305,10 +7320,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="67"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7363,19 +7378,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="67"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="74" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7383,7 +7398,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="66"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7397,7 +7412,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="69" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7405,7 +7420,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="66"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7443,7 +7458,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="69" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7451,13 +7466,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="66"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="69" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7465,16 +7480,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="66"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="71"/>
+      <c r="B23" s="73"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7581,7 +7596,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="69" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7589,7 +7604,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="66"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -7662,16 +7677,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="67"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7682,7 +7697,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="75" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7690,7 +7705,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="73"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -7822,20 +7837,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="77"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -7843,13 +7858,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="77"/>
+      <c r="A11" s="79"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="80" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -7857,13 +7872,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="78"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="78"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="661">
   <si>
     <t>Topics</t>
   </si>
@@ -3317,6 +3317,18 @@
   </si>
   <si>
     <t>git reset --hard origin/&lt;master/branch name&gt;</t>
+  </si>
+  <si>
+    <t>Create new repository using git cmd</t>
+  </si>
+  <si>
+    <t>1. Copen github.com -&gt; create new repository -&gt; Now we can see repo url -&gt; copy that
+2. open cmd -&gt; go to project location
+3. git init
+4. git add .
+5. git commit -m "commit message"
+6. git remote add origin &lt;repo url copied in step 1&gt;
+7. git push -u origin master</t>
   </si>
 </sst>
 </file>
@@ -3533,7 +3545,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3678,6 +3690,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3685,12 +3700,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4101,10 +4116,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="68"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4150,10 +4165,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="67"/>
+      <c r="B23" s="68"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4166,10 +4181,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="67" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="67"/>
+      <c r="B27" s="68"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4235,10 +4250,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="67"/>
+      <c r="B11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4276,10 +4291,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="58" t="s">
@@ -4346,7 +4361,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>635</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -4354,7 +4369,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="79"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="59" t="s">
         <v>637</v>
       </c>
@@ -4424,10 +4439,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4438,10 +4453,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4574,7 +4589,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="73" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4582,13 +4597,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="72"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
@@ -4614,7 +4629,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="82" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4622,25 +4637,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="81"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="81"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="81"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="82" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4648,19 +4663,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="81"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="81"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="82" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4668,25 +4683,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="81"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="81"/>
+      <c r="A39" s="82"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="81"/>
+      <c r="A40" s="82"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="82" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4694,25 +4709,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="81"/>
+      <c r="A42" s="82"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="81"/>
+      <c r="A43" s="82"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="81"/>
+      <c r="A44" s="82"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="81"/>
+      <c r="A45" s="82"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4927,10 +4942,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4941,10 +4956,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="69" t="s">
@@ -5001,7 +5016,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="75"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5047,7 +5062,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="76" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5055,13 +5070,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="75"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="83" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5069,13 +5084,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="82"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="83" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5083,13 +5098,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="82"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="76" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5097,25 +5112,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="75"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="75"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="75"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="76" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5123,7 +5138,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="75"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5172,16 +5187,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5237,10 +5252,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5251,10 +5266,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5318,16 +5333,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5383,10 +5398,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5697,10 +5712,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5719,10 +5734,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="68"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5739,10 +5754,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="67"/>
+      <c r="B11" s="68"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5785,10 +5800,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="67"/>
+      <c r="B17" s="68"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5799,10 +5814,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="67" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="67"/>
+      <c r="B20" s="68"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5813,10 +5828,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="67"/>
+      <c r="B23" s="68"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -5843,10 +5858,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="67"/>
+      <c r="B28" s="68"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -5865,10 +5880,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="67"/>
+      <c r="B32" s="68"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -5887,10 +5902,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="67"/>
+      <c r="B36" s="68"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -5901,10 +5916,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="67"/>
+      <c r="B39" s="68"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -5921,16 +5936,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -5978,10 +5993,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6024,7 +6039,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="71" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6032,7 +6047,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="68"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6148,11 +6163,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6170,10 +6185,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -6240,7 +6255,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>650</v>
       </c>
       <c r="B11" s="61" t="s">
@@ -6248,7 +6263,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="79"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="61" t="s">
         <v>652</v>
       </c>
@@ -6267,6 +6282,14 @@
       </c>
       <c r="B14" s="64" t="s">
         <v>658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="105">
+      <c r="A15" s="65" t="s">
+        <v>659</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -6306,10 +6329,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6320,10 +6343,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="67"/>
+      <c r="B10" s="68"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6414,7 +6437,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="71" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6422,13 +6445,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="68"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="73" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6436,7 +6459,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="72"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6482,7 +6505,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="72" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6490,7 +6513,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="71"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6678,7 +6701,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="71" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6686,19 +6709,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="68"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="68"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="68"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6712,7 +6735,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="71" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6720,7 +6743,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="68"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6890,7 +6913,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="71" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -6898,7 +6921,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="68"/>
+      <c r="A86" s="71"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7004,7 +7027,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="68" t="s">
+      <c r="A100" s="71" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7012,7 +7035,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="68"/>
+      <c r="A101" s="71"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
@@ -7181,6 +7204,25 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -7188,25 +7230,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7246,16 +7269,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7320,10 +7343,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="68"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7378,19 +7401,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="68"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="75" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7486,10 +7509,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="73"/>
+      <c r="B23" s="74"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7677,16 +7700,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7697,7 +7720,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="76" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7705,7 +7728,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="75"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -7837,20 +7860,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="77"/>
+      <c r="B9" s="78"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -7858,13 +7881,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="79"/>
+      <c r="A11" s="80"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="81" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -7872,13 +7895,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="80"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="80"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="666">
   <si>
     <t>Topics</t>
   </si>
@@ -3329,6 +3329,21 @@
 5. git commit -m "commit message"
 6. git remote add origin &lt;repo url copied in step 1&gt;
 7. git push -u origin master</t>
+  </si>
+  <si>
+    <t>Important Links</t>
+  </si>
+  <si>
+    <t>JSON Validator</t>
+  </si>
+  <si>
+    <t>https://jsonlint.com/</t>
+  </si>
+  <si>
+    <t>JSON to String online converter</t>
+  </si>
+  <si>
+    <t>http://tools.knowledgewalls.com/jsontostring</t>
   </si>
 </sst>
 </file>
@@ -3545,7 +3560,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3690,6 +3705,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4038,8 +4056,8 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4116,10 +4134,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="69"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4165,10 +4183,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="68"/>
+      <c r="B23" s="69"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4181,10 +4199,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="68" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="69"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4250,10 +4268,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4291,10 +4309,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="58" t="s">
@@ -4361,7 +4379,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>635</v>
       </c>
       <c r="B11" s="59" t="s">
@@ -4369,7 +4387,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="59" t="s">
         <v>637</v>
       </c>
@@ -4439,10 +4457,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4453,10 +4471,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="69"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4475,7 +4493,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="70" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4483,13 +4501,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4575,7 +4593,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="70" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4583,13 +4601,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="69"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="74" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4597,19 +4615,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="73"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="73"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="70" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4617,19 +4635,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="69"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="69"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="83" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4637,25 +4655,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="82"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="82"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="82"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="83" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4663,19 +4681,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="82"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="82"/>
+      <c r="A36" s="83"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="83" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4683,25 +4701,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="82"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="82"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="82"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="83" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4709,25 +4727,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="82"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="82"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="82"/>
+      <c r="A44" s="83"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="82"/>
+      <c r="A45" s="83"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4749,7 +4767,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="70" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4757,13 +4775,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="69"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="70" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4771,19 +4789,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="69"/>
+      <c r="A51" s="70"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="69"/>
+      <c r="A52" s="70"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="70" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4791,7 +4809,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="69"/>
+      <c r="A54" s="70"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4813,7 +4831,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="70" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4821,7 +4839,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="69"/>
+      <c r="A58" s="70"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -4942,10 +4960,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4956,13 +4974,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="69"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4970,7 +4988,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="69"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5008,7 +5026,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="70" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -5016,7 +5034,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="76"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5062,7 +5080,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="77" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5070,13 +5088,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="76"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="84" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5084,13 +5102,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="84" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5098,13 +5116,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="83"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="77" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5112,25 +5130,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="76"/>
+      <c r="A27" s="77"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="76"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="76"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="77" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5138,7 +5156,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="76"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5187,16 +5205,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="69"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5252,10 +5270,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5266,10 +5284,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="69"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5333,16 +5351,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="69"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5398,10 +5416,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5712,10 +5730,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5734,10 +5752,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="69"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5754,10 +5772,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="69"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5800,10 +5818,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="69"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5814,10 +5832,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="68" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="68"/>
+      <c r="B20" s="69"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5828,10 +5846,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="68"/>
+      <c r="B23" s="69"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -5858,10 +5876,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="69"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -5880,10 +5898,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="69"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -5902,10 +5920,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="69"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -5916,10 +5934,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="69"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -5993,10 +6011,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6039,7 +6057,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="72" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6047,7 +6065,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="71"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6165,9 +6183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6185,10 +6203,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -6255,7 +6273,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>650</v>
       </c>
       <c r="B11" s="61" t="s">
@@ -6263,7 +6281,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="80"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="61" t="s">
         <v>652</v>
       </c>
@@ -6309,9 +6327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6329,10 +6347,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6342,11 +6360,33 @@
         <v>609</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="68" t="s">
+        <v>661</v>
+      </c>
+      <c r="B6" s="69"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="67" t="s">
+        <v>662</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="69"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6437,7 +6477,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="72" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6445,13 +6485,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="71"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="74" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6459,7 +6499,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="73"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6505,7 +6545,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="73" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6513,7 +6553,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="72"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6591,7 +6631,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="71" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6599,7 +6639,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="70"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6637,7 +6677,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="71" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6645,19 +6685,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="70"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="70"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="71" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6665,13 +6705,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="70"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="70"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6701,7 +6741,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="72" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6709,19 +6749,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="71"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="71"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="71"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6735,7 +6775,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="72" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6743,7 +6783,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="71"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6781,7 +6821,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="70" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6789,7 +6829,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="69"/>
+      <c r="A69" s="70"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -6811,7 +6851,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="69" t="s">
+      <c r="A72" s="70" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6819,7 +6859,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="69"/>
+      <c r="A73" s="70"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -6913,7 +6953,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="71" t="s">
+      <c r="A85" s="72" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -6921,7 +6961,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="71"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -6999,7 +7039,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="69" t="s">
+      <c r="A96" s="70" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7007,13 +7047,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="69"/>
+      <c r="A97" s="70"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="69" t="s">
+      <c r="A98" s="70" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7021,13 +7061,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="69"/>
+      <c r="A99" s="70"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="71" t="s">
+      <c r="A100" s="72" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7035,13 +7075,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="71"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="69" t="s">
+      <c r="A102" s="70" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7049,13 +7089,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="69"/>
+      <c r="A103" s="70"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="69" t="s">
+      <c r="A104" s="70" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7063,13 +7103,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="69"/>
+      <c r="A105" s="70"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="69" t="s">
+      <c r="A106" s="70" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7077,13 +7117,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="69"/>
+      <c r="A107" s="70"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="69" t="s">
+      <c r="A108" s="70" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7091,13 +7131,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="69"/>
+      <c r="A109" s="70"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="69" t="s">
+      <c r="A110" s="70" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7105,13 +7145,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="69"/>
+      <c r="A111" s="70"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="69" t="s">
+      <c r="A112" s="70" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7119,13 +7159,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="69"/>
+      <c r="A113" s="70"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="69" t="s">
+      <c r="A114" s="70" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7133,13 +7173,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="69"/>
+      <c r="A115" s="70"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="69" t="s">
+      <c r="A116" s="70" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7147,7 +7187,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="69"/>
+      <c r="A117" s="70"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7169,7 +7209,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="69" t="s">
+      <c r="A120" s="70" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7177,19 +7217,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="69"/>
+      <c r="A121" s="70"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="69"/>
+      <c r="A122" s="70"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="69" t="s">
+      <c r="A123" s="70" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7197,13 +7237,13 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="69"/>
+      <c r="A124" s="70"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -7217,6 +7257,7 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="A48:A50"/>
@@ -7239,9 +7280,11 @@
     <hyperlink ref="B67" r:id="rId3"/>
     <hyperlink ref="B77" r:id="rId4"/>
     <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -7269,16 +7312,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7343,10 +7386,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="69"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7401,19 +7444,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="69"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="76" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7421,7 +7464,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7435,7 +7478,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="70" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7443,7 +7486,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="69"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7481,7 +7524,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="70" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7489,13 +7532,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="69"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="70" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7503,16 +7546,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="69"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="75"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7619,7 +7662,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="70" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7627,7 +7670,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="69"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -7700,16 +7743,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="69"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7720,7 +7763,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="77" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7728,7 +7771,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="76"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -7860,20 +7903,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="79"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="80" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -7881,13 +7924,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="80"/>
+      <c r="A11" s="81"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="82" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -7895,13 +7938,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="81"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="81"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -6329,7 +6329,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3718,12 +3718,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4493,7 +4493,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="71" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4501,13 +4501,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4593,7 +4593,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="71" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4601,7 +4601,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="70"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
@@ -4627,7 +4627,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="71" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4635,13 +4635,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="70"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="70"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
@@ -4767,7 +4767,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="71" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4775,13 +4775,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="70"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="71" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4789,19 +4789,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="70"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="70"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="71" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4809,7 +4809,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="70"/>
+      <c r="A54" s="71"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4831,7 +4831,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="71" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4839,7 +4839,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="70"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -4980,7 +4980,7 @@
       <c r="B6" s="69"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4988,7 +4988,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5026,7 +5026,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="71" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -5954,16 +5954,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6057,7 +6057,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="70" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6065,7 +6065,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="72"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6183,9 +6183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6327,7 +6327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -6477,7 +6477,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="70" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6485,7 +6485,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="72"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -6631,7 +6631,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="72" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6639,7 +6639,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="71"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6677,7 +6677,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="72" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6685,19 +6685,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="71"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="71"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="72" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6705,13 +6705,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="71"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="71"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6741,7 +6741,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="70" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6749,19 +6749,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="72"/>
+      <c r="A58" s="70"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="72"/>
+      <c r="A59" s="70"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="72"/>
+      <c r="A60" s="70"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6775,7 +6775,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="70" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6783,7 +6783,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="72"/>
+      <c r="A63" s="70"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6821,7 +6821,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="71" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6829,7 +6829,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="70"/>
+      <c r="A69" s="71"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -6851,7 +6851,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="71" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6859,7 +6859,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="70"/>
+      <c r="A73" s="71"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -6953,7 +6953,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="72" t="s">
+      <c r="A85" s="70" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -6961,7 +6961,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="72"/>
+      <c r="A86" s="70"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7039,7 +7039,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="70" t="s">
+      <c r="A96" s="71" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7047,13 +7047,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="70"/>
+      <c r="A97" s="71"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="70" t="s">
+      <c r="A98" s="71" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7061,13 +7061,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="70"/>
+      <c r="A99" s="71"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="72" t="s">
+      <c r="A100" s="70" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7075,13 +7075,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="72"/>
+      <c r="A101" s="70"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="70" t="s">
+      <c r="A102" s="71" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7089,13 +7089,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="70"/>
+      <c r="A103" s="71"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="70" t="s">
+      <c r="A104" s="71" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7103,13 +7103,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="70"/>
+      <c r="A105" s="71"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="70" t="s">
+      <c r="A106" s="71" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7117,13 +7117,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="70"/>
+      <c r="A107" s="71"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="70" t="s">
+      <c r="A108" s="71" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7131,13 +7131,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="70"/>
+      <c r="A109" s="71"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="70" t="s">
+      <c r="A110" s="71" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7145,13 +7145,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="70"/>
+      <c r="A111" s="71"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="70" t="s">
+      <c r="A112" s="71" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7159,13 +7159,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="70"/>
+      <c r="A113" s="71"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="70" t="s">
+      <c r="A114" s="71" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7173,13 +7173,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="70"/>
+      <c r="A115" s="71"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="70" t="s">
+      <c r="A116" s="71" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7187,7 +7187,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="70"/>
+      <c r="A117" s="71"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7209,7 +7209,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="70" t="s">
+      <c r="A120" s="71" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7217,19 +7217,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="70"/>
+      <c r="A121" s="71"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="70"/>
+      <c r="A122" s="71"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="70" t="s">
+      <c r="A123" s="71" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7237,13 +7237,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="70"/>
+      <c r="A124" s="71"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -7251,26 +7271,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7464,7 +7464,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7478,7 +7478,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="71" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7486,7 +7486,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7524,7 +7524,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="71" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7532,13 +7532,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="70"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="71" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7546,7 +7546,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="70"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
@@ -7662,7 +7662,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="71" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7670,7 +7670,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="70"/>
+      <c r="A38" s="71"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -6329,7 +6329,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -3718,12 +3718,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4493,7 +4493,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="70" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4501,13 +4501,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4593,7 +4593,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="70" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4601,7 +4601,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="71"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
@@ -4627,7 +4627,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="70" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4635,13 +4635,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="71"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="71"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
@@ -4767,7 +4767,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="70" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4775,13 +4775,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="71"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="70" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4789,19 +4789,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="71"/>
+      <c r="A51" s="70"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="71"/>
+      <c r="A52" s="70"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="70" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4809,7 +4809,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="71"/>
+      <c r="A54" s="70"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4831,7 +4831,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="70" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4839,7 +4839,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="71"/>
+      <c r="A58" s="70"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -4980,7 +4980,7 @@
       <c r="B6" s="69"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="70" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4988,7 +4988,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="71"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5026,7 +5026,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="70" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -5954,16 +5954,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6057,7 +6057,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="72" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6065,7 +6065,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="70"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6477,7 +6477,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="72" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6485,7 +6485,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="70"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -6631,7 +6631,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="71" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6639,7 +6639,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="72"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6677,7 +6677,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="71" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6685,19 +6685,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="72"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="72"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="72" t="s">
+      <c r="A51" s="71" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6705,13 +6705,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="72"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="72"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6741,7 +6741,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="72" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6749,19 +6749,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="70"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="70"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="70"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6775,7 +6775,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="72" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6783,7 +6783,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="70"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6821,7 +6821,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="71" t="s">
+      <c r="A68" s="70" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6829,7 +6829,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="71"/>
+      <c r="A69" s="70"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -6851,7 +6851,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="70" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6859,7 +6859,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="71"/>
+      <c r="A73" s="70"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -6953,7 +6953,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="72" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -6961,7 +6961,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="70"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7039,7 +7039,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="71" t="s">
+      <c r="A96" s="70" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7047,13 +7047,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="71"/>
+      <c r="A97" s="70"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="71" t="s">
+      <c r="A98" s="70" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7061,13 +7061,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="71"/>
+      <c r="A99" s="70"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="70" t="s">
+      <c r="A100" s="72" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7075,13 +7075,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="70"/>
+      <c r="A101" s="72"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="71" t="s">
+      <c r="A102" s="70" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7089,13 +7089,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="71"/>
+      <c r="A103" s="70"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="71" t="s">
+      <c r="A104" s="70" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7103,13 +7103,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="71"/>
+      <c r="A105" s="70"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="71" t="s">
+      <c r="A106" s="70" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7117,13 +7117,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="71"/>
+      <c r="A107" s="70"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="71" t="s">
+      <c r="A108" s="70" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7131,13 +7131,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="71"/>
+      <c r="A109" s="70"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="71" t="s">
+      <c r="A110" s="70" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7145,13 +7145,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="71"/>
+      <c r="A111" s="70"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="71" t="s">
+      <c r="A112" s="70" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7159,13 +7159,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="71"/>
+      <c r="A113" s="70"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="71" t="s">
+      <c r="A114" s="70" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7173,13 +7173,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="71"/>
+      <c r="A115" s="70"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="71" t="s">
+      <c r="A116" s="70" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7187,7 +7187,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="71"/>
+      <c r="A117" s="70"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7209,7 +7209,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="71" t="s">
+      <c r="A120" s="70" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7217,19 +7217,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="71"/>
+      <c r="A121" s="70"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="71"/>
+      <c r="A122" s="70"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="71" t="s">
+      <c r="A123" s="70" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7237,13 +7237,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="71"/>
+      <c r="A124" s="70"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -7251,26 +7271,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7464,7 +7464,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7478,7 +7478,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="70" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7486,7 +7486,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7524,7 +7524,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="70" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7532,13 +7532,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="71"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="70" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7546,7 +7546,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="71"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
@@ -7662,7 +7662,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="70" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7670,7 +7670,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="71"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="673">
   <si>
     <t>Topics</t>
   </si>
@@ -3344,6 +3344,27 @@
   </si>
   <si>
     <t>http://tools.knowledgewalls.com/jsontostring</t>
+  </si>
+  <si>
+    <t>Completed Materials</t>
+  </si>
+  <si>
+    <t>Docker for Web Developers</t>
+  </si>
+  <si>
+    <t>Docker Deep Dive [Course]</t>
+  </si>
+  <si>
+    <t>Docker for Web Developers [Course]</t>
+  </si>
+  <si>
+    <t>Getting Started with Docker [Course]</t>
+  </si>
+  <si>
+    <t>Integrating Docker with DevOps Automated Workflows [Course]</t>
+  </si>
+  <si>
+    <t>Docker and Containers: The Big Picture [Course]</t>
   </si>
 </sst>
 </file>
@@ -3435,7 +3456,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3457,6 +3478,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3560,7 +3587,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3711,6 +3738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3718,12 +3746,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3757,6 +3785,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4057,7 +4091,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4134,10 +4168,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="70"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4183,10 +4217,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="69" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="69"/>
+      <c r="B23" s="70"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4199,10 +4233,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="69" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="70"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4268,10 +4302,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4287,11 +4321,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A12"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4309,97 +4343,165 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="70"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="87" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="86" t="s">
+        <v>667</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="69" t="s">
+        <v>666</v>
+      </c>
+      <c r="B12" s="70"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="69"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="58" t="s">
+      <c r="B23" s="70"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="58" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B24" s="57" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="58" t="s">
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="58" t="s">
         <v>621</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B25" s="57" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="60" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="60" t="s">
         <v>623</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B26" s="59" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="60" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B27" s="59" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="60" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="60" t="s">
         <v>627</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B28" s="59" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="60" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B29" s="59" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="60" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="60" t="s">
         <v>630</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B30" s="59" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="60" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="60" t="s">
         <v>632</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B31" s="59" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="81" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="82" t="s">
         <v>635</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B32" s="59" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="81"/>
-      <c r="B12" s="59" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="82"/>
+      <c r="B33" s="59" t="s">
         <v>637</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Docker!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A11" display="Topics"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://app.pluralsight.com/library/courses/docker-containers-big-picture"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://app.pluralsight.com/library/courses/integrating-docker-with-devops-automated-workflows"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://app.pluralsight.com/library/courses/docker-getting-started"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://app.pluralsight.com/library/courses/docker-deep-dive"/>
+    <hyperlink ref="A8" r:id="rId6" tooltip="Docker for Web Developers" display="https://app.pluralsight.com/library/courses/docker-web-development"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4457,10 +4559,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4471,10 +4573,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4493,7 +4595,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="72" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4501,13 +4603,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4593,7 +4695,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="72" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4601,13 +4703,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="70"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="75" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4615,19 +4717,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="74"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="74"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="72" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4635,19 +4737,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="70"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="70"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="84" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4655,25 +4757,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="83"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="83"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="83"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="84" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4681,19 +4783,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="83"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="83"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="84" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4701,25 +4803,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="83"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="83"/>
+      <c r="A39" s="84"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="83"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="84" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4727,25 +4829,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="83"/>
+      <c r="A42" s="84"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="83"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="83"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="83"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4767,7 +4869,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="72" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4775,13 +4877,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="70"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="72" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4789,19 +4891,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="70"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="70"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="72" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4809,7 +4911,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="70"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4831,7 +4933,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="72" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4839,7 +4941,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="70"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -4960,10 +5062,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4974,13 +5076,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="72" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4988,7 +5090,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="70"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5026,7 +5128,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="72" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -5034,7 +5136,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="77"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5080,7 +5182,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5088,13 +5190,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="77"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="85" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5102,13 +5204,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="84"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="85" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5116,13 +5218,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="84"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="78" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5130,25 +5232,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="77"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="77"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="77"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="78" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5156,7 +5258,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="77"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5205,16 +5307,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5270,10 +5372,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5284,10 +5386,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5351,16 +5453,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5416,10 +5518,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5730,10 +5832,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5752,10 +5854,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="69"/>
+      <c r="B7" s="70"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5772,10 +5874,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5818,10 +5920,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="69"/>
+      <c r="B17" s="70"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5832,10 +5934,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="69" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="69"/>
+      <c r="B20" s="70"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5846,10 +5948,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="69"/>
+      <c r="B23" s="70"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -5876,10 +5978,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="70"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -5898,10 +6000,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="70"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -5920,10 +6022,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="69"/>
+      <c r="B36" s="70"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -5934,10 +6036,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="69"/>
+      <c r="B39" s="70"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -5954,16 +6056,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6011,10 +6113,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6057,7 +6159,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="71" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6065,7 +6167,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="72"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6183,9 +6285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6203,10 +6305,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="56" t="s">
@@ -6273,7 +6375,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>650</v>
       </c>
       <c r="B11" s="61" t="s">
@@ -6281,7 +6383,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="81"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="61" t="s">
         <v>652</v>
       </c>
@@ -6347,10 +6449,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6361,10 +6463,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>661</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="67" t="s">
@@ -6383,10 +6485,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="70"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6477,7 +6579,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6485,13 +6587,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="72"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="75" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6499,7 +6601,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="74"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6545,7 +6647,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="74" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6553,7 +6655,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="73"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6631,7 +6733,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="73" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6639,7 +6741,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="71"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6677,7 +6779,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="73" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6685,19 +6787,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="71"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="71"/>
+      <c r="A50" s="73"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="73" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6705,13 +6807,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="71"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="71"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6741,7 +6843,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="71" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6749,19 +6851,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="72"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="72"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="72"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6775,7 +6877,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="71" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6783,7 +6885,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="72"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6821,7 +6923,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="72" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6829,7 +6931,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="70"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -6851,7 +6953,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="72" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6859,7 +6961,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="70"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -6953,7 +7055,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="72" t="s">
+      <c r="A85" s="71" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -6961,7 +7063,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="72"/>
+      <c r="A86" s="71"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7039,7 +7141,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="70" t="s">
+      <c r="A96" s="72" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7047,13 +7149,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="70"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="70" t="s">
+      <c r="A98" s="72" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7061,13 +7163,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="70"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="72" t="s">
+      <c r="A100" s="71" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7075,13 +7177,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="72"/>
+      <c r="A101" s="71"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="70" t="s">
+      <c r="A102" s="72" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7089,13 +7191,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="70"/>
+      <c r="A103" s="72"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="70" t="s">
+      <c r="A104" s="72" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7103,13 +7205,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="70"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="70" t="s">
+      <c r="A106" s="72" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7117,13 +7219,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="70"/>
+      <c r="A107" s="72"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="70" t="s">
+      <c r="A108" s="72" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7131,13 +7233,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="70"/>
+      <c r="A109" s="72"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="70" t="s">
+      <c r="A110" s="72" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7145,13 +7247,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="70"/>
+      <c r="A111" s="72"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="70" t="s">
+      <c r="A112" s="72" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7159,13 +7261,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="70"/>
+      <c r="A113" s="72"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="70" t="s">
+      <c r="A114" s="72" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7173,13 +7275,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="70"/>
+      <c r="A115" s="72"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="70" t="s">
+      <c r="A116" s="72" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7187,7 +7289,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="70"/>
+      <c r="A117" s="72"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7209,7 +7311,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="70" t="s">
+      <c r="A120" s="72" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7217,19 +7319,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="70"/>
+      <c r="A121" s="72"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="70"/>
+      <c r="A122" s="72"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="70" t="s">
+      <c r="A123" s="72" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7237,13 +7339,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="70"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -7251,26 +7373,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7312,16 +7414,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="70"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7386,10 +7488,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="70"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7444,19 +7546,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="69"/>
+      <c r="B9" s="70"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="77" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7464,7 +7566,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7478,7 +7580,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="72" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7486,7 +7588,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="70"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7524,7 +7626,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="72" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7532,13 +7634,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="70"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="72" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7546,16 +7648,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="70"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="76"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7662,7 +7764,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="72" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7670,7 +7772,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="70"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -7743,16 +7845,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7763,7 +7865,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="78" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7771,7 +7873,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="77"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -7903,20 +8005,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="79"/>
+      <c r="B9" s="80"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -7924,13 +8026,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="81"/>
+      <c r="A11" s="82"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="83" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -7938,13 +8040,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="82"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="82"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="675">
   <si>
     <t>Topics</t>
   </si>
@@ -3365,6 +3365,12 @@
   </si>
   <si>
     <t>Docker and Containers: The Big Picture [Course]</t>
+  </si>
+  <si>
+    <t>https://www.atlassian.com/git/tutorials/learn-git-with-bitbucket-cloud</t>
+  </si>
+  <si>
+    <t>Github tutorial from atlasian</t>
   </si>
 </sst>
 </file>
@@ -3587,7 +3593,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3739,6 +3745,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3746,12 +3759,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3785,12 +3798,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4168,10 +4175,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="73"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4217,10 +4224,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="73"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4233,10 +4240,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="72" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="70"/>
+      <c r="B27" s="73"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4302,10 +4309,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4323,8 +4330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -4343,13 +4350,13 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="71" t="s">
         <v>672</v>
       </c>
       <c r="B3" s="68" t="s">
@@ -4389,7 +4396,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="70" t="s">
         <v>667</v>
       </c>
       <c r="B8" s="68" t="s">
@@ -4397,16 +4404,16 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="72" t="s">
         <v>666</v>
       </c>
-      <c r="B12" s="70"/>
+      <c r="B12" s="73"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="73"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="58" t="s">
@@ -4473,7 +4480,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="85" t="s">
         <v>635</v>
       </c>
       <c r="B32" s="59" t="s">
@@ -4481,7 +4488,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="82"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="59" t="s">
         <v>637</v>
       </c>
@@ -4559,10 +4566,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4573,10 +4580,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="73"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4595,7 +4602,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="74" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4603,13 +4610,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="72"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="72"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4695,7 +4702,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="74" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4703,13 +4710,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="72"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="78" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4717,19 +4724,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="75"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="75"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="74" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4737,19 +4744,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="72"/>
+      <c r="A28" s="74"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="72"/>
+      <c r="A29" s="74"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="87" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4757,25 +4764,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="84"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="84"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="84"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="87" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4783,19 +4790,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="84"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="84"/>
+      <c r="A36" s="87"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="87" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4803,25 +4810,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="84"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="84"/>
+      <c r="A39" s="87"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="84"/>
+      <c r="A40" s="87"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="87" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4829,25 +4836,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="84"/>
+      <c r="A42" s="87"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="84"/>
+      <c r="A43" s="87"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="84"/>
+      <c r="A44" s="87"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="84"/>
+      <c r="A45" s="87"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4869,7 +4876,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="74" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4877,13 +4884,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="72"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="72" t="s">
+      <c r="A50" s="74" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4891,19 +4898,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="72"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="72"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="72" t="s">
+      <c r="A53" s="74" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4911,7 +4918,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="72"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4933,7 +4940,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="74" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4941,7 +4948,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="72"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -5062,10 +5069,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -5076,13 +5083,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="73"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="74" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5090,7 +5097,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="72"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5128,7 +5135,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="74" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -5136,7 +5143,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="78"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5182,7 +5189,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="81" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5190,13 +5197,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="78"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="88" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5204,13 +5211,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="85"/>
+      <c r="A23" s="88"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="88" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5218,13 +5225,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="85"/>
+      <c r="A25" s="88"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="81" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5232,25 +5239,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="78"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="78"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="78"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="81" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5258,7 +5265,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="78"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5307,16 +5314,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="73"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5372,10 +5379,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5386,10 +5393,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="73"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5453,16 +5460,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="73"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5518,10 +5525,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5832,10 +5839,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5854,10 +5861,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="73"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5874,10 +5881,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="73"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5920,10 +5927,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="73"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5934,10 +5941,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="72" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="70"/>
+      <c r="B20" s="73"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5948,10 +5955,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="73"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -5978,10 +5985,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="70"/>
+      <c r="B28" s="73"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -6000,10 +6007,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="70"/>
+      <c r="B32" s="73"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -6022,10 +6029,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="70"/>
+      <c r="B36" s="73"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -6036,10 +6043,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="70"/>
+      <c r="B39" s="73"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -6056,16 +6063,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6113,10 +6120,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6159,7 +6166,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="76" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6167,7 +6174,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="71"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6283,11 +6290,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6304,122 +6311,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:2" s="69" customFormat="1">
+      <c r="A2" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="73"/>
+    </row>
+    <row r="3" spans="1:2" s="69" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="69" customFormat="1"/>
+    <row r="5" spans="1:2" s="69" customFormat="1"/>
+    <row r="6" spans="1:2" s="69" customFormat="1"/>
+    <row r="7" spans="1:2" s="69" customFormat="1"/>
+    <row r="8" spans="1:2" s="69" customFormat="1"/>
+    <row r="9" spans="1:2" s="69" customFormat="1"/>
+    <row r="10" spans="1:2">
+      <c r="A10" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="70"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="56" t="s">
+      <c r="B10" s="73"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="56" t="s">
         <v>617</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B11" s="56" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="61" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="61" t="s">
         <v>638</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B12" s="61" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="61" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="61" t="s">
         <v>640</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B13" s="61" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="61" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B14" s="61" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="61" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B15" s="61" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="62" customFormat="1">
-      <c r="A8" s="62" t="s">
+    <row r="16" spans="1:2" s="62" customFormat="1">
+      <c r="A16" s="62" t="s">
         <v>653</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B16" s="62" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="61" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="61" t="s">
         <v>647</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B17" s="61" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="61" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B18" s="61" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="82" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="85" t="s">
         <v>650</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B19" s="61" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="82"/>
-      <c r="B12" s="61" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="85"/>
+      <c r="B20" s="61" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="65" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="65" t="s">
         <v>655</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B21" s="63" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="65" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="65" t="s">
         <v>657</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B22" s="64" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="105">
-      <c r="A15" s="65" t="s">
+    <row r="23" spans="1:2" ht="105">
+      <c r="A23" s="65" t="s">
         <v>659</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B23" s="66" t="s">
         <v>660</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A28" display="Topics"/>
     <hyperlink ref="B1" location="github!A2" display="Up"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6449,10 +6478,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6463,10 +6492,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>661</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="73"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="67" t="s">
@@ -6485,10 +6514,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="73"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6579,7 +6608,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6587,13 +6616,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="71"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="78" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6601,7 +6630,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="75"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6647,7 +6676,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="77" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6655,7 +6684,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="74"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6733,7 +6762,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="75" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6741,7 +6770,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="73"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6779,7 +6808,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="75" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6787,19 +6816,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="73"/>
+      <c r="A49" s="75"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="73"/>
+      <c r="A50" s="75"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="73" t="s">
+      <c r="A51" s="75" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6807,13 +6836,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="73"/>
+      <c r="A52" s="75"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="73"/>
+      <c r="A53" s="75"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6843,7 +6872,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="76" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6851,19 +6880,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="71"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="71"/>
+      <c r="A59" s="76"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="71"/>
+      <c r="A60" s="76"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6877,7 +6906,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="76" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6885,7 +6914,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="71"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6923,7 +6952,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="74" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6931,7 +6960,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="72"/>
+      <c r="A69" s="74"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -6953,7 +6982,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="72" t="s">
+      <c r="A72" s="74" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6961,7 +6990,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="72"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -7055,7 +7084,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="71" t="s">
+      <c r="A85" s="76" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -7063,7 +7092,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="71"/>
+      <c r="A86" s="76"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7141,7 +7170,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="72" t="s">
+      <c r="A96" s="74" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7149,13 +7178,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="72"/>
+      <c r="A97" s="74"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="72" t="s">
+      <c r="A98" s="74" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7163,13 +7192,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="72"/>
+      <c r="A99" s="74"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="71" t="s">
+      <c r="A100" s="76" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7177,13 +7206,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="71"/>
+      <c r="A101" s="76"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="72" t="s">
+      <c r="A102" s="74" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7191,13 +7220,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="72"/>
+      <c r="A103" s="74"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="72" t="s">
+      <c r="A104" s="74" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7205,13 +7234,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="72"/>
+      <c r="A105" s="74"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="72" t="s">
+      <c r="A106" s="74" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7219,13 +7248,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="72"/>
+      <c r="A107" s="74"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="72" t="s">
+      <c r="A108" s="74" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7233,13 +7262,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="72"/>
+      <c r="A109" s="74"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="72" t="s">
+      <c r="A110" s="74" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7247,13 +7276,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="72"/>
+      <c r="A111" s="74"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="72" t="s">
+      <c r="A112" s="74" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7261,13 +7290,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="72"/>
+      <c r="A113" s="74"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="72" t="s">
+      <c r="A114" s="74" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7275,13 +7304,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="72"/>
+      <c r="A115" s="74"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="72" t="s">
+      <c r="A116" s="74" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7289,7 +7318,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="72"/>
+      <c r="A117" s="74"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7311,7 +7340,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="72" t="s">
+      <c r="A120" s="74" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7319,19 +7348,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="72"/>
+      <c r="A121" s="74"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="72"/>
+      <c r="A122" s="74"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="72" t="s">
+      <c r="A123" s="74" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7339,13 +7368,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="72"/>
+      <c r="A124" s="74"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -7353,26 +7402,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7414,16 +7443,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="73"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7488,10 +7517,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="73"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7546,19 +7575,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="73"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="80" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7566,7 +7595,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="72"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7580,7 +7609,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="74" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7588,7 +7617,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="72"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7626,7 +7655,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="74" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7634,13 +7663,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="72"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="74" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7648,16 +7677,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="72"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="79"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7764,7 +7793,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="74" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7772,7 +7801,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="72"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -7845,16 +7874,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="73"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="73"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7865,7 +7894,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="81" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7873,7 +7902,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="78"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -8005,20 +8034,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="83"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="83"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="84" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -8026,13 +8055,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="82"/>
+      <c r="A11" s="85"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="86" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -8040,13 +8069,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="83"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="83"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="677">
   <si>
     <t>Topics</t>
   </si>
@@ -3371,6 +3371,14 @@
   </si>
   <si>
     <t>Github tutorial from atlasian</t>
+  </si>
+  <si>
+    <t>if file is deleted to check in that file</t>
+  </si>
+  <si>
+    <t>1. git add --all
+2. git commit -m "message"
+3. git push</t>
   </si>
 </sst>
 </file>
@@ -3593,7 +3601,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3752,6 +3760,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3759,12 +3770,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4096,8 +4107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -4175,10 +4186,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="73"/>
+      <c r="B13" s="74"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4224,10 +4235,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="73" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="73"/>
+      <c r="B23" s="74"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4240,10 +4251,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="73" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="73"/>
+      <c r="B27" s="74"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4309,10 +4320,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="73"/>
+      <c r="B11" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4350,10 +4361,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="71" t="s">
@@ -4404,16 +4415,16 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="73" t="s">
         <v>666</v>
       </c>
-      <c r="B12" s="73"/>
+      <c r="B12" s="74"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="73"/>
+      <c r="B23" s="74"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="58" t="s">
@@ -4480,7 +4491,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="86" t="s">
         <v>635</v>
       </c>
       <c r="B32" s="59" t="s">
@@ -4488,7 +4499,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="85"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="59" t="s">
         <v>637</v>
       </c>
@@ -4566,10 +4577,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4580,10 +4591,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="74"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4602,7 +4613,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="76" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4610,13 +4621,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="74"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="74"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4702,7 +4713,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="76" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4710,13 +4721,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="74"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="79" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4724,19 +4735,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="78"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="78"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="76" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4744,19 +4755,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="74"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="74"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="88" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4764,25 +4775,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="87"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="87"/>
+      <c r="A32" s="88"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="87"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="88" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4790,19 +4801,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="87"/>
+      <c r="A35" s="88"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="87"/>
+      <c r="A36" s="88"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="88" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4810,25 +4821,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="87"/>
+      <c r="A38" s="88"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="87"/>
+      <c r="A39" s="88"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="87"/>
+      <c r="A40" s="88"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="88" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4836,25 +4847,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="87"/>
+      <c r="A42" s="88"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="87"/>
+      <c r="A43" s="88"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="87"/>
+      <c r="A44" s="88"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="87"/>
+      <c r="A45" s="88"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4876,7 +4887,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="76" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4884,13 +4895,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="74"/>
+      <c r="A49" s="76"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="76" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4898,19 +4909,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="74"/>
+      <c r="A51" s="76"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="74"/>
+      <c r="A52" s="76"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="74" t="s">
+      <c r="A53" s="76" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4918,7 +4929,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="74"/>
+      <c r="A54" s="76"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4940,7 +4951,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="76" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4948,7 +4959,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="74"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -5069,10 +5080,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -5083,13 +5094,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="74"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="76" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5097,7 +5108,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="74"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5135,7 +5146,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="76" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -5143,7 +5154,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="81"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5189,7 +5200,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="82" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5197,13 +5208,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="81"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="89" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5211,13 +5222,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="88"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="89" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5225,13 +5236,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="88"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="82" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5239,25 +5250,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="81"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="81"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="81"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="82" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5265,7 +5276,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="81"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5314,16 +5325,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="74"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5379,10 +5390,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5393,10 +5404,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="74"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5460,16 +5471,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="74"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5525,10 +5536,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5839,10 +5850,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5861,10 +5872,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="73"/>
+      <c r="B7" s="74"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5881,10 +5892,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="73"/>
+      <c r="B11" s="74"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5927,10 +5938,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="73"/>
+      <c r="B17" s="74"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5941,10 +5952,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="73" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="73"/>
+      <c r="B20" s="74"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5955,10 +5966,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="73"/>
+      <c r="B23" s="74"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -5985,10 +5996,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="73"/>
+      <c r="B28" s="74"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -6007,10 +6018,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="73"/>
+      <c r="B32" s="74"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -6029,10 +6040,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="73"/>
+      <c r="B36" s="74"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -6043,10 +6054,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="73"/>
+      <c r="B39" s="74"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -6063,16 +6074,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6120,10 +6131,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6166,7 +6177,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="75" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6174,7 +6185,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="76"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6290,11 +6301,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6312,10 +6323,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="69" customFormat="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2" s="69" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -6332,10 +6343,10 @@
     <row r="8" spans="1:2" s="69" customFormat="1"/>
     <row r="9" spans="1:2" s="69" customFormat="1"/>
     <row r="10" spans="1:2">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="74"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="56" t="s">
@@ -6402,7 +6413,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="86" t="s">
         <v>650</v>
       </c>
       <c r="B19" s="61" t="s">
@@ -6410,7 +6421,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="85"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="61" t="s">
         <v>652</v>
       </c>
@@ -6437,6 +6448,14 @@
       </c>
       <c r="B23" s="66" t="s">
         <v>660</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="65" t="s">
+        <v>675</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -6478,10 +6497,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6492,10 +6511,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>661</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="74"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="67" t="s">
@@ -6514,10 +6533,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="74"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6608,7 +6627,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6616,13 +6635,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="76"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="78" t="s">
+      <c r="A24" s="79" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6630,7 +6649,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="78"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6676,7 +6695,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="78" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6684,7 +6703,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="77"/>
+      <c r="A32" s="78"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6762,7 +6781,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="77" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6770,7 +6789,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="75"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6808,7 +6827,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="77" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6816,19 +6835,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="75"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="75"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="77" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6836,13 +6855,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="75"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="75"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6872,7 +6891,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="75" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6880,19 +6899,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="76"/>
+      <c r="A58" s="75"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="76"/>
+      <c r="A59" s="75"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="76"/>
+      <c r="A60" s="75"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6906,7 +6925,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="75" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6914,7 +6933,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="76"/>
+      <c r="A63" s="75"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6952,7 +6971,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="74" t="s">
+      <c r="A68" s="76" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6960,7 +6979,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="74"/>
+      <c r="A69" s="76"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -6982,7 +7001,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="74" t="s">
+      <c r="A72" s="76" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6990,7 +7009,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="74"/>
+      <c r="A73" s="76"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -7084,7 +7103,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="76" t="s">
+      <c r="A85" s="75" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -7092,7 +7111,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="76"/>
+      <c r="A86" s="75"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7170,7 +7189,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="74" t="s">
+      <c r="A96" s="76" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7178,13 +7197,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="74"/>
+      <c r="A97" s="76"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="74" t="s">
+      <c r="A98" s="76" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7192,13 +7211,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="74"/>
+      <c r="A99" s="76"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="76" t="s">
+      <c r="A100" s="75" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7206,13 +7225,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="76"/>
+      <c r="A101" s="75"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="74" t="s">
+      <c r="A102" s="76" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7220,13 +7239,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="74"/>
+      <c r="A103" s="76"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="74" t="s">
+      <c r="A104" s="76" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7234,13 +7253,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="74"/>
+      <c r="A105" s="76"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="74" t="s">
+      <c r="A106" s="76" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7248,13 +7267,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="74"/>
+      <c r="A107" s="76"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="74" t="s">
+      <c r="A108" s="76" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7262,13 +7281,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="74"/>
+      <c r="A109" s="76"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="74" t="s">
+      <c r="A110" s="76" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7276,13 +7295,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="74"/>
+      <c r="A111" s="76"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="74" t="s">
+      <c r="A112" s="76" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7290,13 +7309,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="74"/>
+      <c r="A113" s="76"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="74" t="s">
+      <c r="A114" s="76" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7304,13 +7323,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="74"/>
+      <c r="A115" s="76"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="74" t="s">
+      <c r="A116" s="76" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7318,7 +7337,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="74"/>
+      <c r="A117" s="76"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7340,7 +7359,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="74" t="s">
+      <c r="A120" s="76" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7348,19 +7367,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="74"/>
+      <c r="A121" s="76"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="74"/>
+      <c r="A122" s="76"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="74" t="s">
+      <c r="A123" s="76" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7368,13 +7387,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="74"/>
+      <c r="A124" s="76"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -7382,26 +7421,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7443,16 +7462,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="74"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7517,10 +7536,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="73"/>
+      <c r="B9" s="74"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7575,19 +7594,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="73"/>
+      <c r="B9" s="74"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7595,7 +7614,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="74"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7609,7 +7628,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="76" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7617,7 +7636,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="74"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7655,7 +7674,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="76" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7663,13 +7682,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="74"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="76" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7677,16 +7696,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="74"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="79"/>
+      <c r="B23" s="80"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7793,7 +7812,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="76" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7801,7 +7820,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="74"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -7874,16 +7893,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="74"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7894,7 +7913,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7902,7 +7921,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="81"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -8034,20 +8053,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="83"/>
+      <c r="B2" s="84"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="84"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="85" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -8055,13 +8074,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="85"/>
+      <c r="A11" s="86"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="87" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -8069,13 +8088,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="86"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="86"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3770,12 +3770,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4107,7 +4107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
@@ -4613,7 +4613,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="75" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4621,13 +4621,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="76"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="76"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="75" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4721,7 +4721,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="76"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
@@ -4747,7 +4747,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="75" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4755,13 +4755,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="76"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="76"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
@@ -4887,7 +4887,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="75" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4895,13 +4895,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="76"/>
+      <c r="A49" s="75"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="75" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4909,19 +4909,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="76"/>
+      <c r="A51" s="75"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="76"/>
+      <c r="A52" s="75"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="75" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4929,7 +4929,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="76"/>
+      <c r="A54" s="75"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4951,7 +4951,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="75" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4959,7 +4959,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="76"/>
+      <c r="A58" s="75"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="B6" s="74"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5108,7 +5108,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="76"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5146,7 +5146,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="75" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -6074,16 +6074,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6177,7 +6177,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="77" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6185,7 +6185,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="75"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6303,7 +6303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
@@ -6627,7 +6627,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6635,7 +6635,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="75"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -6781,7 +6781,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="76" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6789,7 +6789,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="77"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6827,7 +6827,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="76" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6835,19 +6835,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="77"/>
+      <c r="A49" s="76"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="77"/>
+      <c r="A50" s="76"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="76" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6855,13 +6855,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="77"/>
+      <c r="A52" s="76"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="77"/>
+      <c r="A53" s="76"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6891,7 +6891,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="77" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6899,19 +6899,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="75"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="75"/>
+      <c r="A59" s="77"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="75"/>
+      <c r="A60" s="77"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6925,7 +6925,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="77" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6933,7 +6933,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="75"/>
+      <c r="A63" s="77"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6971,7 +6971,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="76" t="s">
+      <c r="A68" s="75" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6979,7 +6979,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="76"/>
+      <c r="A69" s="75"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -7001,7 +7001,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="75" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -7009,7 +7009,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="76"/>
+      <c r="A73" s="75"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -7103,7 +7103,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="75" t="s">
+      <c r="A85" s="77" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -7111,7 +7111,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="75"/>
+      <c r="A86" s="77"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7189,7 +7189,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="76" t="s">
+      <c r="A96" s="75" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7197,13 +7197,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="76"/>
+      <c r="A97" s="75"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="76" t="s">
+      <c r="A98" s="75" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7211,13 +7211,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="76"/>
+      <c r="A99" s="75"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="75" t="s">
+      <c r="A100" s="77" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7225,13 +7225,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="75"/>
+      <c r="A101" s="77"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="76" t="s">
+      <c r="A102" s="75" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7239,13 +7239,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="76"/>
+      <c r="A103" s="75"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="76" t="s">
+      <c r="A104" s="75" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7253,13 +7253,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="76"/>
+      <c r="A105" s="75"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="76" t="s">
+      <c r="A106" s="75" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7267,13 +7267,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="76"/>
+      <c r="A107" s="75"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="76" t="s">
+      <c r="A108" s="75" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7281,13 +7281,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="76"/>
+      <c r="A109" s="75"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="76" t="s">
+      <c r="A110" s="75" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7295,13 +7295,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="76"/>
+      <c r="A111" s="75"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="76" t="s">
+      <c r="A112" s="75" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7309,13 +7309,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="76"/>
+      <c r="A113" s="75"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="76" t="s">
+      <c r="A114" s="75" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7323,13 +7323,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="76"/>
+      <c r="A115" s="75"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="76" t="s">
+      <c r="A116" s="75" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7337,7 +7337,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="76"/>
+      <c r="A117" s="75"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7359,7 +7359,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="76" t="s">
+      <c r="A120" s="75" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7367,19 +7367,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="76"/>
+      <c r="A121" s="75"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="76"/>
+      <c r="A122" s="75"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="75" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7387,13 +7387,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="76"/>
+      <c r="A124" s="75"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -7401,26 +7421,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7614,7 +7614,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="76"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="75" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7636,7 +7636,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="76"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7674,7 +7674,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="75" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7682,13 +7682,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="76"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="75" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7696,7 +7696,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="76"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
@@ -7812,7 +7812,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="75" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7820,7 +7820,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="76"/>
+      <c r="A38" s="75"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="679">
   <si>
     <t>Topics</t>
   </si>
@@ -3379,6 +3379,17 @@
     <t>1. git add --all
 2. git commit -m "message"
 3. git push</t>
+  </si>
+  <si>
+    <t>Add gitignore, gitattributes files to existing repository</t>
+  </si>
+  <si>
+    <t>1. create 1.txt and 2.txt in the project repository directory
+2. open cmd -&gt; navigate to above location
+3. run this command -&gt; rename 1.txt .gitignore
+4. run this command -&gt; rename 2.txt .gitattributes
+5. copy the content from exiting .gitignore and .gitattributes files to above renamed files
+6. run this command -&gt; gir rm -r --cache *.class (like this run for the files we want to ignore)</t>
   </si>
 </sst>
 </file>
@@ -3601,7 +3612,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3763,6 +3774,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3770,12 +3784,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4186,10 +4200,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="74"/>
+      <c r="B13" s="75"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4235,10 +4249,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="75"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4251,10 +4265,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="73" t="s">
+      <c r="A27" s="74" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="74"/>
+      <c r="B27" s="75"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4320,10 +4334,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4361,10 +4375,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="71" t="s">
@@ -4415,16 +4429,16 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="74" t="s">
         <v>666</v>
       </c>
-      <c r="B12" s="74"/>
+      <c r="B12" s="75"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="75"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="58" t="s">
@@ -4491,7 +4505,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="87" t="s">
         <v>635</v>
       </c>
       <c r="B32" s="59" t="s">
@@ -4499,7 +4513,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="86"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="59" t="s">
         <v>637</v>
       </c>
@@ -4577,10 +4591,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4591,10 +4605,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4613,7 +4627,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="77" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4621,13 +4635,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="75"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="75"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4713,7 +4727,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="77" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4721,13 +4735,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="75"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="80" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4735,19 +4749,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="79"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="77" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4755,19 +4769,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="75"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="75"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="89" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4775,25 +4789,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="88"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="88"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="88"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="89" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4801,19 +4815,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="88"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="88"/>
+      <c r="A36" s="89"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="89" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4821,25 +4835,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="88"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="88"/>
+      <c r="A39" s="89"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="88"/>
+      <c r="A40" s="89"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="89" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4847,25 +4861,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="88"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="88"/>
+      <c r="A43" s="89"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="88"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="88"/>
+      <c r="A45" s="89"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4887,7 +4901,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="77" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4895,13 +4909,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="75"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="77" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4909,19 +4923,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="75"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="75"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="75" t="s">
+      <c r="A53" s="77" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4929,7 +4943,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="75"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4951,7 +4965,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="77" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4959,7 +4973,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="75"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -5080,10 +5094,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -5094,13 +5108,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="77" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5108,7 +5122,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="75"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5146,7 +5160,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="77" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -5154,7 +5168,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="82"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5200,7 +5214,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="83" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5208,13 +5222,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="82"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="90" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5222,13 +5236,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="89"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="90" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5236,13 +5250,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="89"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="83" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5250,25 +5264,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="82"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="82"/>
+      <c r="A28" s="83"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="82"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="83" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5276,7 +5290,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="82"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5325,16 +5339,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5390,10 +5404,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5404,10 +5418,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5471,16 +5485,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5536,10 +5550,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5850,10 +5864,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5872,10 +5886,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="74"/>
+      <c r="B7" s="75"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5892,10 +5906,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="75"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5938,10 +5952,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="74" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="75"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5952,10 +5966,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="74"/>
+      <c r="B20" s="75"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5966,10 +5980,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="75"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -5996,10 +6010,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="74"/>
+      <c r="B28" s="75"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -6018,10 +6032,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="74"/>
+      <c r="B32" s="75"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -6040,10 +6054,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="74"/>
+      <c r="B36" s="75"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -6054,10 +6068,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="74"/>
+      <c r="B39" s="75"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -6074,16 +6088,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6131,10 +6145,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6177,7 +6191,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="76" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6185,7 +6199,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="77"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6301,11 +6315,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6323,10 +6337,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="69" customFormat="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:2" s="69" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -6343,10 +6357,10 @@
     <row r="8" spans="1:2" s="69" customFormat="1"/>
     <row r="9" spans="1:2" s="69" customFormat="1"/>
     <row r="10" spans="1:2">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="74"/>
+      <c r="B10" s="75"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="56" t="s">
@@ -6413,7 +6427,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="87" t="s">
         <v>650</v>
       </c>
       <c r="B19" s="61" t="s">
@@ -6421,7 +6435,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="86"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="61" t="s">
         <v>652</v>
       </c>
@@ -6456,6 +6470,14 @@
       </c>
       <c r="B24" s="72" t="s">
         <v>676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="90">
+      <c r="A25" s="65" t="s">
+        <v>677</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -6497,10 +6519,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6511,10 +6533,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>661</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="67" t="s">
@@ -6533,10 +6555,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="74"/>
+      <c r="B10" s="75"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6627,7 +6649,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6635,13 +6657,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="77"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="80" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6649,7 +6671,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="79"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6695,7 +6717,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="79" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6703,7 +6725,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="78"/>
+      <c r="A32" s="79"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6781,7 +6803,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="78" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6789,7 +6811,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="76"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6827,7 +6849,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="78" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6835,19 +6857,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="76"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="76"/>
+      <c r="A50" s="78"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="76" t="s">
+      <c r="A51" s="78" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6855,13 +6877,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="76"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="76"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6891,7 +6913,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="76" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6899,19 +6921,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="77"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="77"/>
+      <c r="A59" s="76"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="77"/>
+      <c r="A60" s="76"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6925,7 +6947,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="76" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6933,7 +6955,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="77"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6971,7 +6993,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="77" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6979,7 +7001,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="75"/>
+      <c r="A69" s="77"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -7001,7 +7023,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="75" t="s">
+      <c r="A72" s="77" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -7009,7 +7031,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="75"/>
+      <c r="A73" s="77"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -7103,7 +7125,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="77" t="s">
+      <c r="A85" s="76" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -7111,7 +7133,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="77"/>
+      <c r="A86" s="76"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7189,7 +7211,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="75" t="s">
+      <c r="A96" s="77" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7197,13 +7219,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="75"/>
+      <c r="A97" s="77"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="75" t="s">
+      <c r="A98" s="77" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7211,13 +7233,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="75"/>
+      <c r="A99" s="77"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="77" t="s">
+      <c r="A100" s="76" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7225,13 +7247,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="77"/>
+      <c r="A101" s="76"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="75" t="s">
+      <c r="A102" s="77" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7239,13 +7261,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="75"/>
+      <c r="A103" s="77"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="75" t="s">
+      <c r="A104" s="77" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7253,13 +7275,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="75"/>
+      <c r="A105" s="77"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="75" t="s">
+      <c r="A106" s="77" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7267,13 +7289,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="75"/>
+      <c r="A107" s="77"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="75" t="s">
+      <c r="A108" s="77" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7281,13 +7303,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="75"/>
+      <c r="A109" s="77"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="75" t="s">
+      <c r="A110" s="77" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7295,13 +7317,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="75"/>
+      <c r="A111" s="77"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="75" t="s">
+      <c r="A112" s="77" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7309,13 +7331,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="75"/>
+      <c r="A113" s="77"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="75" t="s">
+      <c r="A114" s="77" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7323,13 +7345,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="75"/>
+      <c r="A115" s="77"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="75" t="s">
+      <c r="A116" s="77" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7337,7 +7359,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="75"/>
+      <c r="A117" s="77"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7359,7 +7381,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="75" t="s">
+      <c r="A120" s="77" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7367,19 +7389,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="75"/>
+      <c r="A121" s="77"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="75"/>
+      <c r="A122" s="77"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="75" t="s">
+      <c r="A123" s="77" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7387,13 +7409,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="75"/>
+      <c r="A124" s="77"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -7401,26 +7443,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7462,16 +7484,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="75"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7536,10 +7558,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="75"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7594,19 +7616,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="75"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7614,7 +7636,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="75"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7628,7 +7650,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="77" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7636,7 +7658,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="75"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7674,7 +7696,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="77" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7682,13 +7704,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="75"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="77" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7696,16 +7718,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="75"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="81"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7812,7 +7834,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="77" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7820,7 +7842,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="75"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -7893,16 +7915,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7913,7 +7935,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="83" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7921,7 +7943,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="82"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -8053,20 +8075,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="84"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="85"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="86" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -8074,13 +8096,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="86"/>
+      <c r="A11" s="87"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="88" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -8088,13 +8110,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="87"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="87"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -3784,12 +3784,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4627,7 +4627,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4635,13 +4635,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="77"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="77"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4727,7 +4727,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="76" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4735,7 +4735,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="77"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
@@ -4761,7 +4761,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="76" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4769,13 +4769,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="77"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="77"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
@@ -4901,7 +4901,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="76" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4909,13 +4909,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="77"/>
+      <c r="A49" s="76"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="76" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4923,19 +4923,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="77"/>
+      <c r="A51" s="76"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="77"/>
+      <c r="A52" s="76"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="76" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4943,7 +4943,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="77"/>
+      <c r="A54" s="76"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4965,7 +4965,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="76" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4973,7 +4973,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="77"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="76" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5122,7 +5122,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="77"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5160,7 +5160,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="76" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -6088,16 +6088,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6191,7 +6191,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6199,7 +6199,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="76"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6319,7 +6319,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6649,7 +6649,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="78" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6657,7 +6657,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="76"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -6803,7 +6803,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="77" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6811,7 +6811,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="78"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6849,7 +6849,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="78" t="s">
+      <c r="A48" s="77" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6857,19 +6857,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="78"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="78"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="77" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6877,13 +6877,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="78"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="78"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6913,7 +6913,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="78" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6921,19 +6921,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="76"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="76"/>
+      <c r="A59" s="78"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="76"/>
+      <c r="A60" s="78"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6947,7 +6947,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="78" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6955,7 +6955,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="76"/>
+      <c r="A63" s="78"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6993,7 +6993,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="76" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -7001,7 +7001,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="77"/>
+      <c r="A69" s="76"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -7023,7 +7023,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="76" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -7031,7 +7031,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="77"/>
+      <c r="A73" s="76"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -7125,7 +7125,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="76" t="s">
+      <c r="A85" s="78" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -7133,7 +7133,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="76"/>
+      <c r="A86" s="78"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7211,7 +7211,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="77" t="s">
+      <c r="A96" s="76" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7219,13 +7219,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="77"/>
+      <c r="A97" s="76"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="77" t="s">
+      <c r="A98" s="76" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7233,13 +7233,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="77"/>
+      <c r="A99" s="76"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="76" t="s">
+      <c r="A100" s="78" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7247,13 +7247,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="76"/>
+      <c r="A101" s="78"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="77" t="s">
+      <c r="A102" s="76" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7261,13 +7261,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="77"/>
+      <c r="A103" s="76"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="77" t="s">
+      <c r="A104" s="76" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7275,13 +7275,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="77"/>
+      <c r="A105" s="76"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="77" t="s">
+      <c r="A106" s="76" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7289,13 +7289,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="77"/>
+      <c r="A107" s="76"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="77" t="s">
+      <c r="A108" s="76" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7303,13 +7303,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="77"/>
+      <c r="A109" s="76"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="77" t="s">
+      <c r="A110" s="76" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7317,13 +7317,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="77"/>
+      <c r="A111" s="76"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="77" t="s">
+      <c r="A112" s="76" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7331,13 +7331,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="77"/>
+      <c r="A113" s="76"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="77" t="s">
+      <c r="A114" s="76" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7345,13 +7345,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="77"/>
+      <c r="A115" s="76"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="77" t="s">
+      <c r="A116" s="76" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7359,7 +7359,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="77"/>
+      <c r="A117" s="76"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7381,7 +7381,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="77" t="s">
+      <c r="A120" s="76" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7389,19 +7389,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="77"/>
+      <c r="A121" s="76"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="77"/>
+      <c r="A122" s="76"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="77" t="s">
+      <c r="A123" s="76" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7409,13 +7409,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="77"/>
+      <c r="A124" s="76"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -7423,26 +7443,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7636,7 +7636,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="77"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7650,7 +7650,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="76" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7658,7 +7658,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="77"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7696,7 +7696,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="76" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7704,13 +7704,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="77"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="76" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7718,7 +7718,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="77"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
@@ -7834,7 +7834,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="76" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7842,7 +7842,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="77"/>
+      <c r="A38" s="76"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -3784,12 +3784,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4627,7 +4627,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="77" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4635,13 +4635,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="76"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="76"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4727,7 +4727,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="77" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4735,7 +4735,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="76"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
@@ -4761,7 +4761,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="77" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4769,13 +4769,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="76"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="76"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
@@ -4901,7 +4901,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="77" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4909,13 +4909,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="76"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="77" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4923,19 +4923,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="76"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="76"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="77" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4943,7 +4943,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="76"/>
+      <c r="A54" s="77"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4965,7 +4965,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="77" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4973,7 +4973,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="76"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="77" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5122,7 +5122,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="76"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5160,7 +5160,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="77" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -6088,16 +6088,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6191,7 +6191,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="76" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6199,7 +6199,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="78"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6649,7 +6649,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6657,7 +6657,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="78"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -6803,7 +6803,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="78" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6811,7 +6811,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="77"/>
+      <c r="A43" s="78"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6849,7 +6849,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="78" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6857,19 +6857,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="77"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="77"/>
+      <c r="A50" s="78"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="78" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6877,13 +6877,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="77"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="77"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6913,7 +6913,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="78" t="s">
+      <c r="A57" s="76" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6921,19 +6921,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="78"/>
+      <c r="A58" s="76"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="78"/>
+      <c r="A59" s="76"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="78"/>
+      <c r="A60" s="76"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6947,7 +6947,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="78" t="s">
+      <c r="A62" s="76" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6955,7 +6955,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="78"/>
+      <c r="A63" s="76"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6993,7 +6993,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="76" t="s">
+      <c r="A68" s="77" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -7001,7 +7001,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="76"/>
+      <c r="A69" s="77"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -7023,7 +7023,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="76" t="s">
+      <c r="A72" s="77" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -7031,7 +7031,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="76"/>
+      <c r="A73" s="77"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -7125,7 +7125,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="78" t="s">
+      <c r="A85" s="76" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -7133,7 +7133,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="78"/>
+      <c r="A86" s="76"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7211,7 +7211,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="76" t="s">
+      <c r="A96" s="77" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7219,13 +7219,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="76"/>
+      <c r="A97" s="77"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="76" t="s">
+      <c r="A98" s="77" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7233,13 +7233,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="76"/>
+      <c r="A99" s="77"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="78" t="s">
+      <c r="A100" s="76" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7247,13 +7247,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="78"/>
+      <c r="A101" s="76"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="76" t="s">
+      <c r="A102" s="77" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7261,13 +7261,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="76"/>
+      <c r="A103" s="77"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="76" t="s">
+      <c r="A104" s="77" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7275,13 +7275,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="76"/>
+      <c r="A105" s="77"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="76" t="s">
+      <c r="A106" s="77" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7289,13 +7289,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="76"/>
+      <c r="A107" s="77"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="76" t="s">
+      <c r="A108" s="77" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7303,13 +7303,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="76"/>
+      <c r="A109" s="77"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="76" t="s">
+      <c r="A110" s="77" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7317,13 +7317,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="76"/>
+      <c r="A111" s="77"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="76" t="s">
+      <c r="A112" s="77" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7331,13 +7331,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="76"/>
+      <c r="A113" s="77"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="76" t="s">
+      <c r="A114" s="77" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7345,13 +7345,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="76"/>
+      <c r="A115" s="77"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="76" t="s">
+      <c r="A116" s="77" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7359,7 +7359,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="76"/>
+      <c r="A117" s="77"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7381,7 +7381,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="76" t="s">
+      <c r="A120" s="77" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7389,19 +7389,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="76"/>
+      <c r="A121" s="77"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="76"/>
+      <c r="A122" s="77"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="76" t="s">
+      <c r="A123" s="77" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7409,13 +7409,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="76"/>
+      <c r="A124" s="77"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -7423,26 +7443,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7636,7 +7636,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="76"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7650,7 +7650,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="77" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7658,7 +7658,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="76"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7696,7 +7696,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="77" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7704,13 +7704,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="76"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="77" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7718,7 +7718,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="76"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
@@ -7834,7 +7834,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="77" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7842,7 +7842,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="76"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="680">
   <si>
     <t>Topics</t>
   </si>
@@ -3390,6 +3390,9 @@
 4. run this command -&gt; rename 2.txt .gitattributes
 5. copy the content from exiting .gitignore and .gitattributes files to above renamed files
 6. run this command -&gt; gir rm -r --cache *.class (like this run for the files we want to ignore)</t>
+  </si>
+  <si>
+    <t>git add -A</t>
   </si>
 </sst>
 </file>
@@ -3612,7 +3615,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3777,6 +3780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3784,12 +3788,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4200,10 +4204,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="75"/>
+      <c r="B13" s="76"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4249,10 +4253,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="76"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4265,10 +4269,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="75" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="75"/>
+      <c r="B27" s="76"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4334,10 +4338,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="75"/>
+      <c r="B11" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4375,10 +4379,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="71" t="s">
@@ -4429,16 +4433,16 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="75" t="s">
         <v>666</v>
       </c>
-      <c r="B12" s="75"/>
+      <c r="B12" s="76"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="76"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="58" t="s">
@@ -4505,7 +4509,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="88" t="s">
         <v>635</v>
       </c>
       <c r="B32" s="59" t="s">
@@ -4513,7 +4517,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="87"/>
+      <c r="A33" s="88"/>
       <c r="B33" s="59" t="s">
         <v>637</v>
       </c>
@@ -4591,10 +4595,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4605,10 +4609,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4741,7 +4745,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="81" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4749,13 +4753,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="80"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="80"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
@@ -4781,7 +4785,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="90" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4789,25 +4793,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="89"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="89"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="89"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="90" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4815,19 +4819,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="89"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="89"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="90" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4835,25 +4839,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="89"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="89"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="89"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="90" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4861,25 +4865,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="89"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="89"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="89"/>
+      <c r="A44" s="90"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="89"/>
+      <c r="A45" s="90"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -5094,10 +5098,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -5108,10 +5112,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="77" t="s">
@@ -5168,7 +5172,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="83"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5214,7 +5218,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="84" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5222,13 +5226,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="83"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="91" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5236,13 +5240,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="90"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="91" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5250,13 +5254,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="90"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="84" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5264,25 +5268,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="83"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="83"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="83"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="84" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5290,7 +5294,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="83"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5339,16 +5343,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5404,10 +5408,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5418,10 +5422,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5485,16 +5489,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5550,10 +5554,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5864,10 +5868,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5886,10 +5890,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="76"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5906,10 +5910,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="75"/>
+      <c r="B11" s="76"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5952,10 +5956,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="75"/>
+      <c r="B17" s="76"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5966,10 +5970,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="75" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="76"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5980,10 +5984,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="76"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -6010,10 +6014,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="75"/>
+      <c r="B28" s="76"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -6032,10 +6036,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="75"/>
+      <c r="B32" s="76"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -6054,10 +6058,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="75"/>
+      <c r="B36" s="76"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -6068,10 +6072,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="75"/>
+      <c r="B39" s="76"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -6088,16 +6092,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6145,10 +6149,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6191,7 +6195,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="79" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6199,7 +6203,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="76"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6315,11 +6319,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6337,10 +6341,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="69" customFormat="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2" s="69" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -6357,10 +6361,10 @@
     <row r="8" spans="1:2" s="69" customFormat="1"/>
     <row r="9" spans="1:2" s="69" customFormat="1"/>
     <row r="10" spans="1:2">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="75"/>
+      <c r="B10" s="76"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="56" t="s">
@@ -6395,96 +6399,103 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="88" t="s">
         <v>644</v>
       </c>
       <c r="B15" s="61" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="62" customFormat="1">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:2" s="74" customFormat="1">
+      <c r="A16" s="88"/>
+      <c r="B16" s="74" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="62" customFormat="1">
+      <c r="A17" s="62" t="s">
         <v>653</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B17" s="62" t="s">
         <v>654</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="61" t="s">
-        <v>647</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="61" t="s">
+        <v>647</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B19" s="61" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="87" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="88" t="s">
         <v>650</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B20" s="61" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="87"/>
-      <c r="B20" s="61" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="88"/>
+      <c r="B21" s="61" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="65" t="s">
-        <v>655</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="65" t="s">
+        <v>655</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="65" t="s">
         <v>657</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B23" s="64" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="105">
-      <c r="A23" s="65" t="s">
+    <row r="24" spans="1:2" ht="105">
+      <c r="A24" s="65" t="s">
         <v>659</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B24" s="66" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="65" t="s">
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="65" t="s">
         <v>675</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B25" s="72" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="65" t="s">
+    <row r="26" spans="1:2" ht="90">
+      <c r="A26" s="65" t="s">
         <v>677</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B26" s="73" t="s">
         <v>678</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A28" display="Topics"/>
@@ -6519,10 +6530,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6533,10 +6544,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>661</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="67" t="s">
@@ -6555,10 +6566,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="75"/>
+      <c r="B10" s="76"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6649,7 +6660,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="79" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6657,13 +6668,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="76"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="81" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6671,7 +6682,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="80"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6717,7 +6728,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="80" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6725,7 +6736,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="79"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6913,7 +6924,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="79" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6921,19 +6932,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="76"/>
+      <c r="A58" s="79"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="76"/>
+      <c r="A59" s="79"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="76"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6947,7 +6958,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="76" t="s">
+      <c r="A62" s="79" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6955,7 +6966,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="76"/>
+      <c r="A63" s="79"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -7125,7 +7136,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="76" t="s">
+      <c r="A85" s="79" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -7133,7 +7144,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="76"/>
+      <c r="A86" s="79"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7239,7 +7250,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="76" t="s">
+      <c r="A100" s="79" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7247,7 +7258,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="76"/>
+      <c r="A101" s="79"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
@@ -7416,6 +7427,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -7423,26 +7454,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7484,16 +7495,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="76"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7558,10 +7569,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="76"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7616,19 +7627,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="76"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="83" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7724,10 +7735,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="81"/>
+      <c r="B23" s="82"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7915,16 +7926,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="76"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7935,7 +7946,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7943,7 +7954,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="83"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -8075,20 +8086,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="86"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="85"/>
+      <c r="B9" s="86"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="87" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -8096,13 +8107,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="87"/>
+      <c r="A11" s="88"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="89" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -8110,13 +8121,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3788,12 +3788,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4319,7 +4319,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4361,7 +4361,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4631,7 +4631,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="78" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4639,13 +4639,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="77"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="77"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4731,7 +4731,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="78" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4739,7 +4739,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="77"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
@@ -4765,7 +4765,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="78" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4773,13 +4773,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="77"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="77"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
@@ -4905,7 +4905,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="78" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4913,13 +4913,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="77"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="78" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4927,19 +4927,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="77"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="77"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="78" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4947,7 +4947,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="77"/>
+      <c r="A54" s="78"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -4969,7 +4969,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="78" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4977,7 +4977,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="77"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -5118,7 +5118,7 @@
       <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5126,7 +5126,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5164,7 +5164,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="78" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -5326,7 +5326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5388,7 +5390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -5850,7 +5852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6092,16 +6094,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6195,7 +6197,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="77" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6203,7 +6205,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="79"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6321,7 +6323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15:A16"/>
     </sheetView>
@@ -6512,7 +6514,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6660,7 +6662,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6668,7 +6670,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="79"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -6814,7 +6816,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="79" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6822,7 +6824,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="78"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6860,7 +6862,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="78" t="s">
+      <c r="A48" s="79" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6868,19 +6870,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="78"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="78"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="79" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6888,13 +6890,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="78"/>
+      <c r="A52" s="79"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="78"/>
+      <c r="A53" s="79"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6924,7 +6926,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="77" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6932,19 +6934,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="79"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="79"/>
+      <c r="A59" s="77"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="79"/>
+      <c r="A60" s="77"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6958,7 +6960,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="79" t="s">
+      <c r="A62" s="77" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6966,7 +6968,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="79"/>
+      <c r="A63" s="77"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -7004,7 +7006,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="78" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -7012,7 +7014,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="77"/>
+      <c r="A69" s="78"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -7034,7 +7036,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="78" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -7042,7 +7044,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="77"/>
+      <c r="A73" s="78"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -7136,7 +7138,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="79" t="s">
+      <c r="A85" s="77" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -7144,7 +7146,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="79"/>
+      <c r="A86" s="77"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7222,7 +7224,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="77" t="s">
+      <c r="A96" s="78" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7230,13 +7232,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="77"/>
+      <c r="A97" s="78"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="77" t="s">
+      <c r="A98" s="78" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7244,13 +7246,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="77"/>
+      <c r="A99" s="78"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="79" t="s">
+      <c r="A100" s="77" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7258,13 +7260,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="79"/>
+      <c r="A101" s="77"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="77" t="s">
+      <c r="A102" s="78" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7272,13 +7274,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="77"/>
+      <c r="A103" s="78"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="77" t="s">
+      <c r="A104" s="78" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7286,13 +7288,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="77"/>
+      <c r="A105" s="78"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="77" t="s">
+      <c r="A106" s="78" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7300,13 +7302,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="77"/>
+      <c r="A107" s="78"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="77" t="s">
+      <c r="A108" s="78" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7314,13 +7316,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="77"/>
+      <c r="A109" s="78"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="77" t="s">
+      <c r="A110" s="78" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7328,13 +7330,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="77"/>
+      <c r="A111" s="78"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="77" t="s">
+      <c r="A112" s="78" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7342,13 +7344,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="77"/>
+      <c r="A113" s="78"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="77" t="s">
+      <c r="A114" s="78" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7356,13 +7358,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="77"/>
+      <c r="A115" s="78"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="77" t="s">
+      <c r="A116" s="78" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7370,7 +7372,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="77"/>
+      <c r="A117" s="78"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7392,7 +7394,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="77" t="s">
+      <c r="A120" s="78" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7400,19 +7402,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="77"/>
+      <c r="A121" s="78"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="77"/>
+      <c r="A122" s="78"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="77" t="s">
+      <c r="A123" s="78" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7420,13 +7422,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="77"/>
+      <c r="A124" s="78"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -7434,26 +7456,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7477,7 +7479,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7608,8 +7610,8 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7647,7 +7649,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="77"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7661,7 +7663,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="78" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7669,7 +7671,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="77"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7707,7 +7709,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="78" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7715,13 +7717,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="77"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="78" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7729,7 +7731,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="77"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
@@ -7845,7 +7847,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="78" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7853,7 +7855,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="77"/>
+      <c r="A38" s="78"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -8068,7 +8070,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B4"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="682">
   <si>
     <t>Topics</t>
   </si>
@@ -3393,6 +3393,12 @@
   </si>
   <si>
     <t>git add -A</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Analyzing Machine Data with Splunk</t>
   </si>
 </sst>
 </file>
@@ -3615,7 +3621,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3781,6 +3787,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3788,12 +3795,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4127,7 +4134,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4204,10 +4211,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="77"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4253,10 +4260,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="77"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4269,10 +4276,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="76" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="76"/>
+      <c r="B27" s="77"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4338,10 +4345,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4361,7 +4368,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4379,10 +4386,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="71" t="s">
@@ -4433,16 +4440,16 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="76" t="s">
         <v>666</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="77"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="77"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="58" t="s">
@@ -4509,7 +4516,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="89" t="s">
         <v>635</v>
       </c>
       <c r="B32" s="59" t="s">
@@ -4517,7 +4524,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="88"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="59" t="s">
         <v>637</v>
       </c>
@@ -4557,17 +4564,52 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="2" width="112" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="76" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" s="77"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>681</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
+    <hyperlink ref="B1" location="Splunk!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="Analyzing Machine Data with Splunk" display="https://app.pluralsight.com/library/courses/splunk-analyzing-machine-data"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4595,10 +4637,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4609,10 +4651,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4745,7 +4787,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="82" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4753,13 +4795,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="81"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="81"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
@@ -4785,7 +4827,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="91" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4793,25 +4835,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="90"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="90"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="90"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="91" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4819,19 +4861,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="90"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="90"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="91" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4839,25 +4881,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="90"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="90"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="90"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="91" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4865,25 +4907,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="90"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="90"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="90"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="90"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -5098,10 +5140,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -5112,10 +5154,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="78" t="s">
@@ -5172,7 +5214,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="84"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5218,7 +5260,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="85" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5226,13 +5268,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="84"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="92" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5240,13 +5282,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="91"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="92" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5254,13 +5296,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="91"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="85" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5268,25 +5310,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="84"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="84"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="84"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="85" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5294,7 +5336,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="84"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5345,16 +5387,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5390,9 +5432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5410,10 +5452,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5424,10 +5466,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5491,16 +5533,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5556,10 +5598,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5852,7 +5894,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5870,10 +5912,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5892,10 +5934,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="77"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5912,10 +5954,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="77"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -5958,10 +6000,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="76"/>
+      <c r="B17" s="77"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -5972,10 +6014,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="76" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="76"/>
+      <c r="B20" s="77"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -5986,10 +6028,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="77"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -6016,10 +6058,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="76"/>
+      <c r="B28" s="77"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -6038,10 +6080,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="76"/>
+      <c r="B32" s="77"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -6060,10 +6102,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="76"/>
+      <c r="B36" s="77"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -6074,10 +6116,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="76"/>
+      <c r="B39" s="77"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -6094,16 +6136,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6151,10 +6193,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6197,7 +6239,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="80" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6205,7 +6247,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="77"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6343,10 +6385,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="69" customFormat="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:2" s="69" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -6363,10 +6405,10 @@
     <row r="8" spans="1:2" s="69" customFormat="1"/>
     <row r="9" spans="1:2" s="69" customFormat="1"/>
     <row r="10" spans="1:2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="77"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="56" t="s">
@@ -6401,7 +6443,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="89" t="s">
         <v>644</v>
       </c>
       <c r="B15" s="61" t="s">
@@ -6409,7 +6451,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" s="74" customFormat="1">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="74" t="s">
         <v>679</v>
       </c>
@@ -6439,7 +6481,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="89" t="s">
         <v>650</v>
       </c>
       <c r="B20" s="61" t="s">
@@ -6447,7 +6489,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="88"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="61" t="s">
         <v>652</v>
       </c>
@@ -6532,10 +6574,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6546,10 +6588,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>661</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="67" t="s">
@@ -6568,10 +6610,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="77"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6662,7 +6704,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="80" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6670,13 +6712,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="77"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="82" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6684,7 +6726,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="81"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6730,7 +6772,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="80" t="s">
+      <c r="A31" s="81" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6738,7 +6780,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="80"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6926,7 +6968,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="77" t="s">
+      <c r="A57" s="80" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6934,19 +6976,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="77"/>
+      <c r="A58" s="80"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="77"/>
+      <c r="A59" s="80"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="77"/>
+      <c r="A60" s="80"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6960,7 +7002,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="80" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6968,7 +7010,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="77"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -7138,7 +7180,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="77" t="s">
+      <c r="A85" s="80" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -7146,7 +7188,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="77"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7252,7 +7294,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="77" t="s">
+      <c r="A100" s="80" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7260,7 +7302,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="77"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
@@ -7429,6 +7471,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -7436,26 +7498,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7497,16 +7539,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="77"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7571,10 +7613,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="77"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7629,19 +7671,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="77"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="84" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7737,10 +7779,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7928,16 +7970,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7948,7 +7990,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="85" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7956,7 +7998,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="84"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -8088,20 +8130,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="87"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="86"/>
+      <c r="B9" s="87"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="88" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -8109,13 +8151,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="88"/>
+      <c r="A11" s="89"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="90" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -8123,13 +8165,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="89"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="89"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="693">
   <si>
     <t>Topics</t>
   </si>
@@ -3399,6 +3399,39 @@
   </si>
   <si>
     <t>Analyzing Machine Data with Splunk</t>
+  </si>
+  <si>
+    <t>check the branch</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>check the remote</t>
+  </si>
+  <si>
+    <t>git remote</t>
+  </si>
+  <si>
+    <t>check the commit logs of a branch</t>
+  </si>
+  <si>
+    <t>git log [branch-name]</t>
+  </si>
+  <si>
+    <t>to cherry pick</t>
+  </si>
+  <si>
+    <t>git cherry-pick [commit-number]</t>
+  </si>
+  <si>
+    <t>after running this command, git will take that commit and apply to current branch</t>
+  </si>
+  <si>
+    <t>to see all branches</t>
+  </si>
+  <si>
+    <t>git branch -a</t>
   </si>
 </sst>
 </file>
@@ -3621,7 +3654,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3788,6 +3821,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3795,12 +3832,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3834,6 +3871,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4211,10 +4251,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="77"/>
+      <c r="B13" s="79"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4260,10 +4300,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="77"/>
+      <c r="B23" s="79"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4276,10 +4316,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="78" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="77"/>
+      <c r="B27" s="79"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4345,10 +4385,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="77"/>
+      <c r="B11" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4386,10 +4426,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="71" t="s">
@@ -4440,16 +4480,16 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>666</v>
       </c>
-      <c r="B12" s="77"/>
+      <c r="B12" s="79"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="77"/>
+      <c r="B23" s="79"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="58" t="s">
@@ -4516,7 +4556,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="91" t="s">
         <v>635</v>
       </c>
       <c r="B32" s="59" t="s">
@@ -4524,7 +4564,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="89"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="59" t="s">
         <v>637</v>
       </c>
@@ -4566,7 +4606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -4586,10 +4626,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>680</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="75" t="s">
@@ -4637,10 +4677,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4651,10 +4691,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="79"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4673,7 +4713,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="81" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4681,13 +4721,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="78"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="78"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4773,7 +4813,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="81" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4781,13 +4821,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="78"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="48" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="84" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4795,19 +4835,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="82"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="82"/>
+      <c r="A26" s="84"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="81" t="s">
         <v>549</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4815,19 +4855,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="78"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="78"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="48" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="93" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4835,25 +4875,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="91"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="91"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="91"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="93" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4861,19 +4901,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="91"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="91"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="93" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4881,25 +4921,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="91"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="91"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="91"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="93" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4907,25 +4947,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="91"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="91"/>
+      <c r="A43" s="93"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="91"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="91"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -4947,7 +4987,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="78" t="s">
+      <c r="A48" s="81" t="s">
         <v>576</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4955,13 +4995,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="78"/>
+      <c r="A49" s="81"/>
       <c r="B49" s="49" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="78" t="s">
+      <c r="A50" s="81" t="s">
         <v>578</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4969,19 +5009,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="78"/>
+      <c r="A51" s="81"/>
       <c r="B51" s="49" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="78"/>
+      <c r="A52" s="81"/>
       <c r="B52" s="49" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="81" t="s">
         <v>584</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4989,7 +5029,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="78"/>
+      <c r="A54" s="81"/>
       <c r="B54" s="49" t="s">
         <v>587</v>
       </c>
@@ -5011,7 +5051,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="78" t="s">
+      <c r="A57" s="81" t="s">
         <v>590</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -5019,7 +5059,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="78"/>
+      <c r="A58" s="81"/>
       <c r="B58" s="49" t="s">
         <v>592</v>
       </c>
@@ -5140,10 +5180,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -5154,13 +5194,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="79"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="81" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5168,7 +5208,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="78"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5206,7 +5246,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="81" t="s">
         <v>506</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -5214,7 +5254,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="85"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5260,7 +5300,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="87" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5268,13 +5308,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="85"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="94" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5282,13 +5322,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="92"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="94" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5296,13 +5336,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="92"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="87" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5310,25 +5350,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="85"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="85"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="85"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="87" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5336,7 +5376,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="85"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5387,16 +5427,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="79"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5452,10 +5492,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5466,10 +5506,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="79"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5533,16 +5573,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="79"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5598,10 +5638,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5912,10 +5952,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5934,10 +5974,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="77"/>
+      <c r="B7" s="79"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5954,10 +5994,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="77"/>
+      <c r="B11" s="79"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -6000,10 +6040,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="78" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="77"/>
+      <c r="B17" s="79"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -6014,10 +6054,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="77"/>
+      <c r="B20" s="79"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -6028,10 +6068,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="77"/>
+      <c r="B23" s="79"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -6058,10 +6098,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="77"/>
+      <c r="B28" s="79"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -6080,10 +6120,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="77"/>
+      <c r="B32" s="79"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -6102,10 +6142,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="77"/>
+      <c r="B36" s="79"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -6116,10 +6156,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="77"/>
+      <c r="B39" s="79"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -6136,16 +6176,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6193,10 +6233,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6363,11 +6403,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6385,10 +6425,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="69" customFormat="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2" s="69" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -6405,10 +6445,10 @@
     <row r="8" spans="1:2" s="69" customFormat="1"/>
     <row r="9" spans="1:2" s="69" customFormat="1"/>
     <row r="10" spans="1:2">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="77"/>
+      <c r="B10" s="79"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="56" t="s">
@@ -6443,7 +6483,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="91" t="s">
         <v>644</v>
       </c>
       <c r="B15" s="61" t="s">
@@ -6451,7 +6491,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" s="74" customFormat="1">
-      <c r="A16" s="89"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="74" t="s">
         <v>679</v>
       </c>
@@ -6481,7 +6521,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="91" t="s">
         <v>650</v>
       </c>
       <c r="B20" s="61" t="s">
@@ -6489,7 +6529,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="89"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="61" t="s">
         <v>652</v>
       </c>
@@ -6534,12 +6574,59 @@
         <v>678</v>
       </c>
     </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="65" t="s">
+        <v>682</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="77" customFormat="1">
+      <c r="A28" s="65" t="s">
+        <v>691</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="65" t="s">
+        <v>684</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="65" t="s">
+        <v>686</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="95" t="s">
+        <v>688</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="95"/>
+      <c r="B32" s="76" t="s">
+        <v>690</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A28" display="Topics"/>
@@ -6574,10 +6661,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6588,10 +6675,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>661</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="79"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="67" t="s">
@@ -6610,10 +6697,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="77"/>
+      <c r="B10" s="79"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6718,7 +6805,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="84" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6726,7 +6813,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="82"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6772,7 +6859,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="83" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6780,7 +6867,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="81"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6858,7 +6945,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="82" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6866,7 +6953,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="79"/>
+      <c r="A43" s="82"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6904,7 +6991,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="82" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6912,19 +6999,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="79"/>
+      <c r="A49" s="82"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="79"/>
+      <c r="A50" s="82"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="79" t="s">
+      <c r="A51" s="82" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6932,13 +7019,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="79"/>
+      <c r="A52" s="82"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="79"/>
+      <c r="A53" s="82"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -7048,7 +7135,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="78" t="s">
+      <c r="A68" s="81" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -7056,7 +7143,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="78"/>
+      <c r="A69" s="81"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -7078,7 +7165,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="78" t="s">
+      <c r="A72" s="81" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -7086,7 +7173,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="78"/>
+      <c r="A73" s="81"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -7266,7 +7353,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="78" t="s">
+      <c r="A96" s="81" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7274,13 +7361,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="78"/>
+      <c r="A97" s="81"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="78" t="s">
+      <c r="A98" s="81" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7288,7 +7375,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="78"/>
+      <c r="A99" s="81"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
@@ -7308,7 +7395,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="78" t="s">
+      <c r="A102" s="81" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7316,13 +7403,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="78"/>
+      <c r="A103" s="81"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="78" t="s">
+      <c r="A104" s="81" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7330,13 +7417,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="78"/>
+      <c r="A105" s="81"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="78" t="s">
+      <c r="A106" s="81" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7344,13 +7431,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="78"/>
+      <c r="A107" s="81"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="78" t="s">
+      <c r="A108" s="81" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7358,13 +7445,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="78"/>
+      <c r="A109" s="81"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="78" t="s">
+      <c r="A110" s="81" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7372,13 +7459,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="78"/>
+      <c r="A111" s="81"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="78" t="s">
+      <c r="A112" s="81" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7386,13 +7473,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="78"/>
+      <c r="A113" s="81"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="78" t="s">
+      <c r="A114" s="81" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7400,13 +7487,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="78"/>
+      <c r="A115" s="81"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="78" t="s">
+      <c r="A116" s="81" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7414,7 +7501,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="78"/>
+      <c r="A117" s="81"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7436,7 +7523,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="78" t="s">
+      <c r="A120" s="81" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7444,19 +7531,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="78"/>
+      <c r="A121" s="81"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="78"/>
+      <c r="A122" s="81"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="78" t="s">
+      <c r="A123" s="81" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7464,13 +7551,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="78"/>
+      <c r="A124" s="81"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -7478,26 +7585,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7539,16 +7626,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="77"/>
+      <c r="B5" s="79"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7613,10 +7700,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="77"/>
+      <c r="B9" s="79"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7671,19 +7758,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="77"/>
+      <c r="B9" s="79"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="86" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7691,7 +7778,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="78"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7705,7 +7792,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="81" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7713,7 +7800,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="78"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7751,7 +7838,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="81" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7759,13 +7846,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="78"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="81" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7773,16 +7860,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="78"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="83"/>
+      <c r="B23" s="85"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -7889,7 +7976,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="81" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7897,7 +7984,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="78"/>
+      <c r="A38" s="81"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -7970,16 +8057,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="79"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -7990,7 +8077,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="87" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -7998,7 +8085,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="85"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -8130,20 +8217,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="87"/>
+      <c r="B2" s="89"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="89"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="90" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -8151,13 +8238,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="89"/>
+      <c r="A11" s="91"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="92" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -8165,13 +8252,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="90"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="90"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="699">
   <si>
     <t>Topics</t>
   </si>
@@ -3432,6 +3432,24 @@
   </si>
   <si>
     <t>git branch -a</t>
+  </si>
+  <si>
+    <t>git fetch</t>
+  </si>
+  <si>
+    <t>Download objects and refs from another repository</t>
+  </si>
+  <si>
+    <t>create new branch and switch to it</t>
+  </si>
+  <si>
+    <t>git branch -b [branch-name]</t>
+  </si>
+  <si>
+    <t>merge current branch to another branch</t>
+  </si>
+  <si>
+    <t>from current branch&gt; git merge [target-branch-name]</t>
   </si>
 </sst>
 </file>
@@ -3654,7 +3672,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3825,6 +3843,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3832,12 +3853,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4251,10 +4272,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="80"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4300,10 +4321,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="79"/>
+      <c r="B23" s="80"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4316,10 +4337,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="79" t="s">
         <v>616</v>
       </c>
-      <c r="B27" s="79"/>
+      <c r="B27" s="80"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4385,10 +4406,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="79"/>
+      <c r="B11" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4426,10 +4447,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="71" t="s">
@@ -4480,16 +4501,16 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>666</v>
       </c>
-      <c r="B12" s="79"/>
+      <c r="B12" s="80"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="79"/>
+      <c r="B23" s="80"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="58" t="s">
@@ -4556,7 +4577,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="92" t="s">
         <v>635</v>
       </c>
       <c r="B32" s="59" t="s">
@@ -4564,7 +4585,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="91"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="59" t="s">
         <v>637</v>
       </c>
@@ -4626,10 +4647,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>680</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="75" t="s">
@@ -4677,10 +4698,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4691,10 +4712,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4827,7 +4848,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="85" t="s">
         <v>545</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4835,13 +4856,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="84"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="48" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="84"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="48" t="s">
         <v>548</v>
       </c>
@@ -4867,7 +4888,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="94" t="s">
         <v>553</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4875,25 +4896,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="93"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="93"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="48" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="93"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="48" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="94" t="s">
         <v>558</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4901,19 +4922,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="93"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="48" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="93"/>
+      <c r="A36" s="94"/>
       <c r="B36" s="48" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="94" t="s">
         <v>562</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4921,25 +4942,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="93"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="93"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="48" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="93"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="48" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="94" t="s">
         <v>567</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4947,25 +4968,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="93"/>
+      <c r="A42" s="94"/>
       <c r="B42" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="93"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="48" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="93"/>
+      <c r="A44" s="94"/>
       <c r="B44" s="48" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="93"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="48" t="s">
         <v>572</v>
       </c>
@@ -5180,10 +5201,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -5194,10 +5215,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="81" t="s">
@@ -5254,7 +5275,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="87"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="44" t="s">
         <v>505</v>
       </c>
@@ -5300,7 +5321,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="88" t="s">
         <v>517</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5308,13 +5329,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="87"/>
+      <c r="A21" s="88"/>
       <c r="B21" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="95" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5322,13 +5343,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="94"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="95" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5336,13 +5357,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="94"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="48" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="88" t="s">
         <v>524</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5350,25 +5371,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="87"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="87"/>
+      <c r="A28" s="88"/>
       <c r="B28" s="48" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="87"/>
+      <c r="A29" s="88"/>
       <c r="B29" s="48" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="88" t="s">
         <v>531</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5376,7 +5397,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="87"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="48" t="s">
         <v>530</v>
       </c>
@@ -5427,16 +5448,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5492,10 +5513,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5506,10 +5527,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5573,16 +5594,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5638,10 +5659,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5952,10 +5973,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5974,10 +5995,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="79"/>
+      <c r="B7" s="80"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -5994,10 +6015,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="79"/>
+      <c r="B11" s="80"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -6040,10 +6061,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="79" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="79"/>
+      <c r="B17" s="80"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -6054,10 +6075,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="79" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="79"/>
+      <c r="B20" s="80"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -6068,10 +6089,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="79"/>
+      <c r="B23" s="80"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -6098,10 +6119,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="79"/>
+      <c r="B28" s="80"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -6120,10 +6141,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="79"/>
+      <c r="B32" s="80"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -6142,10 +6163,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="79"/>
+      <c r="B36" s="80"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -6156,10 +6177,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="79"/>
+      <c r="B39" s="80"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -6176,16 +6197,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6233,10 +6254,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6279,7 +6300,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="83" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6287,7 +6308,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="80"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6403,11 +6424,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6425,10 +6446,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="69" customFormat="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2" s="69" customFormat="1">
       <c r="A3" s="1" t="s">
@@ -6445,10 +6466,10 @@
     <row r="8" spans="1:2" s="69" customFormat="1"/>
     <row r="9" spans="1:2" s="69" customFormat="1"/>
     <row r="10" spans="1:2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="80"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="56" t="s">
@@ -6483,7 +6504,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="92" t="s">
         <v>644</v>
       </c>
       <c r="B15" s="61" t="s">
@@ -6491,7 +6512,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" s="74" customFormat="1">
-      <c r="A16" s="91"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="74" t="s">
         <v>679</v>
       </c>
@@ -6521,7 +6542,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="92" t="s">
         <v>650</v>
       </c>
       <c r="B20" s="61" t="s">
@@ -6529,7 +6550,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="91"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="61" t="s">
         <v>652</v>
       </c>
@@ -6607,7 +6628,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="96" t="s">
         <v>688</v>
       </c>
       <c r="B31" s="76" t="s">
@@ -6615,9 +6636,33 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="95"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="76" t="s">
         <v>690</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="65" t="s">
+        <v>693</v>
+      </c>
+      <c r="B33" s="78" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="65" t="s">
+        <v>695</v>
+      </c>
+      <c r="B34" s="78" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="65" t="s">
+        <v>697</v>
+      </c>
+      <c r="B35" s="78" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -6634,6 +6679,7 @@
     <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6661,10 +6707,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6675,10 +6721,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>661</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="67" t="s">
@@ -6697,10 +6743,10 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="80"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6791,7 +6837,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="83" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6799,13 +6845,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="80"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="85" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6813,7 +6859,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="84"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6859,7 +6905,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="84" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6867,7 +6913,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="83"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -7055,7 +7101,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="80" t="s">
+      <c r="A57" s="83" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -7063,19 +7109,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="80"/>
+      <c r="A58" s="83"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="80"/>
+      <c r="A59" s="83"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="80"/>
+      <c r="A60" s="83"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -7089,7 +7135,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="80" t="s">
+      <c r="A62" s="83" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -7097,7 +7143,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="80"/>
+      <c r="A63" s="83"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -7267,7 +7313,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="80" t="s">
+      <c r="A85" s="83" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -7275,7 +7321,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="80"/>
+      <c r="A86" s="83"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7381,7 +7427,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="80" t="s">
+      <c r="A100" s="83" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7389,7 +7435,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="80"/>
+      <c r="A101" s="83"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
@@ -7558,6 +7604,26 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -7565,26 +7631,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7626,16 +7672,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="79"/>
+      <c r="B5" s="80"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7700,10 +7746,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="79"/>
+      <c r="B9" s="80"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7758,19 +7804,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="79"/>
+      <c r="B9" s="80"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="87" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7866,10 +7912,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="85"/>
+      <c r="B23" s="86"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -8057,16 +8103,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="43" t="s">
@@ -8077,7 +8123,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="88" t="s">
         <v>487</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -8085,7 +8131,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="87"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="42" t="s">
         <v>489</v>
       </c>
@@ -8217,20 +8263,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="89"/>
+      <c r="B2" s="90"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="90"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="91" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -8238,13 +8284,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="91"/>
+      <c r="A11" s="92"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="93" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -8252,13 +8298,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="92"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="92"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="705">
   <si>
     <t>Topics</t>
   </si>
@@ -2490,9 +2490,6 @@
     <t>What is YAML?</t>
   </si>
   <si>
-    <t>Data serialization standard made for configuration files</t>
-  </si>
-  <si>
     <t>YAML vs properties</t>
   </si>
   <si>
@@ -2557,9 +2554,6 @@
   </si>
   <si>
     <t>inline map in .yml file</t>
-  </si>
-  <si>
-    <t>map2: {bool: true, date-2016-11-13}</t>
   </si>
   <si>
     <t>list in .yml</t>
@@ -3450,6 +3444,30 @@
   </si>
   <si>
     <t>from current branch&gt; git merge [target-branch-name]</t>
+  </si>
+  <si>
+    <t>Data serialization standard made for configuration files.</t>
+  </si>
+  <si>
+    <t>YAML stands for</t>
+  </si>
+  <si>
+    <t>Yet Another Markup Language</t>
+  </si>
+  <si>
+    <t>map2: {bool: true, date: 2016-11-13}</t>
+  </si>
+  <si>
+    <t>Single line comments</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Sample yaml file</t>
+  </si>
+  <si>
+    <t>CoreJavaPractice -&gt; yaml.practice package -&gt; file1.yml</t>
   </si>
 </sst>
 </file>
@@ -3672,7 +3690,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3846,6 +3864,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3853,12 +3875,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4272,10 +4294,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="81" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="80"/>
+      <c r="B13" s="82"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4321,10 +4343,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="81" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="82"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4337,14 +4359,14 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="79" t="s">
-        <v>616</v>
-      </c>
-      <c r="B27" s="80"/>
+      <c r="A27" s="81" t="s">
+        <v>614</v>
+      </c>
+      <c r="B27" s="82"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -4406,10 +4428,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4447,14 +4469,14 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="71" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>210</v>
@@ -4462,7 +4484,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>210</v>
@@ -4470,7 +4492,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>210</v>
@@ -4478,7 +4500,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>210</v>
@@ -4486,7 +4508,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>210</v>
@@ -4494,100 +4516,100 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="70" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B8" s="68" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="79" t="s">
-        <v>666</v>
-      </c>
-      <c r="B12" s="80"/>
+      <c r="A12" s="81" t="s">
+        <v>664</v>
+      </c>
+      <c r="B12" s="82"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="82"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="58" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" s="58" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="60" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="60" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="60" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="60" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="60" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="60" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B31" s="59" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="94" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="92" t="s">
+      <c r="B32" s="59" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="94"/>
+      <c r="B33" s="59" t="s">
         <v>635</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="92"/>
-      <c r="B33" s="59" t="s">
-        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -4647,17 +4669,17 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
-        <v>680</v>
-      </c>
-      <c r="B2" s="80"/>
+      <c r="A2" s="81" t="s">
+        <v>678</v>
+      </c>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="75" t="s">
         <v>210</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -4698,24 +4720,24 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4734,7 +4756,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="84" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4742,13 +4764,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="81"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="81"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4795,334 +4817,334 @@
     </row>
     <row r="17" spans="1:2" ht="75">
       <c r="A17" s="49" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="49" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="49" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="49" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="49" t="s">
+        <v>538</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="84" t="s">
         <v>540</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B22" s="48" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="81" t="s">
+    <row r="23" spans="1:2" ht="60">
+      <c r="A23" s="84"/>
+      <c r="B23" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B22" s="48" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="87" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="81"/>
-      <c r="B23" s="48" t="s">
+      <c r="B24" s="48" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="85" t="s">
+    <row r="25" spans="1:2" ht="90">
+      <c r="A25" s="87"/>
+      <c r="B25" s="48" t="s">
         <v>545</v>
       </c>
-      <c r="B24" s="48" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="87"/>
+      <c r="B26" s="48" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="85"/>
-      <c r="B25" s="48" t="s">
+    <row r="27" spans="1:2" ht="60">
+      <c r="A27" s="84" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="85"/>
-      <c r="B26" s="48" t="s">
+      <c r="B27" s="48" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="81" t="s">
+    <row r="28" spans="1:2" ht="45">
+      <c r="A28" s="84"/>
+      <c r="B28" s="48" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="84"/>
+      <c r="B29" s="48" t="s">
         <v>549</v>
       </c>
-      <c r="B27" s="48" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="81"/>
-      <c r="B28" s="48" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="60">
+      <c r="A30" s="96" t="s">
+        <v>551</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="180">
+      <c r="A31" s="96"/>
+      <c r="B31" s="48" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="81"/>
-      <c r="B29" s="48" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="94" t="s">
-        <v>553</v>
-      </c>
-      <c r="B30" s="48" t="s">
+    <row r="32" spans="1:2" ht="60">
+      <c r="A32" s="96"/>
+      <c r="B32" s="48" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="96"/>
+      <c r="B33" s="48" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="94"/>
-      <c r="B31" s="48" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="94"/>
-      <c r="B32" s="48" t="s">
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="96" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="94"/>
-      <c r="B33" s="48" t="s">
+      <c r="B34" s="48" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="94" t="s">
+    <row r="35" spans="1:2" ht="105">
+      <c r="A35" s="96"/>
+      <c r="B35" s="48" t="s">
         <v>558</v>
       </c>
-      <c r="B34" s="48" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="96"/>
+      <c r="B36" s="48" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="94"/>
-      <c r="B35" s="48" t="s">
+    <row r="37" spans="1:2" ht="75">
+      <c r="A37" s="96" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="94"/>
-      <c r="B36" s="48" t="s">
+      <c r="B37" s="48" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="94" t="s">
+    <row r="38" spans="1:2" ht="120">
+      <c r="A38" s="96"/>
+      <c r="B38" s="48" t="s">
         <v>562</v>
       </c>
-      <c r="B37" s="48" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="45">
+      <c r="A39" s="96"/>
+      <c r="B39" s="48" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="94"/>
-      <c r="B38" s="48" t="s">
+    <row r="40" spans="1:2" ht="45">
+      <c r="A40" s="96"/>
+      <c r="B40" s="48" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="94"/>
-      <c r="B39" s="48" t="s">
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="96" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="94"/>
-      <c r="B40" s="48" t="s">
+      <c r="B41" s="48" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="94" t="s">
+    <row r="42" spans="1:2" ht="105">
+      <c r="A42" s="96"/>
+      <c r="B42" s="48" t="s">
         <v>567</v>
       </c>
-      <c r="B41" s="48" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="96"/>
+      <c r="B43" s="48" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="94"/>
-      <c r="B42" s="48" t="s">
+    <row r="44" spans="1:2" ht="135">
+      <c r="A44" s="96"/>
+      <c r="B44" s="48" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="94"/>
-      <c r="B43" s="48" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="96"/>
+      <c r="B45" s="48" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="94"/>
-      <c r="B44" s="48" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="94"/>
-      <c r="B45" s="48" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="90">
       <c r="A46" s="49" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105">
       <c r="A47" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45">
+      <c r="A48" s="84" t="s">
+        <v>574</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="84"/>
+      <c r="B49" s="49" t="s">
         <v>575</v>
       </c>
-      <c r="B47" s="49" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="84" t="s">
+        <v>576</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="135">
+      <c r="A51" s="84"/>
+      <c r="B51" s="49" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="84"/>
+      <c r="B52" s="49" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30">
+      <c r="A53" s="84" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="81" t="s">
-        <v>576</v>
-      </c>
-      <c r="B48" s="49" t="s">
+      <c r="B53" s="49" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="81"/>
-      <c r="B49" s="49" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="81" t="s">
-        <v>578</v>
-      </c>
-      <c r="B50" s="49" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="81"/>
-      <c r="B51" s="49" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="81"/>
-      <c r="B52" s="49" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="81" t="s">
-        <v>584</v>
-      </c>
-      <c r="B53" s="49" t="s">
+    <row r="54" spans="1:2" ht="60">
+      <c r="A54" s="84"/>
+      <c r="B54" s="49" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="81"/>
-      <c r="B54" s="49" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="90">
       <c r="A55" s="49" t="s">
+        <v>584</v>
+      </c>
+      <c r="B55" s="49" t="s">
         <v>586</v>
-      </c>
-      <c r="B55" s="49" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
       <c r="A56" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="45">
+      <c r="A57" s="84" t="s">
+        <v>588</v>
+      </c>
+      <c r="B57" s="49" t="s">
         <v>589</v>
       </c>
-      <c r="B56" s="49" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="81" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="84"/>
+      <c r="B58" s="49" t="s">
         <v>590</v>
-      </c>
-      <c r="B57" s="49" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="81"/>
-      <c r="B58" s="49" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="49" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B59" s="49" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="105">
       <c r="A60" s="49" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B60" s="49" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
       <c r="A61" s="49" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B61" s="49" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="60">
       <c r="A62" s="49" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B62" s="49" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
       <c r="A63" s="49" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B63" s="49" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5130,23 +5152,23 @@
         <v>232</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
       <c r="A65" s="49" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="195">
       <c r="A66" s="49" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -5201,27 +5223,27 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="84" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5229,7 +5251,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="81"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5267,139 +5289,139 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="81" t="s">
-        <v>506</v>
+      <c r="A13" s="84" t="s">
+        <v>504</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="88"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="44" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="45" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="45" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="47" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="47" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="75">
+      <c r="A20" s="90" t="s">
         <v>515</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B20" s="48" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="88" t="s">
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" s="90"/>
+      <c r="B21" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="48" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="97" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="48" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="88"/>
-      <c r="B21" s="48" t="s">
+    <row r="23" spans="1:2" ht="150">
+      <c r="A23" s="97"/>
+      <c r="B23" s="48" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="95" t="s">
-        <v>300</v>
-      </c>
-      <c r="B22" s="48" t="s">
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24" s="97" t="s">
+        <v>454</v>
+      </c>
+      <c r="B24" s="48" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="95"/>
-      <c r="B23" s="48" t="s">
+    <row r="25" spans="1:2" ht="150">
+      <c r="A25" s="97"/>
+      <c r="B25" s="48" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="95" t="s">
-        <v>454</v>
-      </c>
-      <c r="B24" s="48" t="s">
+    <row r="26" spans="1:2" ht="60">
+      <c r="A26" s="90" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="95"/>
-      <c r="B25" s="48" t="s">
+      <c r="B26" s="48" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="88" t="s">
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="90"/>
+      <c r="B27" s="48" t="s">
         <v>524</v>
       </c>
-      <c r="B26" s="48" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="90"/>
+      <c r="B28" s="48" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="88"/>
-      <c r="B27" s="48" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="90"/>
+      <c r="B29" s="48" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="88"/>
-      <c r="B28" s="48" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="90" t="s">
+        <v>529</v>
+      </c>
+      <c r="B30" s="48" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="88"/>
-      <c r="B29" s="48" t="s">
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="90"/>
+      <c r="B31" s="48" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="88" t="s">
-        <v>531</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="88"/>
-      <c r="B31" s="48" t="s">
-        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -5448,16 +5470,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5513,47 +5535,47 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="53" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="53" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -5594,16 +5616,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5659,10 +5681,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5973,10 +5995,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -5995,10 +6017,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="82"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -6015,10 +6037,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="82"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -6061,10 +6083,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="81" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="80"/>
+      <c r="B17" s="82"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -6075,10 +6097,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="81" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="80"/>
+      <c r="B20" s="82"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -6089,10 +6111,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="82"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -6119,10 +6141,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="80"/>
+      <c r="B28" s="82"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -6141,10 +6163,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="82"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -6163,10 +6185,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="79" t="s">
+      <c r="A36" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="80"/>
+      <c r="B36" s="82"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -6177,10 +6199,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="80"/>
+      <c r="B39" s="82"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -6197,16 +6219,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6254,10 +6276,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6426,7 +6448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
@@ -6446,17 +6468,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="69" customFormat="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2" s="69" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="69" customFormat="1"/>
@@ -6466,203 +6488,203 @@
     <row r="8" spans="1:2" s="69" customFormat="1"/>
     <row r="9" spans="1:2" s="69" customFormat="1"/>
     <row r="10" spans="1:2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="82"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="56" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="61" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="61" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="61" t="s">
+        <v>640</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="94" t="s">
         <v>642</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B15" s="61" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="92" t="s">
-        <v>644</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>645</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" s="74" customFormat="1">
-      <c r="A16" s="92"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="74" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="62" customFormat="1">
       <c r="A17" s="62" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="61" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="61" t="s">
+        <v>646</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="94" t="s">
         <v>648</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B20" s="61" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="92" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="94"/>
+      <c r="B21" s="61" t="s">
         <v>650</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="92"/>
-      <c r="B21" s="61" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="65" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="65" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="105">
       <c r="A24" s="65" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="65" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B25" s="72" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="90">
       <c r="A26" s="65" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B26" s="73" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="65" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="77" customFormat="1">
       <c r="A28" s="65" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="65" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="65" t="s">
+        <v>684</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="98" t="s">
         <v>686</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B31" s="76" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="96" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="98"/>
+      <c r="B32" s="76" t="s">
         <v>688</v>
-      </c>
-      <c r="B31" s="76" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="96"/>
-      <c r="B32" s="76" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="65" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B33" s="78" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="65" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="65" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B35" s="78" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -6707,46 +6729,46 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="79" t="s">
-        <v>661</v>
-      </c>
-      <c r="B6" s="80"/>
+      <c r="A6" s="81" t="s">
+        <v>659</v>
+      </c>
+      <c r="B6" s="82"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="67" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="67" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="82"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6851,7 +6873,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="87" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6859,7 +6881,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="85"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6905,7 +6927,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="86" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6913,7 +6935,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="84"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -6991,7 +7013,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="85" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6999,7 +7021,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="82"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -7037,7 +7059,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="85" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -7045,19 +7067,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="82"/>
+      <c r="A49" s="85"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="82"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="85" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7065,13 +7087,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="82"/>
+      <c r="A52" s="85"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="82"/>
+      <c r="A53" s="85"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -7169,7 +7191,7 @@
         <v>219</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -7181,7 +7203,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="81" t="s">
+      <c r="A68" s="84" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -7189,7 +7211,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="81"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -7211,7 +7233,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="81" t="s">
+      <c r="A72" s="84" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -7219,7 +7241,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="81"/>
+      <c r="A73" s="84"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -7399,7 +7421,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="81" t="s">
+      <c r="A96" s="84" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7407,13 +7429,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="81"/>
+      <c r="A97" s="84"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="81" t="s">
+      <c r="A98" s="84" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7421,7 +7443,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="81"/>
+      <c r="A99" s="84"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
@@ -7441,7 +7463,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="81" t="s">
+      <c r="A102" s="84" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7449,13 +7471,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="81"/>
+      <c r="A103" s="84"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="81" t="s">
+      <c r="A104" s="84" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7463,13 +7485,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="81"/>
+      <c r="A105" s="84"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="81" t="s">
+      <c r="A106" s="84" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7477,13 +7499,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="81"/>
+      <c r="A107" s="84"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="81" t="s">
+      <c r="A108" s="84" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7491,13 +7513,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="81"/>
+      <c r="A109" s="84"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="81" t="s">
+      <c r="A110" s="84" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7505,13 +7527,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="81"/>
+      <c r="A111" s="84"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="81" t="s">
+      <c r="A112" s="84" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7519,13 +7541,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="81"/>
+      <c r="A113" s="84"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="81" t="s">
+      <c r="A114" s="84" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7533,13 +7555,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="81"/>
+      <c r="A115" s="84"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="81" t="s">
+      <c r="A116" s="84" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7547,7 +7569,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="81"/>
+      <c r="A117" s="84"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7569,7 +7591,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="81" t="s">
+      <c r="A120" s="84" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7577,19 +7599,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="81"/>
+      <c r="A121" s="84"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="81"/>
+      <c r="A122" s="84"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="81" t="s">
+      <c r="A123" s="84" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7597,13 +7619,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="81"/>
+      <c r="A124" s="84"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -7611,26 +7653,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7672,16 +7694,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="82"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7746,10 +7768,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="82"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7804,19 +7826,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="80"/>
+      <c r="B9" s="82"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="89" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7824,7 +7846,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="81"/>
+      <c r="A11" s="84"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7838,7 +7860,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="84" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7846,7 +7868,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="81"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7884,7 +7906,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="84" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7892,13 +7914,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="81"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="84" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7906,16 +7928,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="81"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="86"/>
+      <c r="B23" s="88"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -8022,7 +8044,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="84" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -8030,7 +8052,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="81"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -8081,11 +8103,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8103,100 +8125,124 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="43" t="s">
+      <c r="B6" s="82"/>
+    </row>
+    <row r="7" spans="1:2" s="80" customFormat="1">
+      <c r="A7" s="80" t="s">
+        <v>698</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B8" s="80" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="105">
+      <c r="A9" s="90" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="105">
-      <c r="A8" s="88" t="s">
+      <c r="B9" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="B8" s="42" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="105">
+      <c r="A10" s="90"/>
+      <c r="B10" s="42" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="88"/>
-      <c r="B9" s="42" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="43" t="s">
-        <v>490</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="B11" s="42" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="43" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
-      <c r="A12" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="B12" s="42" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="43" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="43" t="s">
+      <c r="B14" s="79" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45">
+      <c r="A15" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B15" s="42" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="43" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="43" t="s">
         <v>498</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B16" s="42" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="43" t="s">
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="43" t="s">
         <v>500</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B17" s="42" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="60">
-      <c r="A16" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>503</v>
+    <row r="18" spans="1:2">
+      <c r="A18" s="80" t="s">
+        <v>701</v>
+      </c>
+      <c r="B18" s="79" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="80" t="s">
+        <v>703</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="YAML!A2" display="Up"/>
@@ -8263,20 +8309,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="90"/>
+      <c r="B2" s="92"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="90"/>
+      <c r="B9" s="92"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="93" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -8284,13 +8330,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="94"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="95" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -8298,13 +8344,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="93"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="93"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,13 @@
     <sheet name="JSONP" sheetId="20" r:id="rId18"/>
     <sheet name="util.logging" sheetId="21" r:id="rId19"/>
     <sheet name="Log4J" sheetId="22" r:id="rId20"/>
-    <sheet name="github" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="656">
   <si>
     <t>Topics</t>
   </si>
@@ -3187,12 +3186,6 @@
     <t>Github</t>
   </si>
   <si>
-    <t>command to clone a project</t>
-  </si>
-  <si>
-    <t>git clone https://github.com/avinashbabudonthu/Remembral.git</t>
-  </si>
-  <si>
     <t>What is container</t>
   </si>
   <si>
@@ -3250,81 +3243,6 @@
     <t>we will get ip as value of DOCKER_HOST</t>
   </si>
   <si>
-    <t>To check the status of git</t>
-  </si>
-  <si>
-    <t>git status</t>
-  </si>
-  <si>
-    <t>update the code</t>
-  </si>
-  <si>
-    <t>git pull</t>
-  </si>
-  <si>
-    <t>revert all the code changes</t>
-  </si>
-  <si>
-    <t>git reset --hard HEAD</t>
-  </si>
-  <si>
-    <t>making changed files ready to commit (moving them to stage)</t>
-  </si>
-  <si>
-    <t>git add .</t>
-  </si>
-  <si>
-    <t>add all files to stage</t>
-  </si>
-  <si>
-    <t>dot in above command means</t>
-  </si>
-  <si>
-    <t>commit the changes to local repository</t>
-  </si>
-  <si>
-    <t>git commit -m "commit message"</t>
-  </si>
-  <si>
-    <t>push the changes to git repositories</t>
-  </si>
-  <si>
-    <t>git push</t>
-  </si>
-  <si>
-    <t>this will ask for credentials, enter them</t>
-  </si>
-  <si>
-    <t>make file1.txt to stage</t>
-  </si>
-  <si>
-    <t>git add /path/file1.txt</t>
-  </si>
-  <si>
-    <t>push the changes to git repository without entering credentials</t>
-  </si>
-  <si>
-    <t>git push origin --all</t>
-  </si>
-  <si>
-    <t>revert local git commits</t>
-  </si>
-  <si>
-    <t>git reset --hard origin/&lt;master/branch name&gt;</t>
-  </si>
-  <si>
-    <t>Create new repository using git cmd</t>
-  </si>
-  <si>
-    <t>1. Copen github.com -&gt; create new repository -&gt; Now we can see repo url -&gt; copy that
-2. open cmd -&gt; go to project location
-3. git init
-4. git add .
-5. git commit -m "commit message"
-6. git remote add origin &lt;repo url copied in step 1&gt;
-7. git push -u origin master</t>
-  </si>
-  <si>
     <t>Important Links</t>
   </si>
   <si>
@@ -3361,89 +3279,10 @@
     <t>Docker and Containers: The Big Picture [Course]</t>
   </si>
   <si>
-    <t>https://www.atlassian.com/git/tutorials/learn-git-with-bitbucket-cloud</t>
-  </si>
-  <si>
-    <t>Github tutorial from atlasian</t>
-  </si>
-  <si>
-    <t>if file is deleted to check in that file</t>
-  </si>
-  <si>
-    <t>1. git add --all
-2. git commit -m "message"
-3. git push</t>
-  </si>
-  <si>
-    <t>Add gitignore, gitattributes files to existing repository</t>
-  </si>
-  <si>
-    <t>1. create 1.txt and 2.txt in the project repository directory
-2. open cmd -&gt; navigate to above location
-3. run this command -&gt; rename 1.txt .gitignore
-4. run this command -&gt; rename 2.txt .gitattributes
-5. copy the content from exiting .gitignore and .gitattributes files to above renamed files
-6. run this command -&gt; gir rm -r --cache *.class (like this run for the files we want to ignore)</t>
-  </si>
-  <si>
-    <t>git add -A</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
     <t>Analyzing Machine Data with Splunk</t>
-  </si>
-  <si>
-    <t>check the branch</t>
-  </si>
-  <si>
-    <t>git branch</t>
-  </si>
-  <si>
-    <t>check the remote</t>
-  </si>
-  <si>
-    <t>git remote</t>
-  </si>
-  <si>
-    <t>check the commit logs of a branch</t>
-  </si>
-  <si>
-    <t>git log [branch-name]</t>
-  </si>
-  <si>
-    <t>to cherry pick</t>
-  </si>
-  <si>
-    <t>git cherry-pick [commit-number]</t>
-  </si>
-  <si>
-    <t>after running this command, git will take that commit and apply to current branch</t>
-  </si>
-  <si>
-    <t>to see all branches</t>
-  </si>
-  <si>
-    <t>git branch -a</t>
-  </si>
-  <si>
-    <t>git fetch</t>
-  </si>
-  <si>
-    <t>Download objects and refs from another repository</t>
-  </si>
-  <si>
-    <t>create new branch and switch to it</t>
-  </si>
-  <si>
-    <t>git branch -b [branch-name]</t>
-  </si>
-  <si>
-    <t>merge current branch to another branch</t>
-  </si>
-  <si>
-    <t>from current branch&gt; git merge [target-branch-name]</t>
   </si>
   <si>
     <t>Data serialization standard made for configuration files.</t>
@@ -3690,7 +3529,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3821,6 +3660,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3830,40 +3672,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3875,12 +3690,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3914,9 +3729,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4294,10 +4106,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="82"/>
+      <c r="B13" s="68"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4343,10 +4155,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="67" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="82"/>
+      <c r="B23" s="68"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4359,10 +4171,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="67" t="s">
         <v>614</v>
       </c>
-      <c r="B27" s="82"/>
+      <c r="B27" s="68"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4428,10 +4240,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="82"/>
+      <c r="B11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4457,7 +4269,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.5703125" customWidth="1"/>
-    <col min="2" max="2" width="131.7109375" style="57" customWidth="1"/>
+    <col min="2" max="2" width="131.7109375" style="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4469,147 +4281,147 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="71" t="s">
-        <v>670</v>
-      </c>
-      <c r="B3" s="68" t="s">
+      <c r="A3" s="63" t="s">
+        <v>645</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B4" s="68" t="s">
+        <v>644</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="B5" s="68" t="s">
+        <v>643</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="B6" s="68" t="s">
+        <v>642</v>
+      </c>
+      <c r="B6" s="61" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="B7" s="68" t="s">
+        <v>641</v>
+      </c>
+      <c r="B7" s="61" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="70" t="s">
-        <v>665</v>
-      </c>
-      <c r="B8" s="68" t="s">
+      <c r="A8" s="62" t="s">
+        <v>640</v>
+      </c>
+      <c r="B8" s="61" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="81" t="s">
-        <v>664</v>
-      </c>
-      <c r="B12" s="82"/>
+      <c r="A12" s="67" t="s">
+        <v>639</v>
+      </c>
+      <c r="B12" s="68"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="82"/>
+      <c r="B23" s="68"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="57" t="s">
+        <v>615</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="57" t="s">
         <v>617</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B25" s="56" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="58" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="59" t="s">
         <v>619</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B26" s="58" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="60" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="59" t="s">
         <v>621</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B27" s="58" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="60" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="59" t="s">
         <v>623</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B28" s="58" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="59" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="60" t="s">
+      <c r="B29" s="58" t="s">
         <v>625</v>
       </c>
-      <c r="B28" s="59" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="59" t="s">
+        <v>626</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="59" t="s">
+        <v>628</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="80" t="s">
+        <v>631</v>
+      </c>
+      <c r="B32" s="58" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="60" t="s">
-        <v>626</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="60" t="s">
-        <v>628</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="94" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="80"/>
+      <c r="B33" s="58" t="s">
         <v>633</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="94"/>
-      <c r="B33" s="59" t="s">
-        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -4669,17 +4481,17 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
-        <v>678</v>
-      </c>
-      <c r="B2" s="82"/>
+      <c r="A2" s="67" t="s">
+        <v>646</v>
+      </c>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>679</v>
+      <c r="B3" s="62" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -4720,10 +4532,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -4734,10 +4546,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
@@ -4756,7 +4568,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="69" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4764,13 +4576,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="84"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="84"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4856,7 +4668,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="69" t="s">
         <v>540</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4864,13 +4676,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="84"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="48" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="73" t="s">
         <v>543</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -4878,19 +4690,19 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="87"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="48" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="87"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="48" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="69" t="s">
         <v>547</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4898,19 +4710,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="84"/>
+      <c r="A28" s="69"/>
       <c r="B28" s="48" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="84"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="48" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="82" t="s">
         <v>551</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -4918,25 +4730,25 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="96"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="96"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="96"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="48" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="82" t="s">
         <v>556</v>
       </c>
       <c r="B34" s="48" t="s">
@@ -4944,19 +4756,19 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="96"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="48" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="96"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="48" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="82" t="s">
         <v>560</v>
       </c>
       <c r="B37" s="48" t="s">
@@ -4964,25 +4776,25 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="96"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="48" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="96"/>
+      <c r="A39" s="82"/>
       <c r="B39" s="48" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="96"/>
+      <c r="A40" s="82"/>
       <c r="B40" s="48" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="82" t="s">
         <v>565</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -4990,25 +4802,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="96"/>
+      <c r="A42" s="82"/>
       <c r="B42" s="48" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="96"/>
+      <c r="A43" s="82"/>
       <c r="B43" s="48" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="96"/>
+      <c r="A44" s="82"/>
       <c r="B44" s="48" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="96"/>
+      <c r="A45" s="82"/>
       <c r="B45" s="48" t="s">
         <v>570</v>
       </c>
@@ -5030,7 +4842,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="69" t="s">
         <v>574</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -5038,13 +4850,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="84"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="49" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="69" t="s">
         <v>576</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -5052,19 +4864,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="84"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="49" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="84"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="49" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="69" t="s">
         <v>582</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -5072,7 +4884,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="84"/>
+      <c r="A54" s="69"/>
       <c r="B54" s="49" t="s">
         <v>585</v>
       </c>
@@ -5094,7 +4906,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="84" t="s">
+      <c r="A57" s="69" t="s">
         <v>588</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -5102,7 +4914,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="84"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="49" t="s">
         <v>590</v>
       </c>
@@ -5223,10 +5035,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="50" t="s">
@@ -5237,13 +5049,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="69" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5251,7 +5063,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="84"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5289,7 +5101,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="69" t="s">
         <v>504</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -5297,7 +5109,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="90"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="44" t="s">
         <v>503</v>
       </c>
@@ -5343,7 +5155,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="76" t="s">
         <v>515</v>
       </c>
       <c r="B20" s="48" t="s">
@@ -5351,13 +5163,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="90"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="48" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="83" t="s">
         <v>300</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -5365,13 +5177,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="97"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="48" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="83" t="s">
         <v>454</v>
       </c>
       <c r="B24" s="48" t="s">
@@ -5379,13 +5191,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="150">
-      <c r="A25" s="97"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="48" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="76" t="s">
         <v>522</v>
       </c>
       <c r="B26" s="48" t="s">
@@ -5393,25 +5205,25 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
-      <c r="A27" s="90"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="48" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="90"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="48" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="90"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="48" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="76" t="s">
         <v>529</v>
       </c>
       <c r="B30" s="48" t="s">
@@ -5419,7 +5231,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="90"/>
+      <c r="A31" s="76"/>
       <c r="B31" s="48" t="s">
         <v>528</v>
       </c>
@@ -5470,16 +5282,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="22" t="s">
@@ -5535,10 +5347,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="52" t="s">
@@ -5549,10 +5361,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="75">
       <c r="A7" s="53" t="s">
@@ -5616,16 +5428,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="45">
       <c r="A7" s="22" t="s">
@@ -5681,10 +5493,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2" ht="60">
       <c r="A3" s="30" t="s">
@@ -5975,9 +5787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5995,10 +5807,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
@@ -6017,10 +5829,10 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="68"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
@@ -6037,10 +5849,10 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="82"/>
+      <c r="B11" s="68"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
@@ -6083,10 +5895,10 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="B17" s="82"/>
+      <c r="B17" s="68"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
@@ -6097,10 +5909,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="67" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="82"/>
+      <c r="B20" s="68"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
@@ -6111,10 +5923,10 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="B23" s="82"/>
+      <c r="B23" s="68"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="17" t="s">
@@ -6141,10 +5953,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="82"/>
+      <c r="B28" s="68"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
@@ -6163,10 +5975,10 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="82"/>
+      <c r="B32" s="68"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
@@ -6185,10 +5997,10 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="82"/>
+      <c r="B36" s="68"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
@@ -6199,10 +6011,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="82"/>
+      <c r="B39" s="68"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
@@ -6219,16 +6031,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6276,10 +6088,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="30" t="s">
@@ -6322,7 +6134,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="71" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6330,7 +6142,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="83"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6441,267 +6253,6 @@
     <hyperlink ref="A1" location="Topics!A24" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="71" customWidth="1"/>
-    <col min="2" max="2" width="115.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="69" customFormat="1">
-      <c r="A2" s="81" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="82"/>
-    </row>
-    <row r="3" spans="1:2" s="69" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="69" customFormat="1"/>
-    <row r="5" spans="1:2" s="69" customFormat="1"/>
-    <row r="6" spans="1:2" s="69" customFormat="1"/>
-    <row r="7" spans="1:2" s="69" customFormat="1"/>
-    <row r="8" spans="1:2" s="69" customFormat="1"/>
-    <row r="9" spans="1:2" s="69" customFormat="1"/>
-    <row r="10" spans="1:2">
-      <c r="A10" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="82"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="56" t="s">
-        <v>615</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="61" t="s">
-        <v>636</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="61" t="s">
-        <v>638</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="61" t="s">
-        <v>640</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="94" t="s">
-        <v>642</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="74" customFormat="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="74" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="62" customFormat="1">
-      <c r="A17" s="62" t="s">
-        <v>651</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="61" t="s">
-        <v>645</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="61" t="s">
-        <v>646</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="94" t="s">
-        <v>648</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="94"/>
-      <c r="B21" s="61" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="65" t="s">
-        <v>653</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="65" t="s">
-        <v>655</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="105">
-      <c r="A24" s="65" t="s">
-        <v>657</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45">
-      <c r="A25" s="65" t="s">
-        <v>673</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="90">
-      <c r="A26" s="65" t="s">
-        <v>675</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="65" t="s">
-        <v>680</v>
-      </c>
-      <c r="B27" s="76" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="77" customFormat="1">
-      <c r="A28" s="65" t="s">
-        <v>689</v>
-      </c>
-      <c r="B28" s="76" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="65" t="s">
-        <v>682</v>
-      </c>
-      <c r="B29" s="76" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="65" t="s">
-        <v>684</v>
-      </c>
-      <c r="B30" s="76" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="98" t="s">
-        <v>686</v>
-      </c>
-      <c r="B31" s="76" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="98"/>
-      <c r="B32" s="76" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="65" t="s">
-        <v>691</v>
-      </c>
-      <c r="B33" s="78" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="65" t="s">
-        <v>693</v>
-      </c>
-      <c r="B34" s="78" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="65" t="s">
-        <v>695</v>
-      </c>
-      <c r="B35" s="78" t="s">
-        <v>696</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A31:A32"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A28" display="Topics"/>
-    <hyperlink ref="B1" location="github!A2" display="Up"/>
-    <hyperlink ref="A3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6729,10 +6280,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="24" t="s">
@@ -6743,32 +6294,32 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="81" t="s">
-        <v>659</v>
-      </c>
-      <c r="B6" s="82"/>
+      <c r="A6" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="67" t="s">
-        <v>660</v>
+      <c r="A7" s="60" t="s">
+        <v>635</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="67" t="s">
-        <v>662</v>
+      <c r="A8" s="60" t="s">
+        <v>637</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="82"/>
+      <c r="B10" s="68"/>
     </row>
     <row r="11" spans="1:2" ht="45">
       <c r="A11" s="6" t="s">
@@ -6859,7 +6410,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="71" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6867,13 +6418,13 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="83"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="73" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6881,7 +6432,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="87"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
@@ -6927,7 +6478,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="72" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="51" t="s">
@@ -6935,7 +6486,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="120">
-      <c r="A32" s="86"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
@@ -7013,7 +6564,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="70" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -7021,7 +6572,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="85"/>
+      <c r="A43" s="70"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -7059,7 +6610,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="70" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -7067,19 +6618,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="85"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="85"/>
+      <c r="A50" s="70"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="70" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -7087,13 +6638,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="85"/>
+      <c r="A52" s="70"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="85"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -7123,7 +6674,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="71" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -7131,19 +6682,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="83"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="83"/>
+      <c r="A59" s="71"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="83"/>
+      <c r="A60" s="71"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -7157,7 +6708,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="71" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -7165,7 +6716,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="83"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -7203,7 +6754,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="69" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -7211,7 +6762,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="84"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -7233,7 +6784,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="69" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -7241,7 +6792,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="84"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -7335,7 +6886,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="83" t="s">
+      <c r="A85" s="71" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -7343,7 +6894,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="83"/>
+      <c r="A86" s="71"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -7421,7 +6972,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="84" t="s">
+      <c r="A96" s="69" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -7429,13 +6980,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="84"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="84" t="s">
+      <c r="A98" s="69" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -7443,13 +6994,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="84"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="83" t="s">
+      <c r="A100" s="71" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7457,13 +7008,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="83"/>
+      <c r="A101" s="71"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="84" t="s">
+      <c r="A102" s="69" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7471,13 +7022,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="84"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="84" t="s">
+      <c r="A104" s="69" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7485,13 +7036,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="84"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="69" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7499,13 +7050,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="84"/>
+      <c r="A107" s="69"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="84" t="s">
+      <c r="A108" s="69" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7513,13 +7064,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="84"/>
+      <c r="A109" s="69"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="84" t="s">
+      <c r="A110" s="69" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7527,13 +7078,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="84"/>
+      <c r="A111" s="69"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="84" t="s">
+      <c r="A112" s="69" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7541,13 +7092,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="84"/>
+      <c r="A113" s="69"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="84" t="s">
+      <c r="A114" s="69" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7555,13 +7106,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="84"/>
+      <c r="A115" s="69"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="84" t="s">
+      <c r="A116" s="69" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7569,7 +7120,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="84"/>
+      <c r="A117" s="69"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7591,7 +7142,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="84" t="s">
+      <c r="A120" s="69" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7599,19 +7150,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="84"/>
+      <c r="A121" s="69"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="84"/>
+      <c r="A122" s="69"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="84" t="s">
+      <c r="A123" s="69" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7619,13 +7170,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="84"/>
+      <c r="A124" s="69"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A120:A122"/>
     <mergeCell ref="A123:A124"/>
     <mergeCell ref="A108:A109"/>
@@ -7633,26 +7204,6 @@
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7694,16 +7245,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="68"/>
     </row>
     <row r="6" spans="1:2" ht="45">
       <c r="A6" t="s">
@@ -7768,10 +7319,10 @@
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1"/>
     <row r="9" spans="1:2">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="68"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
@@ -7826,19 +7377,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="68"/>
     </row>
     <row r="10" spans="1:2" ht="75">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="75" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="54" t="s">
@@ -7846,7 +7397,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="84"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7860,7 +7411,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="69" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7868,7 +7419,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="84"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7906,7 +7457,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="69" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7914,13 +7465,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="84"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="69" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7928,16 +7479,16 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="84"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="88"/>
+      <c r="B23" s="74"/>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="55" t="s">
@@ -8044,7 +7595,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="69" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -8052,7 +7603,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="84"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -8105,7 +7656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
@@ -8125,35 +7676,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="67" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="82"/>
-    </row>
-    <row r="7" spans="1:2" s="80" customFormat="1">
-      <c r="A7" s="80" t="s">
-        <v>698</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>699</v>
+      <c r="B6" s="68"/>
+    </row>
+    <row r="7" spans="1:2" s="66" customFormat="1">
+      <c r="A7" s="66" t="s">
+        <v>649</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="B8" s="80" t="s">
-        <v>697</v>
+      <c r="B8" s="66" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="105">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="76" t="s">
         <v>486</v>
       </c>
       <c r="B9" s="42" t="s">
@@ -8161,7 +7712,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="105">
-      <c r="A10" s="90"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="42" t="s">
         <v>488</v>
       </c>
@@ -8194,8 +7745,8 @@
       <c r="A14" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="B14" s="79" t="s">
-        <v>700</v>
+      <c r="B14" s="65" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45">
@@ -8223,19 +7774,19 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="80" t="s">
-        <v>701</v>
-      </c>
-      <c r="B18" s="79" t="s">
-        <v>702</v>
+      <c r="A18" s="66" t="s">
+        <v>652</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="80" t="s">
-        <v>703</v>
-      </c>
-      <c r="B19" s="79" t="s">
-        <v>704</v>
+      <c r="A19" s="66" t="s">
+        <v>654</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -8309,20 +7860,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="92"/>
+      <c r="B2" s="78"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="92"/>
+      <c r="B9" s="78"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="79" t="s">
         <v>185</v>
       </c>
       <c r="B10" t="s">
@@ -8330,13 +7881,13 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="94"/>
+      <c r="A11" s="80"/>
       <c r="B11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="81" t="s">
         <v>182</v>
       </c>
       <c r="B12" t="s">
@@ -8344,13 +7895,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="95"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60">
-      <c r="A14" s="95"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="14" t="s">
         <v>179</v>
       </c>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3690,12 +3690,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4568,7 +4568,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="70" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4576,13 +4576,13 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="69"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
@@ -4668,7 +4668,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="70" t="s">
         <v>540</v>
       </c>
       <c r="B22" s="48" t="s">
@@ -4676,7 +4676,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="69"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="48" t="s">
         <v>542</v>
       </c>
@@ -4702,7 +4702,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="70" t="s">
         <v>547</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -4710,13 +4710,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="69"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="48" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="69"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="48" t="s">
         <v>549</v>
       </c>
@@ -4842,7 +4842,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="70" t="s">
         <v>574</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -4850,13 +4850,13 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="69"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="49" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="70" t="s">
         <v>576</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -4864,19 +4864,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="69"/>
+      <c r="A51" s="70"/>
       <c r="B51" s="49" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="69"/>
+      <c r="A52" s="70"/>
       <c r="B52" s="49" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="70" t="s">
         <v>582</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4884,7 +4884,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="69"/>
+      <c r="A54" s="70"/>
       <c r="B54" s="49" t="s">
         <v>585</v>
       </c>
@@ -4906,7 +4906,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="70" t="s">
         <v>588</v>
       </c>
       <c r="B57" s="49" t="s">
@@ -4914,7 +4914,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="69"/>
+      <c r="A58" s="70"/>
       <c r="B58" s="49" t="s">
         <v>590</v>
       </c>
@@ -5055,7 +5055,7 @@
       <c r="B6" s="68"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5063,7 +5063,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="69"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5101,7 +5101,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="70" t="s">
         <v>504</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -5787,7 +5787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -6031,16 +6031,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Materials!A2" display="Up"/>
@@ -6134,7 +6134,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="94.5">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="69" t="s">
         <v>409</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -6142,7 +6142,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="126">
-      <c r="A9" s="71"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="35" t="s">
         <v>411</v>
       </c>
@@ -6410,7 +6410,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="69" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6418,7 +6418,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="71"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
@@ -6564,7 +6564,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="75">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="71" t="s">
         <v>64</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6572,7 +6572,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="70"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
@@ -6610,7 +6610,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="71" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6618,19 +6618,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
-      <c r="A49" s="70"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="70"/>
+      <c r="A50" s="71"/>
       <c r="B50" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="45">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="71" t="s">
         <v>78</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6638,13 +6638,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="60">
-      <c r="A52" s="70"/>
+      <c r="A52" s="71"/>
       <c r="B52" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45">
-      <c r="A53" s="70"/>
+      <c r="A53" s="71"/>
       <c r="B53" s="6" t="s">
         <v>81</v>
       </c>
@@ -6674,7 +6674,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="60">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="69" t="s">
         <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6682,19 +6682,19 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="71"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="60">
-      <c r="A59" s="71"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
-      <c r="A60" s="71"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="6" t="s">
         <v>91</v>
       </c>
@@ -6708,7 +6708,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="69" t="s">
         <v>94</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6716,7 +6716,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="71"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="6" t="s">
         <v>102</v>
       </c>
@@ -6754,7 +6754,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="70" t="s">
         <v>251</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -6762,7 +6762,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="69"/>
+      <c r="A69" s="70"/>
       <c r="B69" s="22" t="s">
         <v>249</v>
       </c>
@@ -6784,7 +6784,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="69" t="s">
+      <c r="A72" s="70" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="22" t="s">
@@ -6792,7 +6792,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="69"/>
+      <c r="A73" s="70"/>
       <c r="B73" s="22" t="s">
         <v>244</v>
       </c>
@@ -6886,7 +6886,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="71" t="s">
+      <c r="A85" s="69" t="s">
         <v>288</v>
       </c>
       <c r="B85" s="25" t="s">
@@ -6894,7 +6894,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="90">
-      <c r="A86" s="71"/>
+      <c r="A86" s="69"/>
       <c r="B86" s="25" t="s">
         <v>290</v>
       </c>
@@ -6972,7 +6972,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="69" t="s">
+      <c r="A96" s="70" t="s">
         <v>305</v>
       </c>
       <c r="B96" s="28" t="s">
@@ -6980,13 +6980,13 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="69"/>
+      <c r="A97" s="70"/>
       <c r="B97" s="28" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="69" t="s">
+      <c r="A98" s="70" t="s">
         <v>313</v>
       </c>
       <c r="B98" s="28" t="s">
@@ -6994,13 +6994,13 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="69"/>
+      <c r="A99" s="70"/>
       <c r="B99" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="30">
-      <c r="A100" s="71" t="s">
+      <c r="A100" s="69" t="s">
         <v>316</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -7008,13 +7008,13 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="71"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="28" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60">
-      <c r="A102" s="69" t="s">
+      <c r="A102" s="70" t="s">
         <v>319</v>
       </c>
       <c r="B102" s="28" t="s">
@@ -7022,13 +7022,13 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="69"/>
+      <c r="A103" s="70"/>
       <c r="B103" s="28" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90">
-      <c r="A104" s="69" t="s">
+      <c r="A104" s="70" t="s">
         <v>322</v>
       </c>
       <c r="B104" s="28" t="s">
@@ -7036,13 +7036,13 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="69"/>
+      <c r="A105" s="70"/>
       <c r="B105" s="28" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="30">
-      <c r="A106" s="69" t="s">
+      <c r="A106" s="70" t="s">
         <v>325</v>
       </c>
       <c r="B106" s="29" t="s">
@@ -7050,13 +7050,13 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="69"/>
+      <c r="A107" s="70"/>
       <c r="B107" s="29" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45">
-      <c r="A108" s="69" t="s">
+      <c r="A108" s="70" t="s">
         <v>454</v>
       </c>
       <c r="B108" s="40" t="s">
@@ -7064,13 +7064,13 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="75">
-      <c r="A109" s="69"/>
+      <c r="A109" s="70"/>
       <c r="B109" s="40" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="45">
-      <c r="A110" s="69" t="s">
+      <c r="A110" s="70" t="s">
         <v>457</v>
       </c>
       <c r="B110" s="40" t="s">
@@ -7078,13 +7078,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="75">
-      <c r="A111" s="69"/>
+      <c r="A111" s="70"/>
       <c r="B111" s="40" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="69" t="s">
+      <c r="A112" s="70" t="s">
         <v>460</v>
       </c>
       <c r="B112" s="40" t="s">
@@ -7092,13 +7092,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="60">
-      <c r="A113" s="69"/>
+      <c r="A113" s="70"/>
       <c r="B113" s="40" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="69" t="s">
+      <c r="A114" s="70" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="40" t="s">
@@ -7106,13 +7106,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="75">
-      <c r="A115" s="69"/>
+      <c r="A115" s="70"/>
       <c r="B115" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="60">
-      <c r="A116" s="69" t="s">
+      <c r="A116" s="70" t="s">
         <v>466</v>
       </c>
       <c r="B116" s="40" t="s">
@@ -7120,7 +7120,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="69"/>
+      <c r="A117" s="70"/>
       <c r="B117" s="40" t="s">
         <v>468</v>
       </c>
@@ -7142,7 +7142,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="60">
-      <c r="A120" s="69" t="s">
+      <c r="A120" s="70" t="s">
         <v>473</v>
       </c>
       <c r="B120" s="40" t="s">
@@ -7150,19 +7150,19 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="60">
-      <c r="A121" s="69"/>
+      <c r="A121" s="70"/>
       <c r="B121" s="40" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="69"/>
+      <c r="A122" s="70"/>
       <c r="B122" s="40" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75">
-      <c r="A123" s="69" t="s">
+      <c r="A123" s="70" t="s">
         <v>477</v>
       </c>
       <c r="B123" s="40" t="s">
@@ -7170,13 +7170,33 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="135">
-      <c r="A124" s="69"/>
+      <c r="A124" s="70"/>
       <c r="B124" s="40" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
@@ -7184,26 +7204,6 @@
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="JSON!A2" display="Up"/>
@@ -7397,7 +7397,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -7411,7 +7411,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="70" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="54" t="s">
@@ -7419,7 +7419,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="69"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="54" t="s">
         <v>119</v>
       </c>
@@ -7457,7 +7457,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="70" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="54" t="s">
@@ -7465,13 +7465,13 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="69"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="70" t="s">
         <v>131</v>
       </c>
       <c r="B21" s="54" t="s">
@@ -7479,7 +7479,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="69"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="54" t="s">
         <v>133</v>
       </c>
@@ -7595,7 +7595,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="70" t="s">
         <v>161</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -7603,7 +7603,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
-      <c r="A38" s="69"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="54" t="s">
         <v>163</v>
       </c>
@@ -7656,8 +7656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/Definitions/b_Definitions_Tools.xlsx
+++ b/Definitions/b_Definitions_Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="663">
   <si>
     <t>Topics</t>
   </si>
@@ -3307,6 +3307,33 @@
   </si>
   <si>
     <t>CoreJavaPractice -&gt; yaml.practice package -&gt; file1.yml</t>
+  </si>
+  <si>
+    <t>What is Swagger</t>
+  </si>
+  <si>
+    <t>Swagger(Swagger 2) is a specification for describing and documenting a REST API. It specifies the format of the REST web services including URL, Resources, methods, etc. Swagger will generate documentation from the application code and handle the rendering part as well</t>
+  </si>
+  <si>
+    <t>Spring Boot + Swagger</t>
+  </si>
+  <si>
+    <t>we have to use Springfox implementation to generate the swagger documentation. If you want to know how to run/build Spring Boot project, please refer my previous post.
+Springfox provides two dependencies to generate API Doc and Swagger UI. If you are not expecting to integrate Swagger UI into your API level, no need to add  Swagger UI dependency</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;
+&lt;groupId&gt;io.springfox&lt;/groupId&gt; &lt;artifactId&gt;springfox-swagger2&lt;/artifactId&gt; &lt;version&gt;2.7.0&lt;/version&gt;
+&lt;/dependency&gt;
+&lt;dependency&gt;
+&lt;groupId&gt;io.springfox&lt;/groupId&gt; &lt;artifactId&gt;springfox-swagger-ui&lt;/artifactId&gt; &lt;version&gt;2.7.0&lt;/version&gt;
+&lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>Enabling Swagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ EnableSwagger2 annotation enables Springfox Swagger support in the class.  To document the service, Springfox uses a Docket. The Docket helps to configure a subset of the services to be documented and group them by a name, etc. The most hidden concept is that the Springfox works by examining an application at runtime using API semantics based on spring configurations. In other words, you have to create a Spring Java Configuration class which uses spring’s @Configurati</t>
   </si>
 </sst>
 </file>
@@ -3529,7 +3556,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3604,9 +3631,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -3683,6 +3707,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3730,6 +3758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4029,7 +4058,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4043,7 +4072,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>227</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -4106,10 +4135,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="69"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
@@ -4147,18 +4176,18 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="36" t="s">
         <v>440</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="68"/>
+      <c r="B23" s="69"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
@@ -4171,10 +4200,10 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="68" t="s">
         <v>614</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="69"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -4240,10 +4269,10 @@
     </row>
     <row r="3" spans="1:2" s="17" customFormat="1"/>
     <row r="11" spans="1:2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4269,7 +4298,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53.5703125" customWidth="1"/>
-    <col min="2" max="2" width="131.7109375" style="56" customWidth="1"/>
+    <col min="2" max="2" width="131.7109375" style="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4281,16 +4310,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>645</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4298,7 +4327,7 @@
       <c r="A4" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4306,7 +4335,7 @@
       <c r="A5" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4314,7 +4343,7 @@
       <c r="A6" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4322,105 +4351,105 @@
       <c r="A7" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="61" t="s">
         <v>640</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="60" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="68" t="s">
         <v>639</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="69"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="68"/>
+      <c r="B23" s="69"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="56" t="s">
         <v>615</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="55" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="56" t="s">
         <v>617</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="55" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>619</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="57" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="58" t="s">
         <v>621</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="57" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="58" t="s">
         <v>623</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="58" t="s">
         <v>624</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="57" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="58" t="s">
         <v>626</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="57" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="58" t="s">
         <v>628</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="57" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="81" t="s">
         <v>631</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="57" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="80"/>
-      <c r="B33" s="58" t="s">
+      <c r="A33" s="81"/>
+      <c r="B33" s="57" t="s">
         <v>633</v>
       </c>
     </row>
@@ -4481,16 +4510,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>646</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>647</v>
       </c>
     </row>
@@ -4519,7 +4548,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" style="48" customWidth="1"/>
     <col min="2" max="2" width="130.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4532,13 +4561,13 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4546,13 +4575,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="69"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>269</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -4560,7 +4589,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>267</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -4568,7 +4597,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="71" t="s">
         <v>265</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -4576,19 +4605,19 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="22" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="48" t="s">
         <v>258</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -4596,7 +4625,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>263</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -4604,7 +4633,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="48" t="s">
         <v>261</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -4612,7 +4641,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>259</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -4620,7 +4649,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>257</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -4628,358 +4657,358 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="75">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>531</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="48" t="s">
         <v>536</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="48" t="s">
         <v>538</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="71" t="s">
         <v>540</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60">
-      <c r="A23" s="70"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="71"/>
+      <c r="B23" s="47" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="74" t="s">
         <v>543</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="90">
-      <c r="A25" s="73"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="47" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="73"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="74"/>
+      <c r="B26" s="47" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="71" t="s">
         <v>547</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
-      <c r="A28" s="70"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="71"/>
+      <c r="B28" s="47" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="70"/>
-      <c r="B29" s="48" t="s">
+      <c r="A29" s="71"/>
+      <c r="B29" s="47" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="60">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="83" t="s">
         <v>551</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="180">
-      <c r="A31" s="82"/>
-      <c r="B31" s="48" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="47" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
-      <c r="A32" s="82"/>
-      <c r="B32" s="48" t="s">
+      <c r="A32" s="83"/>
+      <c r="B32" s="47" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="82"/>
-      <c r="B33" s="48" t="s">
+      <c r="A33" s="83"/>
+      <c r="B33" s="47" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="83" t="s">
         <v>556</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="47" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="105">
-      <c r="A35" s="82"/>
-      <c r="B35" s="48" t="s">
+      <c r="A35" s="83"/>
+      <c r="B35" s="47" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="82"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="83"/>
+      <c r="B36" s="47" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="83" t="s">
         <v>560</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="47" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="120">
-      <c r="A38" s="82"/>
-      <c r="B38" s="48" t="s">
+      <c r="A38" s="83"/>
+      <c r="B38" s="47" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="82"/>
-      <c r="B39" s="48" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="47" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="45">
-      <c r="A40" s="82"/>
-      <c r="B40" s="48" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="47" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="83" t="s">
         <v>565</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="105">
-      <c r="A42" s="82"/>
-      <c r="B42" s="48" t="s">
+      <c r="A42" s="83"/>
+      <c r="B42" s="47" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
-      <c r="A43" s="82"/>
-      <c r="B43" s="48" t="s">
+      <c r="A43" s="83"/>
+      <c r="B43" s="47" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135">
-      <c r="A44" s="82"/>
-      <c r="B44" s="48" t="s">
+      <c r="A44" s="83"/>
+      <c r="B44" s="47" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="82"/>
-      <c r="B45" s="48" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="47" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="90">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="48" t="s">
         <v>571</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="48" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="48" t="s">
         <v>573</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="48" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="71" t="s">
         <v>574</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="48" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="70"/>
-      <c r="B49" s="49" t="s">
+      <c r="A49" s="71"/>
+      <c r="B49" s="48" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="48" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="135">
-      <c r="A51" s="70"/>
-      <c r="B51" s="49" t="s">
+      <c r="A51" s="71"/>
+      <c r="B51" s="48" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="70"/>
-      <c r="B52" s="49" t="s">
+      <c r="A52" s="71"/>
+      <c r="B52" s="48" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="71" t="s">
         <v>582</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="48" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="60">
-      <c r="A54" s="70"/>
-      <c r="B54" s="49" t="s">
+      <c r="A54" s="71"/>
+      <c r="B54" s="48" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="90">
-      <c r="A55" s="49" t="s">
+      <c r="A55" s="48" t="s">
         <v>584</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="48" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="48" t="s">
         <v>587</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="48" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="71" t="s">
         <v>588</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="48" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="70"/>
-      <c r="B58" s="49" t="s">
+      <c r="A58" s="71"/>
+      <c r="B58" s="48" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="48" t="s">
         <v>592</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="48" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="105">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="48" t="s">
         <v>594</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="48" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="240">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="48" t="s">
         <v>599</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="48" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="60">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="48" t="s">
         <v>597</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="48" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="45">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="48" t="s">
         <v>601</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="48" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="49" t="s">
+      <c r="A64" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="48" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="45">
-      <c r="A65" s="49" t="s">
+      <c r="A65" s="48" t="s">
         <v>603</v>
       </c>
-      <c r="B65" s="49" t="s">
+      <c r="B65" s="48" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="195">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="48" t="s">
         <v>605</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="48" t="s">
         <v>606</v>
       </c>
     </row>
@@ -5035,13 +5064,13 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5049,13 +5078,13 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="69"/>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -5063,7 +5092,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="22" t="s">
         <v>274</v>
       </c>
@@ -5085,154 +5114,154 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="75">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>481</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="71" t="s">
         <v>504</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="76"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="77"/>
+      <c r="B14" s="43" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="45" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="77" t="s">
         <v>515</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="76"/>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="77"/>
+      <c r="B21" s="47" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="84" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="47" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="150">
-      <c r="A23" s="83"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="84"/>
+      <c r="B23" s="47" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="84" t="s">
         <v>454</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>520</v>
       </c>
     </